--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,29 +472,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>27-01-2025 23:30</t>
+          <t>28-01-2025 19:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SUDAMERICANO U20</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Uruguay U20 - Paraguay U20</t>
+          <t>Swindon Town - Tranmere</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>86.7</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="3">
@@ -510,103 +510,131 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Swindon Town - Tranmere</t>
+          <t>Alfreton Town - Leamington</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>28-01-2025 19:45</t>
+          <t>28-01-2025 08:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>LIGA 2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Alfreton Town - Leamington</t>
+          <t>Persikas - Persipa Pati</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F4" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>28-01-2025 08:00</t>
+          <t>28-01-2025 23:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LIGA 2</t>
+          <t>SUDAMERICANO U20</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Persikas - Persipa Pati</t>
+          <t>Colombia U20 - Ecuador U20</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>73.3</v>
       </c>
       <c r="F5" t="n">
-        <v>3.9</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>28-01-2025 23:30</t>
+          <t>29-01-2025 22:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SUDAMERICANO U20</t>
+          <t>GAÚCHO - 1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Colombia U20 - Ecuador U20</t>
+          <t>Ypiranga-RS - São Luiz</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>73.3</v>
+        <v>86.7</v>
       </c>
       <c r="F6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>29-01-2025 19:45</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE CUP</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Braintree - Tottenham Hotspur U21</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>70</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.25</v>
       </c>
     </row>
   </sheetData>
@@ -727,7 +755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -821,6 +849,34 @@
       </c>
       <c r="F3" t="n">
         <v>3.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>29-01-2025 22:30</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PAULISTA - A1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Noroeste - Inter De Limeira</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -834,7 +890,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,6 +956,174 @@
       </c>
       <c r="F2" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>29-01-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>UEFA CHAMPIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Aston Villa - Celtic</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>80</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>29-01-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>UEFA CHAMPIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Bayern München - Slovan Bratislava</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>29-01-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>UEFA CHAMPIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Inter - Monaco</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>29-01-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>UEFA CHAMPIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Lille - Feyenoord</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>76</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>29-01-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>UEFA CHAMPIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Manchester City - Club Brugge KV</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>29-01-2025 21:30</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PAULISTA - A1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>São Bernardo - Santos</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.05</v>
       </c>
     </row>
   </sheetData>
@@ -913,7 +1137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1034,35 +1258,35 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>28-01-2025 19:00</t>
+          <t>28-01-2025 19:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EREDIVISIE</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Heracles - Groningen</t>
+          <t>Hamilton Academical - Raith Rovers</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F4" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="G4" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="5">
@@ -1073,30 +1297,30 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hamilton Academical - Raith Rovers</t>
+          <t>Radcliffe - Chester</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="G5" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="6">
@@ -1117,54 +1341,54 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Radcliffe - Chester</t>
+          <t>Rushall Olympic - King's Lynn Town</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F6" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="G6" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>28-01-2025 19:45</t>
+          <t>28-01-2025 15:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>U23 LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Rushall Olympic - King's Lynn Town</t>
+          <t>Puebla U23 - Mazatlan FC U23</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F7" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1175,64 +1399,98 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>U23 LEAGUE</t>
+          <t>LIGA REVELAÇÃO U23</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Puebla U23 - Mazatlan FC U23</t>
+          <t>Gil Vicente U23 - Vizela U23</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>75</v>
+        <v>82.5</v>
       </c>
       <c r="F8" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="G8" t="n">
-        <v>75</v>
+        <v>62.5</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>28-01-2025 15:00</t>
+          <t>29-01-2025 20:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LIGA REVELAÇÃO U23</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Gil Vicente U23 - Vizela U23</t>
+          <t>Inter - Monaco</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>82.5</v>
+        <v>70</v>
       </c>
       <c r="F9" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="G9" t="n">
-        <v>62.5</v>
+        <v>65</v>
       </c>
       <c r="H9" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>29-01-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>UEFA CHAMPIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart - Paris Saint Germain</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>80</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.2</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,91 +472,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>28-01-2025 19:45</t>
+          <t>28-01-2025 23:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>SUDAMERICANO U20</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Swindon Town - Tranmere</t>
+          <t>Colombia U20 - Ecuador U20</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>28-01-2025 19:45</t>
+          <t>29-01-2025 22:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>GAÚCHO - 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Alfreton Town - Leamington</t>
+          <t>Ypiranga-RS - São Luiz</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>86.7</v>
       </c>
       <c r="F3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>28-01-2025 08:00</t>
+          <t>29-01-2025 19:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LIGA 2</t>
+          <t>NATIONAL LEAGUE CUP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Persikas - Persipa Pati</t>
+          <t>Braintree - Tottenham Hotspur U21</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>3.9</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>28-01-2025 23:30</t>
+          <t>29-01-2025 15:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -566,75 +566,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SUDAMERICANO U20</t>
+          <t>FRIENDLIES CLUBS</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Colombia U20 - Ecuador U20</t>
+          <t>St Patrick's Athl. - Vancouver Whitecaps</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>29-01-2025 22:00</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>BRAZIL</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>GAÚCHO - 1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Ypiranga-RS - São Luiz</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>29-01-2025 19:45</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE CUP</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Braintree - Tottenham Hotspur U21</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>70</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
     </row>
   </sheetData>
@@ -798,63 +742,63 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>28-01-2025 20:00</t>
+          <t>29-01-2025 22:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>PAULISTA - A1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Huddersfield - Birmingham</t>
+          <t>Noroeste - Inter De Limeira</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>28-01-2025 15:00</t>
+          <t>29-01-2025 22:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>U23 LEAGUE</t>
+          <t>PAULISTA - A2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Necaxa U23 - Cruz Azul U23</t>
+          <t>Grêmio Prudente - Primavera SP</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>29-01-2025 22:30</t>
+          <t>29-01-2025 23:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -864,19 +808,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PAULISTA - A1</t>
+          <t>PERNAMBUCANO - 1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Noroeste - Inter De Limeira</t>
+          <t>Sport Recife - Jaguaré</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>
@@ -890,7 +834,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -933,29 +877,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>28-01-2025 19:45</t>
+          <t>29-01-2025 20:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Rotherham - Cambridge United</t>
+          <t>Aston Villa - Celtic</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="3">
@@ -976,14 +920,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Aston Villa - Celtic</t>
+          <t>Bayern München - Slovan Bratislava</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1004,14 +948,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Bayern München - Slovan Bratislava</t>
+          <t>Inter - Monaco</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>76.7</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="5">
@@ -1032,11 +976,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Inter - Monaco</t>
+          <t>Lille - Feyenoord</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>76.7</v>
+        <v>76</v>
       </c>
       <c r="F5" t="n">
         <v>1.7</v>
@@ -1060,48 +1004,48 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Lille - Feyenoord</t>
+          <t>Manchester City - Club Brugge KV</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>76</v>
+        <v>83.3</v>
       </c>
       <c r="F6" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>29-01-2025 20:00</t>
+          <t>29-01-2025 21:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>PAULISTA - A1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Manchester City - Club Brugge KV</t>
+          <t>São Bernardo - Santos</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>83.3</v>
+        <v>76.7</v>
       </c>
       <c r="F7" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>29-01-2025 21:30</t>
+          <t>29-01-2025 23:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1111,19 +1055,103 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PAULISTA - A1</t>
+          <t>PERNAMBUCANO - 1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>São Bernardo - Santos</t>
+          <t>Afogados - Central SC</t>
         </is>
       </c>
       <c r="E8" t="n">
+        <v>80</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>29-01-2025 23:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PERNAMBUCANO - 1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Sport Recife - Jaguaré</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>80</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>29-01-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>LIGA REVELAÇÃO U23</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Farense U23 - Portimonense U23</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>76.7</v>
       </c>
-      <c r="F8" t="n">
-        <v>2.05</v>
+      <c r="F10" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>26-01-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Real Sociedad III - Tudelano</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.85</v>
       </c>
     </row>
   </sheetData>
@@ -1137,7 +1165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1190,307 +1218,205 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>28-01-2025 19:45</t>
+          <t>29-01-2025 20:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Bolton - Northampton</t>
+          <t>Inter - Monaco</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="H2" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>28-01-2025 19:45</t>
+          <t>29-01-2025 20:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Exeter City - Leyton Orient</t>
+          <t>VfB Stuttgart - Paris Saint Germain</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>65</v>
+        <v>53.3</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>28-01-2025 19:45</t>
+          <t>29-01-2025 15:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>U23 LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Hamilton Academical - Raith Rovers</t>
+          <t>Atlas U23 - Monterrey U23</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="G4" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>28-01-2025 19:45</t>
+          <t>29-01-2025 15:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>U23 LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Radcliffe - Chester</t>
+          <t>Queretaro U23 - Pachuca U23</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F5" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="G5" t="n">
         <v>60</v>
       </c>
       <c r="H5" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>28-01-2025 19:45</t>
+          <t>29-01-2025 17:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>LIGA REVELAÇÃO U23</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Rushall Olympic - King's Lynn Town</t>
+          <t>Benfica U23 - Estrela U23</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F6" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>28-01-2025 15:00</t>
+          <t>29-01-2025 10:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>U23 LEAGUE</t>
+          <t>FRIENDLIES CLUBS</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Puebla U23 - Mazatlan FC U23</t>
+          <t>Hrvace - Radnik Bijeljina</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>75</v>
+        <v>73.3</v>
       </c>
       <c r="F7" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="G7" t="n">
-        <v>75</v>
+        <v>66.7</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>28-01-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>LIGA REVELAÇÃO U23</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Gil Vicente U23 - Vizela U23</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>82.5</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="G8" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>29-01-2025 20:00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Inter - Monaco</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>70</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="G9" t="n">
-        <v>65</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.62</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>29-01-2025 20:00</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VfB Stuttgart - Paris Saint Germain</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>80</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,57 +472,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>28-01-2025 23:30</t>
+          <t>29-01-2025 22:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SUDAMERICANO U20</t>
+          <t>GAÚCHO - 1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Colombia U20 - Ecuador U20</t>
+          <t>Ypiranga-RS - São Luiz</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>73.3</v>
+        <v>86.7</v>
       </c>
       <c r="F2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>29-01-2025 22:00</t>
+          <t>29-01-2025 21:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>EL-SALVADOR</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GAÚCHO - 1</t>
+          <t>PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ypiranga-RS - São Luiz</t>
+          <t>Cacahuatique - Fuerte San Francisco</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>86.7</v>
+        <v>73.3</v>
       </c>
       <c r="F3" t="n">
-        <v>2.25</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="4">
@@ -579,6 +579,202 @@
       </c>
       <c r="F5" t="n">
         <v>3.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>30-01-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>UEFA EUROPA LEAGUE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Dynamo Kyiv - Rīgas FS</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>30-01-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>UEFA EUROPA LEAGUE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Maccabi Tel Aviv - FC Porto</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>70</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>30-01-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>UEFA EUROPA LEAGUE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Rangers - Union St. Gilloise</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>30-01-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>UEFA EUROPA LEAGUE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>AS Roma - Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>80</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>30-01-2025 23:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>GAÚCHO - 1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Pelotas - Avenida</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>30-01-2025 00:30</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>GAÚCHO - 1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Caxias - Brasil DE Pelotas</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>30-01-2025 08:30</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>INDONESIA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>LIGA 2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Persikota Tangerang - Sriwijaya FC</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>80</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.91</v>
       </c>
     </row>
   </sheetData>
@@ -834,7 +1030,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1129,29 +1325,85 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>26-01-2025 11:00</t>
+          <t>30-01-2025 20:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Real Sociedad III - Tudelano</t>
+          <t>FCSB - Manchester United</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>83.3</v>
+        <v>76</v>
       </c>
       <c r="F11" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>30-01-2025 21:30</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CARIOCA - 1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Boavista SC - Madureira</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>30-01-2025 01:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>LIGA MX</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Club Queretaro - Pachuca</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>
@@ -1165,7 +1417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1419,6 +1671,74 @@
         <v>2.25</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>30-01-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>UEFA EUROPA LEAGUE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>AS Roma - Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>80</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G8" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>30-01-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>UEFA EUROPA LEAGUE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SC Braga - Lazio</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G9" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -472,91 +472,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>29-01-2025 22:00</t>
+          <t>30-01-2025 20:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GAÚCHO - 1</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Ypiranga-RS - São Luiz</t>
+          <t>Dynamo Kyiv - Rīgas FS</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>86.7</v>
+        <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>29-01-2025 21:00</t>
+          <t>30-01-2025 20:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EL-SALVADOR</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISION</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Cacahuatique - Fuerte San Francisco</t>
+          <t>Maccabi Tel Aviv - FC Porto</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>1.77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>29-01-2025 19:45</t>
+          <t>30-01-2025 20:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE CUP</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Braintree - Tottenham Hotspur U21</t>
+          <t>Rangers - Union St. Gilloise</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F4" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>29-01-2025 15:00</t>
+          <t>30-01-2025 20:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -566,215 +566,215 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>FRIENDLIES CLUBS</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>St Patrick's Athl. - Vancouver Whitecaps</t>
+          <t>AS Roma - Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>3.6</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30-01-2025 20:00</t>
+          <t>30-01-2025 23:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>GAÚCHO - 1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Dynamo Kyiv - Rīgas FS</t>
+          <t>Pelotas - Avenida</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>73.3</v>
       </c>
       <c r="F6" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>30-01-2025 20:00</t>
+          <t>30-01-2025 08:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>LIGA 2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv - FC Porto</t>
+          <t>Persikota Tangerang - Sriwijaya FC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F7" t="n">
-        <v>7</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>30-01-2025 20:00</t>
+          <t>31-01-2025 19:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Rangers - Union St. Gilloise</t>
+          <t>Cambuur - Telstar</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>73.3</v>
+        <v>86.7</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30-01-2025 20:00</t>
+          <t>31-01-2025 18:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>AS Roma - Eintracht Frankfurt</t>
+          <t>Aubagne - Concarneau</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F9" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>30-01-2025 23:00</t>
+          <t>31-01-2025 18:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GAÚCHO - 1</t>
+          <t>REGIONALLIGA - NORDOST</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Pelotas - Avenida</t>
+          <t>SV Babelsberg 03 - Hertha Zehlendorf</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>73.3</v>
       </c>
       <c r="F10" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>30-01-2025 00:30</t>
+          <t>31-01-2025 18:30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GAÚCHO - 1</t>
+          <t>REGIONALLIGA - WEST</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Caxias - Brasil DE Pelotas</t>
+          <t>MSV Duisburg - Rot-weiss Oberhausen</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>71.7</v>
+        <v>70</v>
       </c>
       <c r="F11" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30-01-2025 08:30</t>
+          <t>31-01-2025 17:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LIGA 2</t>
+          <t>SÜPER LIG</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Persikota Tangerang - Sriwijaya FC</t>
+          <t>Eyüpspor - Sivasspor</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>80</v>
       </c>
       <c r="F12" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>
@@ -788,7 +788,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -831,57 +831,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>28-01-2025 19:45</t>
+          <t>31-01-2025 23:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>SUDAMERICANO U20</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Radcliffe - Chester</t>
+          <t>Venezuela U20 - Uruguay U20</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>73.3</v>
+        <v>86.7</v>
       </c>
       <c r="F2" t="n">
         <v>1.95</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>28-01-2025 13:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Wigan Athletic U21 - Fleetwood Town U21</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.2</v>
       </c>
     </row>
   </sheetData>
@@ -895,7 +867,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -938,7 +910,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>29-01-2025 22:30</t>
+          <t>30-01-2025 23:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -948,75 +920,159 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PAULISTA - A1</t>
+          <t>PERNAMBUCANO - 1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Noroeste - Inter De Limeira</t>
+          <t>Nautico Recife - Maguary PE</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>29-01-2025 22:30</t>
+          <t>30-01-2025 12:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>IRAN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PAULISTA - A2</t>
+          <t>AZADEGAN LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Grêmio Prudente - Primavera SP</t>
+          <t>Naft Masjed Soleyman - Shahrdari Noshahr</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>2.95</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>29-01-2025 23:00</t>
+          <t>31-01-2025 18:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>ROMANIA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LIGA I</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Unirea Slobozia - Dinamo Bucuresti</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>60</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>31-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ROMANIA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>LIGA I</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>AFC Hermannstadt - Uta Arad</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>31-01-2025 00:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>BRAZIL</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>PERNAMBUCANO - 1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Sport Recife - Jaguaré</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>70</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6.5</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CARIOCA - 1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Flamengo - Sampaio Corrêa RJ</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>60</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>31-01-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1. LIG</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Yeni Çorumspor - Bandırmaspor</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3.1</v>
       </c>
     </row>
   </sheetData>
@@ -1030,7 +1086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1073,7 +1129,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>29-01-2025 20:00</t>
+          <t>30-01-2025 20:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1083,165 +1139,165 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Aston Villa - Celtic</t>
+          <t>FCSB - Manchester United</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F2" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>29-01-2025 20:00</t>
+          <t>30-01-2025 21:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>CARIOCA - 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Bayern München - Slovan Bratislava</t>
+          <t>Boavista SC - Madureira</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>75.8</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>29-01-2025 20:00</t>
+          <t>30-01-2025 18:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>PERNAMBUCANO - 1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Inter - Monaco</t>
+          <t>Decisão - Petrolina</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>29-01-2025 20:00</t>
+          <t>30-01-2025 11:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>IRAQ</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>IRAQI LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Lille - Feyenoord</t>
+          <t>Al Karkh - Al Hudod</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>76</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>29-01-2025 20:00</t>
+          <t>31-01-2025 19:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Manchester City - Club Brugge KV</t>
+          <t>Clermont Foot - Ajaccio</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>83.3</v>
+        <v>76.7</v>
       </c>
       <c r="F6" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>29-01-2025 21:30</t>
+          <t>31-01-2025 14:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>AZERBAIJAN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PAULISTA - A1</t>
+          <t>PREMYER LIQA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>São Bernardo - Santos</t>
+          <t>Neftchi Baku - Keshla FC</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>76.7</v>
       </c>
       <c r="F7" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>29-01-2025 23:00</t>
+          <t>31-01-2025 00:30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1251,72 +1307,72 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PERNAMBUCANO - 1</t>
+          <t>CARIOCA - 1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Afogados - Central SC</t>
+          <t>Flamengo - Sampaio Corrêa RJ</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F8" t="n">
-        <v>1.95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>29-01-2025 23:00</t>
+          <t>31-01-2025 22:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PERNAMBUCANO - 1</t>
+          <t>COPA CHILE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sport Recife - Jaguaré</t>
+          <t>Universidad De Concepcion - Nublense</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F9" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>29-01-2025 11:00</t>
+          <t>31-01-2025 19:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LIGA REVELAÇÃO U23</t>
+          <t>SERIE C - GIRONE C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Farense U23 - Portimonense U23</t>
+          <t>Giugliano - Foggia</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>76.7</v>
+        <v>83.3</v>
       </c>
       <c r="F10" t="n">
         <v>1.73</v>
@@ -1325,85 +1381,57 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>30-01-2025 20:00</t>
+          <t>31-01-2025 00:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>JAMAICA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FCSB - Manchester United</t>
+          <t>Arnett Gardens - Humble Lions</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>76</v>
+        <v>76.7</v>
       </c>
       <c r="F11" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30-01-2025 21:30</t>
+          <t>31-01-2025 19:30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CARIOCA - 1</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Boavista SC - Madureira</t>
+          <t>Intercity - Marbella</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>75.8</v>
+        <v>92</v>
       </c>
       <c r="F12" t="n">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>30-01-2025 01:00</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>MEXICO</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>LIGA MX</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Club Queretaro - Pachuca</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
     </row>
   </sheetData>
@@ -1417,7 +1445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1470,7 +1498,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>29-01-2025 20:00</t>
+          <t>30-01-2025 20:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1480,31 +1508,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Inter - Monaco</t>
+          <t>AS Roma - Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="G2" t="n">
-        <v>65</v>
+        <v>53.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.62</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>29-01-2025 20:00</t>
+          <t>30-01-2025 20:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1514,229 +1542,161 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VfB Stuttgart - Paris Saint Germain</t>
+          <t>SC Braga - Lazio</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>86.7</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="G3" t="n">
-        <v>53.3</v>
+        <v>33.3</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>29-01-2025 15:00</t>
+          <t>31-01-2025 14:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>AZERBAIJAN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>U23 LEAGUE</t>
+          <t>PREMYER LIQA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Atlas U23 - Monterrey U23</t>
+          <t>Neftchi Baku - Keshla FC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F4" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="G4" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H4" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>29-01-2025 15:00</t>
+          <t>31-01-2025 19:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>U23 LEAGUE</t>
+          <t>SERIE C - GIRONE C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Queretaro U23 - Pachuca U23</t>
+          <t>Giugliano - Foggia</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="G5" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>29-01-2025 17:00</t>
+          <t>31-01-2025 18:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>SWITZERLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LIGA REVELAÇÃO U23</t>
+          <t>CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Benfica U23 - Estrela U23</t>
+          <t>Stade Lausanne-Ouchy - Étoile Carouge</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F6" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="G6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H6" t="n">
-        <v>2.55</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>29-01-2025 10:00</t>
+          <t>31-01-2025 17:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>FRIENDLIES CLUBS</t>
+          <t>SÜPER LIG</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hrvace - Radnik Bijeljina</t>
+          <t>Konyaspor - BB Bodrumspor</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F7" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="G7" t="n">
-        <v>66.7</v>
+        <v>65</v>
       </c>
       <c r="H7" t="n">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>30-01-2025 20:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>UEFA EUROPA LEAGUE</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>AS Roma - Eintracht Frankfurt</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>80</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G8" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>30-01-2025 20:00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>UEFA EUROPA LEAGUE</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SC Braga - Lazio</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="G9" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,166 +472,166 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30-01-2025 20:00</t>
+          <t>31-01-2025 19:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Dynamo Kyiv - Rīgas FS</t>
+          <t>Cambuur - Telstar</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>73.3</v>
+        <v>86.7</v>
       </c>
       <c r="F2" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30-01-2025 20:00</t>
+          <t>31-01-2025 18:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv - FC Porto</t>
+          <t>Aubagne - Concarneau</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30-01-2025 20:00</t>
+          <t>31-01-2025 18:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>REGIONALLIGA - NORDOST</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Rangers - Union St. Gilloise</t>
+          <t>SV Babelsberg 03 - Hertha Zehlendorf</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>73.3</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30-01-2025 20:00</t>
+          <t>31-01-2025 18:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>REGIONALLIGA - WEST</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AS Roma - Eintracht Frankfurt</t>
+          <t>MSV Duisburg - Rot-weiss Oberhausen</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F5" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30-01-2025 23:00</t>
+          <t>31-01-2025 17:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GAÚCHO - 1</t>
+          <t>SÜPER LIG</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Pelotas - Avenida</t>
+          <t>Eyüpspor - Sivasspor</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F6" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>30-01-2025 08:30</t>
+          <t>01-02-2025 15:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LIGA 2</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Persikota Tangerang - Sriwijaya FC</t>
+          <t>Ipswich - Southampton</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F7" t="n">
         <v>1.91</v>
@@ -640,35 +640,35 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>31-01-2025 19:00</t>
+          <t>01-02-2025 15:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EERSTE DIVISIE</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Cambuur - Telstar</t>
+          <t>Bromley - Grimsby</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>86.7</v>
+        <v>73.3</v>
       </c>
       <c r="F8" t="n">
-        <v>1.77</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>31-01-2025 18:30</t>
+          <t>01-02-2025 13:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,102 +678,242 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NATIONAL 1</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Aubagne - Concarneau</t>
+          <t>Estac Troyes - Caen</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F9" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>31-01-2025 18:00</t>
+          <t>01-02-2025 20:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - NORDOST</t>
+          <t>MINEIRO - 1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SV Babelsberg 03 - Hertha Zehlendorf</t>
+          <t>Athletic Club - Tombense</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>73.3</v>
       </c>
       <c r="F10" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>31-01-2025 18:30</t>
+          <t>01-02-2025 15:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>CZECH-REPUBLIC</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - WEST</t>
+          <t>CZECH LIGA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MSV Duisburg - Rot-weiss Oberhausen</t>
+          <t>České Budějovice - Dukla Praha</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F11" t="n">
-        <v>1.83</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>31-01-2025 17:00</t>
+          <t>01-02-2025 15:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SÜPER LIG</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Eyüpspor - Sivasspor</t>
+          <t>South Shields - Scarborough Athletic</t>
         </is>
       </c>
       <c r="E12" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>01-02-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Taunton Town - Basingstoke Town</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>01-02-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - WEST</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Wuppertaler SV - Eintracht Hohkeppel</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>70</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>01-02-2025 12:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>THAILAND</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>THAI LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Rayong FC - Uthai Thani</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>01-02-2025 11:30</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>THAILAND</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>THAI LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Ratchaburi - Lamphun Warrior</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>01-02-2025 14:30</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>WALES</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Briton Ferry - Aberystwyth Town</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
         <v>80</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F17" t="n">
         <v>1.8</v>
       </c>
     </row>
@@ -788,7 +928,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -854,6 +994,62 @@
       </c>
       <c r="F2" t="n">
         <v>1.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>01-02-2025 12:30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>LEAGUE TWO</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Gillingham - Notts County</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>01-02-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BELGIUM</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CHALLENGER PRO LEAGUE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>AS Eupen - Lommel United</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>70</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.4</v>
       </c>
     </row>
   </sheetData>
@@ -867,7 +1063,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -910,82 +1106,82 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30-01-2025 23:00</t>
+          <t>31-01-2025 18:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ROMANIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PERNAMBUCANO - 1</t>
+          <t>LIGA I</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Nautico Recife - Maguary PE</t>
+          <t>Unirea Slobozia - Dinamo Bucuresti</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30-01-2025 12:30</t>
+          <t>31-01-2025 15:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>IRAN</t>
+          <t>ROMANIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AZADEGAN LEAGUE</t>
+          <t>LIGA I</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Naft Masjed Soleyman - Shahrdari Noshahr</t>
+          <t>AFC Hermannstadt - Uta Arad</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>60</v>
+        <v>63.3</v>
       </c>
       <c r="F3" t="n">
-        <v>2.62</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>31-01-2025 18:00</t>
+          <t>31-01-2025 17:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LIGA I</t>
+          <t>1. LIG</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Unirea Slobozia - Dinamo Bucuresti</t>
+          <t>Yeni Çorumspor - Bandırmaspor</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F4" t="n">
         <v>3.1</v>
@@ -994,85 +1190,169 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>31-01-2025 15:00</t>
+          <t>01-02-2025 16:15</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LIGA I</t>
+          <t>SERIE B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AFC Hermannstadt - Uta Arad</t>
+          <t>Modena - Mantova</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>63.3</v>
+        <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>31-01-2025 00:30</t>
+          <t>01-02-2025 20:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CARIOCA - 1</t>
+          <t>PRIMEIRA LIGA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Flamengo - Sampaio Corrêa RJ</t>
+          <t>Guimaraes - AVS</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F6" t="n">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>31-01-2025 17:00</t>
+          <t>01-02-2025 17:15</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1. LIG</t>
+          <t>JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Yeni Çorumspor - Bandırmaspor</t>
+          <t>Cercle Brugge - Standard Liege</t>
         </is>
       </c>
       <c r="E7" t="n">
+        <v>60</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>01-02-2025 23:30</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CHILE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>COPA CHILE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>San Luis - U. Catolica</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>60</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>01-02-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EGYPT</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Masr - AL Masry</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>66.7</v>
       </c>
-      <c r="F7" t="n">
-        <v>3.1</v>
+      <c r="F9" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>01-02-2025 13:15</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>IRAN</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PERSIAN GULF PRO LEAGUE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Chadormalu SC - Malavan</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>60</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.8</v>
       </c>
     </row>
   </sheetData>
@@ -1086,7 +1366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1129,309 +1409,673 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30-01-2025 20:00</t>
+          <t>31-01-2025 19:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FCSB - Manchester United</t>
+          <t>Clermont Foot - Ajaccio</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>76</v>
+        <v>76.7</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30-01-2025 21:30</t>
+          <t>31-01-2025 14:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>AZERBAIJAN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CARIOCA - 1</t>
+          <t>PREMYER LIQA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Boavista SC - Madureira</t>
+          <t>Neftchi Baku - Keshla FC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>75.8</v>
+        <v>76.7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30-01-2025 18:00</t>
+          <t>31-01-2025 22:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PERNAMBUCANO - 1</t>
+          <t>COPA CHILE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Decisão - Petrolina</t>
+          <t>Universidad De Concepcion - Nublense</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F4" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30-01-2025 11:30</t>
+          <t>31-01-2025 19:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>IRAQ</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>IRAQI LEAGUE</t>
+          <t>SERIE C - GIRONE C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al Karkh - Al Hudod</t>
+          <t>Giugliano - Foggia</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>78.90000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="F5" t="n">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>31-01-2025 19:00</t>
+          <t>31-01-2025 19:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LIGUE 2</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Clermont Foot - Ajaccio</t>
+          <t>Intercity - Marbella</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>76.7</v>
+        <v>92</v>
       </c>
       <c r="F6" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>31-01-2025 14:30</t>
+          <t>01-02-2025 15:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AZERBAIJAN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PREMYER LIQA</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Neftchi Baku - Keshla FC</t>
+          <t>Cambridge United - Wycombe</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="F7" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>31-01-2025 00:30</t>
+          <t>01-02-2025 15:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CARIOCA - 1</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Flamengo - Sampaio Corrêa RJ</t>
+          <t>Newport County - Barrow</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>76</v>
+        <v>75.8</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>31-01-2025 22:00</t>
+          <t>01-02-2025 16:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CHILE</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>COPA CHILE</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Universidad De Concepcion - Nublense</t>
+          <t>Stade Brestois 29 - Paris Saint Germain</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>84</v>
+        <v>76.7</v>
       </c>
       <c r="F9" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>31-01-2025 19:30</t>
+          <t>01-02-2025 14:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE C</t>
+          <t>BUNDESLIGA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Giugliano - Foggia</t>
+          <t>Bayern München - Holstein Kiel</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>83.3</v>
+        <v>80</v>
       </c>
       <c r="F10" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>31-01-2025 00:00</t>
+          <t>01-02-2025 19:45</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>JAMAICA</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>SERIE A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Arnett Gardens - Humble Lions</t>
+          <t>Bologna - Como</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="F11" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>31-01-2025 19:30</t>
+          <t>01-02-2025 15:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+          <t>PREMIERSHIP</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Intercity - Marbella</t>
+          <t>ST Mirren - ST Johnstone</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>92</v>
+        <v>76.7</v>
       </c>
       <c r="F12" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>01-02-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>SERIE B</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Sassuolo - Juve Stabia</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>84</v>
+      </c>
+      <c r="F13" t="n">
         <v>1.85</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>01-02-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PRIMEIRA LIGA</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Guimaraes - AVS</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>80</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>01-02-2025 12:30</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ROMANIA</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>LIGA I</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>FC Botosani - Sepsi OSK Sfantu Gheorghe</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>01-02-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SCOTLAND</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Partick - Morton</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>01-02-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SCOTLAND</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>LEAGUE TWO</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Bonnyrigg Rose Athletic - Clyde</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>01-02-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>BAHRAIN</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>KING'S CUP</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Al Ittifaq Maqaba - Al Ahli</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>80</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>01-02-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>BELGIUM</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>JUPILER PRO LEAGUE</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Charleroi - Dender</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>76</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>01-02-2025 21:30</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>PAULISTA - A1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Corinthians - Noroeste</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>76</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>01-02-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>EGYPT</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Pharco - Ghazl El Mehalla</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>01-02-2025 01:00</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>LIGA MX</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Mazatlán - Leon</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>01-02-2025 23:30</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>PARAGUAY</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>DIVISION PROFESIONAL - APERTURA</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Cerro Porteno - Nacional Asuncion</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>80</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>01-02-2025 16:30</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>POLAND</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>EKSTRAKLASA</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Cracovia Krakow - Raków Częstochowa</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>01-02-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>SEGUNDA LIGA</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Portimonense - Mafra</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>80</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.91</v>
       </c>
     </row>
   </sheetData>
@@ -1445,7 +2089,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1498,205 +2142,749 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30-01-2025 20:00</t>
+          <t>31-01-2025 14:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AZERBAIJAN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>PREMYER LIQA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AS Roma - Eintracht Frankfurt</t>
+          <t>Neftchi Baku - Keshla FC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="G2" t="n">
-        <v>53.3</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30-01-2025 20:00</t>
+          <t>31-01-2025 19:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>SERIE C - GIRONE C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SC Braga - Lazio</t>
+          <t>Giugliano - Foggia</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>86.7</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="G3" t="n">
-        <v>33.3</v>
+        <v>45</v>
       </c>
       <c r="H3" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>31-01-2025 14:30</t>
+          <t>31-01-2025 18:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AZERBAIJAN</t>
+          <t>SWITZERLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PREMYER LIQA</t>
+          <t>CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Neftchi Baku - Keshla FC</t>
+          <t>Stade Lausanne-Ouchy - Étoile Carouge</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>85</v>
       </c>
       <c r="F4" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="G4" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>31-01-2025 19:30</t>
+          <t>31-01-2025 17:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE C</t>
+          <t>SÜPER LIG</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Giugliano - Foggia</t>
+          <t>Konyaspor - BB Bodrumspor</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F5" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="G5" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>31-01-2025 18:30</t>
+          <t>01-02-2025 15:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SWITZERLAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CHALLENGE LEAGUE</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Stade Lausanne-Ouchy - Étoile Carouge</t>
+          <t>Cambridge United - Wycombe</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>85</v>
       </c>
       <c r="F6" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="G6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H6" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>31-01-2025 17:00</t>
+          <t>01-02-2025 17:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SÜPER LIG</t>
+          <t>SERIE A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Konyaspor - BB Bodrumspor</t>
+          <t>Atalanta - Torino</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>70</v>
       </c>
       <c r="F7" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="G7" t="n">
         <v>65</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>01-02-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>AFC Fylde - Oldham</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>80</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G8" t="n">
+        <v>35</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>01-02-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SERIE B</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Sassuolo - Juve Stabia</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G9" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>01-02-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PRIMEIRA LIGA</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Guimaraes - AVS</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G10" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>01-02-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BAHRAIN</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>KING'S CUP</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Al Ittifaq Maqaba - Al Ahli</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>85</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G11" t="n">
+        <v>80</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>01-02-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CZECH-REPUBLIC</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CZECH LIGA</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>České Budějovice - Dukla Praha</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>90</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G12" t="n">
+        <v>80</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>01-02-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - SOUTH</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Dorking Wanderers - Slough Town</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>80</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>60</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>01-02-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NON LEAGUE PREMIER - NORTHERN</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Hebburn Town - Macclesfield</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>60</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G14" t="n">
+        <v>60</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>01-02-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NON LEAGUE PREMIER - NORTHERN</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Leek Town - Prescot Cables</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>80</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G15" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>01-02-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NON LEAGUE PREMIER - NORTHERN</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Morpeth Town - Worksop Town</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>65</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G16" t="n">
+        <v>60</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>01-02-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>St Ives Town - Alvechurch</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>70</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G17" t="n">
+        <v>60</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>01-02-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Walton &amp; Hersham - Winchester City</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>65</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G18" t="n">
+        <v>65</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>01-02-2025 12:00</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2. BUNDESLIGA</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Fortuna Düsseldorf - SSV Ulm 1846</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G19" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>01-02-2025 13:30</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>INDIA</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>I-LEAGUE</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Inter Kashi - Gokulam</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>75</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G20" t="n">
+        <v>75</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>01-02-2025 01:00</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>LIGA MX</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Mazatlán - Leon</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>80</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G21" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>01-02-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>SWITZERLAND</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>FC Lugano - FC Sion</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>70</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G22" t="n">
+        <v>70</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>01-02-2025 21:00</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>SUDAMERICANO U20</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Ecuador U20 - Argentina U20</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G23" t="n">
+        <v>60</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.95</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,253 +472,253 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>31-01-2025 19:00</t>
+          <t>01-02-2025 15:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EERSTE DIVISIE</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Cambuur - Telstar</t>
+          <t>Ipswich - Southampton</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>86.7</v>
+        <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>31-01-2025 18:30</t>
+          <t>01-02-2025 15:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NATIONAL 1</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Aubagne - Concarneau</t>
+          <t>Bromley - Grimsby</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F3" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>31-01-2025 18:00</t>
+          <t>01-02-2025 13:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - NORDOST</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SV Babelsberg 03 - Hertha Zehlendorf</t>
+          <t>Estac Troyes - Caen</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>73.3</v>
       </c>
       <c r="F4" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>31-01-2025 18:30</t>
+          <t>01-02-2025 18:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - WEST</t>
+          <t>FIRST AMATEUR DIVISION</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MSV Duisburg - Rot-weiss Oberhausen</t>
+          <t>Dessel Sport - Sporting Hasselt</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F5" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>31-01-2025 17:00</t>
+          <t>01-02-2025 20:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SÜPER LIG</t>
+          <t>MINEIRO - 1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Eyüpspor - Sivasspor</t>
+          <t>Athletic Club - Tombense</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F6" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01-02-2025 15:00</t>
+          <t>01-02-2025 19:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>PARANAENSE - 1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Ipswich - Southampton</t>
+          <t>Rio Branco PR - Parana</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>73.3</v>
+        <v>78.3</v>
       </c>
       <c r="F7" t="n">
-        <v>1.91</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>01-02-2025 15:00</t>
+          <t>01-02-2025 19:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>PAULISTA - A4</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Bromley - Grimsby</t>
+          <t>Inter De Bebedouro - Jabaquara</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F8" t="n">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>01-02-2025 13:00</t>
+          <t>01-02-2025 12:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>CYPRUS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LIGUE 2</t>
+          <t>2. DIVISION</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Estac Troyes - Caen</t>
+          <t>Halkanoras - Othellos</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>73.3</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>01-02-2025 20:00</t>
+          <t>01-02-2025 15:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>CZECH-REPUBLIC</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINEIRO - 1</t>
+          <t>CZECH LIGA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Athletic Club - Tombense</t>
+          <t>České Budějovice - Dukla Praha</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F10" t="n">
-        <v>1.91</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="11">
@@ -729,24 +729,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CZECH-REPUBLIC</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CZECH LIGA</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>České Budějovice - Dukla Praha</t>
+          <t>South Shields - Scarborough Athletic</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F11" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="12">
@@ -762,19 +762,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>South Shields - Scarborough Athletic</t>
+          <t>Chichester City - Wingate &amp; Finchley</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F12" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -836,35 +836,35 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>01-02-2025 12:00</t>
+          <t>01-02-2025 14:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>THAILAND</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>THAI LEAGUE 1</t>
+          <t>TWEEDE DIVISIE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Rayong FC - Uthai Thani</t>
+          <t>Quick Boys - GVVV Veenendaal</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>73.3</v>
+        <v>86.7</v>
       </c>
       <c r="F15" t="n">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>01-02-2025 11:30</t>
+          <t>01-02-2025 12:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -879,42 +879,238 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Ratchaburi - Lamphun Warrior</t>
+          <t>Rayong FC - Uthai Thani</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>73.3</v>
       </c>
       <c r="F16" t="n">
-        <v>1.9</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>01-02-2025 11:30</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>THAILAND</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>THAI LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Ratchaburi - Lamphun Warrior</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>01-02-2025 14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>WALES</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>PREMIER LEAGUE</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Briton Ferry - Aberystwyth Town</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="E18" t="n">
         <v>80</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F18" t="n">
         <v>1.8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>01-02-2025 12:00</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>FRIENDLIES CLUBS</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Broń Radom - Świdniczanka Świdnik</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>70</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>01-02-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>FRIENDLIES CLUBS</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Lancy - Vevey Sports</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>02-02-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3. LIGA</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Hannover 96 II - SV Sandhausen</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>70</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>02-02-2025 15:30</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Coruxo - Llanera</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>02-02-2025 12:00</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>THAILAND</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>THAI LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Sukhothai FC - Muangthong United</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>02-02-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2. LIG</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Halide Edip Adıvar - Erbaaspor</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>80</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>
@@ -928,7 +1124,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -971,85 +1167,113 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>31-01-2025 23:30</t>
+          <t>01-02-2025 12:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SUDAMERICANO U20</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Venezuela U20 - Uruguay U20</t>
+          <t>Gillingham - Notts County</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>86.7</v>
+        <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01-02-2025 12:30</t>
+          <t>01-02-2025 19:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Gillingham - Notts County</t>
+          <t>AS Eupen - Lommel United</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01-02-2025 19:00</t>
+          <t>01-02-2025 22:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CHALLENGER PRO LEAGUE</t>
+          <t>LIGA PREMIER SERIE A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AS Eupen - Lommel United</t>
+          <t>Sporting Canamy - Petroleros De Salamanca</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F4" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>01-02-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>FRIENDLIES CLUBS</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Olimpia Grudziądz - Chojniczanka Chojnice</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>80</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.91</v>
       </c>
     </row>
   </sheetData>
@@ -1063,7 +1287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,82 +1330,82 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>31-01-2025 18:00</t>
+          <t>01-02-2025 16:15</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGA I</t>
+          <t>SERIE B</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Unirea Slobozia - Dinamo Bucuresti</t>
+          <t>Modena - Mantova</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>31-01-2025 15:00</t>
+          <t>01-02-2025 20:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LIGA I</t>
+          <t>PRIMEIRA LIGA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AFC Hermannstadt - Uta Arad</t>
+          <t>Guimaraes - AVS</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>63.3</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>2.88</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>31-01-2025 17:00</t>
+          <t>01-02-2025 13:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1. LIG</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Yeni Çorumspor - Bandırmaspor</t>
+          <t>MC Saida - Hussein Dey</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F4" t="n">
         <v>3.1</v>
@@ -1190,169 +1414,337 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01-02-2025 16:15</t>
+          <t>01-02-2025 17:15</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SERIE B</t>
+          <t>JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Modena - Mantova</t>
+          <t>Cercle Brugge - Standard Liege</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F5" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01-02-2025 20:30</t>
+          <t>01-02-2025 19:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PRIMEIRA LIGA</t>
+          <t>PAULISTA - A3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Guimaraes - AVS</t>
+          <t>Comercial - União São João</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F6" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01-02-2025 17:15</t>
+          <t>01-02-2025 23:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE</t>
+          <t>COPA CHILE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Cercle Brugge - Standard Liege</t>
+          <t>San Luis - U. Catolica</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>60</v>
       </c>
       <c r="F7" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>01-02-2025 23:30</t>
+          <t>01-02-2025 14:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CHILE</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>COPA CHILE</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>San Luis - U. Catolica</t>
+          <t>Masr - AL Masry</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F8" t="n">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>01-02-2025 14:00</t>
+          <t>01-02-2025 13:15</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>IRAN</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>PERSIAN GULF PRO LEAGUE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Masr - AL Masry</t>
+          <t>Chadormalu SC - Malavan</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F9" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>01-02-2025 13:15</t>
+          <t>01-02-2025 21:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>IRAN</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PERSIAN GULF PRO LEAGUE</t>
+          <t>LIGA PREMIER SERIE B</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Chadormalu SC - Malavan</t>
+          <t>CDM - Cañoneros Marina</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>60</v>
       </c>
       <c r="F10" t="n">
-        <v>2.8</v>
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>01-02-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>U23 LEAGUE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Monterrey U23 - Necaxa U23</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>60</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>01-02-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TUNISIA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>LIGUE 1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Jeunesse Sportive Omrane - Club Africain</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>70</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>02-02-2025 22:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>GAÚCHO - 1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Guarany De Bagé - Pelotas</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>60</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>02-02-2025 11:45</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>HUNGARY</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NB I</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Debreceni VSC - Nyiregyhaza</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>02-02-2025 00:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>LIGA PREMIER SERIE A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Lobos ULMX - Irapuato</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>60</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>02-02-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Rayo Majadahonda - Navalcarnero</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>60</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3.1</v>
       </c>
     </row>
   </sheetData>
@@ -1366,7 +1758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1409,141 +1801,141 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>31-01-2025 19:00</t>
+          <t>01-02-2025 15:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGUE 2</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Clermont Foot - Ajaccio</t>
+          <t>Cambridge United - Wycombe</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>31-01-2025 14:30</t>
+          <t>01-02-2025 15:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AZERBAIJAN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PREMYER LIQA</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Neftchi Baku - Keshla FC</t>
+          <t>Newport County - Barrow</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>76.7</v>
+        <v>75.8</v>
       </c>
       <c r="F3" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>31-01-2025 22:00</t>
+          <t>01-02-2025 16:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CHILE</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>COPA CHILE</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Universidad De Concepcion - Nublense</t>
+          <t>Stade Brestois 29 - Paris Saint Germain</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>84</v>
+        <v>76.7</v>
       </c>
       <c r="F4" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>31-01-2025 19:30</t>
+          <t>01-02-2025 14:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE C</t>
+          <t>BUNDESLIGA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Giugliano - Foggia</t>
+          <t>Bayern München - Holstein Kiel</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>83.3</v>
+        <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>31-01-2025 19:30</t>
+          <t>01-02-2025 19:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+          <t>SERIE A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Intercity - Marbella</t>
+          <t>Bologna - Como</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F6" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="7">
@@ -1554,136 +1946,136 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>PREMIERSHIP</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Cambridge United - Wycombe</t>
+          <t>ST Mirren - ST Johnstone</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>80</v>
+        <v>76.7</v>
       </c>
       <c r="F7" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>01-02-2025 15:00</t>
+          <t>01-02-2025 14:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>SERIE B</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Newport County - Barrow</t>
+          <t>Sassuolo - Juve Stabia</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>75.8</v>
+        <v>84</v>
       </c>
       <c r="F8" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>01-02-2025 16:00</t>
+          <t>01-02-2025 20:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LIGUE 1</t>
+          <t>PRIMEIRA LIGA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Stade Brestois 29 - Paris Saint Germain</t>
+          <t>Guimaraes - AVS</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="F9" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>01-02-2025 14:30</t>
+          <t>01-02-2025 12:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>ROMANIA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BUNDESLIGA</t>
+          <t>LIGA I</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Bayern München - Holstein Kiel</t>
+          <t>FC Botosani - Sepsi OSK Sfantu Gheorghe</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>80</v>
+        <v>86.7</v>
       </c>
       <c r="F10" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>01-02-2025 19:45</t>
+          <t>01-02-2025 15:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SERIE A</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Bologna - Como</t>
+          <t>Partick - Morton</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>80</v>
+        <v>76.7</v>
       </c>
       <c r="F11" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="12">
@@ -1699,100 +2091,100 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PREMIERSHIP</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ST Mirren - ST Johnstone</t>
+          <t>Bonnyrigg Rose Athletic - Clyde</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>76.7</v>
+        <v>79.2</v>
       </c>
       <c r="F12" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>01-02-2025 14:00</t>
+          <t>01-02-2025 15:30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ALBANIA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SERIE B</t>
+          <t>SUPERLIGA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sassuolo - Juve Stabia</t>
+          <t>Dinamo Tirana - Skenderbeu Korce</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>84</v>
+        <v>76.7</v>
       </c>
       <c r="F13" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>01-02-2025 20:30</t>
+          <t>01-02-2025 16:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>BAHRAIN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PRIMEIRA LIGA</t>
+          <t>KING'S CUP</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Guimaraes - AVS</t>
+          <t>Al Ittifaq Maqaba - Al Ahli</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>80</v>
       </c>
       <c r="F14" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>01-02-2025 12:30</t>
+          <t>01-02-2025 15:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LIGA I</t>
+          <t>JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FC Botosani - Sepsi OSK Sfantu Gheorghe</t>
+          <t>Charleroi - Dender</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>86.7</v>
+        <v>76</v>
       </c>
       <c r="F15" t="n">
         <v>1.95</v>
@@ -1801,281 +2193,533 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>01-02-2025 15:00</t>
+          <t>01-02-2025 21:30</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>PAULISTA - A1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Partick - Morton</t>
+          <t>Corinthians - Noroeste</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>76.7</v>
+        <v>76</v>
       </c>
       <c r="F16" t="n">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>01-02-2025 15:00</t>
+          <t>01-02-2025 17:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose Athletic - Clyde</t>
+          <t>Pharco - Ghazl El Mehalla</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>79.2</v>
+        <v>83.3</v>
       </c>
       <c r="F17" t="n">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>01-02-2025 16:00</t>
+          <t>01-02-2025 23:30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BAHRAIN</t>
+          <t>PARAGUAY</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>KING'S CUP</t>
+          <t>DIVISION PROFESIONAL - APERTURA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Al Ittifaq Maqaba - Al Ahli</t>
+          <t>Cerro Porteno - Nacional Asuncion</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>80</v>
       </c>
       <c r="F18" t="n">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>01-02-2025 15:00</t>
+          <t>01-02-2025 16:30</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>POLAND</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE</t>
+          <t>EKSTRAKLASA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Charleroi - Dender</t>
+          <t>Cracovia Krakow - Raków Częstochowa</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>76</v>
+        <v>76.7</v>
       </c>
       <c r="F19" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>01-02-2025 21:30</t>
+          <t>01-02-2025 18:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PAULISTA - A1</t>
+          <t>SEGUNDA LIGA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Corinthians - Noroeste</t>
+          <t>Portimonense - Mafra</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F20" t="n">
-        <v>2.5</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>01-02-2025 17:00</t>
+          <t>01-02-2025 11:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>2. LIG</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Pharco - Ghazl El Mehalla</t>
+          <t>Karacabey Belediyespor - Ankara Demirspor</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>83.3</v>
+        <v>77.8</v>
       </c>
       <c r="F21" t="n">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>01-02-2025 01:00</t>
+          <t>01-02-2025 11:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>LIGA MX</t>
+          <t>2. LIG</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mazatlán - Leon</t>
+          <t>Van BB - Giresunspor</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>86.7</v>
+        <v>80</v>
       </c>
       <c r="F22" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>01-02-2025 23:30</t>
+          <t>02-02-2025 14:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PARAGUAY</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DIVISION PROFESIONAL - APERTURA</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cerro Porteno - Nacional Asuncion</t>
+          <t>Toulouse - Nice</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>80</v>
+        <v>76.7</v>
       </c>
       <c r="F23" t="n">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>01-02-2025 16:30</t>
+          <t>02-02-2025 15:45</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>POLAND</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>EKSTRAKLASA</t>
+          <t>EREDIVISIE</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Cracovia Krakow - Raków Częstochowa</t>
+          <t>Sparta Rotterdam - Groningen</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>76.7</v>
+        <v>83.3</v>
       </c>
       <c r="F24" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>01-02-2025 18:00</t>
+          <t>02-02-2025 19:00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SEGUNDA LIGA</t>
+          <t>EREDIVISIE</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Portimonense - Mafra</t>
+          <t>Willem II - AZ Alkmaar</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>80</v>
+        <v>83.3</v>
       </c>
       <c r="F25" t="n">
         <v>1.91</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>02-02-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>LA LIGA</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Barcelona - Alaves</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>90</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>02-02-2025 12:30</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>BELGIUM</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>JUPILER PRO LEAGUE</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Antwerp - Club Brugge KV</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>90</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>02-02-2025 12:30</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2. BUNDESLIGA</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1. FC Kaiserslautern - Preußen Münster</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>02-02-2025 21:00</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>HONDURAS</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>LIGA NACIONAL</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>CD Marathon - CD Real Sociedad</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>02-02-2025 16:30</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE B</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Pontedera - Pineto</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>02-02-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Audace Cerignola - Catania</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>02-02-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>SEGUNDA LIGA</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Oliveirense - Torreense</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>80</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>02-02-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Amorebieta - Arenteiro</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>76</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>02-02-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Conquense - CD Coria</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>92</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2.1</v>
       </c>
     </row>
   </sheetData>
@@ -2089,7 +2733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2142,32 +2786,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>31-01-2025 14:30</t>
+          <t>01-02-2025 15:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AZERBAIJAN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PREMYER LIQA</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Neftchi Baku - Keshla FC</t>
+          <t>Cambridge United - Wycombe</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>85</v>
       </c>
       <c r="F2" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H2" t="n">
         <v>3.25</v>
@@ -2176,7 +2820,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>31-01-2025 19:30</t>
+          <t>01-02-2025 17:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2186,297 +2830,297 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE C</t>
+          <t>SERIE A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Giugliano - Foggia</t>
+          <t>Atalanta - Torino</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
         <v>1.91</v>
       </c>
       <c r="G3" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>31-01-2025 18:30</t>
+          <t>01-02-2025 15:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SWITZERLAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CHALLENGE LEAGUE</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Stade Lausanne-Ouchy - Étoile Carouge</t>
+          <t>AFC Fylde - Oldham</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
         <v>1.73</v>
       </c>
       <c r="G4" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="H4" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>31-01-2025 17:00</t>
+          <t>01-02-2025 14:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SÜPER LIG</t>
+          <t>SERIE B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Konyaspor - BB Bodrumspor</t>
+          <t>Sassuolo - Juve Stabia</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>86.7</v>
       </c>
       <c r="F5" t="n">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="G5" t="n">
-        <v>65</v>
+        <v>46.7</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01-02-2025 15:00</t>
+          <t>01-02-2025 20:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>PRIMEIRA LIGA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Cambridge United - Wycombe</t>
+          <t>Guimaraes - AVS</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>85</v>
+        <v>66.7</v>
       </c>
       <c r="F6" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="G6" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01-02-2025 17:00</t>
+          <t>01-02-2025 16:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>BAHRAIN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SERIE A</t>
+          <t>KING'S CUP</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Atalanta - Torino</t>
+          <t>Al Ittifaq Maqaba - Al Ahli</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F7" t="n">
-        <v>1.91</v>
+        <v>1.6</v>
       </c>
       <c r="G7" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>01-02-2025 15:00</t>
+          <t>01-02-2025 18:30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>FIRST AMATEUR DIVISION</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>AFC Fylde - Oldham</t>
+          <t>Dessel Sport - Sporting Hasselt</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>80</v>
+        <v>86.7</v>
       </c>
       <c r="F8" t="n">
-        <v>1.73</v>
+        <v>1.45</v>
       </c>
       <c r="G8" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="H8" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>01-02-2025 14:00</t>
+          <t>01-02-2025 15:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>CZECH-REPUBLIC</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SERIE B</t>
+          <t>CZECH LIGA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sassuolo - Juve Stabia</t>
+          <t>České Budějovice - Dukla Praha</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>86.7</v>
+        <v>90</v>
       </c>
       <c r="F9" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="G9" t="n">
-        <v>46.7</v>
+        <v>80</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>01-02-2025 20:30</t>
+          <t>01-02-2025 15:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PRIMEIRA LIGA</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Guimaraes - AVS</t>
+          <t>Dorking Wanderers - Slough Town</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>66.7</v>
+        <v>80</v>
       </c>
       <c r="F10" t="n">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="G10" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>01-02-2025 16:00</t>
+          <t>01-02-2025 15:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BAHRAIN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>KING'S CUP</t>
+          <t>NON LEAGUE PREMIER - NORTHERN</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Al Ittifaq Maqaba - Al Ahli</t>
+          <t>Hebburn Town - Macclesfield</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="F11" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="G11" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H11" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="12">
@@ -2487,30 +3131,30 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CZECH-REPUBLIC</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CZECH LIGA</t>
+          <t>NON LEAGUE PREMIER - NORTHERN</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>České Budějovice - Dukla Praha</t>
+          <t>Leek Town - Prescot Cables</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F12" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="G12" t="n">
-        <v>80</v>
+        <v>42.5</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -2526,25 +3170,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>NON LEAGUE PREMIER - NORTHERN</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Dorking Wanderers - Slough Town</t>
+          <t>Morpeth Town - Worksop Town</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F13" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="G13" t="n">
         <v>60</v>
       </c>
       <c r="H13" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="14">
@@ -2560,25 +3204,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - NORTHERN</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Hebburn Town - Macclesfield</t>
+          <t>St Ives Town - Alvechurch</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F14" t="n">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="G14" t="n">
         <v>60</v>
       </c>
       <c r="H14" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="15">
@@ -2594,50 +3238,50 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - NORTHERN</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Leek Town - Prescot Cables</t>
+          <t>Walton &amp; Hersham - Winchester City</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F15" t="n">
-        <v>1.8</v>
+        <v>1.44</v>
       </c>
       <c r="G15" t="n">
-        <v>42.5</v>
+        <v>65</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>01-02-2025 15:00</t>
+          <t>01-02-2025 13:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>FINLAND</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - NORTHERN</t>
+          <t>LEAGUE CUP</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Morpeth Town - Worksop Town</t>
+          <t>KuPS - VPS</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F16" t="n">
         <v>1.57</v>
@@ -2652,171 +3296,171 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>01-02-2025 15:00</t>
+          <t>01-02-2025 12:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
+          <t>2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>St Ives Town - Alvechurch</t>
+          <t>Fortuna Düsseldorf - SSV Ulm 1846</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F17" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="G17" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H17" t="n">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>01-02-2025 15:00</t>
+          <t>01-02-2025 13:30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>INDIA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+          <t>I-LEAGUE</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Walton &amp; Hersham - Winchester City</t>
+          <t>Inter Kashi - Gokulam</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F18" t="n">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="G18" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H18" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>01-02-2025 12:00</t>
+          <t>01-02-2025 15:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2. BUNDESLIGA</t>
+          <t>U23 LEAGUE</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Fortuna Düsseldorf - SSV Ulm 1846</t>
+          <t>Club America U23 - Juarez U23</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F19" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="G19" t="n">
-        <v>66.7</v>
+        <v>65</v>
       </c>
       <c r="H19" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>01-02-2025 13:30</t>
+          <t>01-02-2025 14:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>INDIA</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>I-LEAGUE</t>
+          <t>TWEEDE DIVISIE</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Inter Kashi - Gokulam</t>
+          <t>Quick Boys - GVVV Veenendaal</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>75</v>
+        <v>77.5</v>
       </c>
       <c r="F20" t="n">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="G20" t="n">
-        <v>75</v>
+        <v>66.3</v>
       </c>
       <c r="H20" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>01-02-2025 01:00</t>
+          <t>01-02-2025 14:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>LIGA MX</t>
+          <t>TWEEDE DIVISIE</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mazatlán - Leon</t>
+          <t>Sparta Rotterdam II - Excelsior Maassluis</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F21" t="n">
-        <v>1.95</v>
+        <v>1.48</v>
       </c>
       <c r="G21" t="n">
-        <v>47.5</v>
+        <v>61.8</v>
       </c>
       <c r="H21" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="22">
@@ -2856,35 +3500,409 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>01-02-2025 13:15</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>UNITED-ARAB-EMIRATES</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>DIVISION 1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Dubai United - Masfut</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>90</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>65</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>01-02-2025 12:00</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>FRIENDLIES CLUBS</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Žilina - Zlin</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>80</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>60</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>01-02-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>FRIENDLIES CLUBS</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Hrvace - Bokelj</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>01-02-2025 21:00</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>WORLD</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>SUDAMERICANO U20</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Ecuador U20 - Argentina U20</t>
         </is>
       </c>
-      <c r="E23" t="n">
+      <c r="E26" t="n">
         <v>86.7</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F26" t="n">
         <v>1.8</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G26" t="n">
         <v>60</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H26" t="n">
         <v>2.95</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>02-02-2025 14:30</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>BUNDESLIGA</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt - VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>60</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G27" t="n">
+        <v>60</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>02-02-2025 18:15</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>BELGIUM</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>CHALLENGER PRO LEAGUE</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>KRC Genk II - Waasland-beveren</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G28" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>02-02-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>BELGIUM</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CHALLENGER PRO LEAGUE</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>RAAL La Louvière - Zulte Waregem</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>80</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G29" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>02-02-2025 12:30</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>BELGIUM</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>JUPILER PRO LEAGUE</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Antwerp - Club Brugge KV</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>80</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G30" t="n">
+        <v>60</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>02-02-2025 08:30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>INDIA</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>I-LEAGUE</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Delhi FC - Namdhari</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>75</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G31" t="n">
+        <v>65</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>02-02-2025 16:30</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>POLAND</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>EKSTRAKLASA</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Legia Warszawa - Korona Kielce</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>83.8</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G32" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>02-02-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>SERBIA</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>SUPER LIGA</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>TSC Backa Topola - FK Crvena Zvezda</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>85</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G33" t="n">
+        <v>70</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>02-02-2025 12:00</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>THAILAND</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>THAI LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Sukhothai FC - Muangthong United</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>75</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G34" t="n">
+        <v>65</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2.55</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>02-02-2025 18:30</t>
+          <t>02-02-2025 19:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -500,7 +500,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>02-02-2025 21:00</t>
+          <t>02-02-2025 22:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -523,146 +523,6 @@
       </c>
       <c r="F3" t="n">
         <v>1.95</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>02-02-2025 08:30</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>INDIA</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>I-LEAGUE</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Real Kashmir - Shillong Lajong</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>02-02-2025 15:30</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Coruxo - Llanera</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>02-02-2025 12:00</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>THAILAND</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>THAI LEAGUE 1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Sukhothai FC - Muangthong United</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>02-02-2025 12:30</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>THAILAND</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>THAI LEAGUE 2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Chanthaburi - Esan Pattaya</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>02-02-2025 11:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2. LIG</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Halide Edip Adıvar - Erbaaspor</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>80</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.75</v>
       </c>
     </row>
   </sheetData>
@@ -676,7 +536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -719,84 +579,56 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>02-02-2025 13:00</t>
+          <t>03-02-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MALTA</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CHALLENGE LEAGUE</t>
+          <t>SERIE A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Senglea Athletic - Zurrieq</t>
+          <t>Cagliari - Lazio</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03-02-2025 19:45</t>
+          <t>03-02-2025 01:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>URUGUAY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SERIE A</t>
+          <t>PRIMERA DIVISIÓN - APERTURA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Cagliari - Lazio</t>
+          <t>Wanderers - Racing Montevideo</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>73.3</v>
       </c>
       <c r="F3" t="n">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03-02-2025 00:45</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>URUGUAY</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>PRIMERA DIVISIÓN - APERTURA</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Wanderers - Racing Montevideo</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F4" t="n">
         <v>2.1</v>
       </c>
     </row>
@@ -811,7 +643,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -854,7 +686,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>02-02-2025 21:30</t>
+          <t>02-02-2025 22:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -882,7 +714,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>02-02-2025 20:00</t>
+          <t>02-02-2025 21:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +742,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>02-02-2025 22:00</t>
+          <t>02-02-2025 23:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -938,7 +770,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>02-02-2025 19:00</t>
+          <t>02-02-2025 20:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -966,7 +798,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>02-02-2025 22:00</t>
+          <t>02-02-2025 23:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -989,62 +821,6 @@
       </c>
       <c r="F6" t="n">
         <v>2.95</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>02-02-2025 11:45</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>HUNGARY</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>NB I</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Debreceni VSC - Nyiregyhaza</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>02-02-2025 11:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Rayo Majadahonda - Navalcarnero</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>60</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3.1</v>
       </c>
     </row>
   </sheetData>
@@ -1058,7 +834,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1101,504 +877,168 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>02-02-2025 14:00</t>
+          <t>02-02-2025 20:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGUE 1</t>
+          <t>EREDIVISIE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Toulouse - Nice</t>
+          <t>Willem II - AZ Alkmaar</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>76.7</v>
+        <v>83.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>02-02-2025 15:45</t>
+          <t>02-02-2025 19:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EREDIVISIE</t>
+          <t>SERGIPANO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam - Groningen</t>
+          <t>América SE - Guarany SE</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>83.3</v>
+        <v>76</v>
       </c>
       <c r="F3" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>02-02-2025 19:00</t>
+          <t>02-02-2025 22:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>HONDURAS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EREDIVISIE</t>
+          <t>LIGA NACIONAL</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Willem II - AZ Alkmaar</t>
+          <t>CD Marathon - CD Real Sociedad</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>83.3</v>
       </c>
       <c r="F4" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>02-02-2025 13:00</t>
+          <t>03-02-2025 18:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>CZECH-REPUBLIC</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LA LIGA</t>
+          <t>CZECH LIGA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Barcelona - Alaves</t>
+          <t>Sigma Olomouc - Plzen</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>90</v>
+        <v>76.7</v>
       </c>
       <c r="F5" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>02-02-2025 12:30</t>
+          <t>03-02-2025 13:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE</t>
+          <t>SECOND LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Antwerp - Club Brugge KV</t>
+          <t>Dayrout - Kahraba Ismailia</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F6" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>02-02-2025 18:30</t>
+          <t>03-02-2025 13:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SERGIPANO</t>
+          <t>SECOND LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>América SE - Guarany SE</t>
+          <t>Raya Ghazl - La Viena FC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F7" t="n">
-        <v>1.93</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>02-02-2025 14:30</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>CZECH-REPUBLIC</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CZECH LIGA</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>FK Jablonec - Bohemians 1905</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>80</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>02-02-2025 12:30</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>GERMANY</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2. BUNDESLIGA</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1. FC Kaiserslautern - Preußen Münster</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>02-02-2025 21:00</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>HONDURAS</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>LIGA NACIONAL</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>CD Marathon - CD Real Sociedad</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>83.3</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.05</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>02-02-2025 16:30</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>SERIE C - GIRONE B</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Pontedera - Pineto</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>02-02-2025 14:00</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>SERIE C - GIRONE C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Audace Cerignola - Catania</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>83.3</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>02-02-2025 11:00</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>SEGUNDA LIGA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Oliveirense - Torreense</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>80</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>02-02-2025 16:30</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>SLOVENIA</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1. SNL</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Radomlje - Koper</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>90</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.87</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>02-02-2025 11:00</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Amorebieta - Arenteiro</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>76</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>02-02-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Conquense - CD Coria</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>92</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>03-02-2025 17:00</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>CZECH-REPUBLIC</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>CZECH LIGA</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Sigma Olomouc - Plzen</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>03-02-2025 12:30</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>EGYPT</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>SECOND LEAGUE</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Dayrout - Kahraba Ismailia</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>76</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>03-02-2025 12:30</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>EGYPT</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>SECOND LEAGUE</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Raya Ghazl - La Viena FC</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>80</v>
-      </c>
-      <c r="F19" t="n">
         <v>2.1</v>
       </c>
     </row>
@@ -1613,7 +1053,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1666,372 +1106,136 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>02-02-2025 14:30</t>
+          <t>02-02-2025 19:15</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BUNDESLIGA</t>
+          <t>CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt - VfL Wolfsburg</t>
+          <t>KRC Genk II - Waasland-beveren</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
+        <v>72.5</v>
       </c>
       <c r="F2" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="G2" t="n">
-        <v>60</v>
+        <v>62.5</v>
       </c>
       <c r="H2" t="n">
-        <v>2.38</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>02-02-2025 18:15</t>
+          <t>02-02-2025 21:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CHALLENGER PRO LEAGUE</t>
+          <t>ACREANO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>KRC Genk II - Waasland-beveren</t>
+          <t>Vasco Da Gama AC - São Francisco</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>72.5</v>
+        <v>75</v>
       </c>
       <c r="F3" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="G3" t="n">
-        <v>62.5</v>
+        <v>65</v>
       </c>
       <c r="H3" t="n">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>02-02-2025 15:00</t>
+          <t>02-02-2025 23:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CHALLENGER PRO LEAGUE</t>
+          <t>ACREANO</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>RAAL La Louvière - Zulte Waregem</t>
+          <t>Galvez - Humaitá</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>76.8</v>
       </c>
       <c r="F4" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="G4" t="n">
-        <v>53.3</v>
+        <v>71.8</v>
       </c>
       <c r="H4" t="n">
-        <v>2.95</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>02-02-2025 12:30</t>
+          <t>03-02-2025 21:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE</t>
+          <t>PRIMEIRA LIGA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Antwerp - Club Brugge KV</t>
+          <t>Rio Ave - FC Porto</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="G5" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H5" t="n">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>02-02-2025 08:30</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>INDIA</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>I-LEAGUE</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Delhi FC - Namdhari</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>75</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="G6" t="n">
-        <v>65</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>02-02-2025 08:30</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>INDIA</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>I-LEAGUE</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Real Kashmir - Shillong Lajong</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>80</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="G7" t="n">
-        <v>70</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>02-02-2025 16:30</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>POLAND</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>EKSTRAKLASA</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Legia Warszawa - Korona Kielce</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>83.8</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G8" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>02-02-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>SERBIA</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>SUPER LIGA</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>TSC Backa Topola - FK Crvena Zvezda</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>85</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="G9" t="n">
-        <v>70</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>02-02-2025 12:00</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>THAILAND</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>THAI LEAGUE 1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Sukhothai FC - Muangthong United</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>75</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="G10" t="n">
-        <v>65</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.55</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>02-02-2025 10:30</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>THAILAND</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>THAI LEAGUE 2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Chonburi FC - Ayutthaya FC</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>80</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="G11" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>03-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>PRIMEIRA LIGA</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Rio Ave - FC Porto</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>80</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="G12" t="n">
-        <v>45</v>
-      </c>
-      <c r="H12" t="n">
         <v>2.75</v>
       </c>
     </row>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,57 +472,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>02-02-2025 19:30</t>
+          <t>04-02-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hannover 96 II - SV Sandhausen</t>
+          <t>Elgin City - Bonnyrigg Rose Athletic</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>2.87</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02-02-2025 22:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GUATEMALA</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>LIGA NACIONAL</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Achuapa - Mixco</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
     </row>
   </sheetData>
@@ -531,6 +503,85 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Championship</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Match</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Away Win (%)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Away Odds</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>03-02-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SERIE A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Cagliari - Lazio</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -567,260 +618,69 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Away Win (%)</t>
+          <t>Draw (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Away Odds</t>
+          <t>Draw Odds</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>03-02-2025 20:45</t>
+          <t>04-02-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SERIE A</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Cagliari - Lazio</t>
+          <t>Burnley - Oxford United</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03-02-2025 01:45</t>
+          <t>07-01-2025 20:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>URUGUAY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN - APERTURA</t>
+          <t>EFL TROPHY</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Wanderers - Racing Montevideo</t>
+          <t>Port Vale - Wrexham</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>73.3</v>
       </c>
       <c r="F3" t="n">
-        <v>2.1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Country</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Championship</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Match</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Draw (%)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Draw Odds</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>02-02-2025 22:30</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>BRAZIL</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>CATARINENSE - 1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Caravaggio - Hercílio Luz</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>70</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02-02-2025 21:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>BRAZIL</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CATARINENSE - 1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Santa Catarina - Figueirense</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>60</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>02-02-2025 23:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>BRAZIL</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>GAÚCHO - 1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Guarany De Bagé - Pelotas</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>60</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>02-02-2025 20:00</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>BRAZIL</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>GOIANO - 1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Goianésia - Aparecidense</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>60</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>02-02-2025 23:00</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>BRAZIL</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>PERNAMBUCANO - 1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Petrolina - Central SC</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.95</v>
+        <v>3.4</v>
       </c>
     </row>
   </sheetData>
@@ -834,7 +694,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -877,169 +737,225 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>02-02-2025 20:00</t>
+          <t>03-02-2025 18:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>CZECH-REPUBLIC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EREDIVISIE</t>
+          <t>CZECH LIGA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Willem II - AZ Alkmaar</t>
+          <t>Sigma Olomouc - Plzen</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>83.3</v>
+        <v>76.7</v>
       </c>
       <c r="F2" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>02-02-2025 19:30</t>
+          <t>03-02-2025 13:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SERGIPANO</t>
+          <t>SECOND LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>América SE - Guarany SE</t>
+          <t>Dayrout - Kahraba Ismailia</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>76</v>
       </c>
       <c r="F3" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>02-02-2025 22:00</t>
+          <t>03-02-2025 13:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HONDURAS</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LIGA NACIONAL</t>
+          <t>SECOND LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CD Marathon - CD Real Sociedad</t>
+          <t>Raya Ghazl - La Viena FC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>83.3</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>03-02-2025 18:00</t>
+          <t>03-02-2025 14:10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CZECH-REPUBLIC</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CZECH LIGA</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sigma Olomouc - Plzen</t>
+          <t>Ohod - Abha</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>76.7</v>
+        <v>88</v>
       </c>
       <c r="F5" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>03-02-2025 13:30</t>
+          <t>23-11-2024 16:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SECOND LEAGUE</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Dayrout - Kahraba Ismailia</t>
+          <t>Salford City - Bromley</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>76</v>
+        <v>76.7</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>03-02-2025 13:30</t>
+          <t>05-02-2025 00:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SECOND LEAGUE</t>
+          <t>COPA CHILE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Raya Ghazl - La Viena FC</t>
+          <t>Deportes Limache - Union San Felipe</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>80</v>
+        <v>83.3</v>
       </c>
       <c r="F7" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>04-02-2025 21:10</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>COUPE DE FRANCE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Le Mans - Paris Saint Germain</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>90</v>
+      </c>
+      <c r="F8" t="n">
         <v>2.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>04-02-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>COUPE DE FRANCE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Lille - Dunkerque</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.85</v>
       </c>
     </row>
   </sheetData>
@@ -1053,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,137 +1022,239 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>02-02-2025 19:15</t>
+          <t>03-02-2025 21:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CHALLENGER PRO LEAGUE</t>
+          <t>PRIMEIRA LIGA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>KRC Genk II - Waasland-beveren</t>
+          <t>Rio Ave - FC Porto</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>72.5</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
         <v>1.75</v>
       </c>
       <c r="G2" t="n">
-        <v>62.5</v>
+        <v>45</v>
       </c>
       <c r="H2" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>02-02-2025 21:00</t>
+          <t>03-02-2025 14:10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ACREANO</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Vasco Da Gama AC - São Francisco</t>
+          <t>Ohod - Abha</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>1.53</v>
+        <v>1.93</v>
       </c>
       <c r="G3" t="n">
-        <v>65</v>
+        <v>46.7</v>
       </c>
       <c r="H3" t="n">
-        <v>2.3</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>02-02-2025 23:00</t>
+          <t>04-02-2025 20:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ACREANO</t>
+          <t>EFL TROPHY</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Galvez - Humaitá</t>
+          <t>Stevenage - Birmingham</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>76.8</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>1.6</v>
+        <v>1.91</v>
       </c>
       <c r="G4" t="n">
-        <v>71.8</v>
+        <v>13.3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>03-02-2025 21:45</t>
+          <t>04-02-2025 20:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PRIMEIRA LIGA</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Rio Ave - FC Porto</t>
+          <t>Chorley - Buxton</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F5" t="n">
         <v>1.75</v>
       </c>
       <c r="G5" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H5" t="n">
-        <v>2.75</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>04-02-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - NORTH</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Scarborough Athletic - Radcliffe</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>70</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G6" t="n">
+        <v>60</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>04-02-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Cray Valley PM - Lewes</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G7" t="n">
+        <v>60</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>04-02-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>COUPE DE FRANCE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Lille - Dunkerque</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>70</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G8" t="n">
+        <v>60</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,34 @@
       </c>
       <c r="F2" t="n">
         <v>1.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>04-02-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE CUP</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Ipswich Town U21 - Watford U21</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.73</v>
       </c>
     </row>
   </sheetData>
@@ -694,7 +722,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,196 +793,112 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03-02-2025 13:30</t>
+          <t>23-11-2024 16:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SECOND LEAGUE</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Dayrout - Kahraba Ismailia</t>
+          <t>Salford City - Bromley</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>76</v>
+        <v>76.7</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03-02-2025 13:30</t>
+          <t>05-02-2025 00:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SECOND LEAGUE</t>
+          <t>COPA CHILE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Raya Ghazl - La Viena FC</t>
+          <t>Deportes Limache - Union San Felipe</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>83.3</v>
       </c>
       <c r="F4" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>03-02-2025 14:10</t>
+          <t>04-02-2025 21:10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DIVISION 1</t>
+          <t>COUPE DE FRANCE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Ohod - Abha</t>
+          <t>Le Mans - Paris Saint Germain</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F5" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>23-11-2024 16:00</t>
+          <t>04-02-2025 19:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>COUPE DE FRANCE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Salford City - Bromley</t>
+          <t>Lille - Dunkerque</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>76.7</v>
+        <v>78.3</v>
       </c>
       <c r="F6" t="n">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>05-02-2025 00:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>CHILE</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>COPA CHILE</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Deportes Limache - Union San Felipe</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>83.3</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>04-02-2025 21:10</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>FRANCE</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>COUPE DE FRANCE</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Le Mans - Paris Saint Germain</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>90</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>04-02-2025 19:00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>FRANCE</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>COUPE DE FRANCE</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Lille - Dunkerque</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>78.3</v>
-      </c>
-      <c r="F9" t="n">
         <v>1.85</v>
       </c>
     </row>
@@ -969,7 +913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1056,35 +1000,35 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03-02-2025 14:10</t>
+          <t>04-02-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIVISION 1</t>
+          <t>EFL TROPHY</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ohod - Abha</t>
+          <t>Stevenage - Birmingham</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="G3" t="n">
-        <v>46.7</v>
+        <v>13.3</v>
       </c>
       <c r="H3" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="4">
@@ -1100,25 +1044,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EFL TROPHY</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Stevenage - Birmingham</t>
+          <t>Chorley - Buxton</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F4" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="G4" t="n">
-        <v>13.3</v>
+        <v>50</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1139,20 +1083,20 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Chorley - Buxton</t>
+          <t>Scarborough Athletic - Radcliffe</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F5" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="6">
@@ -1168,92 +1112,58 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Scarborough Athletic - Radcliffe</t>
+          <t>Cray Valley PM - Lewes</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F6" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="G6" t="n">
         <v>60</v>
       </c>
       <c r="H6" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04-02-2025 20:45</t>
+          <t>04-02-2025 19:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
+          <t>COUPE DE FRANCE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Cray Valley PM - Lewes</t>
+          <t>Lille - Dunkerque</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F7" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="G7" t="n">
         <v>60</v>
       </c>
       <c r="H7" t="n">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>04-02-2025 19:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>FRANCE</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>COUPE DE FRANCE</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Lille - Dunkerque</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>70</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G8" t="n">
-        <v>60</v>
-      </c>
-      <c r="H8" t="n">
         <v>3</v>
       </c>
     </row>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,35 +472,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-02-2025 20:45</t>
+          <t>04-02-2025 00:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>COLOMBIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>PRIMERA A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Elgin City - Bonnyrigg Rose Athletic</t>
+          <t>Deportivo Pereira - Alianza Petrolera</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-02-2025 20:00</t>
+          <t>04-02-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -510,18 +510,74 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE CUP</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ipswich Town U21 - Watford U21</t>
+          <t>Salford City - Bromley</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>73.3</v>
       </c>
       <c r="F3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>04-02-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SCOTLAND</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LEAGUE TWO</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Elgin City - Bonnyrigg Rose Athletic</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>04-02-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE CUP</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Ipswich Town U21 - Watford U21</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F5" t="n">
         <v>1.73</v>
       </c>
     </row>
@@ -680,13 +736,13 @@
         <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>07-01-2025 20:00</t>
+          <t>04-02-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -696,19 +752,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EFL TROPHY</t>
+          <t>NON LEAGUE PREMIER - NORTHERN</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Port Vale - Wrexham</t>
+          <t>Prescot Cables - Rylands</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>73.3</v>
+        <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
     </row>
   </sheetData>
@@ -722,7 +778,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,91 +821,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>03-02-2025 18:00</t>
+          <t>04-02-2025 23:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CZECH-REPUBLIC</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CZECH LIGA</t>
+          <t>CEARENSE - 1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sigma Olomouc - Plzen</t>
+          <t>Horizonte - Pague Menos</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>23-11-2024 16:00</t>
+          <t>05-02-2025 00:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>COPA CHILE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Salford City - Bromley</t>
+          <t>Deportes Limache - Union San Felipe</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>76.7</v>
+        <v>83.3</v>
       </c>
       <c r="F3" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>05-02-2025 00:00</t>
+          <t>04-02-2025 21:10</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CHILE</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>COPA CHILE</t>
+          <t>COUPE DE FRANCE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Deportes Limache - Union San Felipe</t>
+          <t>Le Mans - Paris Saint Germain</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>83.3</v>
+        <v>90</v>
       </c>
       <c r="F4" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-02-2025 21:10</t>
+          <t>04-02-2025 19:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -864,41 +920,13 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Le Mans - Paris Saint Germain</t>
+          <t>Lille - Dunkerque</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>90</v>
+        <v>78.3</v>
       </c>
       <c r="F5" t="n">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>04-02-2025 19:00</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>FRANCE</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>COUPE DE FRANCE</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Lille - Dunkerque</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>78.3</v>
-      </c>
-      <c r="F6" t="n">
         <v>1.85</v>
       </c>
     </row>
@@ -913,7 +941,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -966,35 +994,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>03-02-2025 21:45</t>
+          <t>04-02-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PRIMEIRA LIGA</t>
+          <t>EFL TROPHY</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Rio Ave - FC Porto</t>
+          <t>Stevenage - Birmingham</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>45</v>
+        <v>13.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="3">
@@ -1010,25 +1038,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EFL TROPHY</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Stevenage - Birmingham</t>
+          <t>Chorley - Buxton</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="G3" t="n">
-        <v>13.3</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="4">
@@ -1049,20 +1077,20 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Chorley - Buxton</t>
+          <t>Scarborough Athletic - Radcliffe</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="G4" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="5">
@@ -1078,25 +1106,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Scarborough Athletic - Radcliffe</t>
+          <t>Cray Valley PM - Lewes</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F5" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="G5" t="n">
         <v>60</v>
       </c>
       <c r="H5" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="6">
@@ -1112,25 +1140,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Cray Valley PM - Lewes</t>
+          <t>Merthyr Town - Basingstoke Town</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>73.3</v>
+        <v>55</v>
       </c>
       <c r="F6" t="n">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="G6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H6" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="7">
@@ -1165,6 +1193,210 @@
       </c>
       <c r="H7" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>04-02-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ISRAEL</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LIGA LEUMIT</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Hapoel Ramat Gan - Bnei Yehuda</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>80</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G8" t="n">
+        <v>55</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>04-02-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ISRAEL</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>LIGA LEUMIT</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Hapoel Afula - Hapoel Rishon LeZion</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>70</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>60</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>04-02-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ISRAEL</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>LIGA LEUMIT</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Hapoel Kfar Saba - Hapoel Ramat HaSharon</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>65</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G10" t="n">
+        <v>60</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>04-02-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>LIGA REVELAÇÃO U23</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Benfica U23 - Torreense U23</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>50</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G11" t="n">
+        <v>50</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>04-02-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SWITZERLAND</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>FC Sion - Servette FC</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>70</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G12" t="n">
+        <v>55</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>04-02-2025 10:30</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>FRIENDLIES CLUBS</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Slavia Praha II - Příbram</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>80</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G13" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.4</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -472,29 +472,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-02-2025 00:30</t>
+          <t>04-02-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PRIMERA A</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Deportivo Pereira - Alianza Petrolera</t>
+          <t>Salford City - Bromley</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +515,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Salford City - Bromley</t>
+          <t>Elgin City - Bonnyrigg Rose Athletic</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -528,57 +528,57 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04-02-2025 20:45</t>
+          <t>04-02-2025 20:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>PREMIER LEAGUE CUP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Elgin City - Bonnyrigg Rose Athletic</t>
+          <t>Ipswich Town U21 - Watford U21</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>73.3</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-02-2025 20:00</t>
+          <t>04-02-2025 11:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE CUP</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Ipswich Town U21 - Watford U21</t>
+          <t>Kocaelispor - Sivasspor</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F5" t="n">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
     </row>
   </sheetData>
@@ -778,7 +778,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -928,6 +928,118 @@
       </c>
       <c r="F5" t="n">
         <v>1.85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>05-02-2025 21:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>COPPA ITALIA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>AC Milan - AS Roma</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>80</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>05-02-2025 21:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>NETHERLANDS</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>KNVB BEKER</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>GO Ahead Eagles - Noordwijk</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>84</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>05-02-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>COUPE DE FRANCE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Toulouse - Guingamp</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>05-02-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>COUPE DE FRANCE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Cannes - Dives-Cabourg</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>84</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.91</v>
       </c>
     </row>
   </sheetData>
@@ -941,7 +1053,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1334,69 +1446,171 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04-02-2025 20:30</t>
+          <t>04-02-2025 18:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SWITZERLAND</t>
+          <t>SLOVAKIA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SUPER LEAGUE</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FC Sion - Servette FC</t>
+          <t>Slovan Bratislava - AS Trencin</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F12" t="n">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="G12" t="n">
         <v>55</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>04-02-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SWITZERLAND</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>FC Sion - Servette FC</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>70</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G13" t="n">
+        <v>55</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>04-02-2025 10:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>WORLD</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>FRIENDLIES CLUBS</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Slavia Praha II - Příbram</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="E14" t="n">
         <v>80</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F14" t="n">
         <v>1.57</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G14" t="n">
         <v>53.3</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H14" t="n">
         <v>2.4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>05-02-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>COUPE DE FRANCE</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Cannes - Dives-Cabourg</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G15" t="n">
+        <v>40</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>05-02-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SWITZERLAND</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>FC ST. Gallen - FC Lugano</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>75</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G16" t="n">
+        <v>55</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -475,57 +475,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>11-02-2025 00:05</t>
+          <t>11-02-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PRIMERA B</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Barranquilla - Real Santander</t>
+          <t>Tranmere - Fleetwood Town</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1.83</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10-02-2025 20:00</t>
+          <t>11-02-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HUNGARY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NB II</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Kisvarda FC - Vasas</t>
+          <t>Leamington - Warrington Town</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>2.38</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="4">
@@ -541,19 +541,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>NATIONAL LEAGUE CUP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tranmere - Fleetwood Town</t>
+          <t>Maidenhead - Southampton U21</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>2.8</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="5">
@@ -569,19 +569,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Leamington - Warrington Town</t>
+          <t>Whitehawk - Hendon</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="6">
@@ -597,25 +597,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE CUP</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Maidenhead - Southampton U21</t>
+          <t>Leiston - St Ives Town</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>70</v>
+        <v>75.7</v>
       </c>
       <c r="F6" t="n">
-        <v>2.38</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>11-02-2025 14:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -625,25 +625,25 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Whitehawk - Hendon</t>
+          <t>Wigan Athletic U21 - Peterborough United U21</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F7" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>11-02-2025 15:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -653,47 +653,47 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Leiston - St Ives Town</t>
+          <t>Cardiff City U21 - Swansea City U21</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>75.7</v>
+        <v>73.3</v>
       </c>
       <c r="F8" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>11-02-2025 03:05</t>
+          <t>13-02-2025 00:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LIGA PREMIER SERIE A</t>
+          <t>LIGA PROFESIONAL ARGENTINA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Faraones Texcoco - Montañeses</t>
+          <t>Independiente - Velez Sarsfield</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F9" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
     </row>
   </sheetData>
@@ -814,7 +814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -857,110 +857,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10-02-2025 16:00</t>
+          <t>11-02-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGA I</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Farul Constanta - SCM Gloria Buzău</t>
+          <t>Juventus - PSV Eindhoven</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>83.3</v>
+        <v>76.7</v>
       </c>
       <c r="F2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10-02-2025 14:00</t>
+          <t>11-02-2025 21:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SECOND LEAGUE</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tanta SC - Proxy</t>
+          <t>Norwich - Preston</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10-02-2025 13:00</t>
+          <t>11-02-2025 20:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Malut United - Pusamania Borneo</t>
+          <t>Bristol Rovers - Stockport County</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F4" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>11-02-2025 21:00</t>
+          <t>11-02-2025 20:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Juventus - PSV Eindhoven</t>
+          <t>Tranmere - Fleetwood Town</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="F5" t="n">
         <v>1.8</v>
@@ -969,7 +969,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>11-02-2025 21:00</t>
+          <t>11-02-2025 20:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -979,19 +979,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Norwich - Preston</t>
+          <t>Gateshead - Braintree</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F6" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="7">
@@ -1007,19 +1007,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Bristol Rovers - Stockport County</t>
+          <t>Hartlepool - Tamworth</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>76</v>
+        <v>76.7</v>
       </c>
       <c r="F7" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="8">
@@ -1035,75 +1035,75 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tranmere - Fleetwood Town</t>
+          <t>Oldham - Altrincham</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>80</v>
+        <v>86.7</v>
       </c>
       <c r="F8" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>11-02-2025 14:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Gateshead - Braintree</t>
+          <t>WA Mostaganem - Oued Sly</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>85</v>
+        <v>83.3</v>
       </c>
       <c r="F9" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>12-02-2025 00:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>COPA CHILE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Hartlepool - Tamworth</t>
+          <t>Deportes Copiapo - Antofagasta</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>76.7</v>
+        <v>76</v>
       </c>
       <c r="F10" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="11">
@@ -1119,47 +1119,47 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Oldham - Altrincham</t>
+          <t>Leamington - Warrington Town</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>86.7</v>
+        <v>76</v>
       </c>
       <c r="F11" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12-02-2025 00:00</t>
+          <t>11-02-2025 20:45</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CHILE</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>COPA CHILE</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Deportes Copiapo - Antofagasta</t>
+          <t>Spennymoor Town - Radcliffe</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F12" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="13">
@@ -1175,19 +1175,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Leamington - Warrington Town</t>
+          <t>Dorking Wanderers - Tonbridge Angels</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>76</v>
+        <v>76.7</v>
       </c>
       <c r="F13" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="14">
@@ -1203,25 +1203,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Spennymoor Town - Radcliffe</t>
+          <t>AFC Hornchurch - Boreham Wood</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>80</v>
       </c>
       <c r="F14" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>12-02-2025 20:45</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1231,47 +1231,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Dorking Wanderers - Tonbridge Angels</t>
+          <t>Sunderland - Luton</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>76.7</v>
+        <v>86.7</v>
       </c>
       <c r="F15" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>11-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>AFC Hornchurch - Boreham Wood</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>80</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1285,7 +1257,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1338,35 +1310,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10-02-2025 18:00</t>
+          <t>11-02-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SÜPER LIG</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Trabzonspor - Eyüpspor</t>
+          <t>Juventus - PSV Eindhoven</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
         <v>60</v>
       </c>
       <c r="H2" t="n">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3">
@@ -1387,20 +1359,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Juventus - PSV Eindhoven</t>
+          <t>Manchester City - Real Madrid</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>70</v>
+        <v>78.8</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="G3" t="n">
-        <v>60</v>
+        <v>62.5</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="4">
@@ -1411,27 +1383,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>FA CUP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Manchester City - Real Madrid</t>
+          <t>Exeter City - Nottingham Forest</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>78.8</v>
+        <v>86.7</v>
       </c>
       <c r="F4" t="n">
         <v>1.5</v>
       </c>
       <c r="G4" t="n">
-        <v>62.5</v>
+        <v>66.7</v>
       </c>
       <c r="H4" t="n">
         <v>2.2</v>
@@ -1450,31 +1422,31 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>FA CUP</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Exeter City - Nottingham Forest</t>
+          <t>Reading - Shrewsbury</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>86.7</v>
+        <v>70</v>
       </c>
       <c r="F5" t="n">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="G5" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="H5" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>11-02-2025 21:00</t>
+          <t>11-02-2025 20:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1484,25 +1456,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Reading - Shrewsbury</t>
+          <t>Gateshead - Braintree</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F6" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="G6" t="n">
         <v>60</v>
       </c>
       <c r="H6" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="7">
@@ -1523,20 +1495,20 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Gateshead - Braintree</t>
+          <t>Oldham - Altrincham</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F7" t="n">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="G7" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H7" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="8">
@@ -1552,59 +1524,127 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Oldham - Altrincham</t>
+          <t>Dartford - Chichester City</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F8" t="n">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="G8" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>11-02-2025 16:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
+          <t>LIGA REVELAÇÃO U23</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Dartford - Chichester City</t>
+          <t>Gil Vicente U23 - Estrela U23</t>
         </is>
       </c>
       <c r="E9" t="n">
+        <v>90</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G9" t="n">
+        <v>75</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>12-02-2025 21:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>UEFA CHAMPIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Feyenoord - AC Milan</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>80</v>
       </c>
-      <c r="F9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G9" t="n">
-        <v>60</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.25</v>
+      <c r="F10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G10" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>12-02-2025 21:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>UEFA CHAMPIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Monaco - Benfica</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>70</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G11" t="n">
+        <v>70</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.75</v>
       </c>
     </row>
   </sheetData>
@@ -1618,7 +1658,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1666,162 +1706,162 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10-02-2025 20:00</t>
+          <t>11-02-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EERSTE DIVISIE</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Jong Ajax - Excelsior</t>
+          <t>Sporting CP - Borussia Dortmund</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>56.7</v>
       </c>
       <c r="F2" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="G2" t="n">
-        <v>1.04</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10-02-2025 20:00</t>
+          <t>11-02-2025 21:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EERSTE DIVISIE</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Vitesse - Emmen</t>
+          <t>Juventus - PSV Eindhoven</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="F3" t="n">
-        <v>2.88</v>
+        <v>1.91</v>
       </c>
       <c r="G3" t="n">
-        <v>0.44</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10-02-2025 16:00</t>
+          <t>11-02-2025 21:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AZERBAIJAN</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PREMYER LIQA</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Zira - Neftchi Baku</t>
+          <t>Manchester City - Real Madrid</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>60</v>
+        <v>58.3</v>
       </c>
       <c r="F4" t="n">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10-02-2025 22:00</t>
+          <t>11-02-2025 20:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PRIMERA B</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tigres FC - Depor FC</t>
+          <t>Charlton - Peterborough</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F5" t="n">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>11-02-2025 00:05</t>
+          <t>11-02-2025 20:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PRIMERA B</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Barranquilla - Real Santander</t>
+          <t>Tranmere - Fleetwood Town</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F6" t="n">
-        <v>1.83</v>
+        <v>2.8</v>
       </c>
       <c r="G6" t="n">
-        <v>0.46</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10-02-2025 20:45</t>
+          <t>11-02-2025 20:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1831,394 +1871,394 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>EFL TROPHY</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Chelmsford City - Hemel Hempstead Town</t>
+          <t>Wrexham - Bolton</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>50</v>
       </c>
       <c r="F7" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.14</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10-02-2025 20:00</t>
+          <t>11-02-2025 20:45</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE 2 DIVISION ONE</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Nottingham Forest U21 - Derby County U21</t>
+          <t>Cove Rangers - Montrose</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>66.7</v>
+        <v>53.3</v>
       </c>
       <c r="F8" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>31-01-2025 20:00</t>
+          <t>11-02-2025 14:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE CUP</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Blackburn Rovers U21 - Queens Park Rangers U21</t>
+          <t>MSP Batna - CA Batna</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>60</v>
+        <v>63.3</v>
       </c>
       <c r="F9" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>0.11</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10-02-2025 20:00</t>
+          <t>11-02-2025 14:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HUNGARY</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NB II</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Kisvarda FC - Vasas</t>
+          <t>IB Khémis El Khechna - Teleghma</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>73.3</v>
+        <v>50</v>
       </c>
       <c r="F10" t="n">
-        <v>2.38</v>
+        <v>1.7</v>
       </c>
       <c r="G10" t="n">
-        <v>0.74</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10-02-2025 15:00</t>
+          <t>11-02-2025 14:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>INDIA</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>INDIAN SUPER LEAGUE</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Odisha - Minerva Punjab</t>
+          <t>SKAF Khémis Mélina - RC Arba</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>53.3</v>
+        <v>66.7</v>
       </c>
       <c r="F11" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="G11" t="n">
-        <v>0.12</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>10-02-2025 13:00</t>
+          <t>11-02-2025 14:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Malut United - Pusamania Borneo</t>
+          <t>Témouchent - RC Kouba</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>50</v>
+        <v>55.7</v>
       </c>
       <c r="F12" t="n">
-        <v>2.35</v>
+        <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>0.18</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10-02-2025 21:00</t>
+          <t>11-02-2025 14:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PERU</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Cultural Santa Rosa - Deportivo Garcilaso</t>
+          <t>GC Mascara - MC Saida</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>66.7</v>
+        <v>55</v>
       </c>
       <c r="F13" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>10-02-2025 19:00</t>
+          <t>11-02-2025 14:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SEGUNDA LIGA</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Torreense - Vizela</t>
+          <t>JS El Biar - ASM Oran</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F14" t="n">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="G14" t="n">
-        <v>0.38</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>10-02-2025 17:00</t>
+          <t>11-02-2025 10:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DIVISION 1</t>
+          <t>U21 LEAGUE 1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jeddah Club - Al Baten</t>
+          <t>El Bayadh U21 - ES Sétif U21</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F15" t="n">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>10-02-2025 18:00</t>
+          <t>11-02-2025 15:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SÜPER LIG</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Trabzonspor - Eyüpspor</t>
+          <t>Pharco - Zamalek SC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F16" t="n">
-        <v>1.74</v>
+        <v>4.4</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>11-02-2025 21:00</t>
+          <t>11-02-2025 15:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sporting CP - Borussia Dortmund</t>
+          <t>Petrojet - Smouha SC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>56.7</v>
+        <v>62.3</v>
       </c>
       <c r="F17" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="G17" t="n">
-        <v>0.25</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>11-02-2025 21:00</t>
+          <t>11-02-2025 20:45</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Juventus - PSV Eindhoven</t>
+          <t>Leamington - Warrington Town</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>66.7</v>
+        <v>70</v>
       </c>
       <c r="F18" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="G18" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>11-02-2025 21:00</t>
+          <t>11-02-2025 20:45</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Manchester City - Real Madrid</t>
+          <t>Enfield Town - Welling United</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>58.3</v>
+        <v>60</v>
       </c>
       <c r="F19" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="G19" t="n">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="20">
@@ -2234,22 +2274,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Charlton - Peterborough</t>
+          <t>St Albans City - Slough Town</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>53.3</v>
+        <v>62.3</v>
       </c>
       <c r="F20" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="21">
@@ -2265,28 +2305,28 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Tranmere - Fleetwood Town</t>
+          <t>Truro City - Farnborough</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>73.3</v>
+        <v>62.3</v>
       </c>
       <c r="F21" t="n">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="G21" t="n">
-        <v>1.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>11-02-2025 20:30</t>
+          <t>11-02-2025 20:45</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2296,22 +2336,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>EFL TROPHY</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Wrexham - Bolton</t>
+          <t>Worthing - Torquay</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="F22" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="23">
@@ -2322,89 +2362,89 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>NATIONAL LEAGUE CUP</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cove Rangers - Montrose</t>
+          <t>Maidenhead - Southampton U21</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>53.3</v>
+        <v>70</v>
       </c>
       <c r="F23" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="G23" t="n">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>11-02-2025 01:30</t>
+          <t>11-02-2025 20:45</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PRIMERA NACIONAL</t>
+          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Agropecuario - Chacarita Juniors</t>
+          <t>Potters Bar Town - Wingate &amp; Finchley</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>69</v>
+        <v>51.3</v>
       </c>
       <c r="F24" t="n">
-        <v>1.91</v>
+        <v>2.35</v>
       </c>
       <c r="G24" t="n">
-        <v>0.32</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>11-02-2025 15:00</t>
+          <t>11-02-2025 20:45</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Pharco - Zamalek SC</t>
+          <t>Whitehawk - Hendon</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F25" t="n">
-        <v>4.4</v>
+        <v>2.6</v>
       </c>
       <c r="G25" t="n">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="26">
@@ -2420,22 +2460,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>NON LEAGUE PREMIER - NORTHERN</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Leamington - Warrington Town</t>
+          <t>Bamber Bridge - Workington</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F26" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="27">
@@ -2451,12 +2491,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>NON LEAGUE PREMIER - NORTHERN</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Enfield Town - Welling United</t>
+          <t>Hyde United - Ilkeston Town</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -2482,28 +2522,28 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>St Albans City - Slough Town</t>
+          <t>Leiston - St Ives Town</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>62.3</v>
+        <v>75.7</v>
       </c>
       <c r="F28" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="G28" t="n">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>11-02-2025 14:00</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2513,28 +2553,28 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Truro City - Farnborough</t>
+          <t>Queens Park Rangers U21 - AFC Bournemouth U21</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>62.3</v>
+        <v>50</v>
       </c>
       <c r="F29" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="G29" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>11-02-2025 14:00</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2544,28 +2584,28 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Worthing - Torquay</t>
+          <t>Wigan Athletic U21 - Peterborough United U21</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>66.7</v>
+        <v>73.3</v>
       </c>
       <c r="F30" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="G30" t="n">
-        <v>0.53</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>11-02-2025 15:00</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2575,301 +2615,549 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE CUP</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Maidenhead - Southampton U21</t>
+          <t>Cardiff City U21 - Swansea City U21</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F31" t="n">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="G31" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>11-02-2025 20:00</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ICELAND</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
+          <t>LEAGUE CUP</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Potters Bar Town - Wingate &amp; Finchley</t>
+          <t>Selfoss - Stjarnan</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>51.3</v>
+        <v>60</v>
       </c>
       <c r="F32" t="n">
-        <v>2.35</v>
+        <v>8</v>
       </c>
       <c r="G32" t="n">
-        <v>0.21</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>11-02-2025 12:00</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
+          <t>LIGA REVELAÇÃO U23</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Whitehawk - Hendon</t>
+          <t>Famalicão U23 - Estoril U23</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>80</v>
+        <v>62.3</v>
       </c>
       <c r="F33" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="G33" t="n">
-        <v>1.08</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>11-02-2025 16:30</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - NORTHERN</t>
+          <t>LIGA REVELAÇÃO U23</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Bamber Bridge - Workington</t>
+          <t>Portimonense U23 - Mafra U23</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>11-02-2025 12:00</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - NORTHERN</t>
+          <t>LIGA REVELAÇÃO U23</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Hyde United - Ilkeston Town</t>
+          <t>Farense U23 - Academico Viseu U23</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F35" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="G35" t="n">
-        <v>0.38</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>11-02-2025 18:00</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
+          <t>1. LIG</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Leiston - St Ives Town</t>
+          <t>Manisa BBSK - Kocaelispor</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>75.7</v>
+        <v>53.3</v>
       </c>
       <c r="F36" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="G36" t="n">
-        <v>0.36</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>11-02-2025 14:00</t>
+          <t>11-02-2025 13:00</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>AFC CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Queens Park Rangers U21 - AFC Bournemouth U21</t>
+          <t>Shandong Luneng - Gwangju FC</t>
         </is>
       </c>
       <c r="E37" t="n">
         <v>50</v>
       </c>
       <c r="F37" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>11-02-2025 03:05</t>
+          <t>12-02-2025 21:00</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>LIGA PREMIER SERIE A</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Faraones Texcoco - Montañeses</t>
+          <t>Feyenoord - AC Milan</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F38" t="n">
-        <v>1.91</v>
+        <v>3</v>
       </c>
       <c r="G38" t="n">
-        <v>0.34</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>11-02-2025 18:00</t>
+          <t>12-02-2025 20:45</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1. LIG</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Manisa BBSK - Kocaelispor</t>
+          <t>Swansea - Sheffield Wednesday</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>53.3</v>
+        <v>51.7</v>
       </c>
       <c r="F39" t="n">
-        <v>3.1</v>
+        <v>2.38</v>
       </c>
       <c r="G39" t="n">
-        <v>0.65</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>11-02-2025 13:00</t>
+          <t>12-02-2025 21:00</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Sheffield Utd - Middlesbrough</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>12-02-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Sunderland - Luton</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>12-02-2025 21:00</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>West Brom - Blackburn</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>60</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>13-02-2025 00:00</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ARGENTINA</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>LIGA PROFESIONAL ARGENTINA</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Argentinos JRS - Huracan</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>13-02-2025 00:00</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ARGENTINA</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>LIGA PROFESIONAL ARGENTINA</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Independiente - Velez Sarsfield</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>12-02-2025 01:30</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>COPA DO NORDESTE</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Sousa - Sport Recife</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>60</v>
+      </c>
+      <c r="F45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>12-02-2025 22:30</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>COLOMBIA</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>PRIMERA A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Deportivo Pasto - Chico</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>12-02-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>INDIA</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>INDIAN SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Mumbai City - Goa</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>60</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>12-02-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
           <t>WORLD</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>AFC CHAMPIONS LEAGUE</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Shandong Luneng - Gwangju FC</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Buriram United - Ulsan Hyundai FC</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
         <v>50</v>
       </c>
-      <c r="F40" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.1</v>
+      <c r="F48" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
@@ -2883,7 +3171,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2931,218 +3219,218 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10-02-2025 19:00</t>
+          <t>11-02-2025 23:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGA I</t>
+          <t>CAPIXABA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Uta Arad - CFR 1907 Cluj</t>
+          <t>Real Noroeste - Jaguaré</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>65</v>
+        <v>53.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="G2" t="n">
-        <v>0.17</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10-02-2025 20:45</t>
+          <t>11-02-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>FA CUP</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ST Mirren - Heart Of Midlothian</t>
+          <t>Alfreton Town - Darlington 1883</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>53.3</v>
+        <v>63.3</v>
       </c>
       <c r="F3" t="n">
-        <v>2.15</v>
+        <v>2.63</v>
       </c>
       <c r="G3" t="n">
-        <v>0.15</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10-02-2025 14:00</t>
+          <t>11-02-2025 20:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PARAENSE</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sao Francisco - Águia De Marabá</t>
+          <t>Marine - Rushall Olympic</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="G4" t="n">
-        <v>0.37</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10-02-2025 16:00</t>
+          <t>11-02-2025 20:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ETHIOPIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Dire Dawa Kenema - Ethiopian Medhin</t>
+          <t>Needham Market - Hereford</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="G5" t="n">
-        <v>0.15</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10-02-2025 18:00</t>
+          <t>11-02-2025 20:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LIGA LEUMIT</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hapoel Kfar Shalem - Hapoel Acre</t>
+          <t>Peterborough Sports - Oxford City</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>4.33</v>
+        <v>3.3</v>
       </c>
       <c r="G6" t="n">
-        <v>1.16</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10-02-2025 20:30</t>
+          <t>11-02-2025 20:45</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE A</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Triestina - Trento</t>
+          <t>Scunthorpe - Curzon Ashton</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>51.7</v>
+        <v>53.3</v>
       </c>
       <c r="F7" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="G7" t="n">
-        <v>0.86</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>11-02-2025 02:00</t>
+          <t>11-02-2025 20:45</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>COSTA-RICA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LIGA DE ASCENSO</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>AD Carmelita - Inter San Carlos</t>
+          <t>AFC Hornchurch - Boreham Wood</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="F8" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="9">
@@ -3158,22 +3446,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Alfreton Town - Darlington 1883</t>
+          <t>Hastings United - Canvey Island</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>63.3</v>
+        <v>56.7</v>
       </c>
       <c r="F9" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="G9" t="n">
-        <v>0.66</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="10">
@@ -3189,22 +3477,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Marine - Rushall Olympic</t>
+          <t>Biggleswade Town - Lowestoft Town</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>50</v>
       </c>
       <c r="F10" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="G10" t="n">
-        <v>0.75</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="11">
@@ -3220,28 +3508,28 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Needham Market - Hereford</t>
+          <t>Chertsey Town - Walton &amp; Hersham</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F11" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>11-02-2025 15:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3251,121 +3539,121 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Scunthorpe - Curzon Ashton</t>
+          <t>Sheffield Wednesday U21 - Hull City U21</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F12" t="n">
-        <v>4.33</v>
+        <v>2.38</v>
       </c>
       <c r="G12" t="n">
-        <v>1.31</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>11-02-2025 15:30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>OMAN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>AFC Hornchurch - Boreham Wood</t>
+          <t>Bahla - Al-Khabourah</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>50</v>
       </c>
       <c r="F13" t="n">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>11-02-2025 13:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
+          <t>LIGA REVELAÇÃO U23</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Hastings United - Canvey Island</t>
+          <t>Santa Clara U23 - Sporting Braga U23</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>56.7</v>
+        <v>60</v>
       </c>
       <c r="F14" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="G14" t="n">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>12-02-2025 21:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Biggleswade Town - Lowestoft Town</t>
+          <t>Monaco - Benfica</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F15" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>0.38</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>12-02-2025 20:45</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3375,22 +3663,146 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Chertsey Town - Walton &amp; Hersham</t>
+          <t>Plymouth - Millwall</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>60</v>
       </c>
       <c r="F16" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="G16" t="n">
-        <v>0.44</v>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>12-02-2025 02:15</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ARGENTINA</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>LIGA PROFESIONAL ARGENTINA</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Tigre - Racing Club</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>12-02-2025 23:30</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>PAULISTA - A1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Noroeste - São Bernardo</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>50</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>12-02-2025 00:30</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>COLOMBIA</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>PRIMERA A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Llaneros - Millonarios</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>12-02-2025 04:00</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Cruz Azul - Real Du Cap</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>50</v>
+      </c>
+      <c r="F20" t="n">
+        <v>56</v>
+      </c>
+      <c r="G20" t="n">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3404,7 +3816,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3452,94 +3864,94 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>11-02-2025 00:00</t>
+          <t>11-02-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CARIOCA - 1</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sampaio Corrêa RJ - Vasco DA Gama</t>
+          <t>Juventus - PSV Eindhoven</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.58</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10-02-2025 13:55</t>
+          <t>11-02-2025 21:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIVISION 1</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Hazm - Al Taee</t>
+          <t>Norwich - Preston</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="G3" t="n">
-        <v>0.65</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>11-02-2025 21:00</t>
+          <t>11-02-2025 20:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Juventus - PSV Eindhoven</t>
+          <t>Watford - Leeds</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="5">
@@ -3555,22 +3967,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Norwich - Preston</t>
+          <t>Reading - Shrewsbury</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>70</v>
       </c>
       <c r="F5" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="G5" t="n">
-        <v>0.36</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="6">
@@ -3586,28 +3998,28 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Watford - Leeds</t>
+          <t>Bradford - Accrington ST</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>70</v>
+        <v>76.8</v>
       </c>
       <c r="F6" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="G6" t="n">
-        <v>0.21</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>11-02-2025 21:00</t>
+          <t>11-02-2025 20:45</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3617,53 +4029,53 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Reading - Shrewsbury</t>
+          <t>Oldham - Altrincham</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F7" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="G7" t="n">
-        <v>0.21</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>11-02-2025 18:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Bradford - Accrington ST</t>
+          <t>Al Ahly - Ghazl El Mehalla</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>76.8</v>
+        <v>70</v>
       </c>
       <c r="F8" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="9">
@@ -3679,121 +4091,121 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Oldham - Altrincham</t>
+          <t>Marine - Rushall Olympic</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>90</v>
+        <v>73.3</v>
       </c>
       <c r="F9" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="G9" t="n">
-        <v>0.76</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>11-02-2025 18:00</t>
+          <t>11-02-2025 20:45</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al Ahly - Ghazl El Mehalla</t>
+          <t>Worthing - Torquay</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>70</v>
       </c>
       <c r="F10" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="G10" t="n">
-        <v>0.43</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>11-02-2025 16:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>LIGA REVELAÇÃO U23</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Marine - Rushall Olympic</t>
+          <t>Gil Vicente U23 - Estrela U23</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>73.3</v>
+        <v>90</v>
       </c>
       <c r="F11" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="G11" t="n">
-        <v>0.32</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>12-02-2025 21:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Worthing - Torquay</t>
+          <t>Feyenoord - AC Milan</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F12" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="G12" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>11-02-2025 02:00</t>
+          <t>12-02-2025 21:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3803,22 +4215,53 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SUDAMERICANO U20</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Chile U20 - Uruguay U20</t>
+          <t>Monaco - Benfica</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F13" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="G13" t="n">
-        <v>0.43</v>
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>12-02-2025 01:30</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>GAÚCHO - 1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Gremio - Pelotas</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>70</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>
@@ -3832,7 +4275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3880,497 +4323,497 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10-02-2025 20:45</t>
+          <t>11-02-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SERIE A</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Inter - Fiorentina</t>
+          <t>Juventus - PSV Eindhoven</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>66.7</v>
+        <v>76.7</v>
       </c>
       <c r="F2" t="n">
         <v>1.8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10-02-2025 21:00</t>
+          <t>11-02-2025 21:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LA LIGA</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Mallorca - Osasuna</t>
+          <t>Norwich - Preston</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="G3" t="n">
-        <v>0.57</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10-02-2025 17:00</t>
+          <t>11-02-2025 21:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GREECE</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SUPER LEAGUE 1</t>
+          <t>FA CUP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Atromitos - Kallithea</t>
+          <t>Exeter City - Nottingham Forest</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F4" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10-02-2025 16:00</t>
+          <t>11-02-2025 20:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LIGA I</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Farul Constanta - SCM Gloria Buzău</t>
+          <t>Bristol Rovers - Stockport County</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>83.3</v>
+        <v>76</v>
       </c>
       <c r="F5" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="G5" t="n">
-        <v>0.52</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>11-02-2025 00:00</t>
+          <t>11-02-2025 20:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CARIOCA - 1</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sampaio Corrêa RJ - Vasco DA Gama</t>
+          <t>Tranmere - Fleetwood Town</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>66.7</v>
+        <v>80</v>
       </c>
       <c r="F6" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10-02-2025 14:00</t>
+          <t>11-02-2025 20:45</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SECOND LEAGUE</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tanta SC - Proxy</t>
+          <t>Bradford - Accrington ST</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>76.7</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10-02-2025 16:30</t>
+          <t>11-02-2025 20:45</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SECOND LEAGUE</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tersana - Dayrout</t>
+          <t>Barrow - Milton Keynes Dons</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>68</v>
+        <v>66.7</v>
       </c>
       <c r="F8" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="G8" t="n">
-        <v>0.53</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10-02-2025 13:00</t>
+          <t>11-02-2025 20:45</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Malut United - Pusamania Borneo</t>
+          <t>Gateshead - Braintree</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F9" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="G9" t="n">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10-02-2025 19:00</t>
+          <t>11-02-2025 20:45</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>POLAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>EKSTRAKLASA</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Puszcza Niepołomice - Zaglebie Lubin</t>
+          <t>Hartlepool - Tamworth</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>73.3</v>
+        <v>76.7</v>
       </c>
       <c r="F10" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="G10" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11-02-2025 21:00</t>
+          <t>11-02-2025 20:45</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Juventus - PSV Eindhoven</t>
+          <t>Oldham - Altrincham</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>76.7</v>
+        <v>86.7</v>
       </c>
       <c r="F11" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="G11" t="n">
-        <v>0.38</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11-02-2025 21:00</t>
+          <t>11-02-2025 14:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Norwich - Preston</t>
+          <t>US Chaouia - Oued Magrane</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F12" t="n">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="G12" t="n">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>11-02-2025 21:00</t>
+          <t>11-02-2025 14:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>FA CUP</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Exeter City - Nottingham Forest</t>
+          <t>US Souf - MO Constantine</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F13" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>11-02-2025 14:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Bristol Rovers - Stockport County</t>
+          <t>WA Mostaganem - Oued Sly</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>76</v>
+        <v>83.3</v>
       </c>
       <c r="F14" t="n">
-        <v>1.91</v>
+        <v>2.4</v>
       </c>
       <c r="G14" t="n">
-        <v>0.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>11-02-2025 21:45</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>LIGA PROFESIONAL ARGENTINA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Tranmere - Fleetwood Town</t>
+          <t>Barracas Central - Central Cordoba De Santiago</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>80</v>
+        <v>66.7</v>
       </c>
       <c r="F15" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="G15" t="n">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>12-02-2025 00:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>COPA CHILE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Bradford - Accrington ST</t>
+          <t>Deportes Copiapo - Antofagasta</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>68.90000000000001</v>
+        <v>76</v>
       </c>
       <c r="F16" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="G16" t="n">
-        <v>0.24</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>11-02-2025 15:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Barrow - Milton Keynes Dons</t>
+          <t>Pharco - Zamalek SC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>66.7</v>
+        <v>74.2</v>
       </c>
       <c r="F17" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="18">
@@ -4386,22 +4829,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Gateshead - Braintree</t>
+          <t>Leamington - Warrington Town</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F18" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="G18" t="n">
-        <v>0.53</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="19">
@@ -4417,22 +4860,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Hartlepool - Tamworth</t>
+          <t>Needham Market - Hereford</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>76.7</v>
+        <v>68</v>
       </c>
       <c r="F19" t="n">
         <v>1.73</v>
       </c>
       <c r="G19" t="n">
-        <v>0.33</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="20">
@@ -4448,115 +4891,115 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Oldham - Altrincham</t>
+          <t>Spennymoor Town - Radcliffe</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>86.7</v>
+        <v>80</v>
       </c>
       <c r="F20" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="G20" t="n">
-        <v>0.52</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>11-02-2025 21:45</t>
+          <t>11-02-2025 20:45</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>LIGA PROFESIONAL ARGENTINA</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Barracas Central - Central Cordoba De Santiago</t>
+          <t>Dorking Wanderers - Tonbridge Angels</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>66.7</v>
+        <v>76.7</v>
       </c>
       <c r="F21" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="G21" t="n">
-        <v>0.47</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>12-02-2025 00:00</t>
+          <t>11-02-2025 20:45</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CHILE</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>COPA CHILE</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Deportes Copiapo - Antofagasta</t>
+          <t>AFC Hornchurch - Boreham Wood</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F22" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="G22" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>11-02-2025 15:00</t>
+          <t>11-02-2025 20:45</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Pharco - Zamalek SC</t>
+          <t>Truro City - Farnborough</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>74.2</v>
+        <v>66.7</v>
       </c>
       <c r="F23" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="G23" t="n">
-        <v>0.52</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="24">
@@ -4572,22 +5015,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Leamington - Warrington Town</t>
+          <t>Weston-super-Mare - Salisbury</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F24" t="n">
         <v>1.85</v>
       </c>
       <c r="G24" t="n">
-        <v>0.41</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="25">
@@ -4603,84 +5046,84 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Needham Market - Hereford</t>
+          <t>Weymouth - Bath City</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>68</v>
+        <v>69.2</v>
       </c>
       <c r="F25" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="G25" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>11-02-2025 12:00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>LIGA REVELAÇÃO U23</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Spennymoor Town - Radcliffe</t>
+          <t>Famalicão U23 - Estoril U23</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>80</v>
+        <v>74.5</v>
       </c>
       <c r="F26" t="n">
         <v>1.73</v>
       </c>
       <c r="G26" t="n">
-        <v>0.38</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>11-02-2025 18:00</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>1. LIG</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Dorking Wanderers - Tonbridge Angels</t>
+          <t>Manisa BBSK - Kocaelispor</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>76.7</v>
+        <v>70</v>
       </c>
       <c r="F27" t="n">
         <v>1.8</v>
       </c>
       <c r="G27" t="n">
-        <v>0.38</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="28">
@@ -4691,33 +5134,33 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WALES</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>AFC Hornchurch - Boreham Wood</t>
+          <t>Caernarfon Town - The New Saints</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F28" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>12-02-2025 20:45</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4727,28 +5170,28 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Truro City - Farnborough</t>
+          <t>Sunderland - Luton</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>66.7</v>
+        <v>86.7</v>
       </c>
       <c r="F29" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>12-02-2025 21:00</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4758,115 +5201,84 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Weston-super-Mare - Salisbury</t>
+          <t>West Brom - Blackburn</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>70</v>
+        <v>66.7</v>
       </c>
       <c r="F30" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="G30" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>12-02-2025 02:00</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Weymouth - Bath City</t>
+          <t>Monterrey - Forge</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>69.2</v>
+        <v>72</v>
       </c>
       <c r="F31" t="n">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="G31" t="n">
-        <v>0.25</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>11-02-2025 18:00</t>
+          <t>12-02-2025 04:00</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1. LIG</t>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Manisa BBSK - Kocaelispor</t>
+          <t>Cruz Azul - Real Du Cap</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F32" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="G32" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>11-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>WALES</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Caernarfon Town - The New Saints</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.25</v>
+        <v>0.63</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,162 +475,162 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>13-02-2025 00:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>LIGA PROFESIONAL ARGENTINA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tranmere - Fleetwood Town</t>
+          <t>Independiente - Velez Sarsfield</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>12-02-2025 19:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>PARANAENSE - 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Leamington - Warrington Town</t>
+          <t>Independiente FSJ - Rio Branco PR</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>70</v>
+        <v>86.7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>13-02-2025 21:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE CUP</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Maidenhead - Southampton U21</t>
+          <t>FC Copenhagen - 1. FC Heidenheim</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F4" t="n">
-        <v>2.38</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>13-02-2025 18:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Whitehawk - Hendon</t>
+          <t>FC Midtjylland - Real Sociedad</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F5" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>13-02-2025 21:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Leiston - St Ives Town</t>
+          <t>Twente - Bodo/Glimt</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>75.7</v>
+        <v>70</v>
       </c>
       <c r="F6" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>11-02-2025 14:00</t>
+          <t>13-02-2025 21:45</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>LIGA PROFESIONAL ARGENTINA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Wigan Athletic U21 - Peterborough United U21</t>
+          <t>Lanus - Gimnasia L.P.</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -638,62 +638,6 @@
       </c>
       <c r="F7" t="n">
         <v>1.9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>11-02-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Cardiff City U21 - Swansea City U21</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2.05</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>13-02-2025 00:00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ARGENTINA</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>LIGA PROFESIONAL ARGENTINA</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Independiente - Velez Sarsfield</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.05</v>
       </c>
     </row>
   </sheetData>
@@ -750,57 +694,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09-02-2025 12:00</t>
+          <t>13-02-2025 12:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>INDIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3. LIG - GROUP 2</t>
+          <t>I-LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Adıyaman 1954 - Fatsa Belediyespor</t>
+          <t>Dempo - Namdhari</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>09-02-2025 14:15</t>
+          <t>13-02-2025 15:10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>UNITED-ARAB-EMIRATES</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIVISION 1</t>
+          <t>PRO LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Gulf United - Al Thaid</t>
+          <t>Al Akhdoud - Damac</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F3" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
     </row>
   </sheetData>
@@ -814,7 +758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -857,35 +801,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>11-02-2025 21:00</t>
+          <t>12-02-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Juventus - PSV Eindhoven</t>
+          <t>Sunderland - Luton</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>76.7</v>
+        <v>86.7</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>11-02-2025 21:00</t>
+          <t>12-02-2025 21:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -900,350 +844,98 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Norwich - Preston</t>
+          <t>West Brom - Blackburn</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>76.7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>13-02-2025 00:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>PAULISTA - A4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Bristol Rovers - Stockport County</t>
+          <t>Inter De Bebedouro - Nacional SP</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F4" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>13-02-2025 15:10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>PRO LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tranmere - Fleetwood Town</t>
+          <t>Al Akhdoud - Damac</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>80</v>
+        <v>83.3</v>
       </c>
       <c r="F5" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>13-02-2025 02:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Gateshead - Braintree</t>
+          <t>Guadalajara Chivas - Cibao</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F6" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>11-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Hartlepool - Tamworth</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>11-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Oldham - Altrincham</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>11-02-2025 14:00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ALGERIA</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>LIGUE 2</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>WA Mostaganem - Oued Sly</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>83.3</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>12-02-2025 00:00</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>CHILE</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>COPA CHILE</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Deportes Copiapo - Antofagasta</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>76</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>11-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Leamington - Warrington Town</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>76</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Spennymoor Town - Radcliffe</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>80</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>11-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Dorking Wanderers - Tonbridge Angels</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>11-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>AFC Hornchurch - Boreham Wood</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>80</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>12-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Sunderland - Luton</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
+        <v>2.45</v>
       </c>
     </row>
   </sheetData>
@@ -1257,7 +949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1310,7 +1002,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>11-02-2025 21:00</t>
+          <t>12-02-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1325,326 +1017,190 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Juventus - PSV Eindhoven</t>
+          <t>Monaco - Benfica</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="G2" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>11-02-2025 21:00</t>
+          <t>12-02-2025 16:10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Manchester City - Real Madrid</t>
+          <t>Al Jubail - Al-Faisaly FC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>78.8</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="G3" t="n">
-        <v>62.5</v>
+        <v>33.3</v>
       </c>
       <c r="H3" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>11-02-2025 21:00</t>
+          <t>12-02-2025 12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>THAILAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FA CUP</t>
+          <t>THAI LEAGUE 2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Exeter City - Nottingham Forest</t>
+          <t>Nakhon Si Thammarat - Phrae United</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>86.7</v>
+        <v>65</v>
       </c>
       <c r="F4" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="G4" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="H4" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>11-02-2025 21:00</t>
+          <t>12-02-2025 13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>THAILAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>THAI LEAGUE 2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Reading - Shrewsbury</t>
+          <t>Chonburi FC - Bangkok</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>86.7</v>
       </c>
       <c r="F5" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="G5" t="n">
         <v>60</v>
       </c>
       <c r="H5" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>13-02-2025 18:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Gateshead - Braintree</t>
+          <t>Celje - Apoel Nicosia</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F6" t="n">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="G6" t="n">
         <v>60</v>
       </c>
       <c r="H6" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>13-02-2025 18:45</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Oldham - Altrincham</t>
+          <t>Ferencvarosi TC - Plzen</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F7" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="G7" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>11-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Dartford - Chichester City</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>80</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G8" t="n">
-        <v>60</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>11-02-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>LIGA REVELAÇÃO U23</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Gil Vicente U23 - Estrela U23</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>90</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="G9" t="n">
-        <v>75</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.88</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>12-02-2025 21:00</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Feyenoord - AC Milan</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>80</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="G10" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>12-02-2025 21:00</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Monaco - Benfica</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>70</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="G11" t="n">
-        <v>70</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
     </row>
   </sheetData>
@@ -1658,7 +1214,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1706,7 +1262,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>11-02-2025 21:00</t>
+          <t>12-02-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1721,69 +1277,69 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sporting CP - Borussia Dortmund</t>
+          <t>Feyenoord - AC Milan</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>56.7</v>
+        <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="G2" t="n">
-        <v>0.25</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>11-02-2025 21:00</t>
+          <t>12-02-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Juventus - PSV Eindhoven</t>
+          <t>Swansea - Sheffield Wednesday</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>66.7</v>
+        <v>58.3</v>
       </c>
       <c r="F3" t="n">
-        <v>1.91</v>
+        <v>2.55</v>
       </c>
       <c r="G3" t="n">
-        <v>0.27</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>11-02-2025 21:00</t>
+          <t>12-02-2025 21:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Manchester City - Real Madrid</t>
+          <t>Sheffield Utd - Middlesbrough</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -1799,7 +1355,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>12-02-2025 21:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1809,694 +1365,694 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Charlton - Peterborough</t>
+          <t>West Brom - Blackburn</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F5" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>12-02-2025 16:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tranmere - Fleetwood Town</t>
+          <t>JS Saoura - MC Oran</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>73.3</v>
+        <v>53.3</v>
       </c>
       <c r="F6" t="n">
-        <v>2.8</v>
+        <v>1.91</v>
       </c>
       <c r="G6" t="n">
-        <v>1.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>11-02-2025 20:30</t>
+          <t>13-02-2025 00:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EFL TROPHY</t>
+          <t>LIGA PROFESIONAL ARGENTINA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Wrexham - Bolton</t>
+          <t>Argentinos JRS - Huracan</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F7" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>13-02-2025 00:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>LIGA PROFESIONAL ARGENTINA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Cove Rangers - Montrose</t>
+          <t>Independiente - Velez Sarsfield</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>53.3</v>
+        <v>73.3</v>
       </c>
       <c r="F8" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>11-02-2025 14:00</t>
+          <t>12-02-2025 23:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LIGUE 2</t>
+          <t>CAPIXABA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MSP Batna - CA Batna</t>
+          <t>Vitória ES - Capixaba SC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>63.3</v>
+        <v>53.3</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="G9" t="n">
-        <v>0.27</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>11-02-2025 14:00</t>
+          <t>12-02-2025 19:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LIGUE 2</t>
+          <t>PARANAENSE - 1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>IB Khémis El Khechna - Teleghma</t>
+          <t>Independiente FSJ - Rio Branco PR</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>50</v>
+        <v>86.7</v>
       </c>
       <c r="F10" t="n">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.15</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11-02-2025 14:00</t>
+          <t>13-02-2025 00:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LIGUE 2</t>
+          <t>PAULISTA - A4</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SKAF Khémis Mélina - RC Arba</t>
+          <t>Inter De Bebedouro - Nacional SP</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="F11" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.27</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11-02-2025 14:00</t>
+          <t>12-02-2025 22:30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>COLOMBIA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LIGUE 2</t>
+          <t>PRIMERA A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Témouchent - RC Kouba</t>
+          <t>Deportivo Pasto - Chico</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>55.7</v>
+        <v>66.7</v>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>1.74</v>
       </c>
       <c r="G12" t="n">
-        <v>1.78</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>11-02-2025 14:00</t>
+          <t>12-02-2025 15:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>INDIA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LIGUE 2</t>
+          <t>INDIAN SUPER LEAGUE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>GC Mascara - MC Saida</t>
+          <t>Mumbai City - Goa</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F13" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.04</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11-02-2025 14:00</t>
+          <t>12-02-2025 09:30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LIGUE 2</t>
+          <t>LIGA 2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>JS El Biar - ASM Oran</t>
+          <t>Deltras - PSIM Yogyakarta</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>60</v>
       </c>
       <c r="F14" t="n">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="G14" t="n">
-        <v>0.11</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>11-02-2025 10:00</t>
+          <t>12-02-2025 21:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>JAMAICA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>U21 LEAGUE 1</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>El Bayadh U21 - ES Sétif U21</t>
+          <t>Tivoli Gardens - Chapelton</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F15" t="n">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="G15" t="n">
-        <v>0.87</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>11-02-2025 15:00</t>
+          <t>12-02-2025 12:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>THAILAND</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>THAI LEAGUE 2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Pharco - Zamalek SC</t>
+          <t>Nakhon Si Thammarat - Phrae United</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F16" t="n">
-        <v>4.4</v>
+        <v>2.8</v>
       </c>
       <c r="G16" t="n">
-        <v>1.2</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>11-02-2025 15:00</t>
+          <t>12-02-2025 12:30</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>THAILAND</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>THAI LEAGUE 2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Petrojet - Smouha SC</t>
+          <t>Trat FC - Ayutthaya FC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>62.3</v>
+        <v>53.3</v>
       </c>
       <c r="F17" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="G17" t="n">
-        <v>0.71</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>12-02-2025 13:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>THAILAND</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>THAI LEAGUE 2</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Leamington - Warrington Town</t>
+          <t>Police Tero - Chiangmai United</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>70</v>
+        <v>53.3</v>
       </c>
       <c r="F18" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="G18" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>12-02-2025 12:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>2. LIG</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Enfield Town - Welling United</t>
+          <t>Kepez Belediyespor - İnegölspor</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F19" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="G19" t="n">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>12-02-2025 11:30</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>2. LIG</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>St Albans City - Slough Town</t>
+          <t>İçel İdmanyurdu Spor - Ankara Demirspor</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>62.3</v>
+        <v>53.3</v>
       </c>
       <c r="F20" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="G20" t="n">
-        <v>0.43</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>12-02-2025 13:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>AFC CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Truro City - Farnborough</t>
+          <t>Buriram United - Ulsan Hyundai FC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>62.3</v>
+        <v>50</v>
       </c>
       <c r="F21" t="n">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="G21" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>12-02-2025 16:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>UEFA YOUTH LEAGUE</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Worthing - Torquay</t>
+          <t>Puskás Akadémia U19 - Aston Villa U19</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="F22" t="n">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="G22" t="n">
-        <v>0.53</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>13-02-2025 21:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE CUP</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Maidenhead - Southampton U21</t>
+          <t>Gent - Real Betis</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F23" t="n">
-        <v>2.38</v>
+        <v>3.6</v>
       </c>
       <c r="G23" t="n">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>13-02-2025 21:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Potters Bar Town - Wingate &amp; Finchley</t>
+          <t>FC Copenhagen - 1. FC Heidenheim</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>51.3</v>
+        <v>90</v>
       </c>
       <c r="F24" t="n">
-        <v>2.35</v>
+        <v>1.75</v>
       </c>
       <c r="G24" t="n">
-        <v>0.21</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>13-02-2025 18:45</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Whitehawk - Hendon</t>
+          <t>Vikingur Reykjavik - Panathinaikos</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F25" t="n">
-        <v>2.6</v>
+        <v>6.25</v>
       </c>
       <c r="G25" t="n">
-        <v>1.08</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>13-02-2025 18:45</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - NORTHERN</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Bamber Bridge - Workington</t>
+          <t>FC Midtjylland - Real Sociedad</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>13-02-2025 18:45</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - NORTHERN</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Hyde United - Ilkeston Town</t>
+          <t>Union St. Gilloise - Ajax</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -2512,29 +2068,29 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>13-02-2025 21:00</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Leiston - St Ives Town</t>
+          <t>Twente - Bodo/Glimt</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>75.7</v>
+        <v>70</v>
       </c>
       <c r="F28" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="G28" t="n">
         <v>0.36</v>
@@ -2543,53 +2099,53 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>11-02-2025 14:00</t>
+          <t>13-02-2025 01:30</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Queens Park Rangers U21 - AFC Bournemouth U21</t>
+          <t>Alianza Lima - Nacional Asuncion</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F29" t="n">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>11-02-2025 14:00</t>
+          <t>13-02-2025 21:45</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>LIGA PROFESIONAL ARGENTINA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Wigan Athletic U21 - Peterborough United U21</t>
+          <t>Lanus - Gimnasia L.P.</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -2605,559 +2161,125 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>11-02-2025 15:00</t>
+          <t>14-02-2025 00:00</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>CATARINENSE - 1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Cardiff City U21 - Swansea City U21</t>
+          <t>Hercílio Luz - Joinville</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>73.3</v>
+        <v>51.7</v>
       </c>
       <c r="F31" t="n">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>11-02-2025 20:00</t>
+          <t>13-02-2025 01:35</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ICELAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>LEAGUE CUP</t>
+          <t>PAULISTA - A1</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Selfoss - Stjarnan</t>
+          <t>Corinthians - Santos</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F32" t="n">
-        <v>8</v>
+        <v>1.73</v>
       </c>
       <c r="G32" t="n">
-        <v>3.8</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>11-02-2025 12:00</t>
+          <t>14-02-2025 00:30</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>COLOMBIA</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>LIGA REVELAÇÃO U23</t>
+          <t>PRIMERA A</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Famalicão U23 - Estoril U23</t>
+          <t>Junior - Once Caldas</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>62.3</v>
+        <v>53.3</v>
       </c>
       <c r="F33" t="n">
-        <v>2.3</v>
+        <v>1.88</v>
       </c>
       <c r="G33" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>11-02-2025 16:30</t>
+          <t>13-02-2025 15:00</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>LIGA REVELAÇÃO U23</t>
+          <t>1. LIG</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Portimonense U23 - Mafra U23</t>
+          <t>Şanlıurfaspor - Sakaryaspor</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>66.7</v>
+        <v>53.3</v>
       </c>
       <c r="F34" t="n">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="G34" t="n">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>11-02-2025 12:00</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>LIGA REVELAÇÃO U23</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Farense U23 - Academico Viseu U23</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F35" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>11-02-2025 18:00</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>1. LIG</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Manisa BBSK - Kocaelispor</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F36" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>11-02-2025 13:00</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>AFC CHAMPIONS LEAGUE</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Shandong Luneng - Gwangju FC</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>50</v>
-      </c>
-      <c r="F37" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>12-02-2025 21:00</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Feyenoord - AC Milan</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>50</v>
-      </c>
-      <c r="F38" t="n">
-        <v>3</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>12-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Swansea - Sheffield Wednesday</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="F39" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>12-02-2025 21:00</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Sheffield Utd - Middlesbrough</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="F40" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>12-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Sunderland - Luton</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>12-02-2025 21:00</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>West Brom - Blackburn</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>60</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>13-02-2025 00:00</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>ARGENTINA</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>LIGA PROFESIONAL ARGENTINA</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Argentinos JRS - Huracan</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F43" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>13-02-2025 00:00</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>ARGENTINA</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>LIGA PROFESIONAL ARGENTINA</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Independiente - Velez Sarsfield</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F44" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>12-02-2025 01:30</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>BRAZIL</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>COPA DO NORDESTE</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Sousa - Sport Recife</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
-        <v>60</v>
-      </c>
-      <c r="F45" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="G45" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>12-02-2025 22:30</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>COLOMBIA</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>PRIMERA A</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Deportivo Pasto - Chico</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>12-02-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>INDIA</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>INDIAN SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Mumbai City - Goa</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>60</v>
-      </c>
-      <c r="F47" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>12-02-2025 13:00</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>AFC CHAMPIONS LEAGUE</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Buriram United - Ulsan Hyundai FC</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>50</v>
-      </c>
-      <c r="F48" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.12</v>
+        <v>0.36</v>
       </c>
     </row>
   </sheetData>
@@ -3171,7 +2293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3219,38 +2341,38 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>11-02-2025 23:00</t>
+          <t>12-02-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CAPIXABA</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Real Noroeste - Jaguaré</t>
+          <t>Monaco - Benfica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>2.46</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>12-02-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3260,369 +2382,369 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Alfreton Town - Darlington 1883</t>
+          <t>Plymouth - Millwall</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>63.3</v>
+        <v>66.7</v>
       </c>
       <c r="F3" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.66</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>12-02-2025 23:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>PAULISTA - A1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Marine - Rushall Olympic</t>
+          <t>Noroeste - São Bernardo</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="G4" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>12-02-2025 18:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Needham Market - Hereford</t>
+          <t>AL Masry - National Bank Of Egypt</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>12-02-2025 22:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>EL-SALVADOR</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Peterborough Sports - Oxford City</t>
+          <t>Fuerte San Francisco - FAS</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="F6" t="n">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="G6" t="n">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>12-02-2025 22:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>HONDURAS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>LIGA NACIONAL</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Scunthorpe - Curzon Ashton</t>
+          <t>Juticalpa - CD Motagua</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F7" t="n">
-        <v>4.33</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>1.31</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>12-02-2025 13:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>LIGA 2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>AFC Hornchurch - Boreham Wood</t>
+          <t>Persijap - Bhayangkara FC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F8" t="n">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>12-02-2025 21:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>JAMAICA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hastings United - Canvey Island</t>
+          <t>Humble Lions - Racing United</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>56.7</v>
+        <v>50</v>
       </c>
       <c r="F9" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="G9" t="n">
-        <v>0.35</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>12-02-2025 13:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>THAILAND</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
+          <t>THAI LEAGUE 2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Biggleswade Town - Lowestoft Town</t>
+          <t>Kasetsart FC - Esan Pattaya</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="F10" t="n">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="G10" t="n">
-        <v>0.38</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>12-02-2025 12:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+          <t>2. LIG</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Chertsey Town - Walton &amp; Hersham</t>
+          <t>Kastamonuspor 1966 - Hekimoğlu Trabzon</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F11" t="n">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="G11" t="n">
-        <v>0.44</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11-02-2025 15:00</t>
+          <t>12-02-2025 12:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>2. LIG</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sheffield Wednesday U21 - Hull City U21</t>
+          <t>Ankaraspor - Adana 1954 FK</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F12" t="n">
-        <v>2.38</v>
+        <v>1.7</v>
       </c>
       <c r="G12" t="n">
-        <v>0.43</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>11-02-2025 15:30</t>
+          <t>12-02-2025 12:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>OMAN</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PROFESSIONAL LEAGUE</t>
+          <t>2. LIG</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Bahla - Al-Khabourah</t>
+          <t>Halide Edip Adıvar - Somaspor</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F13" t="n">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="G13" t="n">
-        <v>2.25</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11-02-2025 13:00</t>
+          <t>12-02-2025 17:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LIGA REVELAÇÃO U23</t>
+          <t>AFC CUP</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Santa Clara U23 - Sporting Braga U23</t>
+          <t>Al Wakrah - Al Taawon</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>60</v>
       </c>
       <c r="F14" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="G14" t="n">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>12-02-2025 21:00</t>
+          <t>12-02-2025 16:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3632,28 +2754,28 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>UEFA YOUTH LEAGUE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Monaco - Benfica</t>
+          <t>Real Madrid U19 - Borussia Dortmund U19</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>12-02-2025 20:45</t>
+          <t>13-02-2025 21:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3663,59 +2785,59 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Plymouth - Millwall</t>
+          <t>Port Vale - Notts County</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F16" t="n">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="G16" t="n">
-        <v>0.35</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>12-02-2025 02:15</t>
+          <t>13-02-2025 21:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LIGA PROFESIONAL ARGENTINA</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Tigre - Racing Club</t>
+          <t>PAOK - FCSB</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>53.3</v>
+        <v>66.7</v>
       </c>
       <c r="F17" t="n">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>12-02-2025 23:30</t>
+          <t>13-02-2025 01:30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3725,84 +2847,115 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PAULISTA - A1</t>
+          <t>CARIOCA - 1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Noroeste - São Bernardo</t>
+          <t>Flamengo - Botafogo</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F18" t="n">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="G18" t="n">
-        <v>0.25</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>12-02-2025 00:30</t>
+          <t>13-02-2025 12:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>INDIA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PRIMERA A</t>
+          <t>I-LEAGUE</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Llaneros - Millonarios</t>
+          <t>Dempo - Namdhari</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>53.3</v>
+        <v>70</v>
       </c>
       <c r="F19" t="n">
-        <v>2.24</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>0.19</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>12-02-2025 04:00</t>
+          <t>13-02-2025 15:10</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>SAUDI-ARABIA</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>PRO LEAGUE</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Al Akhdoud - Damac</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>13-02-2025 21:00</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>WORLD</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>CONCACAF CHAMPIONS LEAGUE</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Cruz Azul - Real Du Cap</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>50</v>
-      </c>
-      <c r="F20" t="n">
-        <v>56</v>
-      </c>
-      <c r="G20" t="n">
-        <v>27</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>SUDAMERICANO U20</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Paraguay U20 - Uruguay U20</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>60</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.14</v>
       </c>
     </row>
   </sheetData>
@@ -3816,7 +2969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3864,404 +3017,156 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>11-02-2025 21:00</t>
+          <t>12-02-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>NORTHERN-IRELAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>PREMIERSHIP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Juventus - PSV Eindhoven</t>
+          <t>Cliftonville FC - Carrick Rangers</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>11-02-2025 21:00</t>
+          <t>12-02-2025 16:10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Norwich - Preston</t>
+          <t>Al Jubail - Al-Faisaly FC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="G3" t="n">
-        <v>0.36</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>12-02-2025 12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>2. LIG</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Watford - Leeds</t>
+          <t>Kastamonuspor 1966 - Hekimoğlu Trabzon</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="G4" t="n">
-        <v>0.21</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>11-02-2025 21:00</t>
+          <t>13-02-2025 18:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Reading - Shrewsbury</t>
+          <t>Celje - Apoel Nicosia</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="G5" t="n">
-        <v>0.21</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>13-02-2025 18:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Bradford - Accrington ST</t>
+          <t>Ferencvarosi TC - Plzen</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>76.8</v>
+        <v>70</v>
       </c>
       <c r="F6" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>11-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Oldham - Altrincham</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>90</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>11-02-2025 18:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>EGYPT</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Al Ahly - Ghazl El Mehalla</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>70</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>11-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Marine - Rushall Olympic</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>11-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Worthing - Torquay</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>70</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>11-02-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>LIGA REVELAÇÃO U23</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Gil Vicente U23 - Estrela U23</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>90</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>12-02-2025 21:00</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Feyenoord - AC Milan</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>80</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12-02-2025 21:00</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Monaco - Benfica</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>70</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>12-02-2025 01:30</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>BRAZIL</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>GAÚCHO - 1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Gremio - Pelotas</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>70</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.21</v>
+        <v>0.47</v>
       </c>
     </row>
   </sheetData>
@@ -4275,7 +3180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4323,38 +3228,38 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>11-02-2025 21:00</t>
+          <t>12-02-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Juventus - PSV Eindhoven</t>
+          <t>Swansea - Sheffield Wednesday</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>76.7</v>
+        <v>69.2</v>
       </c>
       <c r="F2" t="n">
         <v>1.8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>11-02-2025 21:00</t>
+          <t>12-02-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -4369,23 +3274,23 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Norwich - Preston</t>
+          <t>Sunderland - Luton</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>86.7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="G3" t="n">
-        <v>0.48</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>11-02-2025 21:00</t>
+          <t>12-02-2025 21:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4395,19 +3300,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FA CUP</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Exeter City - Nottingham Forest</t>
+          <t>West Brom - Blackburn</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>72</v>
+        <v>76.7</v>
       </c>
       <c r="F4" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="G4" t="n">
         <v>0.4</v>
@@ -4416,869 +3321,404 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>12-02-2025 23:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>PAULISTA - A1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Bristol Rovers - Stockport County</t>
+          <t>Água Santa - Portuguesa</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F5" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>13-02-2025 00:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>PAULISTA - A4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tranmere - Fleetwood Town</t>
+          <t>Inter De Bebedouro - Nacional SP</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F6" t="n">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="G6" t="n">
-        <v>0.44</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>12-02-2025 21:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>JAMAICA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Bradford - Accrington ST</t>
+          <t>Portmore United - Dunbeholden</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>68.90000000000001</v>
+        <v>66.7</v>
       </c>
       <c r="F7" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>0.24</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>12-02-2025 12:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>2. LIG</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Barrow - Milton Keynes Dons</t>
+          <t>Nazilli Belediyespor - 68 Aksaray Belediyespor</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>66.7</v>
+        <v>68</v>
       </c>
       <c r="F8" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>13-02-2025 18:45</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Gateshead - Braintree</t>
+          <t>Ferencvarosi TC - Plzen</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>85</v>
+        <v>66.7</v>
       </c>
       <c r="F9" t="n">
         <v>1.8</v>
       </c>
       <c r="G9" t="n">
-        <v>0.53</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>13-02-2025 18:45</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Hartlepool - Tamworth</t>
+          <t>FC Midtjylland - Real Sociedad</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>76.7</v>
+        <v>72</v>
       </c>
       <c r="F10" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="G10" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11-02-2025 20:45</t>
+          <t>13-02-2025 01:30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>CARIOCA - 1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Oldham - Altrincham</t>
+          <t>Flamengo - Botafogo</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>86.7</v>
+        <v>66.7</v>
       </c>
       <c r="F11" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="G11" t="n">
-        <v>0.52</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11-02-2025 14:00</t>
+          <t>14-02-2025 00:30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LIGUE 2</t>
+          <t>CATARINENSE - 1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>US Chaouia - Oued Magrane</t>
+          <t>Figueirense - Chapecoense-sc</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>68</v>
+        <v>73.3</v>
       </c>
       <c r="F12" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>11-02-2025 14:00</t>
+          <t>13-02-2025 23:30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LIGUE 2</t>
+          <t>PAULISTA - A1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>US Souf - MO Constantine</t>
+          <t>Inter De Limeira - Palmeiras</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>70</v>
+        <v>66.7</v>
       </c>
       <c r="F13" t="n">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="G13" t="n">
-        <v>0.29</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11-02-2025 14:00</t>
+          <t>13-02-2025 02:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>COSTA-RICA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LIGUE 2</t>
+          <t>PRIMERA DIVISIÓN</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>WA Mostaganem - Oued Sly</t>
+          <t>Sporting San Jose - LD Alajuelense</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>83.3</v>
+        <v>70</v>
       </c>
       <c r="F14" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>11-02-2025 21:45</t>
+          <t>13-02-2025 15:10</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LIGA PROFESIONAL ARGENTINA</t>
+          <t>PRO LEAGUE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Barracas Central - Central Cordoba De Santiago</t>
+          <t>Al Akhdoud - Damac</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>66.7</v>
+        <v>83.3</v>
       </c>
       <c r="F15" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="G15" t="n">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>12-02-2025 00:00</t>
+          <t>13-02-2025 02:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CHILE</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>COPA CHILE</t>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Deportes Copiapo - Antofagasta</t>
+          <t>Guadalajara Chivas - Cibao</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>76</v>
       </c>
       <c r="F16" t="n">
-        <v>1.83</v>
+        <v>2.45</v>
       </c>
       <c r="G16" t="n">
-        <v>0.39</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>11-02-2025 15:00</t>
+          <t>13-02-2025 04:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Pharco - Zamalek SC</t>
+          <t>Tigres UANL - Real Estelí</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>74.2</v>
+        <v>68</v>
       </c>
       <c r="F17" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="G17" t="n">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>11-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Leamington - Warrington Town</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>76</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>11-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Needham Market - Hereford</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>68</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>11-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Spennymoor Town - Radcliffe</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>80</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>11-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Dorking Wanderers - Tonbridge Angels</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>11-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>AFC Hornchurch - Boreham Wood</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>80</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>11-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Truro City - Farnborough</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>11-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Weston-super-Mare - Salisbury</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>70</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>11-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Weymouth - Bath City</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>69.2</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>11-02-2025 12:00</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>LIGA REVELAÇÃO U23</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Famalicão U23 - Estoril U23</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>11-02-2025 18:00</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>1. LIG</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Manisa BBSK - Kocaelispor</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>70</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>11-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>WALES</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Caernarfon Town - The New Saints</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>12-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Sunderland - Luton</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="F29" t="n">
-        <v>2</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>12-02-2025 21:00</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>West Brom - Blackburn</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>12-02-2025 02:00</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>CONCACAF CHAMPIONS LEAGUE</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Monterrey - Forge</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>72</v>
-      </c>
-      <c r="F31" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>12-02-2025 04:00</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>CONCACAF CHAMPIONS LEAGUE</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Cruz Azul - Real Du Cap</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>68</v>
-      </c>
-      <c r="F32" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.63</v>
+        <v>0.22</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,57 +475,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>13-02-2025 00:00</t>
+          <t>13-02-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGA PROFESIONAL ARGENTINA</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Independiente - Velez Sarsfield</t>
+          <t>FC Copenhagen - 1. FC Heidenheim</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>73.3</v>
+        <v>90</v>
       </c>
       <c r="F2" t="n">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12-02-2025 19:30</t>
+          <t>13-02-2025 18:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PARANAENSE - 1</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Independiente FSJ - Rio Branco PR</t>
+          <t>FC Midtjylland - Real Sociedad</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>86.7</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="4">
@@ -541,103 +541,131 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FC Copenhagen - 1. FC Heidenheim</t>
+          <t>Twente - Bodo/Glimt</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13-02-2025 18:45</t>
+          <t>13-02-2025 21:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>LIGA PROFESIONAL ARGENTINA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FC Midtjylland - Real Sociedad</t>
+          <t>Lanus - Gimnasia L.P.</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F5" t="n">
-        <v>3.6</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>13-02-2025 21:00</t>
+          <t>13-02-2025 13:15</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>IRAN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>AZADEGAN LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Twente - Bodo/Glimt</t>
+          <t>Mes Kerman - Shahrdari Astara</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F6" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>13-02-2025 21:45</t>
+          <t>14-02-2025 20:45</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>LIGUE 1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Stade Brestois 29 - Auxerre</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>14-02-2025 02:15</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>ARGENTINA</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>LIGA PROFESIONAL ARGENTINA</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Lanus - Gimnasia L.P.</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.9</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Atletico Tucuman - Sarmiento Junin</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>80</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.83</v>
       </c>
     </row>
   </sheetData>
@@ -651,7 +679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -745,6 +773,62 @@
       </c>
       <c r="F3" t="n">
         <v>2.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>14-02-2025 02:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>EL-SALVADOR</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Municipal Limeño - Cacahuatique</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>14-02-2025 02:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SUDAMERICANO U20</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Brazil U20 - Argentina U20</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.15</v>
       </c>
     </row>
   </sheetData>
@@ -758,7 +842,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -801,141 +885,253 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12-02-2025 20:45</t>
+          <t>13-02-2025 15:10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>PRO LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sunderland - Luton</t>
+          <t>Al Akhdoud - Damac</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>86.7</v>
+        <v>83.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12-02-2025 21:00</t>
+          <t>13-02-2025 13:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>AFC CUP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>West Brom - Blackburn</t>
+          <t>Port FC - Jeonbuk Motors</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>76.7</v>
+        <v>92</v>
       </c>
       <c r="F3" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>13-02-2025 00:00</t>
+          <t>14-02-2025 21:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PAULISTA - A4</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Inter De Bebedouro - Nacional SP</t>
+          <t>QPR - Derby</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>84</v>
+        <v>83.3</v>
       </c>
       <c r="F4" t="n">
-        <v>2.15</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13-02-2025 15:10</t>
+          <t>14-02-2025 19:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PRO LEAGUE</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al Akhdoud - Damac</t>
+          <t>Orleans - Versailles</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>83.3</v>
+        <v>93.3</v>
       </c>
       <c r="F5" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>13-02-2025 02:00</t>
+          <t>14-02-2025 18:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CONCACAF CHAMPIONS LEAGUE</t>
+          <t>2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Guadalajara Chivas - Cibao</t>
+          <t>SC Paderborn 07 - Preußen Münster</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>76</v>
+        <v>87.8</v>
       </c>
       <c r="F6" t="n">
-        <v>2.45</v>
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>14-02-2025 02:30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HONDURAS</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>LIGA NACIONAL</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CD Marathon - Olancho</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>80</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>14-02-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>FIRST DIVISION</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Kerry - Finn Harps</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>14-02-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Giugliano - Latina</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>14-02-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>JAPAN</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>J1 LEAGUE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Gamba Osaka - Cerezo Osaka</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.95</v>
       </c>
     </row>
   </sheetData>
@@ -949,7 +1145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1002,7 +1198,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12-02-2025 21:00</t>
+          <t>13-02-2025 18:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1012,195 +1208,263 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Monaco - Benfica</t>
+          <t>Celje - Apoel Nicosia</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="G2" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H2" t="n">
-        <v>2.62</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12-02-2025 16:10</t>
+          <t>13-02-2025 18:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIVISION 1</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al Jubail - Al-Faisaly FC</t>
+          <t>Ferencvarosi TC - Plzen</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="G3" t="n">
-        <v>33.3</v>
+        <v>65</v>
       </c>
       <c r="H3" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12-02-2025 12:00</t>
+          <t>14-02-2025 20:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>THAILAND</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>THAI LEAGUE 2</t>
+          <t>EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Nakhon Si Thammarat - Phrae United</t>
+          <t>MVV - FC Eindhoven</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="G4" t="n">
         <v>60</v>
       </c>
       <c r="H4" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>12-02-2025 13:00</t>
+          <t>14-02-2025 20:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>THAILAND</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>THAI LEAGUE 2</t>
+          <t>EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Chonburi FC - Bangkok</t>
+          <t>Dordrecht - Roda</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>86.7</v>
+        <v>60</v>
       </c>
       <c r="F5" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="G5" t="n">
         <v>60</v>
       </c>
       <c r="H5" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>13-02-2025 18:45</t>
+          <t>14-02-2025 11:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AZERBAIJAN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
+          <t>BIRINCI DASTA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Celje - Apoel Nicosia</t>
+          <t>Zaqatala - Difai Ağsu</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>80</v>
       </c>
       <c r="F6" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="G6" t="n">
         <v>60</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>13-02-2025 18:45</t>
+          <t>14-02-2025 02:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>LIGA DE EXPANSIÓN MX</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Correcaminos Uat - Leones Negros UDG</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>80</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G7" t="n">
+        <v>40</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>14-02-2025 16:05</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SAUDI-ARABIA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PRO LEAGUE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Al-Ettifaq - Al-Fateh</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>80</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G8" t="n">
+        <v>65</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>14-02-2025 02:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>WORLD</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>UEFA EUROPA LEAGUE</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Ferencvarosi TC - Plzen</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SUDAMERICANO U20</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Brazil U20 - Argentina U20</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>75</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G9" t="n">
         <v>70</v>
       </c>
-      <c r="F7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>65</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.75</v>
+      <c r="H9" t="n">
+        <v>3.25</v>
       </c>
     </row>
   </sheetData>
@@ -1214,7 +1478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1262,7 +1526,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12-02-2025 21:00</t>
+          <t>13-02-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1272,245 +1536,245 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Feyenoord - AC Milan</t>
+          <t>Gent - Real Betis</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="G2" t="n">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12-02-2025 20:45</t>
+          <t>13-02-2025 21:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Swansea - Sheffield Wednesday</t>
+          <t>FC Copenhagen - 1. FC Heidenheim</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>58.3</v>
+        <v>90</v>
       </c>
       <c r="F3" t="n">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="G3" t="n">
-        <v>0.49</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12-02-2025 21:00</t>
+          <t>13-02-2025 18:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sheffield Utd - Middlesbrough</t>
+          <t>Vikingur Reykjavik - Panathinaikos</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>58.3</v>
+        <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>2.25</v>
+        <v>6.25</v>
       </c>
       <c r="G4" t="n">
-        <v>0.31</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>12-02-2025 21:00</t>
+          <t>13-02-2025 18:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>West Brom - Blackburn</t>
+          <t>FC Midtjylland - Real Sociedad</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F5" t="n">
-        <v>1.83</v>
+        <v>3.6</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>12-02-2025 16:30</t>
+          <t>13-02-2025 18:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LIGUE 1</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>JS Saoura - MC Oran</t>
+          <t>Union St. Gilloise - Ajax</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F6" t="n">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>13-02-2025 00:00</t>
+          <t>13-02-2025 21:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LIGA PROFESIONAL ARGENTINA</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Argentinos JRS - Huracan</t>
+          <t>Twente - Bodo/Glimt</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>53.3</v>
+        <v>70</v>
       </c>
       <c r="F7" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>13-02-2025 00:00</t>
+          <t>13-02-2025 16:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LIGA PROFESIONAL ARGENTINA</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Independiente - Velez Sarsfield</t>
+          <t>Mostaganem - CS Constantine</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>73.3</v>
+        <v>50</v>
       </c>
       <c r="F8" t="n">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>12-02-2025 23:00</t>
+          <t>13-02-2025 21:45</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CAPIXABA</t>
+          <t>LIGA PROFESIONAL ARGENTINA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Vitória ES - Capixaba SC</t>
+          <t>Lanus - Gimnasia L.P.</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>53.3</v>
+        <v>73.3</v>
       </c>
       <c r="F9" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>12-02-2025 19:30</t>
+          <t>13-02-2025 23:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1520,28 +1784,28 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PARANAENSE - 1</t>
+          <t>CAPIXABA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Independiente FSJ - Rio Branco PR</t>
+          <t>Porto Vitória - Desportiva ES</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>86.7</v>
+        <v>51.7</v>
       </c>
       <c r="F10" t="n">
-        <v>2.15</v>
+        <v>2.63</v>
       </c>
       <c r="G10" t="n">
-        <v>0.86</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>13-02-2025 00:00</t>
+          <t>14-02-2025 00:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1551,90 +1815,90 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PAULISTA - A4</t>
+          <t>CATARINENSE - 1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Inter De Bebedouro - Nacional SP</t>
+          <t>Hercílio Luz - Joinville</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>50</v>
+        <v>51.7</v>
       </c>
       <c r="F11" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12-02-2025 22:30</t>
+          <t>13-02-2025 19:30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PRIMERA A</t>
+          <t>CEARENSE - 2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Deportivo Pasto - Chico</t>
+          <t>Itapipoca - Tiradentes CE</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>66.7</v>
+        <v>58.3</v>
       </c>
       <c r="F12" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="G12" t="n">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12-02-2025 15:00</t>
+          <t>14-02-2025 00:30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>INDIA</t>
+          <t>COLOMBIA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>INDIAN SUPER LEAGUE</t>
+          <t>PRIMERA A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Mumbai City - Goa</t>
+          <t>Junior - Once Caldas</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F13" t="n">
-        <v>2.2</v>
+        <v>1.88</v>
       </c>
       <c r="G13" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>12-02-2025 09:30</t>
+          <t>13-02-2025 09:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1649,637 +1913,668 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Deltras - PSIM Yogyakarta</t>
+          <t>Persiku Kudus - Persegres Gresik United</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F14" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>0.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>12-02-2025 21:00</t>
+          <t>13-02-2025 13:15</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>JAMAICA</t>
+          <t>IRAN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>AZADEGAN LEAGUE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Tivoli Gardens - Chapelton</t>
+          <t>Mes Kerman - Shahrdari Astara</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>60</v>
+        <v>73.3</v>
       </c>
       <c r="F15" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="G15" t="n">
-        <v>0.11</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>12-02-2025 12:00</t>
+          <t>13-02-2025 18:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>THAILAND</t>
+          <t>SOUTH-AFRICA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>THAI LEAGUE 2</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Nakhon Si Thammarat - Phrae United</t>
+          <t>Stellenbosch - Polokwane City</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>53.3</v>
+        <v>66.7</v>
       </c>
       <c r="F16" t="n">
-        <v>2.8</v>
+        <v>1.73</v>
       </c>
       <c r="G16" t="n">
-        <v>0.49</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>12-02-2025 12:30</t>
+          <t>13-02-2025 15:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>THAILAND</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>THAI LEAGUE 2</t>
+          <t>1. LIG</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Trat FC - Ayutthaya FC</t>
+          <t>Şanlıurfaspor - Sakaryaspor</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>53.3</v>
       </c>
       <c r="F17" t="n">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="G17" t="n">
-        <v>0.65</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>12-02-2025 13:00</t>
+          <t>13-02-2025 13:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>THAILAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>THAI LEAGUE 2</t>
+          <t>AFC CUP</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Police Tero - Chiangmai United</t>
+          <t>Port FC - Jeonbuk Motors</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F18" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="G18" t="n">
-        <v>0.28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>12-02-2025 12:00</t>
+          <t>14-02-2025 21:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2. LIG</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Kepez Belediyespor - İnegölspor</t>
+          <t>QPR - Derby</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F19" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>12-02-2025 11:30</t>
+          <t>14-02-2025 20:45</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2. LIG</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>İçel İdmanyurdu Spor - Ankara Demirspor</t>
+          <t>Stade Brestois 29 - Auxerre</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>53.3</v>
+        <v>71.7</v>
       </c>
       <c r="F20" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="G20" t="n">
-        <v>0.65</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>12-02-2025 13:00</t>
+          <t>14-02-2025 20:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AFC CHAMPIONS LEAGUE</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Buriram United - Ulsan Hyundai FC</t>
+          <t>Amiens - Grenoble</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>50</v>
+        <v>58.3</v>
       </c>
       <c r="F21" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="G21" t="n">
-        <v>0.12</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>12-02-2025 16:00</t>
+          <t>14-02-2025 20:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>UEFA YOUTH LEAGUE</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Puskás Akadémia U19 - Aston Villa U19</t>
+          <t>Estac Troyes - Lorient</t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>50</v>
       </c>
       <c r="F22" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="G22" t="n">
-        <v>1.25</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>13-02-2025 21:00</t>
+          <t>14-02-2025 20:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
+          <t>EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Gent - Real Betis</t>
+          <t>Den Bosch - Telstar</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="F23" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>13-02-2025 21:00</t>
+          <t>14-02-2025 02:15</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
+          <t>LIGA PROFESIONAL ARGENTINA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FC Copenhagen - 1. FC Heidenheim</t>
+          <t>Atletico Tucuman - Sarmiento Junin</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F24" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="G24" t="n">
-        <v>0.58</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>13-02-2025 18:45</t>
+          <t>14-02-2025 19:30</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Vikingur Reykjavik - Panathinaikos</t>
+          <t>Valenciennes - Rouen</t>
         </is>
       </c>
       <c r="E25" t="n">
         <v>50</v>
       </c>
       <c r="F25" t="n">
-        <v>6.25</v>
+        <v>2.75</v>
       </c>
       <c r="G25" t="n">
-        <v>2.12</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>13-02-2025 18:45</t>
+          <t>14-02-2025 19:30</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FC Midtjylland - Real Sociedad</t>
+          <t>Orleans - Versailles</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>70</v>
+        <v>56.7</v>
       </c>
       <c r="F26" t="n">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="G26" t="n">
-        <v>1.52</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>13-02-2025 18:45</t>
+          <t>14-02-2025 19:00</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>3. LIGA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Union St. Gilloise - Ajax</t>
+          <t>FC Viktoria Köln - Alemannia Aachen</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F27" t="n">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="G27" t="n">
-        <v>0.38</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>13-02-2025 21:00</t>
+          <t>14-02-2025 02:00</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>GUATEMALA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>LIGA NACIONAL</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Twente - Bodo/Glimt</t>
+          <t>Marquense - Achuapa</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>70</v>
+        <v>63.3</v>
       </c>
       <c r="F28" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="G28" t="n">
-        <v>0.36</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>13-02-2025 01:30</t>
+          <t>14-02-2025 13:00</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>LIGA 1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Alianza Lima - Nacional Asuncion</t>
+          <t>Persik Kediri - Persis Solo</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>60</v>
+        <v>62.3</v>
       </c>
       <c r="F29" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>13-02-2025 21:45</t>
+          <t>14-02-2025 20:45</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>IRELAND</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>LIGA PROFESIONAL ARGENTINA</t>
+          <t>FIRST DIVISION</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Lanus - Gimnasia L.P.</t>
+          <t>UCD - Wexford</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>73.3</v>
+        <v>56.7</v>
       </c>
       <c r="F30" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="G30" t="n">
-        <v>0.39</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>14-02-2025 00:00</t>
+          <t>14-02-2025 14:00</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ISRAEL</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CATARINENSE - 1</t>
+          <t>LIGA LEUMIT</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Hercílio Luz - Joinville</t>
+          <t>Hapoel Kfar Saba - Hapoel Nazareth Illit</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>51.7</v>
+        <v>56.7</v>
       </c>
       <c r="F31" t="n">
-        <v>2.7</v>
+        <v>2.38</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>13-02-2025 01:35</t>
+          <t>14-02-2025 18:00</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>MALTA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PAULISTA - A1</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Corinthians - Santos</t>
+          <t>Mosta - Marsaxlokk</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F32" t="n">
-        <v>1.73</v>
+        <v>3.5</v>
       </c>
       <c r="G32" t="n">
-        <v>0.15</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>14-02-2025 00:30</t>
+          <t>14-02-2025 15:10</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PRIMERA A</t>
+          <t>PRO LEAGUE</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Junior - Once Caldas</t>
+          <t>Al Orubah - Al Kholood</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F33" t="n">
-        <v>1.88</v>
+        <v>2.95</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>13-02-2025 15:00</t>
+          <t>14-02-2025 20:15</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>SWITZERLAND</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1. LIG</t>
+          <t>CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Şanlıurfaspor - Sakaryaspor</t>
+          <t>FC Aarau - FC Thun</t>
         </is>
       </c>
       <c r="E34" t="n">
         <v>53.3</v>
       </c>
       <c r="F34" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="G34" t="n">
-        <v>0.36</v>
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>14-02-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>SÜPER LIG</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Adana Demirspor - Antalyaspor</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="F35" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.74</v>
       </c>
     </row>
   </sheetData>
@@ -2293,7 +2588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2341,410 +2636,410 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12-02-2025 21:00</t>
+          <t>13-02-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Monaco - Benfica</t>
+          <t>Port Vale - Notts County</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12-02-2025 20:45</t>
+          <t>13-02-2025 21:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Plymouth - Millwall</t>
+          <t>PAOK - FCSB</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>66.7</v>
       </c>
       <c r="F3" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="G3" t="n">
-        <v>0.47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12-02-2025 23:30</t>
+          <t>13-02-2025 12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>INDIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PAULISTA - A1</t>
+          <t>I-LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Noroeste - São Bernardo</t>
+          <t>Dempo - Namdhari</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>12-02-2025 18:00</t>
+          <t>13-02-2025 15:10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>PRO LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AL Masry - National Bank Of Egypt</t>
+          <t>Al Akhdoud - Damac</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>73.3</v>
       </c>
       <c r="F5" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>12-02-2025 22:00</t>
+          <t>13-02-2025 21:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EL-SALVADOR</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISION</t>
+          <t>SUDAMERICANO U20</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Fuerte San Francisco - FAS</t>
+          <t>Paraguay U20 - Uruguay U20</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F6" t="n">
-        <v>2.55</v>
+        <v>1.9</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>12-02-2025 22:00</t>
+          <t>14-02-2025 20:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HONDURAS</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LIGA NACIONAL</t>
+          <t>CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Juticalpa - CD Motagua</t>
+          <t>Lierse Kempenzonen - Zulte Waregem</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>12-02-2025 13:00</t>
+          <t>14-02-2025 02:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>EL-SALVADOR</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LIGA 2</t>
+          <t>PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Persijap - Bhayangkara FC</t>
+          <t>Municipal Limeño - Cacahuatique</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>53.3</v>
+        <v>73.3</v>
       </c>
       <c r="F8" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>12-02-2025 21:00</t>
+          <t>14-02-2025 17:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>JAMAICA</t>
+          <t>GAMBIA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>GFA LEAGUE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Humble Lions - Racing United</t>
+          <t>Greater Tomorrow - Steve Biko</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>50</v>
       </c>
       <c r="F9" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>12-02-2025 13:00</t>
+          <t>14-02-2025 20:45</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>THAILAND</t>
+          <t>IRELAND</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>THAI LEAGUE 2</t>
+          <t>FIRST DIVISION</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Kasetsart FC - Esan Pattaya</t>
+          <t>Dundalk - Athlone Town</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F10" t="n">
         <v>4.2</v>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>12-02-2025 12:00</t>
+          <t>14-02-2025 14:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>ISRAEL</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2. LIG</t>
+          <t>LIGA LEUMIT</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Kastamonuspor 1966 - Hekimoğlu Trabzon</t>
+          <t>Maccabi Kabilio Jaffa - Hapoel Ra'anana</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F11" t="n">
-        <v>4.75</v>
+        <v>2.35</v>
       </c>
       <c r="G11" t="n">
-        <v>1.53</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12-02-2025 12:00</t>
+          <t>14-02-2025 20:45</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>POLAND</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2. LIG</t>
+          <t>I LIGA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Ankaraspor - Adana 1954 FK</t>
+          <t>Arka Gdynia - Polonia Warszawa</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F12" t="n">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.15</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12-02-2025 12:00</t>
+          <t>14-02-2025 20:30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2. LIG</t>
+          <t>SEGUNDA DIVISIÓN</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Halide Edip Adıvar - Somaspor</t>
+          <t>Mirandes - Racing Ferrol</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>53.3</v>
       </c>
       <c r="F13" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="G13" t="n">
-        <v>1.24</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>12-02-2025 17:00</t>
+          <t>14-02-2025 19:30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SWITZERLAND</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AFC CUP</t>
+          <t>CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Al Wakrah - Al Taawon</t>
+          <t>FC Schaffhausen - Étoile Carouge</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F14" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="G14" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>12-02-2025 16:00</t>
+          <t>14-02-2025 02:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2754,208 +3049,53 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>UEFA YOUTH LEAGUE</t>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Real Madrid U19 - Borussia Dortmund U19</t>
+          <t>U.N.A.M. - Pumas - Cavalry FC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="F15" t="n">
-        <v>5.75</v>
+        <v>14.5</v>
       </c>
       <c r="G15" t="n">
-        <v>2.84</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>13-02-2025 21:00</t>
+          <t>14-02-2025 02:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>SUDAMERICANO U20</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Port Vale - Notts County</t>
+          <t>Brazil U20 - Argentina U20</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>50</v>
+        <v>73.3</v>
       </c>
       <c r="F16" t="n">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="G16" t="n">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>13-02-2025 21:00</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>UEFA EUROPA LEAGUE</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>PAOK - FCSB</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F17" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>13-02-2025 01:30</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>BRAZIL</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>CARIOCA - 1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Flamengo - Botafogo</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>60</v>
-      </c>
-      <c r="F18" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>13-02-2025 12:00</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>INDIA</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>I-LEAGUE</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Dempo - Namdhari</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>70</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>13-02-2025 15:10</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>SAUDI-ARABIA</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>PRO LEAGUE</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Al Akhdoud - Damac</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>13-02-2025 21:00</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>SUDAMERICANO U20</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Paraguay U20 - Uruguay U20</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>60</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.14</v>
+        <v>0.58</v>
       </c>
     </row>
   </sheetData>
@@ -2964,217 +3104,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Country</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Championship</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Match</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Over 2.5 (%)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Odds 2.5</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>EV over 2.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>12-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>NORTHERN-IRELAND</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>PREMIERSHIP</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Cliftonville FC - Carrick Rangers</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>75</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>12-02-2025 16:10</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>SAUDI-ARABIA</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>DIVISION 1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Al Jubail - Al-Faisaly FC</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>80</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>12-02-2025 12:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2. LIG</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Kastamonuspor 1966 - Hekimoğlu Trabzon</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>70</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>13-02-2025 18:45</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Celje - Apoel Nicosia</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>80</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>13-02-2025 18:45</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>UEFA EUROPA LEAGUE</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Ferencvarosi TC - Plzen</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>70</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3211,117 +3140,669 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Btts (%)</t>
+          <t>Over 2.5 (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Odds btts</t>
+          <t>Odds 2.5</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>EV btts</t>
+          <t>EV over 2.5</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12-02-2025 20:45</t>
+          <t>13-02-2025 18:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Swansea - Sheffield Wednesday</t>
+          <t>Celje - Apoel Nicosia</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>69.2</v>
+        <v>80</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>13-02-2025 18:45</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>UEFA EUROPA LEAGUE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Ferencvarosi TC - Plzen</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>70</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>13-02-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>QATAR</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SECOND DIVISION</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Al-Markhiya - Al-Sailiya</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>70</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>14-02-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>NETHERLANDS</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>EREDIVISIE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>GO Ahead Eagles - Sparta Rotterdam</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>70</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>14-02-2025 21:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>LA LIGA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Girona - Getafe</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>70</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>14-02-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CROATIA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>HNL</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Sibenik - NK Lokomotiva Zagreb</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>75</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>14-02-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>AZERBAIJAN</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>BIRINCI DASTA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Zaqatala - Difai Ağsu</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>80</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>14-02-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2. BUNDESLIGA</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SC Paderborn 07 - Preußen Münster</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>14-02-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PREMIER DIVISION</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Cork City - Galway United</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>75</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>14-02-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Giugliano - Latina</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>14-02-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>JAPAN</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>J1 LEAGUE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Gamba Osaka - Cerezo Osaka</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>70</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>14-02-2025 02:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>LIGA DE EXPANSIÓN MX</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Correcaminos Uat - Leones Negros UDG</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>80</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>14-02-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>POLAND</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>I LIGA</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Arka Gdynia - Polonia Warszawa</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>75</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14-02-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SAUDI-ARABIA</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DIVISION 1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Al-Hazm - Al Safa</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>14-02-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Mirandes - Racing Ferrol</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>70</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>14-02-2025 02:00</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>SUDAMERICANO U20</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Brazil U20 - Argentina U20</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>75</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Championship</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Match</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Btts (%)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Odds btts</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>EV btts</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>13-02-2025 18:45</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>UEFA EUROPA LEAGUE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Ferencvarosi TC - Plzen</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>66.7</v>
       </c>
       <c r="F2" t="n">
         <v>1.8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12-02-2025 20:45</t>
+          <t>13-02-2025 18:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sunderland - Luton</t>
+          <t>FC Midtjylland - Real Sociedad</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>86.7</v>
+        <v>72</v>
       </c>
       <c r="F3" t="n">
         <v>1.91</v>
       </c>
       <c r="G3" t="n">
-        <v>0.66</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12-02-2025 21:00</t>
+          <t>13-02-2025 16:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>West Brom - Blackburn</t>
+          <t>Mostaganem - CS Constantine</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>76.7</v>
+        <v>72</v>
       </c>
       <c r="F4" t="n">
-        <v>1.83</v>
+        <v>2.15</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>12-02-2025 23:30</t>
+          <t>14-02-2025 00:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3331,28 +3812,28 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PAULISTA - A1</t>
+          <t>CATARINENSE - 1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Água Santa - Portuguesa</t>
+          <t>Figueirense - Chapecoense-sc</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>13-02-2025 00:00</t>
+          <t>13-02-2025 19:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3362,121 +3843,121 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PAULISTA - A4</t>
+          <t>CEARENSE - 2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Inter De Bebedouro - Nacional SP</t>
+          <t>Itapipoca - Tiradentes CE</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>84</v>
+        <v>74.2</v>
       </c>
       <c r="F6" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>12-02-2025 21:00</t>
+          <t>13-02-2025 23:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>JAMAICA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>PAULISTA - A1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Portmore United - Dunbeholden</t>
+          <t>Inter De Limeira - Palmeiras</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>66.7</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="G7" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>12-02-2025 12:00</t>
+          <t>13-02-2025 15:10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2. LIG</t>
+          <t>PRO LEAGUE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Nazilli Belediyespor - 68 Aksaray Belediyespor</t>
+          <t>Al Akhdoud - Damac</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>68</v>
+        <v>83.3</v>
       </c>
       <c r="F8" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="G8" t="n">
-        <v>0.19</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>13-02-2025 18:45</t>
+          <t>13-02-2025 14:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>TUNISIA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Ferencvarosi TC - Plzen</t>
+          <t>AS Gabes - US Tataouine</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>66.7</v>
       </c>
       <c r="F9" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>13-02-2025 18:45</t>
+          <t>13-02-2025 13:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3486,239 +3967,735 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>AFC CUP</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FC Midtjylland - Real Sociedad</t>
+          <t>Port FC - Jeonbuk Motors</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="F10" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="G10" t="n">
-        <v>0.38</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>13-02-2025 01:30</t>
+          <t>14-02-2025 21:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CARIOCA - 1</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Flamengo - Botafogo</t>
+          <t>QPR - Derby</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>66.7</v>
+        <v>83.3</v>
       </c>
       <c r="F11" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>14-02-2025 00:30</t>
+          <t>14-02-2025 20:45</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CATARINENSE - 1</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Figueirense - Chapecoense-sc</t>
+          <t>Stade Brestois 29 - Auxerre</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>73.3</v>
+        <v>74.2</v>
       </c>
       <c r="F12" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="G12" t="n">
-        <v>0.54</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>13-02-2025 23:30</t>
+          <t>14-02-2025 20:45</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PAULISTA - A1</t>
+          <t>SERIE A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Inter De Limeira - Palmeiras</t>
+          <t>Bologna - Torino</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>66.7</v>
+        <v>70</v>
       </c>
       <c r="F13" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>13-02-2025 02:00</t>
+          <t>14-02-2025 18:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>COSTA-RICA</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN</t>
+          <t>HNL</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sporting San Jose - LD Alajuelense</t>
+          <t>Sibenik - NK Lokomotiva Zagreb</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>70</v>
+        <v>66.7</v>
       </c>
       <c r="F14" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="G14" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>13-02-2025 15:10</t>
+          <t>14-02-2025 21:15</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PRO LEAGUE</t>
+          <t>PRIMEIRA LIGA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Al Akhdoud - Damac</t>
+          <t>Boavista - Estrela</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>83.3</v>
+        <v>66.7</v>
       </c>
       <c r="F15" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="G15" t="n">
-        <v>0.42</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>13-02-2025 02:00</t>
+          <t>14-02-2025 09:35</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CONCACAF CHAMPIONS LEAGUE</t>
+          <t>A-LEAGUE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Guadalajara Chivas - Cibao</t>
+          <t>Melbourne Victory - Wellington Phoenix</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>76</v>
+        <v>66.7</v>
       </c>
       <c r="F16" t="n">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="G16" t="n">
-        <v>0.86</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>13-02-2025 04:00</t>
+          <t>14-02-2025 03:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>COSTA-RICA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CONCACAF CHAMPIONS LEAGUE</t>
+          <t>PRIMERA DIVISIÓN</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Tigres UANL - Real Estelí</t>
+          <t>Santos DE Guapiles - CS Herediano</t>
         </is>
       </c>
       <c r="E17" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>14-02-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NATIONAL 1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Orleans - Versailles</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>14-02-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2. BUNDESLIGA</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SC Paderborn 07 - Preußen Münster</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>14-02-2025 02:30</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>HONDURAS</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>LIGA NACIONAL</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>CD Marathon - Olancho</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>80</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>14-02-2025 09:30</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>INDONESIA</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>LIGA 1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Semen Padang - Persita</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>72</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>14-02-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>FIRST DIVISION</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Kerry - Finn Harps</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>14-02-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE B</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Gubbio - Pineto</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>14-02-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Giugliano - Latina</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>14-02-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>JAPAN</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>J1 LEAGUE</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Gamba Osaka - Cerezo Osaka</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>14-02-2025 02:00</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>LIGA DE EXPANSIÓN MX</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Correcaminos Uat - Leones Negros UDG</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>70</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>14-02-2025 23:30</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>PERU</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Cusco - FBC Melgar</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>14-02-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>POLAND</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>EKSTRAKLASA</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Cracovia Krakow - Korona Kielce</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>14-02-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>POLAND</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>I LIGA</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Arka Gdynia - Polonia Warszawa</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>14-02-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>SAUDI-ARABIA</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>DIVISION 1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Al-Hazm - Al Safa</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
         <v>68</v>
       </c>
-      <c r="F17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.22</v>
+      <c r="F30" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>14-02-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SAUDI-ARABIA</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>PRO LEAGUE</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Al-Hilal Saudi FC - Al Riyadh</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>70</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>14-02-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Unionistas De Salamanca - Ourense CF</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>72</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>14-02-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Mirandes - Racing Ferrol</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -475,169 +475,169 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>17-02-2025 12:30</t>
+          <t>18-02-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>PRIMERA B METROPOLITANA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Fleetwood Town U21 - Coventry City U21</t>
+          <t>Argentino Quilmes - Sportivo Italiano</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>17-02-2025 09:00</t>
+          <t>18-02-2025 21:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LIGA 2</t>
+          <t>PRIMERA B METROPOLITANA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PSIM Yogyakarta - PSPS</t>
+          <t>Deportivo Armenio - San Martín Burzaco</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>70</v>
+        <v>93.3</v>
       </c>
       <c r="F3" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>17-02-2025 19:00</t>
+          <t>18-02-2025 20:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SEGUNDA LIGA</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>União De Leiria - Academico Viseu</t>
+          <t>Taunton Town - Winchester City</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>17-02-2025 18:00</t>
+          <t>18-02-2025 18:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>SOUTH-AFRICA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1. LIG</t>
+          <t>PREMIER SOCCER LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sakaryaspor - Ankaragucu</t>
+          <t>Polokwane City - Magesi</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>19-02-2025 23:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+          <t>COPA DO BRASIL</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Taunton Town - Winchester City</t>
+          <t>Santa Cruz RN - Nautico Recife</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>70</v>
       </c>
       <c r="F6" t="n">
-        <v>1.7</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>18-02-2025 18:30</t>
+          <t>20-02-2025 00:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SOUTH-AFRICA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PREMIER SOCCER LEAGUE</t>
+          <t>COPA DO BRASIL</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Polokwane City - Magesi</t>
+          <t>Capital Brasilia - Portuguesa RJ</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F7" t="n">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
     </row>
   </sheetData>
@@ -651,7 +651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -694,56 +694,84 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>17-02-2025 18:30</t>
+          <t>18-02-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SWEDEN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SVENSKA CUPEN</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BK Hacken - Osters IF</t>
+          <t>Marine - Kidderminster Harriers</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>18-02-2025 14:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Peterborough United U21 - Hull City U21</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>18-02-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>NORTHERN-IRELAND</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>PREMIERSHIP</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Ballymena United - Glentoran</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="E4" t="n">
         <v>73.3</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F4" t="n">
         <v>1.83</v>
       </c>
     </row>
@@ -758,7 +786,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -801,91 +829,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>17-02-2025 16:00</t>
+          <t>18-02-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGA I</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Universitatea Cluj - Unirea Slobozia</t>
+          <t>Stevenage - Burton Albion</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>87.8</v>
+        <v>76.7</v>
       </c>
       <c r="F2" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>17-02-2025 15:00</t>
+          <t>18-02-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>U21 LEAGUE 1</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ES Sétif U21 - CR Belouizdad U21</t>
+          <t>Yeovil Town - Tamworth</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>78.3</v>
+        <v>76</v>
       </c>
       <c r="F3" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>17-02-2025 15:00</t>
+          <t>18-02-2025 20:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>U21 LEAGUE 1</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CS Constantine U21 - ASO Chlef U21</t>
+          <t>Marine - Kidderminster Harriers</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>78.3</v>
+        <v>84</v>
       </c>
       <c r="F4" t="n">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>18-02-2025 00:00</t>
+          <t>19-02-2025 23:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -895,159 +923,47 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PARAENSE</t>
+          <t>COPA DO BRASIL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Paysandu - Independente PA</t>
+          <t>Boavista SC - CSA</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F5" t="n">
-        <v>2.55</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>17-02-2025 13:00</t>
+          <t>19-02-2025 23:15</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>PAULISTA - A1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Bali United - Malut United</t>
+          <t>Santos - Noroeste</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F6" t="n">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>17-02-2025 21:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>PERU</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>PRIMERA DIVISIÓN</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Ayacucho FC - Alianza Universidad</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>83.3</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>17-02-2025 17:30</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>SLOVENIA</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1. SNL</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Radomlje - NK Domzale</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>80</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>18-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>LEAGUE ONE</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Stevenage - Burton Albion</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>18-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Yeovil Town - Tamworth</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>76</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
     </row>
   </sheetData>
@@ -1061,7 +977,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1114,41 +1030,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>17-02-2025 16:00</t>
+          <t>18-02-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGA I</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Universitatea Cluj - Unirea Slobozia</t>
+          <t>Radcliffe - Chorley</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>91.8</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="G2" t="n">
-        <v>33.3</v>
+        <v>46.7</v>
       </c>
       <c r="H2" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>17-02-2025 20:00</t>
+          <t>18-02-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1158,161 +1074,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE 2 DIVISION ONE</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nottingham Forest U21 - Stoke City U21</t>
+          <t>Marine - Kidderminster Harriers</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>1.44</v>
+        <v>2.18</v>
       </c>
       <c r="G3" t="n">
-        <v>70</v>
+        <v>46.7</v>
       </c>
       <c r="H3" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>17-02-2025 21:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>PERU</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>PRIMERA DIVISIÓN</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Ayacucho FC - Alianza Universidad</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="G4" t="n">
-        <v>61.8</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.85</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>17-02-2025 12:00</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1. LIG</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Bandırmaspor - İstanbulspor</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>81.8</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="G5" t="n">
-        <v>50</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.88</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>17-02-2025 17:00</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>AFC CHAMPIONS LEAGUE</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Al Shorta - Al Ain</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>60</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="G6" t="n">
-        <v>60</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>18-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Radcliffe - Chorley</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>80</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="G7" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
     </row>
   </sheetData>
@@ -1374,348 +1154,348 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>17-02-2025 20:45</t>
+          <t>18-02-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGUE 2</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Annecy - Caen</t>
+          <t>Benfica - Monaco</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="G2" t="n">
-        <v>0.59</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>17-02-2025 15:00</t>
+          <t>18-02-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>U21 LEAGUE 1</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Olympique Akbou U21 - JS Kabylie U21</t>
+          <t>Notts County - Colchester</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>60</v>
+        <v>51.7</v>
       </c>
       <c r="F3" t="n">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="G3" t="n">
-        <v>0.29</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>18-02-2025 00:00</t>
+          <t>18-02-2025 20:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PRIMERA NACIONAL</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Colon Santa Fe - Nueva Chicago</t>
+          <t>AFC Fylde - Boston United</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F4" t="n">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.01</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>17-02-2025 21:00</t>
+          <t>18-02-2025 20:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PRIMERA NACIONAL</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Defensores De Belgrano - Agropecuario</t>
+          <t>Barnet - York</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07000000000000001</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>17-02-2025 09:30</t>
+          <t>18-02-2025 20:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>VICTORIA NPL</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>South Melbourne - Melbourne Knights</t>
+          <t>Morton - Hamilton Academical</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>58.3</v>
+        <v>53.3</v>
       </c>
       <c r="F6" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>17-02-2025 19:00</t>
+          <t>18-02-2025 23:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BRASILIENSE</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Real FC - Samambaia</t>
+          <t>Deportes Iquique - Santa Fe</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F7" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="G7" t="n">
-        <v>0.93</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>18-02-2025 00:30</t>
+          <t>18-02-2025 15:30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CHILE</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Union La Calera - Union Espanola</t>
+          <t>Khenchela - JS Saoura</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>60</v>
+        <v>63.3</v>
       </c>
       <c r="F8" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="G8" t="n">
-        <v>0.62</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>17-02-2025 20:00</t>
+          <t>18-02-2025 21:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PRIMERA B</t>
+          <t>PRIMERA B METROPOLITANA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Patriotas - Barranquilla</t>
+          <t>Argentino Quilmes - Sportivo Italiano</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>60</v>
+        <v>73.3</v>
       </c>
       <c r="F9" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="G9" t="n">
-        <v>0.06</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>18-02-2025 00:00</t>
+          <t>18-02-2025 21:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PRIMERA B</t>
+          <t>PRIMERA B METROPOLITANA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Leones FC - Real Cartagena</t>
+          <t>Villa Dalmine - UAI Urquiza</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>60</v>
+        <v>56.7</v>
       </c>
       <c r="F10" t="n">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="G10" t="n">
-        <v>0.92</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>17-02-2025 20:00</t>
+          <t>18-02-2025 21:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE 2 DIVISION ONE</t>
+          <t>PRIMERA B METROPOLITANA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Crystal Palace U21 - Aston Villa U21</t>
+          <t>Deportivo Armenio - San Martín Burzaco</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>60</v>
+        <v>93.3</v>
       </c>
       <c r="F11" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>17-02-2025 20:00</t>
+          <t>19-02-2025 00:10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>COLOMBIA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>PRIMERA A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Swansea City U21 - Queens Park Rangers U21</t>
+          <t>Llaneros - Deportivo Cali</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>56.7</v>
+        <v>60</v>
       </c>
       <c r="F12" t="n">
-        <v>1.75</v>
+        <v>2.48</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.01</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>17-02-2025 12:30</t>
+          <t>18-02-2025 20:45</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1725,239 +1505,239 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Fleetwood Town U21 - Coventry City U21</t>
+          <t>Radcliffe - Chorley</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>73.3</v>
+        <v>50</v>
       </c>
       <c r="F13" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="G13" t="n">
-        <v>0.61</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>17-02-2025 09:30</t>
+          <t>18-02-2025 20:45</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Arema FC - PSS Sleman</t>
+          <t>Chesham United - Salisbury</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>58.3</v>
+        <v>53.3</v>
       </c>
       <c r="F14" t="n">
-        <v>1.83</v>
+        <v>2.28</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>17-02-2025 09:00</t>
+          <t>18-02-2025 20:45</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LIGA 2</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PSIM Yogyakarta - PSPS</t>
+          <t>Enfield Town - Eastbourne Borough</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F15" t="n">
-        <v>1.85</v>
+        <v>3.6</v>
       </c>
       <c r="G15" t="n">
-        <v>0.29</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>17-02-2025 19:00</t>
+          <t>18-02-2025 20:45</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SEGUNDA LIGA</t>
+          <t>NON LEAGUE PREMIER - NORTHERN</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>União De Leiria - Academico Viseu</t>
+          <t>Matlock Town - Ashton United</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>73.3</v>
+        <v>53.3</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="G16" t="n">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>17-02-2025 17:30</t>
+          <t>18-02-2025 20:45</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SLOVENIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1. SNL</t>
+          <t>NON LEAGUE PREMIER - NORTHERN</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Radomlje - NK Domzale</t>
+          <t>Rylands - Leek Town</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F17" t="n">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="G17" t="n">
-        <v>0.15</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>17-02-2025 18:00</t>
+          <t>18-02-2025 20:45</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1. LIG</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Sakaryaspor - Ankaragucu</t>
+          <t>Biggleswade Town - AFC Sudbury</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F18" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="G18" t="n">
-        <v>0.78</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>18-02-2025 00:00</t>
+          <t>18-02-2025 20:45</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>VENEZUELA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Academia Anzoátegui - Metropolitanos FC</t>
+          <t>Taunton Town - Winchester City</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F19" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>18-02-2025 21:00</t>
+          <t>18-02-2025 20:30</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Benfica - Monaco</t>
+          <t>Wimborne Town - Poole Town</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F20" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="21">
@@ -1973,245 +1753,245 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Notts County - Colchester</t>
+          <t>Frome Town - Gosport Borough</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>51.7</v>
+        <v>50</v>
       </c>
       <c r="F21" t="n">
-        <v>1.91</v>
+        <v>2.45</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.01</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>18-02-2025 09:30</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>LIGA 2</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>AFC Fylde - Boston United</t>
+          <t>Persela Lamongan - Persijap</t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>60</v>
       </c>
       <c r="F22" t="n">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="G22" t="n">
-        <v>0.35</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>18-02-2025 13:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ISRAEL</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>LIGA ALEF</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Barnet - York</t>
+          <t>Ironi Baka El Garbiya - Ironi Nesher</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F23" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>18-02-2025 16:30</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Morton - Hamilton Academical</t>
+          <t>Al-Faisaly FC - Abha</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F24" t="n">
         <v>2.1</v>
       </c>
       <c r="G24" t="n">
-        <v>0.12</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>18-02-2025 23:00</t>
+          <t>18-02-2025 18:30</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SOUTH-AFRICA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>PREMIER SOCCER LEAGUE</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Deportes Iquique - Santa Fe</t>
+          <t>Cape Town City - Chippa United</t>
         </is>
       </c>
       <c r="E25" t="n">
         <v>60</v>
       </c>
       <c r="F25" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="G25" t="n">
-        <v>0.32</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>18-02-2025 01:30</t>
+          <t>18-02-2025 18:30</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>SOUTH-AFRICA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>LIGA PROFESIONAL ARGENTINA</t>
+          <t>PREMIER SOCCER LEAGUE</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Instituto Cordoba - San Lorenzo</t>
+          <t>Polokwane City - Magesi</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>66.7</v>
+        <v>80</v>
       </c>
       <c r="F26" t="n">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="G26" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>18-02-2025 02:10</t>
+          <t>18-02-2025 14:00</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>TANZANIA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PRIMERA A</t>
+          <t>LIGI KUU BARA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Fortaleza FC - Rionegro Aguilas</t>
+          <t>KenGold - Kagera Sugar</t>
         </is>
       </c>
       <c r="E27" t="n">
         <v>50</v>
       </c>
       <c r="F27" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="G27" t="n">
-        <v>0.19</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>19-02-2025 00:10</t>
+          <t>18-02-2025 14:00</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>TANZANIA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PRIMERA A</t>
+          <t>LIGI KUU BARA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Llaneros - Deportivo Cali</t>
+          <t>KMC - JKT Tanzania</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F28" t="n">
-        <v>2.48</v>
+        <v>2.25</v>
       </c>
       <c r="G28" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>19-02-2025 20:45</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2221,301 +2001,301 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Radcliffe - Chorley</t>
+          <t>Woking - Solihull Moors</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F29" t="n">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="G29" t="n">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>19-02-2025 23:00</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Enfield Town - Eastbourne Borough</t>
+          <t>Boston River - Nublense</t>
         </is>
       </c>
       <c r="E30" t="n">
         <v>50</v>
       </c>
       <c r="F30" t="n">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>19-02-2025 01:30</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - NORTHERN</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Matlock Town - Ashton United</t>
+          <t>Alianza Lima - Boca Juniors</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F31" t="n">
-        <v>2.8</v>
+        <v>3.45</v>
       </c>
       <c r="G31" t="n">
-        <v>0.49</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>19-02-2025 17:00</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - NORTHERN</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Rylands - Leek Town</t>
+          <t>MC Oran - Mostaganem</t>
         </is>
       </c>
       <c r="E32" t="n">
         <v>50</v>
       </c>
       <c r="F32" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>19-02-2025 23:00</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
+          <t>COPA DO BRASIL</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Biggleswade Town - AFC Sudbury</t>
+          <t>Santa Cruz RN - Nautico Recife</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F33" t="n">
-        <v>2.63</v>
+        <v>3.85</v>
       </c>
       <c r="G33" t="n">
-        <v>0.31</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>19-02-2025 23:30</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+          <t>COPA DO BRASIL</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Taunton Town - Winchester City</t>
+          <t>Sao Raimundo - Gremio</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F34" t="n">
-        <v>1.7</v>
+        <v>13</v>
       </c>
       <c r="G34" t="n">
-        <v>0.19</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>18-02-2025 20:30</t>
+          <t>20-02-2025 00:00</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+          <t>COPA DO BRASIL</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Wimborne Town - Poole Town</t>
+          <t>Capital Brasilia - Portuguesa RJ</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F35" t="n">
-        <v>1.95</v>
+        <v>3.25</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.03</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>19-02-2025 01:30</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+          <t>COPA DO NORDESTE</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Frome Town - Gosport Borough</t>
+          <t>Ferroviario - Altos</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F36" t="n">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="G36" t="n">
-        <v>0.23</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>18-02-2025 18:30</t>
+          <t>19-02-2025 13:00</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SOUTH-AFRICA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PREMIER SOCCER LEAGUE</t>
+          <t>AFC CUP</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Cape Town City - Chippa United</t>
+          <t>Bangkok United - Sydney</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F37" t="n">
-        <v>1.91</v>
+        <v>3.1</v>
       </c>
       <c r="G37" t="n">
-        <v>0.15</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>18-02-2025 18:30</t>
+          <t>20-02-2025 00:30</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SOUTH-AFRICA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PREMIER SOCCER LEAGUE</t>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Polokwane City - Magesi</t>
+          <t>CS Herediano - Real Salt Lake</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F38" t="n">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4</v>
+        <v>0.55</v>
       </c>
     </row>
   </sheetData>
@@ -2529,7 +2309,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2577,7 +2357,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>17-02-2025 20:45</t>
+          <t>18-02-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2587,208 +2367,208 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hemel Hempstead Town - St Albans City</t>
+          <t>Crawley Town - Wigan</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>51.7</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>17-02-2025 14:30</t>
+          <t>18-02-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>INDIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>I-LEAGUE</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Gokulam - Delhi FC</t>
+          <t>Stevenage - Burton Albion</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>53.3</v>
       </c>
       <c r="F3" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>17-02-2025 18:00</t>
+          <t>18-02-2025 20:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LIGA LEUMIT</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Bnei Yehuda - Hapoel Petah Tikva</t>
+          <t>Wrexham - Leyton Orient</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>63.3</v>
+        <v>55.7</v>
       </c>
       <c r="F4" t="n">
-        <v>1.83</v>
+        <v>3.2</v>
       </c>
       <c r="G4" t="n">
-        <v>0.16</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>17-02-2025 21:00</t>
+          <t>18-02-2025 21:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PERU</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN</t>
+          <t>EFL TROPHY</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Ayacucho FC - Alianza Universidad</t>
+          <t>Birmingham - Bradford</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>57.7</v>
+        <v>60</v>
       </c>
       <c r="F5" t="n">
-        <v>2.55</v>
+        <v>6.5</v>
       </c>
       <c r="G5" t="n">
-        <v>0.47</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>17-02-2025 17:00</t>
+          <t>18-02-2025 20:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SERBIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SUPER LIGA</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Železničar Pančevo - Vojvodina</t>
+          <t>Gateshead - Sutton Utd</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F6" t="n">
-        <v>1.85</v>
+        <v>4.1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>17-02-2025 18:30</t>
+          <t>18-02-2025 23:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SWEDEN</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SVENSKA CUPEN</t>
+          <t>CAPIXABA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BK Hacken - Osters IF</t>
+          <t>Jaguaré - Vitória ES</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="G7" t="n">
-        <v>2.5</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>17-02-2025 17:00</t>
+          <t>18-02-2025 20:45</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AFC CHAMPIONS LEAGUE</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Persepolis FC - Al-Nassr</t>
+          <t>Leamington - Buxton</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>66.7</v>
       </c>
       <c r="F8" t="n">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="G8" t="n">
-        <v>0.87</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="9">
@@ -2804,22 +2584,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Crawley Town - Wigan</t>
+          <t>Marine - Kidderminster Harriers</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F9" t="n">
-        <v>2.55</v>
+        <v>1.77</v>
       </c>
       <c r="G9" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="10">
@@ -2835,28 +2615,28 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Stevenage - Burton Albion</t>
+          <t>Sholing - Walton &amp; Hersham</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>53.3</v>
+        <v>66.7</v>
       </c>
       <c r="F10" t="n">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="G10" t="n">
-        <v>1.53</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>18-02-2025 14:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2866,53 +2646,53 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Wrexham - Leyton Orient</t>
+          <t>Peterborough United U21 - Hull City U21</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>55.7</v>
+        <v>86.7</v>
       </c>
       <c r="F11" t="n">
-        <v>3.2</v>
+        <v>1.91</v>
       </c>
       <c r="G11" t="n">
-        <v>0.78</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>18-02-2025 21:00</t>
+          <t>18-02-2025 09:30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>INDIA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>EFL TROPHY</t>
+          <t>I-LEAGUE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Birmingham - Bradford</t>
+          <t>Real Kashmir - Namdhari</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F12" t="n">
-        <v>6.5</v>
+        <v>3.9</v>
       </c>
       <c r="G12" t="n">
-        <v>2.9</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="13">
@@ -2923,151 +2703,182 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>NORTHERN-IRELAND</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>PREMIERSHIP</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Gateshead - Sutton Utd</t>
+          <t>Ballymena United - Glentoran</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>51</v>
+        <v>73.3</v>
       </c>
       <c r="F13" t="n">
-        <v>4.1</v>
+        <v>1.83</v>
       </c>
       <c r="G13" t="n">
-        <v>1.09</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>18-02-2025 23:00</t>
+          <t>18-02-2025 14:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>TUNISIA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CAPIXABA</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Jaguaré - Vitória ES</t>
+          <t>AS Soliman - AS Gabes</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F14" t="n">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="G14" t="n">
-        <v>0.12</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>18-02-2025 12:30</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>AFC U20 ASIAN CUP</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Leamington - Buxton</t>
+          <t>Kyrgyz Republic U20 - Qatar U20</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>66.7</v>
+        <v>53.5</v>
       </c>
       <c r="F15" t="n">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="G15" t="n">
-        <v>0.63</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>19-02-2025 08:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+          <t>AFC U20 ASIAN CUP</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sholing - Walton &amp; Hersham</t>
+          <t>Saudi Arabia U20 - Korea DPR U20</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>66.7</v>
+        <v>53.5</v>
       </c>
       <c r="F16" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>19-02-2025 12:30</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NORTHERN-IRELAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PREMIERSHIP</t>
+          <t>AFC U20 ASIAN CUP</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Ballymena United - Glentoran</t>
+          <t>Uzbekistan U20 - Iran U20</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>73.3</v>
+        <v>60</v>
       </c>
       <c r="F17" t="n">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="G17" t="n">
-        <v>0.34</v>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>19-02-2025 02:00</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Sporting Kansas City - Inter Miami</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>60</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
@@ -3081,7 +2892,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3129,249 +2940,125 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>17-02-2025 16:00</t>
+          <t>18-02-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGA I</t>
+          <t>PRIMERA B METROPOLITANA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Universitatea Cluj - Unirea Slobozia</t>
+          <t>Deportivo Armenio - San Martín Burzaco</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>91.8</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="G2" t="n">
-        <v>0.84</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>17-02-2025 15:00</t>
+          <t>18-02-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>U21 LEAGUE 1</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Khenchela U21 - JS Saoura U21</t>
+          <t>Radcliffe - Chorley</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
         <v>1.85</v>
       </c>
       <c r="G3" t="n">
-        <v>0.29</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>17-02-2025 15:00</t>
+          <t>18-02-2025 20:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>U21 LEAGUE 1</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CS Constantine U21 - ASO Chlef U21</t>
+          <t>Marine - Kidderminster Harriers</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>77.5</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>1.75</v>
+        <v>2.18</v>
       </c>
       <c r="G4" t="n">
-        <v>0.36</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>17-02-2025 21:00</t>
+          <t>19-02-2025 04:10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PERU</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN</t>
+          <t>LIGA MX</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Ayacucho FC - Alianza Universidad</t>
+          <t>Atlas - Necaxa</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>76.8</v>
+        <v>70</v>
       </c>
       <c r="F5" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="G5" t="n">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>17-02-2025 17:30</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>SLOVENIA</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1. SNL</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Radomlje - NK Domzale</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>70</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>17-02-2025 18:30</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>SWEDEN</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>SVENSKA CUPEN</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Sirius - Helsingborg</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>17-02-2025 12:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1. LIG</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Bandırmaspor - İstanbulspor</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>81.8</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>18-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Radcliffe - Chorley</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>80</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.48</v>
+        <v>0.36</v>
       </c>
     </row>
   </sheetData>
@@ -3385,7 +3072,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3433,869 +3120,559 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>17-02-2025 21:00</t>
+          <t>18-02-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LA LIGA</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Barcelona - Rayo Vallecano</t>
+          <t>Crawley Town - Wigan</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>73.3</v>
+        <v>72</v>
       </c>
       <c r="F2" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="G2" t="n">
-        <v>0.28</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>17-02-2025 16:00</t>
+          <t>18-02-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LIGA I</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Universitatea Cluj - Unirea Slobozia</t>
+          <t>Mansfield Town - Lincoln</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>87.8</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="G3" t="n">
-        <v>0.93</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>17-02-2025 15:00</t>
+          <t>18-02-2025 20:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>U21 LEAGUE 1</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ES Sétif U21 - CR Belouizdad U21</t>
+          <t>Shrewsbury - Huddersfield</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>78.3</v>
+        <v>72</v>
       </c>
       <c r="F4" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>17-02-2025 15:00</t>
+          <t>18-02-2025 20:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>U21 LEAGUE 1</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>USM Alger U21 - NC Magra U21</t>
+          <t>Stevenage - Burton Albion</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>69.2</v>
+        <v>76.7</v>
       </c>
       <c r="F5" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="G5" t="n">
-        <v>0.28</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>17-02-2025 15:00</t>
+          <t>18-02-2025 20:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>U21 LEAGUE 1</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS Constantine U21 - ASO Chlef U21</t>
+          <t>Ebbsfleet United - Forest Green</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>78.3</v>
+        <v>68</v>
       </c>
       <c r="F6" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="G6" t="n">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>18-02-2025 00:00</t>
+          <t>18-02-2025 20:45</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PARAENSE</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Paysandu - Independente PA</t>
+          <t>Southend - Aldershot Town</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F7" t="n">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="G7" t="n">
-        <v>1.04</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>17-02-2025 21:00</t>
+          <t>18-02-2025 20:45</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PRIMERA B</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Depor FC - Bogota FC</t>
+          <t>Yeovil Town - Tamworth</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>66.7</v>
+        <v>76</v>
       </c>
       <c r="F8" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="G8" t="n">
-        <v>0.22</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>17-02-2025 09:30</t>
+          <t>19-02-2025 00:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>PRIMERA B METROPOLITANA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Arema FC - PSS Sleman</t>
+          <t>Argentino De Merlo - Midland</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>67.5</v>
+        <v>68.3</v>
       </c>
       <c r="F9" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="G9" t="n">
-        <v>0.15</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>17-02-2025 13:00</t>
+          <t>18-02-2025 18:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Bali United - Malut United</t>
+          <t>Ghazl El Mehalla - AL Masry</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F10" t="n">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="G10" t="n">
-        <v>0.29</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>17-02-2025 20:30</t>
+          <t>18-02-2025 20:45</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE A</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Virtus Verona - Caldiero Terme</t>
+          <t>Marine - Kidderminster Harriers</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F11" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="G11" t="n">
-        <v>0.36</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>17-02-2025 20:30</t>
+          <t>18-02-2025 20:45</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>NORTHERN-IRELAND</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE B</t>
+          <t>PREMIERSHIP</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Lucchese - Perugia</t>
+          <t>Ballymena United - Glentoran</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F12" t="n">
         <v>1.83</v>
       </c>
       <c r="G12" t="n">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>17-02-2025 21:00</t>
+          <t>19-02-2025 21:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PERU</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Ayacucho FC - Alianza Universidad</t>
+          <t>Paris Saint Germain - Stade Brestois 29</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>83.3</v>
+        <v>66.7</v>
       </c>
       <c r="F13" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>17-02-2025 19:00</t>
+          <t>19-02-2025 23:30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>POLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>I LIGA</t>
+          <t>COPA DO BRASIL</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Pogoń Siedlce - Ruch Chorzów</t>
+          <t>Boavista SC - CSA</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>66.7</v>
+        <v>76</v>
       </c>
       <c r="F14" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="G14" t="n">
-        <v>0.15</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>17-02-2025 17:30</t>
+          <t>19-02-2025 23:15</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SLOVENIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1. SNL</t>
+          <t>PAULISTA - A1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Radomlje - NK Domzale</t>
+          <t>Santos - Noroeste</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F15" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="G15" t="n">
-        <v>0.44</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>17-02-2025 18:30</t>
+          <t>19-02-2025 02:20</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SWEDEN</t>
+          <t>COLOMBIA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SVENSKA CUPEN</t>
+          <t>PRIMERA A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sirius - Helsingborg</t>
+          <t>Chico - Junior</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>74.5</v>
+        <v>66.7</v>
       </c>
       <c r="F16" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="G16" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>17-02-2025 18:00</t>
+          <t>19-02-2025 04:10</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1. LIG</t>
+          <t>LIGA MX</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sakaryaspor - Ankaragucu</t>
+          <t>Atlas - Necaxa</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F17" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="G17" t="n">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>19-02-2025 18:30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SOUTH-AFRICA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>PREMIER SOCCER LEAGUE</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Crawley Town - Wigan</t>
+          <t>Golden Arrows - Orlando Pirates</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>72</v>
+        <v>66.7</v>
       </c>
       <c r="F18" t="n">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="G18" t="n">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>19-02-2025 12:30</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>AFC U20 ASIAN CUP</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Mansfield Town - Lincoln</t>
+          <t>Indonesia U20 - Yemen U20</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>70</v>
+        <v>66.7</v>
       </c>
       <c r="F19" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="G19" t="n">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>18-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>LEAGUE ONE</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Shrewsbury - Huddersfield</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>72</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>18-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>LEAGUE ONE</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Stevenage - Burton Albion</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>18-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Ebbsfleet United - Forest Green</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>68</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>18-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Southend - Aldershot Town</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>18-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Yeovil Town - Tamworth</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>76</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>18-02-2025 02:00</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>COSTA-RICA</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>PRIMERA DIVISIÓN</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Sporting San Jose - Santos DE Guapiles</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>70</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>18-02-2025 01:00</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>ECUADOR</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>LIGA PRO</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Mushuc Runa SC - Delfin SC</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>70</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>18-02-2025 18:00</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>EGYPT</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Ghazl El Mehalla - AL Masry</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>70</v>
-      </c>
-      <c r="F27" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>18-02-2025 03:05</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>MEXICO</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>LIGA PREMIER SERIE A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Durango - Mineros De Fresnillo</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="F28" t="n">
-        <v>2</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>18-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>NORTHERN-IRELAND</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>PREMIERSHIP</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Ballymena United - Glentoran</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>70</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.28</v>
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,169 +475,141 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18-02-2025 21:00</t>
+          <t>19-02-2025 11:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>AZERBAIJAN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PRIMERA B METROPOLITANA</t>
+          <t>BIRINCI DASTA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Argentino Quilmes - Sportivo Italiano</t>
+          <t>Mil-Muğan - Zaqatala</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>18-02-2025 21:00</t>
+          <t>19-02-2025 23:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PRIMERA B METROPOLITANA</t>
+          <t>COPA DO BRASIL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Deportivo Armenio - San Martín Burzaco</t>
+          <t>Santa Cruz RN - Nautico Recife</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>93.3</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>1.8</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>20-02-2025 00:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+          <t>COPA DO BRASIL</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Taunton Town - Winchester City</t>
+          <t>Capital Brasilia - Portuguesa RJ</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>1.7</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>18-02-2025 18:30</t>
+          <t>19-02-2025 13:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SOUTH-AFRICA</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PREMIER SOCCER LEAGUE</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Polokwane City - Magesi</t>
+          <t>Al Baten - Al Jandal</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F5" t="n">
-        <v>1.75</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>19-02-2025 23:00</t>
+          <t>20-02-2025 21:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>COPA DO BRASIL</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Santa Cruz RN - Nautico Recife</t>
+          <t>Ajax - Union St. Gilloise</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>70</v>
       </c>
       <c r="F6" t="n">
-        <v>3.85</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>20-02-2025 00:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>BRAZIL</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>COPA DO BRASIL</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Capital Brasilia - Portuguesa RJ</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>70</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3.25</v>
+        <v>1.83</v>
       </c>
     </row>
   </sheetData>
@@ -651,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -694,85 +666,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>19-02-2025 13:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>CAMPIONATO PRIMAVERA - 1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Marine - Kidderminster Harriers</t>
+          <t>Hellas Verona U20 - Roma U20</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>1.77</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>18-02-2025 14:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Peterborough United U21 - Hull City U21</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>18-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>NORTHERN-IRELAND</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>PREMIERSHIP</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Ballymena United - Glentoran</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -786,7 +702,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -829,141 +745,225 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>19-02-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>PRIMERA B METROPOLITANA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Stevenage - Burton Albion</t>
+          <t>Deportivo Laferrere - Dock Sud</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>19-02-2025 23:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>COPA DO BRASIL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Yeovil Town - Tamworth</t>
+          <t>Boavista SC - CSA</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>76</v>
       </c>
       <c r="F3" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>19-02-2025 23:15</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>PAULISTA - A1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Marine - Kidderminster Harriers</t>
+          <t>Santos - Noroeste</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F4" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>19-02-2025 23:30</t>
+          <t>20-02-2025 21:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>COPA DO BRASIL</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Boavista SC - CSA</t>
+          <t>Panathinaikos - Vikingur Reykjavik</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>1.87</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>19-02-2025 23:15</t>
+          <t>20-02-2025 16:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PAULISTA - A1</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Santos - Noroeste</t>
+          <t>ES Setif - CR Belouizdad</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>88</v>
+        <v>76.7</v>
       </c>
       <c r="F6" t="n">
-        <v>2.05</v>
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>20-02-2025 01:10</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ARGENTINA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>COPA ARGENTINA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Defensa Y Justicia - Racing Cordoba</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>76</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>21-02-2025 00:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>JAMAICA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Montego Bay United - Racing United</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>76</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>20-02-2025 16:15</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SAUDI-ARABIA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PRO LEAGUE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Al-Fateh - Al Orubah</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>76</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.77</v>
       </c>
     </row>
   </sheetData>
@@ -977,7 +977,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1030,69 +1030,171 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>19-02-2025 19:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>COPA DO BRASIL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Radcliffe - Chorley</t>
+          <t>Tuna Luso - Sampaio Correa</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="G2" t="n">
-        <v>46.7</v>
+        <v>13.3</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>20-02-2025 21:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Marine - Kidderminster Harriers</t>
+          <t>Ajax - Union St. Gilloise</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>86.7</v>
       </c>
       <c r="F3" t="n">
-        <v>2.18</v>
+        <v>1.8</v>
       </c>
       <c r="G3" t="n">
-        <v>46.7</v>
+        <v>26.7</v>
       </c>
       <c r="H3" t="n">
-        <v>4.2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>20-02-2025 21:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>UEFA EUROPA LEAGUE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Anderlecht - Fenerbahce</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>75</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G4" t="n">
+        <v>60</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>20-02-2025 18:45</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>UEFA EUROPA LEAGUE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Bodo/Glimt - Twente</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G5" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>20-02-2025 02:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>COSTA-RICA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>LIGA DE ASCENSO</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>AD Carmelita - San Carlos FC</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>75</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>60</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.3</v>
       </c>
     </row>
   </sheetData>
@@ -1106,7 +1208,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1154,1148 +1256,807 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18-02-2025 21:00</t>
+          <t>19-02-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Benfica - Monaco</t>
+          <t>Woking - Solihull Moors</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>19-02-2025 23:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Notts County - Colchester</t>
+          <t>Boston River - Nublense</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>51.7</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>19-02-2025 17:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AFC Fylde - Boston United</t>
+          <t>MC Oran - Mostaganem</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="G4" t="n">
-        <v>0.35</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>19-02-2025 14:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Barnet - York</t>
+          <t>US Souf - JS Bordj Ménaïel</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="F5" t="n">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>19-02-2025 14:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Morton - Hamilton Academical</t>
+          <t>HB Chelghoum Laïd - MB Rouisset</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="G6" t="n">
-        <v>0.12</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>18-02-2025 23:00</t>
+          <t>19-02-2025 14:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Deportes Iquique - Santa Fe</t>
+          <t>CR Méchria - MC Saida</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F7" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="G7" t="n">
-        <v>0.32</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>18-02-2025 15:30</t>
+          <t>20-02-2025 00:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LIGUE 1</t>
+          <t>PRIMERA B METROPOLITANA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Khenchela - JS Saoura</t>
+          <t>Comunicaciones - Sacachispas</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>63.3</v>
+        <v>55.7</v>
       </c>
       <c r="F8" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.39</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>18-02-2025 21:00</t>
+          <t>19-02-2025 11:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>AZERBAIJAN</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PRIMERA B METROPOLITANA</t>
+          <t>BIRINCI DASTA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Argentino Quilmes - Sportivo Italiano</t>
+          <t>Mil-Muğan - Zaqatala</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>73.3</v>
       </c>
       <c r="F9" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="G9" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>18-02-2025 21:00</t>
+          <t>19-02-2025 23:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PRIMERA B METROPOLITANA</t>
+          <t>COPA DO BRASIL</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Villa Dalmine - UAI Urquiza</t>
+          <t>Santa Cruz RN - Nautico Recife</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>56.7</v>
+        <v>70</v>
       </c>
       <c r="F10" t="n">
-        <v>2.05</v>
+        <v>3.85</v>
       </c>
       <c r="G10" t="n">
-        <v>0.16</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>18-02-2025 21:00</t>
+          <t>19-02-2025 19:30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PRIMERA B METROPOLITANA</t>
+          <t>COPA DO BRASIL</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Deportivo Armenio - San Martín Burzaco</t>
+          <t>Tuna Luso - Sampaio Correa</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>93.3</v>
+        <v>50</v>
       </c>
       <c r="F11" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="G11" t="n">
-        <v>0.68</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>19-02-2025 00:10</t>
+          <t>19-02-2025 23:30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PRIMERA A</t>
+          <t>COPA DO BRASIL</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Llaneros - Deportivo Cali</t>
+          <t>Sao Raimundo - Gremio</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F12" t="n">
-        <v>2.48</v>
+        <v>13</v>
       </c>
       <c r="G12" t="n">
-        <v>0.49</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>20-02-2025 00:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>COPA DO BRASIL</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Radcliffe - Chorley</t>
+          <t>Capital Brasilia - Portuguesa RJ</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F13" t="n">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="G13" t="n">
-        <v>0.35</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>19-02-2025 19:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>PAULISTA - A3</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Chesham United - Salisbury</t>
+          <t>EC São Bernardo - União São João</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F14" t="n">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="G14" t="n">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>19-02-2025 15:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>IRAN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>AZADEGAN LEAGUE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Enfield Town - Eastbourne Borough</t>
+          <t>Naft Masjed Soleyman - Naft Gachsaran</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F15" t="n">
-        <v>3.6</v>
+        <v>2.62</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>19-02-2025 11:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - NORTHERN</t>
+          <t>CAMPIONATO PRIMAVERA - 1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Matlock Town - Ashton United</t>
+          <t>Juventus U20 - Lecce U20</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F16" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="G16" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>19-02-2025 13:45</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - NORTHERN</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Rylands - Leek Town</t>
+          <t>Al Baten - Al Jandal</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>50</v>
+        <v>73.3</v>
       </c>
       <c r="F17" t="n">
-        <v>1.8</v>
+        <v>2.35</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.1</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>19-02-2025 13:15</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>VIETNAM</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
+          <t>V.LEAGUE 1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Biggleswade Town - AFC Sudbury</t>
+          <t>Viettel - Công An Nhân Dân</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>50</v>
       </c>
       <c r="F18" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="G18" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>19-02-2025 11:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+          <t>AFC CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Taunton Town - Winchester City</t>
+          <t>Ulsan Hyundai FC - Shandong Luneng</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F19" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="G19" t="n">
-        <v>0.19</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>18-02-2025 20:30</t>
+          <t>19-02-2025 13:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+          <t>AFC CUP</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Wimborne Town - Poole Town</t>
+          <t>Bangkok United - Sydney</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>50</v>
       </c>
       <c r="F20" t="n">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.03</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>20-02-2025 00:30</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Frome Town - Gosport Borough</t>
+          <t>CS Herediano - Real Salt Lake</t>
         </is>
       </c>
       <c r="E21" t="n">
         <v>50</v>
       </c>
       <c r="F21" t="n">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="G21" t="n">
-        <v>0.23</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>18-02-2025 09:30</t>
+          <t>20-02-2025 21:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>LIGA 2</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Persela Lamongan - Persijap</t>
+          <t>Ajax - Union St. Gilloise</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F22" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="G22" t="n">
-        <v>0.02</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>18-02-2025 13:00</t>
+          <t>20-02-2025 18:45</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>LIGA ALEF</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Ironi Baka El Garbiya - Ironi Nesher</t>
+          <t>AS Roma - FC Porto</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>60</v>
+        <v>56.7</v>
       </c>
       <c r="F23" t="n">
         <v>1.75</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>18-02-2025 16:30</t>
+          <t>20-02-2025 18:45</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DIVISION 1</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Al-Faisaly FC - Abha</t>
+          <t>Bodo/Glimt - Twente</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F24" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="G24" t="n">
-        <v>0.26</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>18-02-2025 18:30</t>
+          <t>20-02-2025 22:30</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SOUTH-AFRICA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PREMIER SOCCER LEAGUE</t>
+          <t>PAULISTA - A1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Cape Town City - Chippa United</t>
+          <t>RB Bragantino - Mirassol</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F25" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="G25" t="n">
-        <v>0.15</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>18-02-2025 18:30</t>
+          <t>20-02-2025 02:10</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SOUTH-AFRICA</t>
+          <t>COLOMBIA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PREMIER SOCCER LEAGUE</t>
+          <t>PRIMERA A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Polokwane City - Magesi</t>
+          <t>Once Caldas - Deportivo Pereira</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F26" t="n">
-        <v>1.75</v>
+        <v>1.94</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>18-02-2025 14:00</t>
+          <t>20-02-2025 08:00</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TANZANIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>LIGI KUU BARA</t>
+          <t>AFC U20 ASIAN CUP</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>KenGold - Kagera Sugar</t>
+          <t>Syria U20 - Thailand U20</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>50</v>
+        <v>58.5</v>
       </c>
       <c r="F27" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="G27" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>18-02-2025 14:00</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>TANZANIA</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>LIGI KUU BARA</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>KMC - JKT Tanzania</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F28" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>19-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Woking - Solihull Moors</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F29" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>19-02-2025 23:00</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>CONMEBOL LIBERTADORES</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Boston River - Nublense</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>50</v>
-      </c>
-      <c r="F30" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>19-02-2025 01:30</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>CONMEBOL LIBERTADORES</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Alianza Lima - Boca Juniors</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>50</v>
-      </c>
-      <c r="F31" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>19-02-2025 17:00</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>ALGERIA</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>LIGUE 1</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>MC Oran - Mostaganem</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>50</v>
-      </c>
-      <c r="F32" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>19-02-2025 23:00</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>BRAZIL</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>COPA DO BRASIL</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Santa Cruz RN - Nautico Recife</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>70</v>
-      </c>
-      <c r="F33" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>19-02-2025 23:30</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>BRAZIL</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>COPA DO BRASIL</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Sao Raimundo - Gremio</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>50</v>
-      </c>
-      <c r="F34" t="n">
-        <v>13</v>
-      </c>
-      <c r="G34" t="n">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>20-02-2025 00:00</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>BRAZIL</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>COPA DO BRASIL</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Capital Brasilia - Portuguesa RJ</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>70</v>
-      </c>
-      <c r="F35" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1.27</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>19-02-2025 01:30</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>BRAZIL</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>COPA DO NORDESTE</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Ferroviario - Altos</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>19-02-2025 13:00</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>AFC CUP</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Bangkok United - Sydney</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>50</v>
-      </c>
-      <c r="F37" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>20-02-2025 00:30</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>CONCACAF CHAMPIONS LEAGUE</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>CS Herediano - Real Salt Lake</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>50</v>
-      </c>
-      <c r="F38" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.55</v>
+        <v>0.14</v>
       </c>
     </row>
   </sheetData>
@@ -2357,472 +2118,472 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>19-02-2025 14:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Crawley Town - Wigan</t>
+          <t>HB Chelghoum Laïd - MB Rouisset</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>2.55</v>
+        <v>1.91</v>
       </c>
       <c r="G2" t="n">
-        <v>0.27</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>19-02-2025 23:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>CAPIXABA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Stevenage - Burton Albion</t>
+          <t>Real Noroeste - Rio Branco ES</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>53.3</v>
+        <v>51.7</v>
       </c>
       <c r="F3" t="n">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="G3" t="n">
-        <v>1.53</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>19-02-2025 19:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>COPA DO BRASIL</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Wrexham - Leyton Orient</t>
+          <t>Tuna Luso - Sampaio Correa</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>55.7</v>
+        <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="G4" t="n">
-        <v>0.78</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>18-02-2025 21:00</t>
+          <t>19-02-2025 14:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>CAMEROON</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EFL TROPHY</t>
+          <t>ELITE ONE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Birmingham - Bradford</t>
+          <t>Union Douala - Victoria United</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="G5" t="n">
-        <v>2.9</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>19-02-2025 15:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>CAMPIONATO PRIMAVERA - 1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Gateshead - Sutton Utd</t>
+          <t>Empoli U20 - Sampdoria U20</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>4.1</v>
+        <v>3.05</v>
       </c>
       <c r="G6" t="n">
-        <v>1.09</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>18-02-2025 23:00</t>
+          <t>19-02-2025 13:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CAPIXABA</t>
+          <t>CAMPIONATO PRIMAVERA - 1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Jaguaré - Vitória ES</t>
+          <t>Hellas Verona U20 - Roma U20</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F7" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>0.12</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>19-02-2025 16:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>U23 LEAGUE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Leamington - Buxton</t>
+          <t>Club America U23 - Club León U23</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>66.7</v>
+        <v>53.3</v>
       </c>
       <c r="F8" t="n">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="G8" t="n">
-        <v>0.63</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>19-02-2025 08:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>AFC U20 ASIAN CUP</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Marine - Kidderminster Harriers</t>
+          <t>Saudi Arabia U20 - Korea DPR U20</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>70</v>
+        <v>53.5</v>
       </c>
       <c r="F9" t="n">
-        <v>1.77</v>
+        <v>3.3</v>
       </c>
       <c r="G9" t="n">
-        <v>0.24</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>19-02-2025 12:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+          <t>AFC U20 ASIAN CUP</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sholing - Walton &amp; Hersham</t>
+          <t>Uzbekistan U20 - Iran U20</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F10" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>18-02-2025 14:00</t>
+          <t>20-02-2025 18:45</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Peterborough United U21 - Hull City U21</t>
+          <t>1. FC Heidenheim - FC Copenhagen</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>86.7</v>
+        <v>50</v>
       </c>
       <c r="F11" t="n">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="G11" t="n">
-        <v>0.66</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>18-02-2025 09:30</t>
+          <t>20-02-2025 18:45</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>INDIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>I-LEAGUE</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Real Kashmir - Namdhari</t>
+          <t>Olimpija Ljubljana - Borac Banja Luka</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F12" t="n">
-        <v>3.9</v>
+        <v>5.75</v>
       </c>
       <c r="G12" t="n">
-        <v>1.08</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>20-02-2025 02:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NORTHERN-IRELAND</t>
+          <t>COSTA-RICA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PREMIERSHIP</t>
+          <t>LIGA DE ASCENSO</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Ballymena United - Glentoran</t>
+          <t>AD Carmelita - San Carlos FC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>73.3</v>
+        <v>66.7</v>
       </c>
       <c r="F13" t="n">
-        <v>1.83</v>
+        <v>5.5</v>
       </c>
       <c r="G13" t="n">
-        <v>0.34</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>18-02-2025 14:00</t>
+          <t>20-02-2025 15:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TUNISIA</t>
+          <t>INDIA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LIGUE 1</t>
+          <t>INDIAN SUPER LEAGUE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>AS Soliman - AS Gabes</t>
+          <t>Mohammedan - Jamshedpur</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F14" t="n">
-        <v>3.8</v>
+        <v>2.38</v>
       </c>
       <c r="G14" t="n">
-        <v>1.28</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>18-02-2025 12:30</t>
+          <t>20-02-2025 04:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>AFC U20 ASIAN CUP</t>
+          <t>LIGA PREMIER SERIE A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Kyrgyz Republic U20 - Qatar U20</t>
+          <t>Los Cabos United - Leones Negros</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>53.5</v>
+        <v>50</v>
       </c>
       <c r="F15" t="n">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.01</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>19-02-2025 08:00</t>
+          <t>20-02-2025 14:30</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>OMAN</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>AFC U20 ASIAN CUP</t>
+          <t>PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Saudi Arabia U20 - Korea DPR U20</t>
+          <t>Saham - Al Nasr</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>53.5</v>
+        <v>63.3</v>
       </c>
       <c r="F16" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="G16" t="n">
-        <v>0.77</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>19-02-2025 12:30</t>
+          <t>20-02-2025 08:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2837,17 +2598,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Uzbekistan U20 - Iran U20</t>
+          <t>Japan U20 - Korea Republic U20</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F17" t="n">
         <v>2.5</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="18">
@@ -2892,7 +2653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2940,125 +2701,187 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18-02-2025 21:00</t>
+          <t>19-02-2025 19:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PRIMERA B METROPOLITANA</t>
+          <t>COPA DO BRASIL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Deportivo Armenio - San Martín Burzaco</t>
+          <t>Tuna Luso - Sampaio Correa</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="G2" t="n">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>20-02-2025 21:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Radcliffe - Chorley</t>
+          <t>Ajax - Union St. Gilloise</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>86.7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="G3" t="n">
-        <v>0.48</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>20-02-2025 01:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>COPA DO BRASIL</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Marine - Kidderminster Harriers</t>
+          <t>Independência - Manaus FC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F4" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="G4" t="n">
-        <v>0.74</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>19-02-2025 04:10</t>
+          <t>20-02-2025 02:10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>COLOMBIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LIGA MX</t>
+          <t>PRIMERA A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Atlas - Necaxa</t>
+          <t>Once Caldas - Deportivo Pereira</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>70</v>
       </c>
       <c r="F5" t="n">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="G5" t="n">
-        <v>0.36</v>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>20-02-2025 02:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>LIGA MX</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Club America - Leon</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>75</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>20-02-2025 16:15</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SAUDI-ARABIA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PRO LEAGUE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Al-Fateh - Al Orubah</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>
@@ -3072,7 +2895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3120,348 +2943,348 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>19-02-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Crawley Town - Wigan</t>
+          <t>Paris Saint Germain - Stade Brestois 29</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>72</v>
+        <v>66.7</v>
       </c>
       <c r="F2" t="n">
         <v>1.91</v>
       </c>
       <c r="G2" t="n">
-        <v>0.38</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>19-02-2025 14:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Mansfield Town - Lincoln</t>
+          <t>MO Constantine - USM Annaba</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>70</v>
+        <v>69.2</v>
       </c>
       <c r="F3" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="G3" t="n">
-        <v>0.34</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>19-02-2025 21:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>PRIMERA B METROPOLITANA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Shrewsbury - Huddersfield</t>
+          <t>Deportivo Laferrere - Dock Sud</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="G4" t="n">
-        <v>0.44</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>20-02-2025 00:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>CATARINENSE - 1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Stevenage - Burton Albion</t>
+          <t>Hercílio Luz - Criciuma</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>76.7</v>
+        <v>67.8</v>
       </c>
       <c r="F5" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>19-02-2025 23:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>COPA DO BRASIL</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ebbsfleet United - Forest Green</t>
+          <t>Boavista SC - CSA</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F6" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="G6" t="n">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>19-02-2025 23:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>GAÚCHO - 1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Southend - Aldershot Town</t>
+          <t>Sao Jose - Pelotas</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>73.3</v>
+        <v>66.7</v>
       </c>
       <c r="F7" t="n">
-        <v>1.8</v>
+        <v>2.28</v>
       </c>
       <c r="G7" t="n">
-        <v>0.32</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>19-02-2025 23:15</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>PAULISTA - A1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Yeovil Town - Tamworth</t>
+          <t>Santos - Noroeste</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F8" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.48</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>19-02-2025 00:30</t>
+          <t>19-02-2025 13:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>IRAN</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PRIMERA B METROPOLITANA</t>
+          <t>AZADEGAN LEAGUE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Argentino De Merlo - Midland</t>
+          <t>Niroye Zamini - Mes Kerman</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>68.3</v>
+        <v>66.7</v>
       </c>
       <c r="F9" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="G9" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>18-02-2025 18:00</t>
+          <t>19-02-2025 18:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>SOUTH-AFRICA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>PREMIER SOCCER LEAGUE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Ghazl El Mehalla - AL Masry</t>
+          <t>Golden Arrows - Orlando Pirates</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>70</v>
+        <v>66.7</v>
       </c>
       <c r="F10" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="G10" t="n">
-        <v>0.43</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>19-02-2025 14:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>TUNISIA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Marine - Kidderminster Harriers</t>
+          <t>ES Tunis - ES Zarzis</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>84</v>
+        <v>66.7</v>
       </c>
       <c r="F11" t="n">
-        <v>2.02</v>
+        <v>2.75</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>18-02-2025 20:45</t>
+          <t>19-02-2025 11:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NORTHERN-IRELAND</t>
+          <t>VIETNAM</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PREMIERSHIP</t>
+          <t>V.LEAGUE 1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Ballymena United - Glentoran</t>
+          <t>Quang Nam - Thanh Hóa</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>70</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="G12" t="n">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>19-02-2025 21:00</t>
+          <t>19-02-2025 12:30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3471,208 +3294,394 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>AFC U20 ASIAN CUP</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Paris Saint Germain - Stade Brestois 29</t>
+          <t>Indonesia U20 - Yemen U20</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>66.7</v>
       </c>
       <c r="F13" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="G13" t="n">
-        <v>0.27</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>19-02-2025 23:30</t>
+          <t>20-02-2025 21:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>COPA DO BRASIL</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Boavista SC - CSA</t>
+          <t>Panathinaikos - Vikingur Reykjavik</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F14" t="n">
-        <v>1.87</v>
+        <v>2.2</v>
       </c>
       <c r="G14" t="n">
-        <v>0.42</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>19-02-2025 23:15</t>
+          <t>20-02-2025 21:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PAULISTA - A1</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Santos - Noroeste</t>
+          <t>Ajax - Union St. Gilloise</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F15" t="n">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>19-02-2025 02:20</t>
+          <t>20-02-2025 01:30</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PRIMERA A</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Chico - Junior</t>
+          <t>UCV - Corinthians</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>66.7</v>
+        <v>72</v>
       </c>
       <c r="F16" t="n">
         <v>2.1</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>19-02-2025 04:10</t>
+          <t>20-02-2025 01:30</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LIGA MX</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Atlas - Necaxa</t>
+          <t>El Nacional - Barcelona SC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>70</v>
+        <v>66.7</v>
       </c>
       <c r="F17" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="G17" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>19-02-2025 18:30</t>
+          <t>20-02-2025 16:45</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SOUTH-AFRICA</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PREMIER SOCCER LEAGUE</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Golden Arrows - Orlando Pirates</t>
+          <t>ES Setif - CR Belouizdad</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>66.7</v>
+        <v>76.7</v>
       </c>
       <c r="F18" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="G18" t="n">
-        <v>0.53</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>19-02-2025 12:30</t>
+          <t>20-02-2025 01:10</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AFC U20 ASIAN CUP</t>
+          <t>COPA ARGENTINA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Indonesia U20 - Yemen U20</t>
+          <t>Defensa Y Justicia - Racing Cordoba</t>
         </is>
       </c>
       <c r="E19" t="n">
+        <v>76</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>20-02-2025 22:30</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>PAULISTA - A1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>RB Bragantino - Mirassol</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>65</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20-02-2025 21:00</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>JAMAICA</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Tivoli Gardens - Vere United</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>65</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>20-02-2025 22:30</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>JAMAICA</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Cavalier - Harbour View</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
         <v>66.7</v>
       </c>
-      <c r="F19" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.13</v>
+      <c r="F22" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>21-02-2025 00:00</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>JAMAICA</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Montego Bay United - Racing United</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>76</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>20-02-2025 02:00</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>LIGA MX</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Club America - Leon</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>20-02-2025 16:15</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>SAUDI-ARABIA</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>PRO LEAGUE</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Al-Fateh - Al Orubah</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>76</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,141 +475,197 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>19-02-2025 11:00</t>
+          <t>20-02-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AZERBAIJAN</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BIRINCI DASTA</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Mil-Muğan - Zaqatala</t>
+          <t>Ajax - Union St. Gilloise</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>19-02-2025 23:00</t>
+          <t>21-02-2025 16:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ROMANIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>COPA DO BRASIL</t>
+          <t>LIGA I</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Santa Cruz RN - Nautico Recife</t>
+          <t>AFC Hermannstadt - SCM Gloria Buzău</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F3" t="n">
-        <v>3.85</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20-02-2025 00:00</t>
+          <t>21-02-2025 10:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>COPA DO BRASIL</t>
+          <t>VICTORIA NPL</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Capital Brasilia - Portuguesa RJ</t>
+          <t>Preston Lions - Altona Magic</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>19-02-2025 13:45</t>
+          <t>21-02-2025 22:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DIVISION 1</t>
+          <t>PRIMERA DIVISIÓN</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al Baten - Al Jandal</t>
+          <t>A. Italiano - Deportes Iquique</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>73.3</v>
+        <v>76.7</v>
       </c>
       <c r="F5" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20-02-2025 21:00</t>
+          <t>21-02-2025 14:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ajax - Union St. Gilloise</t>
+          <t>AFC Bournemouth U21 - Bristol City U21</t>
         </is>
       </c>
       <c r="E6" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>21-02-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Athletic Club II - Lugo</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>70</v>
       </c>
-      <c r="F6" t="n">
-        <v>1.83</v>
+      <c r="F7" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>21-02-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>SÜPER LIG</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>BB Bodrumspor - Hatayspor</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>70</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -666,29 +722,85 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>19-02-2025 13:00</t>
+          <t>20-02-2025 13:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>KENYA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CAMPIONATO PRIMAVERA - 1</t>
+          <t>FKF PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hellas Verona U20 - Roma U20</t>
+          <t>Mathare United - Police</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>21-02-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NATIONAL 1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Chateauroux - Rouen</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>21-02-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SWITZERLAND</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Stade Nyonnais - Stade Lausanne-Ouchy</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.9</v>
       </c>
     </row>
   </sheetData>
@@ -702,7 +814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -745,225 +857,309 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>19-02-2025 21:00</t>
+          <t>20-02-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PRIMERA B METROPOLITANA</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Deportivo Laferrere - Dock Sud</t>
+          <t>Panathinaikos - Vikingur Reykjavik</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>19-02-2025 23:30</t>
+          <t>20-02-2025 16:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>COPA DO BRASIL</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Boavista SC - CSA</t>
+          <t>ES Setif - CR Belouizdad</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>76</v>
+        <v>76.7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.87</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>19-02-2025 23:15</t>
+          <t>21-02-2025 00:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>JAMAICA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PAULISTA - A1</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Santos - Noroeste</t>
+          <t>Montego Bay United - Racing United</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F4" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20-02-2025 21:00</t>
+          <t>20-02-2025 16:15</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
+          <t>PRO LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Panathinaikos - Vikingur Reykjavik</t>
+          <t>Al-Fateh - Al Orubah</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F5" t="n">
-        <v>2.2</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20-02-2025 16:45</t>
+          <t>21-02-2025 01:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LIGUE 1</t>
+          <t>GAÚCHO - 1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ES Setif - CR Belouizdad</t>
+          <t>São Luiz - Guarany De Bagé</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>76.7</v>
+        <v>76</v>
       </c>
       <c r="F6" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20-02-2025 01:10</t>
+          <t>21-02-2025 01:35</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>COPA ARGENTINA</t>
+          <t>PAULISTA - A1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Defensa Y Justicia - Racing Cordoba</t>
+          <t>Portuguesa - São Bernardo</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F7" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>21-02-2025 00:00</t>
+          <t>21-02-2025 11:45</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>JAMAICA</t>
+          <t>BULGARIA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>FIRST LEAGUE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Montego Bay United - Racing United</t>
+          <t>CSKA 1948 - Botev Vratsa</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F8" t="n">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20-02-2025 16:15</t>
+          <t>21-02-2025 19:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PRO LEAGUE</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Al-Fateh - Al Orubah</t>
+          <t>Boulogne - Gobelins</t>
         </is>
       </c>
       <c r="E9" t="n">
+        <v>80</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>21-02-2025 09:30</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>INDONESIA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>LIGA 1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Persis Solo - Semen Padang</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>76</v>
       </c>
-      <c r="F9" t="n">
-        <v>1.77</v>
+      <c r="F10" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>21-02-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SEGUNDA LIGA</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Penafiel - Portimonense</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>75</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>21-02-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SWEDEN</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SVENSKA CUPEN</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Karlberg - Gais</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>80</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.71</v>
       </c>
     </row>
   </sheetData>
@@ -977,7 +1173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1030,35 +1226,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>19-02-2025 19:30</t>
+          <t>20-02-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>COPA DO BRASIL</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tuna Luso - Sampaio Correa</t>
+          <t>Ajax - Union St. Gilloise</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>86.7</v>
       </c>
       <c r="F2" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="G2" t="n">
-        <v>13.3</v>
+        <v>26.7</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1079,26 +1275,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ajax - Union St. Gilloise</t>
+          <t>Anderlecht - Fenerbahce</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>86.7</v>
+        <v>75</v>
       </c>
       <c r="F3" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="G3" t="n">
-        <v>26.7</v>
+        <v>60</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20-02-2025 21:00</t>
+          <t>20-02-2025 18:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1113,17 +1309,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Anderlecht - Fenerbahce</t>
+          <t>Bodo/Glimt - Twente</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
         <v>1.62</v>
       </c>
       <c r="G4" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H4" t="n">
         <v>2.5</v>
@@ -1132,69 +1328,205 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20-02-2025 18:45</t>
+          <t>20-02-2025 14:50</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>KUWAIT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Bodo/Glimt - Twente</t>
+          <t>Al Fahaheel - Al Tadhamon</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>67.5</v>
       </c>
       <c r="F5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="G5" t="n">
-        <v>66.7</v>
+        <v>61.3</v>
       </c>
       <c r="H5" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20-02-2025 02:00</t>
+          <t>21-02-2025 11:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>COSTA-RICA</t>
+          <t>BULGARIA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LIGA DE ASCENSO</t>
+          <t>FIRST LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>AD Carmelita - San Carlos FC</t>
+          <t>CSKA 1948 - Botev Vratsa</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>75</v>
       </c>
       <c r="F6" t="n">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="G6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H6" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>21-02-2025 16:45</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BULGARIA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>FIRST LEAGUE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Levski Sofia - Spartak Varna</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>85</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G7" t="n">
+        <v>50</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>21-02-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DENMARK</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1. DIVISION</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Hobro - Vendsyssel FF</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>65</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G8" t="n">
+        <v>65</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>21-02-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - NORD</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SSV Jeddeloh - Bremer SV</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G9" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>21-02-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - WEST</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Fortuna Köln - Wuppertaler SV</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G10" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.63</v>
       </c>
     </row>
   </sheetData>
@@ -1208,7 +1540,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1256,38 +1588,38 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>19-02-2025 20:45</t>
+          <t>20-02-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Woking - Solihull Moors</t>
+          <t>Ajax - Union St. Gilloise</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>53.3</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>2.45</v>
+        <v>1.83</v>
       </c>
       <c r="G2" t="n">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>19-02-2025 23:00</t>
+          <t>20-02-2025 18:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1297,267 +1629,267 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Boston River - Nublense</t>
+          <t>AS Roma - FC Porto</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>50</v>
+        <v>56.7</v>
       </c>
       <c r="F3" t="n">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>19-02-2025 17:00</t>
+          <t>20-02-2025 18:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LIGUE 1</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MC Oran - Mostaganem</t>
+          <t>Bodo/Glimt - Twente</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>19-02-2025 14:00</t>
+          <t>20-02-2025 22:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LIGUE 2</t>
+          <t>PAULISTA - A1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>US Souf - JS Bordj Ménaïel</t>
+          <t>RB Bragantino - Mirassol</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>19-02-2025 14:00</t>
+          <t>20-02-2025 14:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LIGUE 2</t>
+          <t>SECOND LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HB Chelghoum Laïd - MB Rouisset</t>
+          <t>El Seka El Hadid - Wadi Degla</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F6" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>19-02-2025 14:00</t>
+          <t>20-02-2025 20:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>ICELAND</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LIGUE 2</t>
+          <t>LEAGUE CUP</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CR Méchria - MC Saida</t>
+          <t>Throttur Reykjavik - Valur Reykjavik</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="F7" t="n">
-        <v>2.6</v>
+        <v>6.25</v>
       </c>
       <c r="G7" t="n">
-        <v>0.73</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20-02-2025 00:00</t>
+          <t>20-02-2025 14:50</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>KUWAIT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PRIMERA B METROPOLITANA</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Comunicaciones - Sacachispas</t>
+          <t>Al Fahaheel - Al Tadhamon</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>55.7</v>
+        <v>65</v>
       </c>
       <c r="F8" t="n">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="G8" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>19-02-2025 11:00</t>
+          <t>20-02-2025 13:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AZERBAIJAN</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BIRINCI DASTA</t>
+          <t>AFC CUP</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mil-Muğan - Zaqatala</t>
+          <t>Home United - Muangthong United</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>73.3</v>
+        <v>60</v>
       </c>
       <c r="F9" t="n">
-        <v>1.91</v>
+        <v>2.14</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>19-02-2025 23:00</t>
+          <t>20-02-2025 08:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>COPA DO BRASIL</t>
+          <t>AFC U20 ASIAN CUP</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Santa Cruz RN - Nautico Recife</t>
+          <t>Syria U20 - Thailand U20</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>70</v>
+        <v>58.5</v>
       </c>
       <c r="F10" t="n">
-        <v>3.85</v>
+        <v>1.95</v>
       </c>
       <c r="G10" t="n">
-        <v>1.69</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>19-02-2025 19:30</t>
+          <t>21-02-2025 20:45</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>COPA DO BRASIL</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Tuna Luso - Sampaio Correa</t>
+          <t>Bristol City - Middlesbrough</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F11" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="G11" t="n">
         <v>0.2</v>
@@ -1566,246 +1898,246 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>19-02-2025 23:30</t>
+          <t>21-02-2025 20:30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>COPA DO BRASIL</t>
+          <t>BUNDESLIGA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sao Raimundo - Gremio</t>
+          <t>SC Freiburg - Werder Bremen</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F12" t="n">
-        <v>13</v>
+        <v>2.15</v>
       </c>
       <c r="G12" t="n">
-        <v>5.5</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20-02-2025 00:00</t>
+          <t>21-02-2025 20:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>COPA DO BRASIL</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Capital Brasilia - Portuguesa RJ</t>
+          <t>Paris FC - Estac Troyes</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F13" t="n">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="G13" t="n">
-        <v>1.27</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>19-02-2025 19:00</t>
+          <t>21-02-2025 20:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PAULISTA - A3</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>EC São Bernardo - União São João</t>
+          <t>Bastia - RED Star FC 93</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F14" t="n">
-        <v>2.25</v>
+        <v>1.73</v>
       </c>
       <c r="G14" t="n">
-        <v>0.12</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>19-02-2025 15:00</t>
+          <t>21-02-2025 20:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>IRAN</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>AZADEGAN LEAGUE</t>
+          <t>EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Naft Masjed Soleyman - Naft Gachsaran</t>
+          <t>Helmond Sport - Vitesse</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F15" t="n">
-        <v>2.62</v>
+        <v>2.1</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>19-02-2025 11:00</t>
+          <t>21-02-2025 20:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CAMPIONATO PRIMAVERA - 1</t>
+          <t>EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Juventus U20 - Lecce U20</t>
+          <t>Telstar - Excelsior</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F16" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>19-02-2025 13:45</t>
+          <t>21-02-2025 16:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>ROMANIA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DIVISION 1</t>
+          <t>LIGA I</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Al Baten - Al Jandal</t>
+          <t>AFC Hermannstadt - SCM Gloria Buzău</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>73.3</v>
       </c>
       <c r="F17" t="n">
-        <v>2.35</v>
+        <v>1.91</v>
       </c>
       <c r="G17" t="n">
-        <v>0.72</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>19-02-2025 13:15</t>
+          <t>21-02-2025 01:30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>VIETNAM</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>V.LEAGUE 1</t>
+          <t>CONMEBOL RECOPA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Viettel - Công An Nhân Dân</t>
+          <t>Racing Club - Botafogo</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>50</v>
       </c>
       <c r="F18" t="n">
-        <v>2.65</v>
+        <v>2.18</v>
       </c>
       <c r="G18" t="n">
-        <v>0.32</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>19-02-2025 11:00</t>
+          <t>21-02-2025 23:15</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AFC CHAMPIONS LEAGUE</t>
+          <t>LIGA PROFESIONAL ARGENTINA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Ulsan Hyundai FC - Shandong Luneng</t>
+          <t>Estudiantes L.P. - Central Cordoba De Santiago</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F19" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="G19" t="n">
         <v>0.05</v>
@@ -1814,249 +2146,869 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>19-02-2025 13:00</t>
+          <t>21-02-2025 23:15</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AFC CUP</t>
+          <t>LIGA PROFESIONAL ARGENTINA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Bangkok United - Sydney</t>
+          <t>Godoy Cruz - Platense</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F20" t="n">
-        <v>3.1</v>
+        <v>2.44</v>
       </c>
       <c r="G20" t="n">
-        <v>0.55</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20-02-2025 00:30</t>
+          <t>21-02-2025 09:30</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CONCACAF CHAMPIONS LEAGUE</t>
+          <t>NEW SOUTH WALES NPL</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>CS Herediano - Real Salt Lake</t>
+          <t>Manly United - Sydney United</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F21" t="n">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="G21" t="n">
-        <v>0.55</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20-02-2025 21:00</t>
+          <t>21-02-2025 10:30</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>VICTORIA NPL</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Ajax - Union St. Gilloise</t>
+          <t>Preston Lions - Altona Magic</t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>70</v>
       </c>
       <c r="F22" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="G22" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20-02-2025 18:45</t>
+          <t>21-02-2025 10:30</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>VICTORIA NPL 2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>AS Roma - FC Porto</t>
+          <t>Brunswick City - Western United II</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>56.7</v>
+        <v>60</v>
       </c>
       <c r="F23" t="n">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.01</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20-02-2025 18:45</t>
+          <t>21-02-2025 18:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Bodo/Glimt - Twente</t>
+          <t>Voitsberg - Schwarz-Weiß Bregenz</t>
         </is>
       </c>
       <c r="E24" t="n">
         <v>50</v>
       </c>
       <c r="F24" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20-02-2025 22:30</t>
+          <t>21-02-2025 18:00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PAULISTA - A1</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>RB Bragantino - Mirassol</t>
+          <t>Austria Lustenau - SKN ST. Polten</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="F25" t="n">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.1</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20-02-2025 02:10</t>
+          <t>21-02-2025 22:00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PRIMERA A</t>
+          <t>PRIMERA DIVISIÓN</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Once Caldas - Deportivo Pereira</t>
+          <t>A. Italiano - Deportes Iquique</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>60</v>
+        <v>76.7</v>
       </c>
       <c r="F26" t="n">
-        <v>1.94</v>
+        <v>2.25</v>
       </c>
       <c r="G26" t="n">
-        <v>0.16</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20-02-2025 08:00</t>
+          <t>21-02-2025 03:00</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>COSTA-RICA</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>LIGA DE ASCENSO</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>CS Uruguay - Limón Black Star</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>21-02-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>EGYPT</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Pharco - Future FC</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>21-02-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>AFC Bournemouth U21 - Bristol City U21</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>21-02-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>NATIONAL 1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Dijon - Nancy</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>21-02-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>NATIONAL 1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Villefranche - Orleans</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>21-02-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NATIONAL 1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Versailles - Nimes</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>21-02-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2. BUNDESLIGA</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Hertha BSC - 1. FC Nürnberg</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>50</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>21-02-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - NORD</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>VfB Lübeck - SV Drochtersen/Assel</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>21-02-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>HUNGARY</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>NB I</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>MTK Budapest - Diosgyori VTK</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>60</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>21-02-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>INDONESIA</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>LIGA 1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Dewa United - Persebaya Surabaya</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>21-02-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>PREMIER DIVISION</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Drogheda United - Sligo Rovers</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>60</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>21-02-2025 14:20</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>OMAN</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Sur - Sohar</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>21-02-2025 22:15</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>PARAGUAY</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>DIVISION PROFESIONAL - APERTURA</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Club Guarani - Deportivo Recoleta</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>60</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>21-02-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>POLAND</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>EKSTRAKLASA</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Piast Gliwice - Stal Mielec</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>65</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>21-02-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>SERBIA</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>SUPER LIGA</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Tekstilac Odžaci - Radnicki 1923</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>60</v>
+      </c>
+      <c r="F41" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>21-02-2025 14:30</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>SOUTH-AFRICA</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1ST DIVISION</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Highbury - Milford FC</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>50</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>21-02-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Athletic Club II - Lugo</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>70</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>21-02-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Malaga - Tenerife</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>21-02-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>SÜPER LIG</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>BB Bodrumspor - Hatayspor</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>70</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>21-02-2025 21:00</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>URUGUAY</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN - APERTURA</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Racing Montevideo - Atletico Torque</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>50</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>21-02-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
           <t>WORLD</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>AFC U20 ASIAN CUP</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Syria U20 - Thailand U20</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>58.5</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.14</v>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>FRIENDLIES CLUBS</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Stromsgodset - Brann</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F47" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.87</v>
       </c>
     </row>
   </sheetData>
@@ -2070,7 +3022,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,224 +3070,224 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>19-02-2025 14:00</t>
+          <t>20-02-2025 18:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGUE 2</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HB Chelghoum Laïd - MB Rouisset</t>
+          <t>1. FC Heidenheim - FC Copenhagen</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.05</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>19-02-2025 23:00</t>
+          <t>20-02-2025 18:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CAPIXABA</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Real Noroeste - Rio Branco ES</t>
+          <t>Olimpija Ljubljana - Borac Banja Luka</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>51.7</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
-        <v>1.85</v>
+        <v>5.75</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.04</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>19-02-2025 19:30</t>
+          <t>20-02-2025 11:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>AZERBAIJAN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>COPA DO BRASIL</t>
+          <t>BIRINCI DASTA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tuna Luso - Sampaio Correa</t>
+          <t>Difai Ağsu - Qaradağ Lökbatan</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F4" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>19-02-2025 14:00</t>
+          <t>20-02-2025 23:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CAMEROON</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ELITE ONE</t>
+          <t>GAÚCHO - 1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Union Douala - Victoria United</t>
+          <t>Monsoon - Ypiranga-RS</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>19-02-2025 15:00</t>
+          <t>20-02-2025 15:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>INDIA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CAMPIONATO PRIMAVERA - 1</t>
+          <t>INDIAN SUPER LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Empoli U20 - Sampdoria U20</t>
+          <t>Mohammedan - Jamshedpur</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>3.05</v>
+        <v>2.38</v>
       </c>
       <c r="G6" t="n">
-        <v>0.52</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>19-02-2025 13:00</t>
+          <t>20-02-2025 13:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>KENYA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CAMPIONATO PRIMAVERA - 1</t>
+          <t>FKF PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hellas Verona U20 - Roma U20</t>
+          <t>Mathare United - Police</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>80</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>19-02-2025 16:00</t>
+          <t>20-02-2025 14:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>RWANDA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>U23 LEAGUE</t>
+          <t>NATIONAL SOCCER LEAGUE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Club America U23 - Club León U23</t>
+          <t>Gorilla - AS Kigali</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>53.3</v>
+        <v>66.7</v>
       </c>
       <c r="F8" t="n">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="G8" t="n">
-        <v>1.24</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>19-02-2025 08:00</t>
+          <t>20-02-2025 08:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2350,296 +3302,482 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Saudi Arabia U20 - Korea DPR U20</t>
+          <t>Japan U20 - Korea Republic U20</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>53.5</v>
+        <v>66.7</v>
       </c>
       <c r="F9" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="G9" t="n">
-        <v>0.77</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>19-02-2025 12:30</t>
+          <t>21-02-2025 09:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>AFC U20 ASIAN CUP</t>
+          <t>NEW SOUTH WALES NPL</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Uzbekistan U20 - Iran U20</t>
+          <t>St. George Saints - Mt Druitt Town</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F10" t="n">
         <v>2.5</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20-02-2025 18:45</t>
+          <t>21-02-2025 09:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
+          <t>NEW SOUTH WALES NPL</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1. FC Heidenheim - FC Copenhagen</t>
+          <t>Western Sydney W. II - Sutherland Sharks</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>50</v>
+        <v>63.3</v>
       </c>
       <c r="F11" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="G11" t="n">
-        <v>0.25</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20-02-2025 18:45</t>
+          <t>21-02-2025 09:30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
+          <t>VICTORIA NPL</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Olimpija Ljubljana - Borac Banja Luka</t>
+          <t>Green Gully - Hume City</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F12" t="n">
-        <v>5.75</v>
+        <v>2.4</v>
       </c>
       <c r="G12" t="n">
-        <v>1.88</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20-02-2025 02:00</t>
+          <t>21-02-2025 18:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>COSTA-RICA</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LIGA DE ASCENSO</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>AD Carmelita - San Carlos FC</t>
+          <t>Stripfing - SKU Amstetten</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F13" t="n">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="G13" t="n">
-        <v>2.67</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20-02-2025 15:00</t>
+          <t>21-02-2025 20:30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>INDIA</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>INDIAN SUPER LEAGUE</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Mohammedan - Jamshedpur</t>
+          <t>Admira Wacker - First Vienna</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="F14" t="n">
-        <v>2.38</v>
+        <v>3.7</v>
       </c>
       <c r="G14" t="n">
-        <v>0.19</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20-02-2025 04:00</t>
+          <t>21-02-2025 20:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LIGA PREMIER SERIE A</t>
+          <t>CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Los Cabos United - Leones Negros</t>
+          <t>RWDM - Francs Borains</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>50</v>
       </c>
       <c r="F15" t="n">
-        <v>2.5</v>
+        <v>4.6</v>
       </c>
       <c r="G15" t="n">
-        <v>0.25</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20-02-2025 14:30</t>
+          <t>21-02-2025 19:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>OMAN</t>
+          <t>DENMARK</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PROFESSIONAL LEAGUE</t>
+          <t>1. DIVISION</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Saham - Al Nasr</t>
+          <t>Hillerød - Odense</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>63.3</v>
+        <v>53.3</v>
       </c>
       <c r="F16" t="n">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="G16" t="n">
-        <v>0.52</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20-02-2025 08:00</t>
+          <t>21-02-2025 19:30</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AFC U20 ASIAN CUP</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Japan U20 - Korea Republic U20</t>
+          <t>Chateauroux - Rouen</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>66.7</v>
+        <v>73.3</v>
       </c>
       <c r="F17" t="n">
-        <v>2.5</v>
+        <v>1.84</v>
       </c>
       <c r="G17" t="n">
-        <v>0.67</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>19-02-2025 02:00</t>
+          <t>21-02-2025 19:30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CONCACAF CHAMPIONS LEAGUE</t>
+          <t>REGIONALLIGA - NORD</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Sporting Kansas City - Inter Miami</t>
+          <t>BW Lohne - Werder Bremen II</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>60</v>
       </c>
       <c r="F18" t="n">
-        <v>2.42</v>
+        <v>1.95</v>
       </c>
       <c r="G18" t="n">
-        <v>0.45</v>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>21-02-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - NORD</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SSV Jeddeloh - Bremer SV</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>21-02-2025 09:30</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>INDONESIA</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>LIGA 1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Persis Solo - Semen Padang</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>50</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>21-02-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Trento - Pergolettese</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>20-02-2025 14:30</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>OMAN</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Saham - Al Nasr</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>21-02-2025 02:00</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>PANAMA</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>LIGA PANAMEÑA DE FÚTBOL</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Alianza FC - Sporting San Miguelito</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>21-02-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>SWITZERLAND</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Stade Nyonnais - Stade Lausanne-Ouchy</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.39</v>
       </c>
     </row>
   </sheetData>
@@ -2653,7 +3791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2701,187 +3839,249 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>19-02-2025 19:30</t>
+          <t>20-02-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>COPA DO BRASIL</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tuna Luso - Sampaio Correa</t>
+          <t>Ajax - Union St. Gilloise</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>86.7</v>
       </c>
       <c r="F2" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="G2" t="n">
-        <v>1.5</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20-02-2025 21:00</t>
+          <t>20-02-2025 16:15</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>PRO LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ajax - Union St. Gilloise</t>
+          <t>Al-Fateh - Al Orubah</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>86.7</v>
+        <v>73.3</v>
       </c>
       <c r="F3" t="n">
         <v>1.8</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20-02-2025 01:00</t>
+          <t>21-02-2025 09:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>COPA DO BRASIL</t>
+          <t>NEW SOUTH WALES NPL</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Independência - Manaus FC</t>
+          <t>Manly United - Sydney United</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20-02-2025 02:10</t>
+          <t>21-02-2025 20:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PRIMERA A</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Once Caldas - Deportivo Pereira</t>
+          <t>Admira Wacker - First Vienna</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>72.5</v>
       </c>
       <c r="F5" t="n">
-        <v>2.4</v>
+        <v>1.91</v>
       </c>
       <c r="G5" t="n">
-        <v>0.68</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20-02-2025 02:00</t>
+          <t>21-02-2025 11:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>BULGARIA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LIGA MX</t>
+          <t>FIRST LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Club America - Leon</t>
+          <t>CSKA 1948 - Botev Vratsa</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>75</v>
       </c>
       <c r="F6" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G6" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20-02-2025 16:15</t>
+          <t>21-02-2025 16:45</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>BULGARIA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PRO LEAGUE</t>
+          <t>FIRST LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al-Fateh - Al Orubah</t>
+          <t>Levski Sofia - Spartak Varna</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>73.3</v>
+        <v>85</v>
       </c>
       <c r="F7" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="G7" t="n">
-        <v>0.32</v>
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>21-02-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DENMARK</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1. DIVISION</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Hillerød - Odense</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>75</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>21-02-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>NORTHERN-IRELAND</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PREMIERSHIP</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Cliftonville FC - Glentoran</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>75</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.37</v>
       </c>
     </row>
   </sheetData>
@@ -2895,7 +4095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2943,7 +4143,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>19-02-2025 21:00</t>
+          <t>20-02-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2953,121 +4153,121 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Paris Saint Germain - Stade Brestois 29</t>
+          <t>Panathinaikos - Vikingur Reykjavik</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>66.7</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.27</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>19-02-2025 14:00</t>
+          <t>20-02-2025 21:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LIGUE 2</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MO Constantine - USM Annaba</t>
+          <t>Ajax - Union St. Gilloise</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>69.2</v>
+        <v>68</v>
       </c>
       <c r="F3" t="n">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="G3" t="n">
-        <v>0.29</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>19-02-2025 21:00</t>
+          <t>20-02-2025 16:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PRIMERA B METROPOLITANA</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Deportivo Laferrere - Dock Sud</t>
+          <t>ES Setif - CR Belouizdad</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>76.7</v>
       </c>
       <c r="F4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20-02-2025 00:30</t>
+          <t>20-02-2025 11:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>AZERBAIJAN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CATARINENSE - 1</t>
+          <t>BIRINCI DASTA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hercílio Luz - Criciuma</t>
+          <t>Difai Ağsu - Qaradağ Lökbatan</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>67.8</v>
+        <v>71.7</v>
       </c>
       <c r="F5" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="G5" t="n">
-        <v>0.49</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>19-02-2025 23:30</t>
+          <t>20-02-2025 22:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3077,611 +4277,797 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>COPA DO BRASIL</t>
+          <t>PAULISTA - A1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Boavista SC - CSA</t>
+          <t>RB Bragantino - Mirassol</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F6" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>0.42</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>19-02-2025 23:00</t>
+          <t>20-02-2025 07:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GAÚCHO - 1</t>
+          <t>LIGA 2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sao Jose - Pelotas</t>
+          <t>Persewar - Persiku Kudus</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>66.7</v>
+        <v>68</v>
       </c>
       <c r="F7" t="n">
-        <v>2.28</v>
+        <v>1.85</v>
       </c>
       <c r="G7" t="n">
-        <v>0.52</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>19-02-2025 23:15</t>
+          <t>20-02-2025 21:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>JAMAICA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PAULISTA - A1</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Santos - Noroeste</t>
+          <t>Tivoli Gardens - Vere United</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="F8" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>19-02-2025 13:30</t>
+          <t>20-02-2025 22:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>IRAN</t>
+          <t>JAMAICA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>AZADEGAN LEAGUE</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Niroye Zamini - Mes Kerman</t>
+          <t>Cavalier - Harbour View</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>66.7</v>
       </c>
       <c r="F9" t="n">
-        <v>2.45</v>
+        <v>1.91</v>
       </c>
       <c r="G9" t="n">
-        <v>0.63</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>19-02-2025 18:30</t>
+          <t>21-02-2025 00:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SOUTH-AFRICA</t>
+          <t>JAMAICA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PREMIER SOCCER LEAGUE</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Golden Arrows - Orlando Pirates</t>
+          <t>Montego Bay United - Racing United</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>66.7</v>
+        <v>76</v>
       </c>
       <c r="F10" t="n">
-        <v>2.3</v>
+        <v>1.83</v>
       </c>
       <c r="G10" t="n">
-        <v>0.53</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>19-02-2025 14:00</t>
+          <t>20-02-2025 14:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TUNISIA</t>
+          <t>KENYA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LIGUE 1</t>
+          <t>FKF PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ES Tunis - ES Zarzis</t>
+          <t>Bidco United - GOR Mahia</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>66.7</v>
       </c>
       <c r="F11" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="G11" t="n">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>19-02-2025 11:00</t>
+          <t>20-02-2025 16:15</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>VIETNAM</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>V.LEAGUE 1</t>
+          <t>PRO LEAGUE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Quang Nam - Thanh Hóa</t>
+          <t>Al-Fateh - Al Orubah</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>68.90000000000001</v>
+        <v>76</v>
       </c>
       <c r="F12" t="n">
-        <v>1.9</v>
+        <v>1.77</v>
       </c>
       <c r="G12" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>19-02-2025 12:30</t>
+          <t>21-02-2025 21:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>AFC U20 ASIAN CUP</t>
+          <t>LA LIGA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Indonesia U20 - Yemen U20</t>
+          <t>Celta Vigo - Osasuna</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>66.7</v>
       </c>
       <c r="F13" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="G13" t="n">
-        <v>0.13</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20-02-2025 21:00</t>
+          <t>21-02-2025 18:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
+          <t>HNL</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Panathinaikos - Vikingur Reykjavik</t>
+          <t>NK Lokomotiva Zagreb - NK Varazdin</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F14" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="G14" t="n">
-        <v>0.76</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20-02-2025 21:00</t>
+          <t>21-02-2025 20:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Ajax - Union St. Gilloise</t>
+          <t>FC OSS - Emmen</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>68</v>
+        <v>65.8</v>
       </c>
       <c r="F15" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="G15" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20-02-2025 01:30</t>
+          <t>21-02-2025 01:30</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>GAÚCHO - 1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>UCV - Corinthians</t>
+          <t>São Luiz - Guarany De Bagé</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F16" t="n">
         <v>2.1</v>
       </c>
       <c r="G16" t="n">
-        <v>0.51</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20-02-2025 01:30</t>
+          <t>21-02-2025 01:35</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>PAULISTA - A1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>El Nacional - Barcelona SC</t>
+          <t>Portuguesa - São Bernardo</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>66.7</v>
+        <v>80</v>
       </c>
       <c r="F17" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20-02-2025 16:45</t>
+          <t>21-02-2025 11:45</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>BULGARIA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>LIGUE 1</t>
+          <t>FIRST LEAGUE</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ES Setif - CR Belouizdad</t>
+          <t>CSKA 1948 - Botev Vratsa</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="F18" t="n">
-        <v>2.38</v>
+        <v>1.94</v>
       </c>
       <c r="G18" t="n">
-        <v>0.83</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20-02-2025 01:10</t>
+          <t>21-02-2025 03:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>COSTA-RICA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>COPA ARGENTINA</t>
+          <t>LIGA DE ASCENSO</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Defensa Y Justicia - Racing Cordoba</t>
+          <t>CS Uruguay - Limón Black Star</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>76</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="G19" t="n">
-        <v>0.75</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20-02-2025 22:30</t>
+          <t>21-02-2025 15:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PAULISTA - A1</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>RB Bragantino - Mirassol</t>
+          <t>Pharco - Future FC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>65</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20-02-2025 21:00</t>
+          <t>21-02-2025 19:30</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>JAMAICA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Tivoli Gardens - Vere United</t>
+          <t>Boulogne - Gobelins</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F21" t="n">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="G21" t="n">
-        <v>0.24</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20-02-2025 22:30</t>
+          <t>21-02-2025 19:30</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>JAMAICA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Cavalier - Harbour View</t>
+          <t>Concarneau - Valenciennes</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>66.7</v>
+        <v>70</v>
       </c>
       <c r="F22" t="n">
-        <v>1.91</v>
+        <v>1.77</v>
       </c>
       <c r="G22" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>21-02-2025 00:00</t>
+          <t>21-02-2025 09:30</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>JAMAICA</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>LIGA 1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Montego Bay United - Racing United</t>
+          <t>PSBS Biak Numfor - Persik Kediri</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>76</v>
+        <v>73.3</v>
       </c>
       <c r="F23" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="G23" t="n">
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20-02-2025 02:00</t>
+          <t>21-02-2025 09:30</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>LIGA MX</t>
+          <t>LIGA 1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Club America - Leon</t>
+          <t>Persis Solo - Semen Padang</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>73.3</v>
+        <v>76</v>
       </c>
       <c r="F24" t="n">
         <v>1.8</v>
       </c>
       <c r="G24" t="n">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20-02-2025 16:15</t>
+          <t>21-02-2025 20:45</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>IRELAND</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PRO LEAGUE</t>
+          <t>PREMIER DIVISION</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Al-Fateh - Al Orubah</t>
+          <t>Galway United - St Patrick's Athl.</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F25" t="n">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>21-02-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ISRAEL</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>LIGA LEUMIT</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Hapoel Ra'anana - Hapoel Afula</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>21-02-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>POLAND</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>EKSTRAKLASA</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Raków Częstochowa - Gornik Zabrze</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>21-02-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>POLAND</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>I LIGA</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Stal Rzeszów - Kotwica Kołobrzeg</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>68</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>21-02-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>SEGUNDA LIGA</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Penafiel - Portimonense</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>75</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>21-02-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Malaga - Tenerife</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>21-02-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SWEDEN</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>SVENSKA CUPEN</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Karlberg - Gais</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>80</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.37</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,29 +475,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24-02-2025 23:30</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PARAGUAY</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIVISION PROFESIONAL - APERTURA</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense - General Caballero</t>
+          <t>Spartans - Forfar Athletic</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="3">
@@ -508,24 +508,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Spartans - Forfar Athletic</t>
+          <t>Needham Market - Leamington</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>73.3</v>
       </c>
       <c r="F3" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="4">
@@ -541,47 +541,131 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Needham Market - Leamington</t>
+          <t>Hungerford Town - Poole Town</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>73.3</v>
+        <v>93.3</v>
       </c>
       <c r="F4" t="n">
-        <v>2.5</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>25-02-2025 09:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+          <t>LIGA 2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hungerford Town - Poole Town</t>
+          <t>Persiku Kudus - Persekat</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>93.3</v>
+        <v>73.3</v>
       </c>
       <c r="F5" t="n">
-        <v>1.73</v>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>25-02-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>U23 LEAGUE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Mazatlan FC U23 - Monterrey U23</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>26-02-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>EGYPT</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Future FC - El Gouna FC</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>26-02-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>WALES</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>FAW CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Flint Mountain - Bangor 1876</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>70</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.15</v>
       </c>
     </row>
   </sheetData>
@@ -674,7 +758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -717,26 +801,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24-02-2025 18:00</t>
+          <t>25-02-2025 21:15</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGA LEUMIT</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hapoel Kfar Shalem - Hapoel Kfar Saba</t>
+          <t>Chelsea - Southampton</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>76</v>
+        <v>76.7</v>
       </c>
       <c r="F2" t="n">
         <v>1.7</v>
@@ -745,35 +829,35 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>24-02-2025 18:30</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SWEDEN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SVENSKA CUPEN</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Skövde AIK - Malmo FF</t>
+          <t>Cheltenham - Walsall</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>25-02-2025 21:15</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -783,19 +867,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Chelsea - Southampton</t>
+          <t>Needham Market - Leamington</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="5">
@@ -811,40 +895,40 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Cheltenham - Walsall</t>
+          <t>AFC Hornchurch - Enfield Town</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>75</v>
       </c>
       <c r="F5" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>25-02-2025 20:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>POLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Needham Market - Leamington</t>
+          <t>Ruch Chorzów - Korona Kielce</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -857,57 +941,169 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>25-02-2025 15:10</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>PRO LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>AFC Hornchurch - Enfield Town</t>
+          <t>Al-Raed - Al Shabab</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>75</v>
+        <v>76.7</v>
       </c>
       <c r="F7" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>25-02-2025 15:10</t>
+          <t>26-02-2025 20:30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PRO LEAGUE</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al-Raed - Al Shabab</t>
+          <t>Manchester United - Ipswich</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>76.7</v>
+        <v>88</v>
       </c>
       <c r="F8" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>26-02-2025 23:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CONMEBOL LIBERTADORES</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Nublense - Boston River</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>84</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>26-02-2025 04:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>LIGA MX</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Mazatlán - Monterrey</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F10" t="n">
         <v>1.7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>26-02-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SWITZERLAND</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SCHWEIZER CUP</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Biel-Bienne - FC Lugano</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>84</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>26-02-2025 02:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Inter Miami - Sporting Kansas City</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>80</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>
@@ -921,7 +1117,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,100 +1170,100 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24-02-2025 13:00</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Barito Putera - Bali United</t>
+          <t>Birmingham - Leyton Orient</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="G2" t="n">
-        <v>20</v>
+        <v>53.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>24-02-2025 14:05</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIVISION 1</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al Taee - Al Bukayriyah</t>
+          <t>Needham Market - Leamington</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="G3" t="n">
-        <v>27.5</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>24-02-2025 18:30</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SWEDEN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SVENSKA CUPEN</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Halmstad - Landskrona BoIS</t>
+          <t>Spennymoor Town - Marine</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="G4" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H4" t="n">
         <v>2.88</v>
@@ -1086,25 +1282,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Birmingham - Leyton Orient</t>
+          <t>Slough Town - Chippenham Town</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>80</v>
+        <v>68.8</v>
       </c>
       <c r="F5" t="n">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="G5" t="n">
-        <v>53.3</v>
+        <v>63.8</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="6">
@@ -1120,25 +1316,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Needham Market - Leamington</t>
+          <t>Weston-super-Mare - Torquay</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F6" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="G6" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="H6" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="7">
@@ -1154,25 +1350,25 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Spennymoor Town - Marine</t>
+          <t>Boreham Wood - Chelmsford City</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>70</v>
+        <v>86.7</v>
       </c>
       <c r="F7" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="G7" t="n">
         <v>60</v>
       </c>
       <c r="H7" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="8">
@@ -1188,22 +1384,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Slough Town - Chippenham Town</t>
+          <t>Folkestone Invicta - Chichester City</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>68.8</v>
+        <v>95</v>
       </c>
       <c r="F8" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="G8" t="n">
-        <v>63.8</v>
+        <v>45</v>
       </c>
       <c r="H8" t="n">
         <v>2.75</v>
@@ -1222,93 +1418,195 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Weston-super-Mare - Torquay</t>
+          <t>Kettering Town - Halesowen Town</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F9" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="G9" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>25-02-2025 21:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>COUPE DE FRANCE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Boreham Wood - Chelmsford City</t>
+          <t>Cannes - Guingamp</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>86.7</v>
+        <v>80</v>
       </c>
       <c r="F10" t="n">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="G10" t="n">
-        <v>60</v>
+        <v>33.3</v>
       </c>
       <c r="H10" t="n">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 17:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>CZECH-REPUBLIC</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Folkestone Invicta - Chichester City</t>
+          <t>Mlada Boleslav - Bohemians 1905</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F11" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="G11" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H11" t="n">
-        <v>2.75</v>
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>26-02-2025 21:45</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>TAÇA DE PORTUGAL</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Benfica - SC Braga</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>85</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G12" t="n">
+        <v>50</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>26-02-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SWITZERLAND</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>SCHWEIZER CUP</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Biel-Bienne - FC Lugano</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G13" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>26-02-2025 02:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Inter Miami - Sporting Kansas City</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>80</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G14" t="n">
+        <v>70</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.4</v>
       </c>
     </row>
   </sheetData>
@@ -1322,7 +1620,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1370,441 +1668,441 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24-02-2025 21:00</t>
+          <t>25-02-2025 20:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LA LIGA</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sevilla - Mallorca</t>
+          <t>Crystal Palace - Aston Villa</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>58.3</v>
+        <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>24-02-2025 19:00</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DENMARK</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SUPERLIGA</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viborg - Silkeborg</t>
+          <t>Stoke City - Middlesbrough</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>53.3</v>
       </c>
       <c r="F3" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.17</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>24-02-2025 20:00</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EERSTE DIVISIE</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Helmond Sport - Emmen</t>
+          <t>Tranmere - Accrington ST</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>56.7</v>
+        <v>60</v>
       </c>
       <c r="F4" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="G4" t="n">
-        <v>0.53</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>24-02-2025 20:00</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EERSTE DIVISIE</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Jong Ajax - Cambuur</t>
+          <t>Airdrie United - Raith Rovers</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>66.7</v>
+        <v>53.3</v>
       </c>
       <c r="F5" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="G5" t="n">
-        <v>1.23</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>24-02-2025 16:00</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LIGA I</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Uta Arad - Sepsi OSK Sfantu Gheorghe</t>
+          <t>Hamilton Academical - Dunfermline</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>60</v>
+        <v>55.7</v>
       </c>
       <c r="F6" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="G6" t="n">
-        <v>0.68</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>24-02-2025 19:00</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LIGA I</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Farul Constanta - Rapid</t>
+          <t>Arbroath - Kelty Hearts</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>56.7</v>
       </c>
       <c r="F7" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="G7" t="n">
-        <v>0.92</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>24-02-2025 15:00</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>U21 LEAGUE 1</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>JS Kabylie U21 - Paradou AC U21</t>
+          <t>Spartans - Forfar Athletic</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>53.3</v>
+        <v>73.3</v>
       </c>
       <c r="F8" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="G8" t="n">
-        <v>0.12</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>24-02-2025 21:00</t>
+          <t>25-02-2025 23:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PRIMERA B METROPOLITANA</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sacachispas - Liniers</t>
+          <t>Santa Fe - Deportes Iquique</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>60</v>
       </c>
       <c r="F9" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="G9" t="n">
-        <v>0.44</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>24-02-2025 18:00</t>
+          <t>25-02-2025 15:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CYPRUS</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1. DIVISION</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Apollon Limassol - Omonia Nicosia</t>
+          <t>ASO Chlef - MC Oran</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>53.3</v>
+        <v>63.3</v>
       </c>
       <c r="F10" t="n">
-        <v>2.5</v>
+        <v>1.73</v>
       </c>
       <c r="G10" t="n">
-        <v>0.33</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>24-02-2025 20:00</t>
+          <t>21-02-2025 18:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE 2 DIVISION ONE</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>West Bromwich Albion U21 - Crystal Palace U21</t>
+          <t>Voitsberg - Schwarz-Weiß Bregenz</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>50</v>
       </c>
       <c r="F11" t="n">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="G11" t="n">
-        <v>0.25</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>24-02-2025 20:00</t>
+          <t>25-02-2025 23:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE 2 DIVISION ONE</t>
+          <t>COPA DO BRASIL</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Blackburn Rovers U21 - Nottingham Forest U21</t>
+          <t>Maranhão - Vitoria</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="F12" t="n">
-        <v>2.75</v>
+        <v>4.4</v>
       </c>
       <c r="G12" t="n">
-        <v>0.83</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>24-02-2025 18:00</t>
+          <t>25-02-2025 23:30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LIGA LEUMIT</t>
+          <t>COPA DO BRASIL</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Hapoel Kfar Shalem - Hapoel Kfar Saba</t>
+          <t>Maringá - Juventude</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>50</v>
       </c>
       <c r="F13" t="n">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>24-02-2025 19:00</t>
+          <t>25-02-2025 17:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>BULGARIA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LIGAT HA'AL</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Hapoel Haifa - Ironi Kiryat Shmona</t>
+          <t>Botev Vratsa - Beroe</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F14" t="n">
-        <v>1.9</v>
+        <v>3.25</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>24-02-2025 23:30</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PARAGUAY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DIVISION PROFESIONAL - APERTURA</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense - General Caballero</t>
+          <t>Hereford - Buxton</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>73.3</v>
+        <v>50</v>
       </c>
       <c r="F15" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="G15" t="n">
-        <v>0.72</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>25-02-2025 20:30</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1814,22 +2112,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Crystal Palace - Aston Villa</t>
+          <t>Needham Market - Leamington</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>60</v>
+        <v>73.3</v>
       </c>
       <c r="F16" t="n">
         <v>2.5</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="17">
@@ -1845,22 +2143,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Stoke City - Middlesbrough</t>
+          <t>South Shields - Alfreton Town</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>53.3</v>
+        <v>66.7</v>
       </c>
       <c r="F17" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="G17" t="n">
-        <v>0.65</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18">
@@ -1876,22 +2174,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Tranmere - Accrington ST</t>
+          <t>Hampton &amp; Richmond - Chesham United</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F18" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="G18" t="n">
-        <v>0.44</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="19">
@@ -1907,22 +2205,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FC Halifax Town - Dagenham &amp; Redbridge</t>
+          <t>AFC Hornchurch - Enfield Town</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>66.7</v>
+        <v>51.7</v>
       </c>
       <c r="F19" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="G19" t="n">
-        <v>0.27</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="20">
@@ -1933,27 +2231,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Airdrie United - Raith Rovers</t>
+          <t>Weston-super-Mare - Torquay</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>53.3</v>
       </c>
       <c r="F20" t="n">
-        <v>3.3</v>
+        <v>2.38</v>
       </c>
       <c r="G20" t="n">
-        <v>0.76</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="21">
@@ -1964,27 +2262,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Hamilton Academical - Dunfermline</t>
+          <t>Folkestone Invicta - Chichester City</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>55.7</v>
+        <v>66.7</v>
       </c>
       <c r="F21" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="22">
@@ -1995,27 +2293,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>NON LEAGUE PREMIER - NORTHERN</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Arbroath - Kelty Hearts</t>
+          <t>Hebburn Town - Hyde United</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>56.7</v>
+        <v>50</v>
       </c>
       <c r="F22" t="n">
-        <v>1.9</v>
+        <v>2.25</v>
       </c>
       <c r="G22" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="23">
@@ -2026,24 +2324,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Spartans - Forfar Athletic</t>
+          <t>Hungerford Town - Poole Town</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>73.3</v>
+        <v>93.3</v>
       </c>
       <c r="F23" t="n">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="G23" t="n">
         <v>0.61</v>
@@ -2052,379 +2350,379 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>25-02-2025 23:00</t>
+          <t>25-02-2025 20:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Santa Fe - Deportes Iquique</t>
+          <t>Queens Park Rangers U21 - Swansea City U21</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F24" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>25-02-2025 01:10</t>
+          <t>25-02-2025 15:00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PRIMERA B METROPOLITANA</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>San Martín Burzaco - Comunicaciones</t>
+          <t>Bristol City U21 - Cardiff City U21</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F25" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="G25" t="n">
-        <v>0.39</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>25-02-2025 01:00</t>
+          <t>25-02-2025 14:00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PRIMERA NACIONAL</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Racing Cordoba - Alvarado</t>
+          <t>Fleetwood Town U21 - Peterborough United U21</t>
         </is>
       </c>
       <c r="E26" t="n">
         <v>66.7</v>
       </c>
       <c r="F26" t="n">
-        <v>1.82</v>
+        <v>2.3</v>
       </c>
       <c r="G26" t="n">
-        <v>0.21</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>21-02-2025 18:00</t>
+          <t>25-02-2025 15:00</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AUSTRIA</t>
+          <t>INDIA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2. LIGA</t>
+          <t>INDIAN SUPER LEAGUE</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Voitsberg - Schwarz-Weiß Bregenz</t>
+          <t>Bengaluru - Chennaiyin</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F27" t="n">
-        <v>1.95</v>
+        <v>1.71</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.03</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>25-02-2025 23:00</t>
+          <t>25-02-2025 09:00</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>COPA DO BRASIL</t>
+          <t>LIGA 2</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Maranhão - Vitoria</t>
+          <t>Persiku Kudus - Persekat</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>50</v>
+        <v>73.3</v>
       </c>
       <c r="F28" t="n">
-        <v>4.4</v>
+        <v>2.5</v>
       </c>
       <c r="G28" t="n">
-        <v>1.2</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>25-02-2025 23:30</t>
+          <t>25-02-2025 14:00</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>IRAN</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>COPA DO BRASIL</t>
+          <t>AZADEGAN LEAGUE</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Maringá - Juventude</t>
+          <t>Ario Eslamshahr - Shahrdari Noshahr</t>
         </is>
       </c>
       <c r="E29" t="n">
         <v>50</v>
       </c>
       <c r="F29" t="n">
-        <v>3.5</v>
+        <v>1.78</v>
       </c>
       <c r="G29" t="n">
-        <v>0.75</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>25-02-2025 17:00</t>
+          <t>25-02-2025 15:00</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BULGARIA</t>
+          <t>IRAN</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>AZADEGAN LEAGUE</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Botev Vratsa - Beroe</t>
+          <t>Sanat Naft - Naft Bandar Abbas</t>
         </is>
       </c>
       <c r="E30" t="n">
         <v>60</v>
       </c>
       <c r="F30" t="n">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="G30" t="n">
-        <v>0.95</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>25-02-2025 17:00</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>U23 LEAGUE</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Hereford - Buxton</t>
+          <t>Mazatlan FC U23 - Monterrey U23</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>50</v>
+        <v>73.3</v>
       </c>
       <c r="F31" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>25-02-2025 12:00</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>LIGA REVELAÇÃO U23</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Needham Market - Leamington</t>
+          <t>Mafra U23 - Rio Ave U23</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>73.3</v>
+        <v>56.7</v>
       </c>
       <c r="F32" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="G32" t="n">
-        <v>0.83</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>25-02-2025 18:30</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ROMANIA</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>LIGA II</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>South Shields - Alfreton Town</t>
+          <t>U Craiova 1948 - Arges Pitesti</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F33" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>25-02-2025 21:30</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>COPA DEL REY</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>AFC Hornchurch - Enfield Town</t>
+          <t>Barcelona - Atletico Madrid</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>51.7</v>
+        <v>53.3</v>
       </c>
       <c r="F34" t="n">
         <v>1.7</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.12</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>25-02-2025 20:30</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SWITZERLAND</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>SCHWEIZER CUP</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Weston-super-Mare - Torquay</t>
+          <t>Bellinzona - Lausanne</t>
         </is>
       </c>
       <c r="E35" t="n">
         <v>53.3</v>
       </c>
       <c r="F35" t="n">
-        <v>2.38</v>
+        <v>5</v>
       </c>
       <c r="G35" t="n">
-        <v>0.27</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 20:30</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2434,28 +2732,28 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Folkestone Invicta - Chichester City</t>
+          <t>Nottingham Forest - Arsenal</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>66.7</v>
+        <v>55.7</v>
       </c>
       <c r="F36" t="n">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="G36" t="n">
-        <v>0.47</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 20:30</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2465,146 +2763,456 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - NORTHERN</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Hebburn Town - Hyde United</t>
+          <t>Tottenham - Manchester City</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F37" t="n">
-        <v>2.25</v>
+        <v>3.9</v>
       </c>
       <c r="G37" t="n">
-        <v>0.12</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 20:45</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+          <t>PREMIERSHIP</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Hungerford Town - Poole Town</t>
+          <t>Heart Of Midlothian - ST Mirren</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>93.3</v>
+        <v>60</v>
       </c>
       <c r="F38" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="G38" t="n">
-        <v>0.61</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>25-02-2025 15:00</t>
+          <t>26-02-2025 20:45</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>INDIA</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>INDIAN SUPER LEAGUE</t>
+          <t>DFB POKAL</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Bengaluru - Chennaiyin</t>
+          <t>RB Leipzig - VfL Wolfsburg</t>
         </is>
       </c>
       <c r="E39" t="n">
         <v>60</v>
       </c>
       <c r="F39" t="n">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>25-02-2025 18:30</t>
+          <t>26-02-2025 23:00</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>LIGA II</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>U Craiova 1948 - Arges Pitesti</t>
+          <t>Nublense - Boston River</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F40" t="n">
-        <v>2.3</v>
+        <v>1.82</v>
       </c>
       <c r="G40" t="n">
-        <v>0.38</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>25-02-2025 21:30</t>
+          <t>26-02-2025 01:30</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>COLOMBIA</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>COPA DEL REY</t>
+          <t>PRIMERA A</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Barcelona - Atletico Madrid</t>
+          <t>Deportivo Pasto - Union Magdalena</t>
         </is>
       </c>
       <c r="E41" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>26-02-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CZECH-REPUBLIC</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CUP</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Mlada Boleslav - Bohemians 1905</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>60</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>26-02-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>EGYPT</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Future FC - El Gouna FC</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>26-02-2025 15:30</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>GREECE</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CUP</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis - OFI</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>26-02-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>JAPAN</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>J1 LEAGUE</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Yokohama F. Marinos - Yokohama FC</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>60</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>26-02-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>JAPAN</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>J1 LEAGUE</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Fagiano Okayama - Gamba Osaka</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>60</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>26-02-2025 04:00</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>LIGA MX</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Club Tijuana - U.N.A.M. - Pumas</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
         <v>53.3</v>
       </c>
-      <c r="F41" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-0.09</v>
+      <c r="F47" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>26-02-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>NORTHERN-IRELAND</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>PREMIERSHIP</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Loughgall - Larne</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F48" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>26-02-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>SWITZERLAND</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>SCHWEIZER CUP</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Biel-Bienne - FC Lugano</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>60</v>
+      </c>
+      <c r="F49" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="G49" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>26-02-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>SWITZERLAND</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>SCHWEIZER CUP</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Étoile Carouge - FC Basel 1893</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>60</v>
+      </c>
+      <c r="F50" t="n">
+        <v>6</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>26-02-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>WALES</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>FAW CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Flint Mountain - Bangor 1876</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>70</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -2666,7 +3274,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24-02-2025 21:00</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2676,90 +3284,90 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sheffield Utd - Leeds</t>
+          <t>Wigan - Huddersfield</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>55.7</v>
+        <v>51</v>
       </c>
       <c r="F2" t="n">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>24-02-2025 20:00</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EERSTE DIVISIE</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Jong PSV - Dordrecht</t>
+          <t>Birmingham - Leyton Orient</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>24-02-2025 18:00</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CYPRUS</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1. DIVISION</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Enosis - Anorthosis</t>
+          <t>Wealdstone - Boston United</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>24-02-2025 20:45</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2769,59 +3377,59 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Barwell - Bromsgrove Sporting</t>
+          <t>Tamworth - Rochdale</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="G5" t="n">
-        <v>0.73</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>24-02-2025 20:00</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE 2 DIVISION ONE</t>
+          <t>DFB POKAL</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>West Bromwich Albion U21 - Crystal Palace U21</t>
+          <t>Arminia Bielefeld - Werder Bremen</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F6" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>24-02-2025 20:00</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2831,28 +3439,28 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE 2 DIVISION ONE</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Leeds United U21 - Norwich City U21</t>
+          <t>Kidderminster Harriers - King's Lynn Town</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>56.7</v>
       </c>
       <c r="F7" t="n">
-        <v>2.63</v>
+        <v>3.95</v>
       </c>
       <c r="G7" t="n">
-        <v>0.31</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>24-02-2025 20:00</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2862,152 +3470,152 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE 2 DIVISION ONE</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Reading U21 - West Ham United U21</t>
+          <t>Radcliffe - Peterborough Sports</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F8" t="n">
-        <v>1.9</v>
+        <v>2.36</v>
       </c>
       <c r="G8" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>24-02-2025 20:00</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HUNGARY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NB II</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Budapest Honved - Kozarmisleny FC</t>
+          <t>Salisbury - Bath City</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>66.7</v>
+        <v>53.3</v>
       </c>
       <c r="F9" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="G9" t="n">
-        <v>0.87</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>24-02-2025 20:30</t>
+          <t>25-02-2025 14:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE B</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Rimini - Arezzo</t>
+          <t>AFC Bournemouth U21 - Ipswich Town U21</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F10" t="n">
-        <v>2.85</v>
+        <v>2.25</v>
       </c>
       <c r="G10" t="n">
-        <v>0.52</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>24-02-2025 14:05</t>
+          <t>25-02-2025 14:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>IRAN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DIVISION 1</t>
+          <t>AZADEGAN LEAGUE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Al Taee - Al Bukayriyah</t>
+          <t>Paykan - Fajr Sepasi</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F11" t="n">
-        <v>3.35</v>
+        <v>2.6</v>
       </c>
       <c r="G11" t="n">
-        <v>0.68</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>24-02-2025 15:15</t>
+          <t>25-02-2025 17:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PRO LEAGUE</t>
+          <t>LIGA REVELAÇÃO U23</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Al Akhdoud - Al-Fateh</t>
+          <t>Estoril U23 - Gil Vicente U23</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F12" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 20:30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3017,239 +3625,239 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Wigan - Huddersfield</t>
+          <t>Brentford - Everton</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>51</v>
       </c>
       <c r="F13" t="n">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 19:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>COUPE DE FRANCE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Birmingham - Leyton Orient</t>
+          <t>Stade Brestois 29 - Dunkerque</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G14" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 11:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>JAPAN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>J1 LEAGUE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Wealdstone - Boston United</t>
+          <t>Shimizu S-pulse - Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F15" t="n">
-        <v>3.6</v>
+        <v>1.91</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 04:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>LIGA MX</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Tamworth - Rochdale</t>
+          <t>Mazatlán - Monterrey</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F16" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="G16" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 18:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>ROMANIA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DFB POKAL</t>
+          <t>CUPA ROMÂNIEI</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld - Werder Bremen</t>
+          <t>Politehnica Iasi - AFC Hermannstadt</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>60</v>
       </c>
       <c r="F17" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="G17" t="n">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>25-02-2025 01:00</t>
+          <t>26-02-2025 16:30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CHILE</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PRIMERA B</t>
+          <t>PRO LEAGUE</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>San Marcos De Arica - Curico Unido</t>
+          <t>Al Riyadh - Al-Fayha</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>66.7</v>
+        <v>53.3</v>
       </c>
       <c r="F18" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="G18" t="n">
-        <v>1.17</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 16:15</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>PRO LEAGUE</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Salisbury - Bath City</t>
+          <t>Al-Ettifaq - Al Taawon</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F19" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="G19" t="n">
-        <v>0.54</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>25-02-2025 02:30</t>
+          <t>26-02-2025 18:30</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PANAMA</t>
+          <t>SOUTH-AFRICA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LIGA PANAMEÑA DE FÚTBOL</t>
+          <t>PREMIER SOCCER LEAGUE</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Alianza FC - UMECIT</t>
+          <t>Sekhukhune United - Mamelodi Sundowns</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>80</v>
+        <v>55.7</v>
       </c>
       <c r="F20" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3263,7 +3871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3311,146 +3919,146 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24-02-2025 16:30</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BULGARIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>FIRST LEAGUE</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Septemvri Sofia - Levski Krumovgrad</t>
+          <t>Birmingham - Leyton Orient</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="G2" t="n">
-        <v>0.61</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>24-02-2025 13:00</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Barito Putera - Bali United</t>
+          <t>Northampton - Barnsley</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>24-02-2025 14:05</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DIVISION 1</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al Taee - Al Bukayriyah</t>
+          <t>Cheltenham - Walsall</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>78.8</v>
       </c>
       <c r="F4" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>24-02-2025 15:15</t>
+          <t>25-02-2025 21:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PRO LEAGUE</t>
+          <t>COPPA ITALIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al Akhdoud - Al-Fateh</t>
+          <t>Inter - Lazio</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F5" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="G5" t="n">
-        <v>0.37</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>24-02-2025 16:30</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SERBIA</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SUPER LIGA</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Novi Pazar - TSC Backa Topola</t>
+          <t>Arbroath - Kelty Hearts</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -3466,63 +4074,63 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>24-02-2025 18:30</t>
+          <t>25-02-2025 13:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SWEDEN</t>
+          <t>ARMENIA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SVENSKA CUPEN</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Halmstad - Landskrona BoIS</t>
+          <t>Ararat-Armenia - FC Urartu</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F7" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="G7" t="n">
-        <v>0.53</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>25-02-2025 23:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>COPA DO BRASIL</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Birmingham - Leyton Orient</t>
+          <t>Maranhão - Vitoria</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F8" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="9">
@@ -3538,22 +4146,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Northampton - Barnsley</t>
+          <t>Needham Market - Leamington</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F9" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="G9" t="n">
-        <v>0.26</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="10">
@@ -3569,53 +4177,53 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Cheltenham - Walsall</t>
+          <t>Spennymoor Town - Marine</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>78.8</v>
+        <v>70</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="G10" t="n">
-        <v>0.58</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25-02-2025 21:00</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>COPPA ITALIA</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Inter - Lazio</t>
+          <t>Weston-super-Mare - Torquay</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>70</v>
       </c>
       <c r="F11" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="G11" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="12">
@@ -3626,213 +4234,244 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Arbroath - Kelty Hearts</t>
+          <t>Folkestone Invicta - Chichester City</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="F12" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="G12" t="n">
-        <v>0.26</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>25-02-2025 23:00</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>COPA DO BRASIL</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Maranhão - Vitoria</t>
+          <t>Kettering Town - Halesowen Town</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F13" t="n">
-        <v>2.2</v>
+        <v>1.77</v>
       </c>
       <c r="G13" t="n">
-        <v>0.61</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>25-02-2025 21:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>COUPE DE FRANCE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Needham Market - Leamington</t>
+          <t>Cannes - Guingamp</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>80</v>
       </c>
       <c r="F14" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="G14" t="n">
-        <v>0.68</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 20:45</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>DFB POKAL</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Spennymoor Town - Marine</t>
+          <t>RB Leipzig - VfL Wolfsburg</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>70</v>
       </c>
       <c r="F15" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="G15" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 17:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>CZECH-REPUBLIC</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Weston-super-Mare - Torquay</t>
+          <t>Mlada Boleslav - Bohemians 1905</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F16" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="G16" t="n">
-        <v>0.29</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 19:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
+          <t>COUPE DE FRANCE</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Folkestone Invicta - Chichester City</t>
+          <t>Stade Brestois 29 - Dunkerque</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>95</v>
+        <v>73.3</v>
       </c>
       <c r="F17" t="n">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="G17" t="n">
-        <v>0.61</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>25-02-2025 01:45</t>
+          <t>26-02-2025 04:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>JAMAICA</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>LIGA MX</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Montego Bay United - Mount Pleasant Academy</t>
+          <t>Club Tijuana - U.N.A.M. - Pumas</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>75</v>
       </c>
       <c r="F18" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="G18" t="n">
-        <v>0.46</v>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>26-02-2025 21:45</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>TAÇA DE PORTUGAL</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Benfica - SC Braga</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>85</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.53</v>
       </c>
     </row>
   </sheetData>
@@ -3846,7 +4485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3894,317 +4533,317 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24-02-2025 21:15</t>
+          <t>25-02-2025 20:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PRIMEIRA LIGA</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FC Porto - Guimaraes</t>
+          <t>Crystal Palace - Aston Villa</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>66.7</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="G2" t="n">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>24-02-2025 16:00</t>
+          <t>25-02-2025 21:15</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LIGA I</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Uta Arad - Sepsi OSK Sfantu Gheorghe</t>
+          <t>Chelsea - Southampton</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>66.7</v>
+        <v>76.7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="G3" t="n">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>24-02-2025 19:00</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LIGA I</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Farul Constanta - Rapid</t>
+          <t>Birmingham - Leyton Orient</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>66.7</v>
+        <v>68</v>
       </c>
       <c r="F4" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="G4" t="n">
-        <v>0.13</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>24-02-2025 23:00</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PRIMERA NACIONAL</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Nueva Chicago - Chacarita Juniors</t>
+          <t>Northampton - Barnsley</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>66.7</v>
+        <v>70</v>
       </c>
       <c r="F5" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="G5" t="n">
-        <v>0.53</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>24-02-2025 23:00</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PRIMERA B</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Barranquilla - Leones FC</t>
+          <t>Cheltenham - Walsall</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>73.3</v>
+        <v>75</v>
       </c>
       <c r="F6" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="G6" t="n">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>24-02-2025 20:00</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HUNGARY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NB II</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Budapest Honved - Kozarmisleny FC</t>
+          <t>Wealdstone - Boston United</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>66.7</v>
+        <v>68</v>
       </c>
       <c r="F7" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>24-02-2025 09:30</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Arema FC - PSIS Semarang</t>
+          <t>Tamworth - Rochdale</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>73.3</v>
+        <v>72</v>
       </c>
       <c r="F8" t="n">
         <v>1.8</v>
       </c>
       <c r="G8" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>24-02-2025 18:00</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LIGA LEUMIT</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hapoel Kfar Shalem - Hapoel Kfar Saba</t>
+          <t>Chorley - Farsley Celtic FC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F9" t="n">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="G9" t="n">
-        <v>0.29</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>24-02-2025 14:05</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DIVISION 1</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al Taee - Al Bukayriyah</t>
+          <t>Needham Market - Leamington</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F10" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="G10" t="n">
-        <v>0.39</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>24-02-2025 18:30</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SWEDEN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SVENSKA CUPEN</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Skövde AIK - Malmo FF</t>
+          <t>Spennymoor Town - Marine</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>76</v>
+        <v>73.3</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="G11" t="n">
-        <v>0.52</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>25-02-2025 20:30</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -4214,28 +4853,28 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Crystal Palace - Aston Villa</t>
+          <t>AFC Hornchurch - Enfield Town</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>66.7</v>
+        <v>75</v>
       </c>
       <c r="F12" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="G12" t="n">
-        <v>0.17</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>25-02-2025 21:15</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -4245,487 +4884,518 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Chelsea - Southampton</t>
+          <t>Tonbridge Angels - Welling United</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>76.7</v>
+        <v>66.7</v>
       </c>
       <c r="F13" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>25-02-2025 15:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>IRAN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>AZADEGAN LEAGUE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Birmingham - Leyton Orient</t>
+          <t>Sanat Naft - Naft Bandar Abbas</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>68</v>
       </c>
       <c r="F14" t="n">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="G14" t="n">
-        <v>0.33</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>25-02-2025 20:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>POLAND</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Northampton - Barnsley</t>
+          <t>Ruch Chorzów - Korona Kielce</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F15" t="n">
         <v>1.8</v>
       </c>
       <c r="G15" t="n">
-        <v>0.26</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>25-02-2025 16:30</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>PRO LEAGUE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Cheltenham - Walsall</t>
+          <t>Al-Hilal Saudi FC - Al Kholood</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F16" t="n">
         <v>1.83</v>
       </c>
       <c r="G16" t="n">
-        <v>0.37</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>25-02-2025 15:10</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>PRO LEAGUE</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Wealdstone - Boston United</t>
+          <t>Al-Raed - Al Shabab</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>68</v>
+        <v>76.7</v>
       </c>
       <c r="F17" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="G17" t="n">
-        <v>0.19</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>25-02-2025 18:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SLOVAKIA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>SUPER LIGA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Tamworth - Rochdale</t>
+          <t>Komárno - Žilina</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>72</v>
       </c>
       <c r="F18" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>25-02-2025 01:00</t>
+          <t>26-02-2025 20:30</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CHILE</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PRIMERA B</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>San Marcos De Arica - Curico Unido</t>
+          <t>Manchester United - Ipswich</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>73.3</v>
+        <v>88</v>
       </c>
       <c r="F19" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="G19" t="n">
-        <v>0.43</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 20:45</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>PREMIERSHIP</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Chorley - Farsley Celtic FC</t>
+          <t>Motherwell - Dundee</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>70</v>
       </c>
       <c r="F20" t="n">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="G20" t="n">
-        <v>0.57</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 23:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Needham Market - Leamington</t>
+          <t>Nublense - Boston River</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F21" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="G21" t="n">
-        <v>0.44</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 19:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>COUPE DE FRANCE</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Spennymoor Town - Marine</t>
+          <t>Stade Brestois 29 - Dunkerque</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>73.3</v>
+        <v>68</v>
       </c>
       <c r="F22" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="G22" t="n">
-        <v>0.28</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 21:10</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>COUPE DE FRANCE</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>AFC Hornchurch - Enfield Town</t>
+          <t>Stade Briochin - Paris Saint Germain</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F23" t="n">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="G23" t="n">
-        <v>0.39</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 19:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GREECE</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tonbridge Angels - Welling United</t>
+          <t>Olympiakos Piraeus - AEK Athens FC</t>
         </is>
       </c>
       <c r="E24" t="n">
         <v>66.7</v>
       </c>
       <c r="F24" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="G24" t="n">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>25-02-2025 01:45</t>
+          <t>26-02-2025 11:00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>JAMAICA</t>
+          <t>JAPAN</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>J1 LEAGUE</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Montego Bay United - Mount Pleasant Academy</t>
+          <t>Kashiwa Reysol - Cerezo Osaka</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>70</v>
+        <v>66.7</v>
       </c>
       <c r="F25" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="G25" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>25-02-2025 16:30</t>
+          <t>26-02-2025 04:00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PRO LEAGUE</t>
+          <t>LIGA MX</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Al-Hilal Saudi FC - Al Kholood</t>
+          <t>Mazatlán - Monterrey</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>68</v>
+        <v>86.7</v>
       </c>
       <c r="F26" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="G26" t="n">
-        <v>0.24</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>25-02-2025 15:10</t>
+          <t>26-02-2025 20:45</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>NORTHERN-IRELAND</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PRO LEAGUE</t>
+          <t>PREMIERSHIP</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Al-Raed - Al Shabab</t>
+          <t>Loughgall - Larne</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>76.7</v>
+        <v>66.7</v>
       </c>
       <c r="F27" t="n">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>25-02-2025 18:00</t>
+          <t>26-02-2025 20:30</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SLOVAKIA</t>
+          <t>SWITZERLAND</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SUPER LIGA</t>
+          <t>SCHWEIZER CUP</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Komárno - Žilina</t>
+          <t>Biel-Bienne - FC Lugano</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F28" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="G28" t="n">
-        <v>0.22</v>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>26-02-2025 02:00</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Inter Miami - Sporting Kansas City</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>80</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,169 +475,169 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 23:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>PAULISTA - A3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Spartans - Forfar Athletic</t>
+          <t>Marília - Catanduva</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 15:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Needham Market - Leamington</t>
+          <t>Future FC - El Gouna FC</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>73.3</v>
       </c>
       <c r="F3" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 14:10</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Hungerford Town - Poole Town</t>
+          <t>Al Jandal - Al Safa</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>93.3</v>
+        <v>73.3</v>
       </c>
       <c r="F4" t="n">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>25-02-2025 09:00</t>
+          <t>26-02-2025 14:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>TUNISIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LIGA 2</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Persiku Kudus - Persekat</t>
+          <t>ES Metlaoui - AS Gabes</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>73.3</v>
       </c>
       <c r="F5" t="n">
-        <v>2.5</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>25-02-2025 17:00</t>
+          <t>26-02-2025 18:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>U23 LEAGUE</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Mazatlan FC U23 - Monterrey U23</t>
+          <t>Trabzonspor - Rizespor</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F6" t="n">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>26-02-2025 15:00</t>
+          <t>26-02-2025 13:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Future FC - El Gouna FC</t>
+          <t>Yeni Çorumspor - Boluspor</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>73.3</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="8">
@@ -666,6 +666,90 @@
       </c>
       <c r="F8" t="n">
         <v>2.15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>27-02-2025 01:30</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>COPA DO NORDESTE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CSA - Nautico Recife</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>27-02-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MOROCCO</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>BOTOLA PRO</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CODM Meknès - Hassania Agadir</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>70</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>27-02-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>POLAND</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CUP</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Polonia Warszawa - Puszcza Niepołomice</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>70</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.95</v>
       </c>
     </row>
   </sheetData>
@@ -758,7 +842,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -801,7 +885,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>25-02-2025 21:15</t>
+          <t>26-02-2025 20:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -816,123 +900,123 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Chelsea - Southampton</t>
+          <t>Manchester United - Ipswich</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>76.7</v>
+        <v>88</v>
       </c>
       <c r="F2" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 23:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Cheltenham - Walsall</t>
+          <t>Nublense - Boston River</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F3" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>27-02-2025 00:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>COPA DO BRASIL</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Needham Market - Leamington</t>
+          <t>Parnahyba - Confiança</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F4" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>27-02-2025 00:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>COPA VERDE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AFC Hornchurch - Enfield Town</t>
+          <t>Manaus FC - Paysandu</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>75</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>25-02-2025 20:00</t>
+          <t>26-02-2025 23:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>POLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>PAULISTA - A3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ruch Chorzów - Korona Kielce</t>
+          <t>Francana - União São João</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F6" t="n">
         <v>1.8</v>
@@ -941,147 +1025,147 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>25-02-2025 15:10</t>
+          <t>26-02-2025 17:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>HUNGARY</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PRO LEAGUE</t>
+          <t>MAGYAR KUPA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al-Raed - Al Shabab</t>
+          <t>Mezokovesd-zsory - Paks</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>76.7</v>
       </c>
       <c r="F7" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>26-02-2025 20:30</t>
+          <t>26-02-2025 17:30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>HUNGARY</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>MAGYAR KUPA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Manchester United - Ipswich</t>
+          <t>SC Sopron - Kisvarda FC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F8" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>26-02-2025 23:00</t>
+          <t>26-02-2025 20:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SWITZERLAND</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>SCHWEIZER CUP</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Nublense - Boston River</t>
+          <t>Biel-Bienne - FC Lugano</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>84</v>
       </c>
       <c r="F9" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>26-02-2025 04:00</t>
+          <t>26-02-2025 14:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>TUNISIA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LIGA MX</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Mazatlán - Monterrey</t>
+          <t>CA Bizertin - ES Zarzis</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>86.7</v>
+        <v>80</v>
       </c>
       <c r="F10" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>26-02-2025 20:30</t>
+          <t>27-02-2025 01:30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SWITZERLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SCHWEIZER CUP</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Biel-Bienne - FC Lugano</t>
+          <t>Corinthians - UCV</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F11" t="n">
-        <v>1.91</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>26-02-2025 02:00</t>
+          <t>27-02-2025 23:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1091,18 +1175,102 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CONCACAF CHAMPIONS LEAGUE</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Inter Miami - Sporting Kansas City</t>
+          <t>Cerro Porteno - Monagas SC</t>
         </is>
       </c>
       <c r="E12" t="n">
+        <v>84</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>27-02-2025 01:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>COPA DO BRASIL</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Humaitá - Operario-PR</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>84</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>27-02-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>EGYPT</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Zamalek SC - Masr</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>27-02-2025 04:05</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>LIGA MX</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Atletico San Luis - Guadalajara Chivas</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
         <v>80</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F15" t="n">
         <v>1.75</v>
       </c>
     </row>
@@ -1117,7 +1285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1170,443 +1338,205 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 17:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>CZECH-REPUBLIC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Birmingham - Leyton Orient</t>
+          <t>Mlada Boleslav - Bohemians 1905</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F2" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="G2" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 21:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>TAÇA DE PORTUGAL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Needham Market - Leamington</t>
+          <t>Benfica - SC Braga</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F3" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 20:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SWITZERLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>SCHWEIZER CUP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Spennymoor Town - Marine</t>
+          <t>Biel-Bienne - FC Lugano</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>70</v>
+        <v>93.3</v>
       </c>
       <c r="F4" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="G4" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H4" t="n">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 18:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Slough Town - Chippenham Town</t>
+          <t>Trabzonspor - Rizespor</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>68.8</v>
+        <v>85</v>
       </c>
       <c r="F5" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="G5" t="n">
-        <v>63.8</v>
+        <v>60</v>
       </c>
       <c r="H5" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>27-02-2025 04:05</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>LIGA MX</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Weston-super-Mare - Torquay</t>
+          <t>Atletico San Luis - Guadalajara Chivas</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F6" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="G6" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>27-02-2025 04:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Boreham Wood - Chelmsford City</t>
+          <t>Seattle Sounders - Antigua GFC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>86.7</v>
+        <v>66.7</v>
       </c>
       <c r="F7" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="G7" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H7" t="n">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>25-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Folkestone Invicta - Chichester City</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>95</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="G8" t="n">
-        <v>45</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>25-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Kettering Town - Halesowen Town</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>80</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="G9" t="n">
-        <v>40</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>25-02-2025 21:00</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>FRANCE</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>COUPE DE FRANCE</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Cannes - Guingamp</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>80</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="G10" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>26-02-2025 17:00</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>CZECH-REPUBLIC</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>CUP</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Mlada Boleslav - Bohemians 1905</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>85</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G11" t="n">
-        <v>60</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.87</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>26-02-2025 21:45</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>TAÇA DE PORTUGAL</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Benfica - SC Braga</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>85</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G12" t="n">
-        <v>50</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>26-02-2025 20:30</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>SWITZERLAND</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>SCHWEIZER CUP</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Biel-Bienne - FC Lugano</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="G13" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>26-02-2025 02:00</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>CONCACAF CHAMPIONS LEAGUE</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Inter Miami - Sporting Kansas City</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>80</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="G14" t="n">
-        <v>70</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
     </row>
   </sheetData>
@@ -1620,7 +1550,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1668,7 +1598,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>25-02-2025 20:30</t>
+          <t>26-02-2025 20:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1683,23 +1613,23 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Crystal Palace - Aston Villa</t>
+          <t>Nottingham Forest - Arsenal</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
+        <v>55.7</v>
       </c>
       <c r="F2" t="n">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 20:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1709,1020 +1639,1020 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Stoke City - Middlesbrough</t>
+          <t>Tottenham - Manchester City</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="G3" t="n">
-        <v>0.65</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 20:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>PREMIERSHIP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tranmere - Accrington ST</t>
+          <t>Heart Of Midlothian - ST Mirren</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>60</v>
       </c>
       <c r="F4" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="G4" t="n">
-        <v>0.44</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 20:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>DFB POKAL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Airdrie United - Raith Rovers</t>
+          <t>RB Leipzig - VfL Wolfsburg</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F5" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.76</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 23:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hamilton Academical - Dunfermline</t>
+          <t>Nublense - Boston River</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>55.7</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>2.7</v>
+        <v>1.82</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 23:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>COPA DO BRASIL</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Arbroath - Kelty Hearts</t>
+          <t>CSE - Tombense</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>56.7</v>
+        <v>50</v>
       </c>
       <c r="F7" t="n">
-        <v>1.9</v>
+        <v>3.05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 20:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>COPA DO BRASIL</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Spartans - Forfar Athletic</t>
+          <t>Dourados Atlético - Caxias</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>73.3</v>
+        <v>60</v>
       </c>
       <c r="F8" t="n">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="G8" t="n">
-        <v>0.61</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>25-02-2025 23:00</t>
+          <t>26-02-2025 23:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>COPA DO BRASIL</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Santa Fe - Deportes Iquique</t>
+          <t>Votuporanguense - Aparecidense</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F9" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>25-02-2025 15:30</t>
+          <t>26-02-2025 23:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LIGUE 1</t>
+          <t>PAULISTA - A3</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ASO Chlef - MC Oran</t>
+          <t>Marília - Catanduva</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>63.3</v>
+        <v>80</v>
       </c>
       <c r="F10" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>21-02-2025 18:00</t>
+          <t>26-02-2025 23:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AUSTRIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2. LIGA</t>
+          <t>PAULISTA - A3</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Voitsberg - Schwarz-Weiß Bregenz</t>
+          <t>Sertãozinho - EC São Bernardo</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>50</v>
+        <v>51.3</v>
       </c>
       <c r="F11" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.03</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>25-02-2025 23:00</t>
+          <t>26-02-2025 17:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>CZECH-REPUBLIC</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>COPA DO BRASIL</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Maranhão - Vitoria</t>
+          <t>Mlada Boleslav - Bohemians 1905</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F12" t="n">
-        <v>4.4</v>
+        <v>2.2</v>
       </c>
       <c r="G12" t="n">
-        <v>1.2</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>25-02-2025 23:30</t>
+          <t>26-02-2025 15:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>COPA DO BRASIL</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Maringá - Juventude</t>
+          <t>Future FC - El Gouna FC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>50</v>
+        <v>73.3</v>
       </c>
       <c r="F13" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>0.75</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>25-02-2025 17:00</t>
+          <t>26-02-2025 21:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BULGARIA</t>
+          <t>GIBRALTAR</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>PREMIER DIVISION</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Botev Vratsa - Beroe</t>
+          <t>Manchester 62 - Lions Gibraltar</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>60</v>
+        <v>51.7</v>
       </c>
       <c r="F14" t="n">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="G14" t="n">
-        <v>0.95</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 15:30</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GREECE</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Hereford - Buxton</t>
+          <t>Asteras Tripolis - OFI</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="F15" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 13:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>HUNGARY</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>MAGYAR KUPA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Needham Market - Leamington</t>
+          <t>Iváncsa - MTK Budapest</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>73.3</v>
+        <v>60</v>
       </c>
       <c r="F16" t="n">
-        <v>2.5</v>
+        <v>8.5</v>
       </c>
       <c r="G16" t="n">
-        <v>0.83</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 13:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>HUNGARY</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>MAGYAR KUPA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>South Shields - Alfreton Town</t>
+          <t>Karcag SE - Zalaegerszegi TE</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F17" t="n">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 12:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>IRAN</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>AZADEGAN LEAGUE</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Hampton &amp; Richmond - Chesham United</t>
+          <t>Naft Gachsaran - Mes Shahr-e Babak</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F18" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="G18" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 11:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>JAPAN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>J1 LEAGUE</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>AFC Hornchurch - Enfield Town</t>
+          <t>Yokohama F. Marinos - Yokohama FC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>51.7</v>
+        <v>60</v>
       </c>
       <c r="F19" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.12</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 11:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>JAPAN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>J1 LEAGUE</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Weston-super-Mare - Torquay</t>
+          <t>Fagiano Okayama - Gamba Osaka</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F20" t="n">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="G20" t="n">
-        <v>0.27</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 13:15</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>MALAYSIA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
+          <t>SUPER LEAGUE</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Folkestone Invicta - Chichester City</t>
+          <t>Kuala Lumpur FA - Pdrm</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>66.7</v>
+        <v>55.7</v>
       </c>
       <c r="F21" t="n">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="G21" t="n">
-        <v>0.47</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 16:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>NIGERIA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - NORTHERN</t>
+          <t>NPFL</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Hebburn Town - Hyde United</t>
+          <t>Nasarawa United - Remo Stars</t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>50</v>
       </c>
       <c r="F22" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="G22" t="n">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 20:45</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>NORTHERN-IRELAND</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+          <t>PREMIERSHIP</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Hungerford Town - Poole Town</t>
+          <t>Loughgall - Larne</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>93.3</v>
+        <v>53.3</v>
       </c>
       <c r="F23" t="n">
-        <v>1.73</v>
+        <v>5.5</v>
       </c>
       <c r="G23" t="n">
-        <v>0.61</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>25-02-2025 20:00</t>
+          <t>26-02-2025 14:10</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Queens Park Rangers U21 - Swansea City U21</t>
+          <t>Al Jandal - Al Safa</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>66.7</v>
+        <v>73.3</v>
       </c>
       <c r="F24" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="G24" t="n">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>25-02-2025 15:00</t>
+          <t>26-02-2025 14:00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SERBIA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>PRVA LIGA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Bristol City U21 - Cardiff City U21</t>
+          <t>Indjija - Sloven Ruma</t>
         </is>
       </c>
       <c r="E25" t="n">
         <v>50</v>
       </c>
       <c r="F25" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>25-02-2025 14:00</t>
+          <t>26-02-2025 19:30</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SERBIA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>SUPER LIGA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Fleetwood Town U21 - Peterborough United U21</t>
+          <t>IMT Novi Beograd - OFK Beograd</t>
         </is>
       </c>
       <c r="E26" t="n">
         <v>66.7</v>
       </c>
       <c r="F26" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="G26" t="n">
-        <v>0.53</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>25-02-2025 15:00</t>
+          <t>26-02-2025 20:30</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>INDIA</t>
+          <t>SWITZERLAND</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>INDIAN SUPER LEAGUE</t>
+          <t>SCHWEIZER CUP</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Bengaluru - Chennaiyin</t>
+          <t>Biel-Bienne - FC Lugano</t>
         </is>
       </c>
       <c r="E27" t="n">
         <v>60</v>
       </c>
       <c r="F27" t="n">
-        <v>1.71</v>
+        <v>8.5</v>
       </c>
       <c r="G27" t="n">
-        <v>0.03</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>25-02-2025 09:00</t>
+          <t>26-02-2025 19:30</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>SWITZERLAND</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>LIGA 2</t>
+          <t>SCHWEIZER CUP</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Persiku Kudus - Persekat</t>
+          <t>Étoile Carouge - FC Basel 1893</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>73.3</v>
+        <v>60</v>
       </c>
       <c r="F28" t="n">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="G28" t="n">
-        <v>0.83</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>25-02-2025 14:00</t>
+          <t>26-02-2025 12:00</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>IRAN</t>
+          <t>TANZANIA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>AZADEGAN LEAGUE</t>
+          <t>LIGI KUU BARA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Ario Eslamshahr - Shahrdari Noshahr</t>
+          <t>Singida Big Stars - Tanzania Prisons</t>
         </is>
       </c>
       <c r="E29" t="n">
         <v>50</v>
       </c>
       <c r="F29" t="n">
-        <v>1.78</v>
+        <v>2.1</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.11</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>25-02-2025 15:00</t>
+          <t>26-02-2025 14:00</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>IRAN</t>
+          <t>TUNISIA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>AZADEGAN LEAGUE</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Sanat Naft - Naft Bandar Abbas</t>
+          <t>ES Metlaoui - AS Gabes</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>60</v>
+        <v>73.3</v>
       </c>
       <c r="F30" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="G30" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>25-02-2025 17:00</t>
+          <t>26-02-2025 14:00</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>TUNISIA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>U23 LEAGUE</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mazatlan FC U23 - Monterrey U23</t>
+          <t>ES Tunis - ES Sahel</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>73.3</v>
+        <v>60</v>
       </c>
       <c r="F31" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="G31" t="n">
-        <v>0.76</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>25-02-2025 12:00</t>
+          <t>26-02-2025 18:30</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>LIGA REVELAÇÃO U23</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mafra U23 - Rio Ave U23</t>
+          <t>Trabzonspor - Rizespor</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>56.7</v>
+        <v>80</v>
       </c>
       <c r="F32" t="n">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="G32" t="n">
-        <v>0.28</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>25-02-2025 18:30</t>
+          <t>26-02-2025 13:00</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>LIGA II</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>U Craiova 1948 - Arges Pitesti</t>
+          <t>Yeni Çorumspor - Boluspor</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>60</v>
+        <v>73.3</v>
       </c>
       <c r="F33" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="G33" t="n">
-        <v>0.38</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>25-02-2025 21:30</t>
+          <t>26-02-2025 20:45</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>WALES</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>COPA DEL REY</t>
+          <t>FAW CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Barcelona - Atletico Madrid</t>
+          <t>Flint Mountain - Bangor 1876</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>53.3</v>
+        <v>70</v>
       </c>
       <c r="F34" t="n">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.09</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>25-02-2025 20:30</t>
+          <t>26-02-2025 09:15</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SWITZERLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SCHWEIZER CUP</t>
+          <t>AFC U20 ASIAN CUP</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Bellinzona - Lausanne</t>
+          <t>Saudi Arabia U20 - Korea Republic U20</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G35" t="n">
-        <v>1.66</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>26-02-2025 20:30</t>
+          <t>27-02-2025 21:00</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2732,250 +2662,250 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Nottingham Forest - Arsenal</t>
+          <t>Barrow - Carlisle</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>55.7</v>
+        <v>55</v>
       </c>
       <c r="F36" t="n">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="G36" t="n">
-        <v>1.34</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>26-02-2025 20:30</t>
+          <t>27-02-2025 17:00</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Tottenham - Manchester City</t>
+          <t>JS Saoura - Oued Akbou</t>
         </is>
       </c>
       <c r="E37" t="n">
         <v>60</v>
       </c>
       <c r="F37" t="n">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="G37" t="n">
-        <v>1.34</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>26-02-2025 20:45</t>
+          <t>27-02-2025 23:00</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PREMIERSHIP</t>
+          <t>COPA DO BRASIL</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Heart Of Midlothian - ST Mirren</t>
+          <t>Ceilândia - Coritiba</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F38" t="n">
-        <v>1.7</v>
+        <v>4.75</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>26-02-2025 20:45</t>
+          <t>27-02-2025 01:30</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DFB POKAL</t>
+          <t>COPA DO NORDESTE</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>RB Leipzig - VfL Wolfsburg</t>
+          <t>CSA - Nautico Recife</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>60</v>
+        <v>71.7</v>
       </c>
       <c r="F39" t="n">
         <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>26-02-2025 23:00</t>
+          <t>27-02-2025 19:00</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>DENMARK</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>1. DIVISION</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Nublense - Boston River</t>
+          <t>Hvidovre - FC Fredericia</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F40" t="n">
-        <v>1.82</v>
+        <v>2.1</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.09</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>26-02-2025 01:30</t>
+          <t>27-02-2025 15:00</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>PRIMERA A</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Deportivo Pasto - Union Magdalena</t>
+          <t>Smouha SC - AL Masry</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>58.3</v>
+        <v>53.3</v>
       </c>
       <c r="F41" t="n">
-        <v>1.84</v>
+        <v>2.9</v>
       </c>
       <c r="G41" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>26-02-2025 17:00</t>
+          <t>27-02-2025 18:00</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CZECH-REPUBLIC</t>
+          <t>MOROCCO</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>BOTOLA PRO</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Mlada Boleslav - Bohemians 1905</t>
+          <t>Ittihad Tanger - Riadi Salmi</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>60</v>
+        <v>57.7</v>
       </c>
       <c r="F42" t="n">
-        <v>2.2</v>
+        <v>1.77</v>
       </c>
       <c r="G42" t="n">
-        <v>0.32</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>26-02-2025 15:00</t>
+          <t>27-02-2025 20:00</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>MOROCCO</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>BOTOLA PRO</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Future FC - El Gouna FC</t>
+          <t>CODM Meknès - Hassania Agadir</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="G43" t="n">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>26-02-2025 15:30</t>
+          <t>27-02-2025 18:00</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>GREECE</t>
+          <t>POLAND</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2985,233 +2915,140 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Asteras Tripolis - OFI</t>
+          <t>Polonia Warszawa - Puszcza Niepołomice</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>66.7</v>
+        <v>70</v>
       </c>
       <c r="F44" t="n">
-        <v>2.05</v>
+        <v>2.95</v>
       </c>
       <c r="G44" t="n">
-        <v>0.37</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>26-02-2025 11:00</t>
+          <t>27-02-2025 14:00</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>JAPAN</t>
+          <t>TUNISIA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>J1 LEAGUE</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos - Yokohama FC</t>
+          <t>US Tataouine - EGS Gafsa</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>26-02-2025 11:00</t>
+          <t>27-02-2025 14:00</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>JAPAN</t>
+          <t>TUNISIA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>J1 LEAGUE</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Fagiano Okayama - Gamba Osaka</t>
+          <t>Olympique Béja - CS Sfaxien</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F46" t="n">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="G46" t="n">
-        <v>0.95</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>26-02-2025 04:00</t>
+          <t>27-02-2025 14:00</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>TUNISIA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>LIGA MX</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Club Tijuana - U.N.A.M. - Pumas</t>
+          <t>US Monastirienne - Club Africain</t>
         </is>
       </c>
       <c r="E47" t="n">
         <v>53.3</v>
       </c>
       <c r="F47" t="n">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="G47" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>26-02-2025 20:45</t>
+          <t>27-02-2025 17:15</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NORTHERN-IRELAND</t>
+          <t>UNITED-ARAB-EMIRATES</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PREMIERSHIP</t>
+          <t>PRO LEAGUE</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Loughgall - Larne</t>
+          <t>Al Wahda FC - Al Ain</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F48" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="G48" t="n">
-        <v>1.93</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>26-02-2025 20:30</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>SWITZERLAND</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>SCHWEIZER CUP</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Biel-Bienne - FC Lugano</t>
-        </is>
-      </c>
-      <c r="E49" t="n">
-        <v>60</v>
-      </c>
-      <c r="F49" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="G49" t="n">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>26-02-2025 19:30</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>SWITZERLAND</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>SCHWEIZER CUP</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Étoile Carouge - FC Basel 1893</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>60</v>
-      </c>
-      <c r="F50" t="n">
-        <v>6</v>
-      </c>
-      <c r="G50" t="n">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>26-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>WALES</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>FAW CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Flint Mountain - Bangor 1876</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>70</v>
-      </c>
-      <c r="F51" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="G51" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -3226,7 +3063,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3274,7 +3111,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 20:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3284,580 +3121,673 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Wigan - Huddersfield</t>
+          <t>Brentford - Everton</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>51</v>
       </c>
       <c r="F2" t="n">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 15:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Birmingham - Leyton Orient</t>
+          <t>NC Magra - ES Setif</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>2.35</v>
       </c>
       <c r="G3" t="n">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 23:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>PAULISTA - A2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Wealdstone - Boston United</t>
+          <t>Sao Bento - Ferroviária</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>27-02-2025 00:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>PAULISTA - A4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tamworth - Rochdale</t>
+          <t>Barretos - Uniao Barbarense</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="G5" t="n">
-        <v>0.12</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 19:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DFB POKAL</t>
+          <t>PAULISTA - A4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld - Werder Bremen</t>
+          <t>Nacional SP - Paulista</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>60</v>
       </c>
       <c r="F6" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="G6" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 19:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>COUPE DE FRANCE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Kidderminster Harriers - King's Lynn Town</t>
+          <t>Stade Brestois 29 - Dunkerque</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>56.7</v>
+        <v>60</v>
       </c>
       <c r="F7" t="n">
-        <v>3.95</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>1.24</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 09:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>LIGA 2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Radcliffe - Peterborough Sports</t>
+          <t>PSIM Yogyakarta - Bhayangkara FC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F8" t="n">
-        <v>2.36</v>
+        <v>2.88</v>
       </c>
       <c r="G8" t="n">
-        <v>0.18</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 11:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>JAPAN</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>J1 LEAGUE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Salisbury - Bath City</t>
+          <t>Shimizu S-pulse - Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>53.3</v>
       </c>
       <c r="F9" t="n">
-        <v>2.88</v>
+        <v>1.91</v>
       </c>
       <c r="G9" t="n">
-        <v>0.54</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>25-02-2025 14:00</t>
+          <t>26-02-2025 14:55</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>KUWAIT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>AFC Bournemouth U21 - Ipswich Town U21</t>
+          <t>Al Tadhamon - Khaitan</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F10" t="n">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="G10" t="n">
-        <v>0.35</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25-02-2025 14:00</t>
+          <t>26-02-2025 14:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>IRAN</t>
+          <t>MALAYSIA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AZADEGAN LEAGUE</t>
+          <t>SUPER LEAGUE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Paykan - Fajr Sepasi</t>
+          <t>Negeri Sembilan - Kedah</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F11" t="n">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>25-02-2025 17:00</t>
+          <t>26-02-2025 18:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ROMANIA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LIGA REVELAÇÃO U23</t>
+          <t>CUPA ROMÂNIEI</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Estoril U23 - Gil Vicente U23</t>
+          <t>Politehnica Iasi - AFC Hermannstadt</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>60</v>
       </c>
       <c r="F12" t="n">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="G12" t="n">
-        <v>1.28</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>26-02-2025 20:30</t>
+          <t>26-02-2025 16:30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>PRO LEAGUE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Brentford - Everton</t>
+          <t>Al Riyadh - Al-Fayha</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>51</v>
+        <v>53.3</v>
       </c>
       <c r="F13" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="G13" t="n">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>26-02-2025 19:00</t>
+          <t>26-02-2025 16:15</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>COUPE DE FRANCE</t>
+          <t>PRO LEAGUE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Stade Brestois 29 - Dunkerque</t>
+          <t>Al-Ettifaq - Al Taawon</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>60</v>
       </c>
       <c r="F14" t="n">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="G14" t="n">
-        <v>2.6</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>26-02-2025 11:00</t>
+          <t>26-02-2025 13:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>JAPAN</t>
+          <t>SERBIA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>J1 LEAGUE</t>
+          <t>SUPER LIGA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Shimizu S-pulse - Sanfrecce Hiroshima</t>
+          <t>FK Spartak Zdrepceva KRV - Jedinstvo Ub</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F15" t="n">
-        <v>1.91</v>
+        <v>6.25</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>26-02-2025 04:00</t>
+          <t>26-02-2025 12:45</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>SINGAPORE</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>LIGA MX</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Mazatlán - Monterrey</t>
+          <t>DPMM FC - Hougang United</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>53.3</v>
       </c>
       <c r="F16" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="G16" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>26-02-2025 18:00</t>
+          <t>26-02-2025 18:30</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>SOUTH-AFRICA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CUPA ROMÂNIEI</t>
+          <t>PREMIER SOCCER LEAGUE</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Politehnica Iasi - AFC Hermannstadt</t>
+          <t>Sekhukhune United - Mamelodi Sundowns</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>60</v>
+        <v>55.7</v>
       </c>
       <c r="F17" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>26-02-2025 16:30</t>
+          <t>26-02-2025 19:30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>SWITZERLAND</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PRO LEAGUE</t>
+          <t>1. LIGA PROMOTION</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Al Riyadh - Al-Fayha</t>
+          <t>Cham - Grand-Saconnex</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F18" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="G18" t="n">
-        <v>0.65</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>26-02-2025 16:15</t>
+          <t>26-02-2025 17:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PRO LEAGUE</t>
+          <t>FRIENDLIES CLUBS</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Al-Ettifaq - Al Taawon</t>
+          <t>Kristiansund BK - Stromsgodset</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F19" t="n">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="G19" t="n">
-        <v>0.95</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>26-02-2025 18:30</t>
+          <t>27-02-2025 01:30</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SOUTH-AFRICA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PREMIER SOCCER LEAGUE</t>
+          <t>COPA DO BRASIL</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sekhukhune United - Mamelodi Sundowns</t>
+          <t>Concórdia - Ponte Preta</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>55.7</v>
+        <v>50</v>
       </c>
       <c r="F20" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>27-02-2025 22:00</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>HONDURAS</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>LIGA NACIONAL</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Juticalpa - Real Espana</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>60</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>27-02-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ROMANIA</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>LIGA II</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Ceahlăul Piatra Neamţ - CSA Steaua Bucureşti</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>60</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>27-02-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>SERBIA</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>SUPER LIGA</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>TSC Backa Topola - Cukaricki</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.36</v>
       </c>
     </row>
   </sheetData>
@@ -3871,7 +3801,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3919,559 +3849,280 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>DFB POKAL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Birmingham - Leyton Orient</t>
+          <t>RB Leipzig - VfL Wolfsburg</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 17:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>CZECH-REPUBLIC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Northampton - Barnsley</t>
+          <t>Mlada Boleslav - Bohemians 1905</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F3" t="n">
         <v>1.8</v>
       </c>
       <c r="G3" t="n">
-        <v>0.26</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 19:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>COUPE DE FRANCE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Cheltenham - Walsall</t>
+          <t>Stade Brestois 29 - Dunkerque</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>78.8</v>
+        <v>73.3</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1.77</v>
       </c>
       <c r="G4" t="n">
-        <v>0.58</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>25-02-2025 21:00</t>
+          <t>26-02-2025 21:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>COPPA ITALIA</t>
+          <t>TAÇA DE PORTUGAL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Inter - Lazio</t>
+          <t>Benfica - SC Braga</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F5" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="G5" t="n">
-        <v>0.19</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 14:10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Arbroath - Kelty Hearts</t>
+          <t>Al Jandal - Al Safa</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>70</v>
       </c>
       <c r="F6" t="n">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="G6" t="n">
-        <v>0.26</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>25-02-2025 13:00</t>
+          <t>26-02-2025 18:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ARMENIA</t>
+          <t>SERBIA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>SUPER LIGA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Ararat-Armenia - FC Urartu</t>
+          <t>Radnicki NIS - Vojvodina</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F7" t="n">
         <v>1.95</v>
       </c>
       <c r="G7" t="n">
-        <v>0.46</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>25-02-2025 23:00</t>
+          <t>27-02-2025 17:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>BULGARIA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>COPA DO BRASIL</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Maranhão - Vitoria</t>
+          <t>Ludogorets - Botev Plovdiv</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F8" t="n">
-        <v>2.2</v>
+        <v>1.78</v>
       </c>
       <c r="G8" t="n">
-        <v>0.61</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>27-02-2025 04:05</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>LIGA MX</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Needham Market - Leamington</t>
+          <t>Atletico San Luis - Guadalajara Chivas</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>80</v>
       </c>
       <c r="F9" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="G9" t="n">
-        <v>0.68</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>27-02-2025 14:35</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>UNITED-ARAB-EMIRATES</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>PRO LEAGUE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Spennymoor Town - Marine</t>
+          <t>Al Bataeh - Al-Ittihad Kalba</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>70</v>
+        <v>71.8</v>
       </c>
       <c r="F10" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="G10" t="n">
         <v>0.22</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>25-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Weston-super-Mare - Torquay</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>70</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>25-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Folkestone Invicta - Chichester City</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>95</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>25-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Kettering Town - Halesowen Town</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>80</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>25-02-2025 21:00</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>FRANCE</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>COUPE DE FRANCE</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Cannes - Guingamp</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>80</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>26-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>GERMANY</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>DFB POKAL</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>RB Leipzig - VfL Wolfsburg</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>70</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>26-02-2025 17:00</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>CZECH-REPUBLIC</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>CUP</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Mlada Boleslav - Bohemians 1905</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>85</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>26-02-2025 19:00</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>FRANCE</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>COUPE DE FRANCE</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Stade Brestois 29 - Dunkerque</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>26-02-2025 04:00</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>MEXICO</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>LIGA MX</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Club Tijuana - U.N.A.M. - Pumas</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>75</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>26-02-2025 21:45</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>TAÇA DE PORTUGAL</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Benfica - SC Braga</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>85</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.53</v>
       </c>
     </row>
   </sheetData>
@@ -4485,7 +4136,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4533,7 +4184,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>25-02-2025 20:30</t>
+          <t>26-02-2025 20:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4548,457 +4199,457 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Crystal Palace - Aston Villa</t>
+          <t>Manchester United - Ipswich</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>66.7</v>
+        <v>88</v>
       </c>
       <c r="F2" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.17</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>25-02-2025 21:15</t>
+          <t>26-02-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>PREMIERSHIP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Chelsea - Southampton</t>
+          <t>Motherwell - Dundee</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>76.7</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
         <v>1.7</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 23:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Birmingham - Leyton Orient</t>
+          <t>Nublense - Boston River</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="F4" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.33</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 20:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BOSNIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Northampton - Barnsley</t>
+          <t>Siroki Brijeg - Velež</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>66.7</v>
       </c>
       <c r="F5" t="n">
         <v>1.8</v>
       </c>
       <c r="G5" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>27-02-2025 00:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>COPA DO BRASIL</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Cheltenham - Walsall</t>
+          <t>Parnahyba - Confiança</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F6" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.37</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>27-02-2025 00:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>COPA VERDE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Wealdstone - Boston United</t>
+          <t>Manaus FC - Paysandu</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>68</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>0.19</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 23:30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>PAULISTA - A3</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tamworth - Rochdale</t>
+          <t>Francana - União São João</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F8" t="n">
         <v>1.8</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 19:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>COUPE DE FRANCE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Chorley - Farsley Celtic FC</t>
+          <t>Stade Brestois 29 - Dunkerque</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F9" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="G9" t="n">
-        <v>0.57</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 21:10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>COUPE DE FRANCE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Needham Market - Leamington</t>
+          <t>Stade Briochin - Paris Saint Germain</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F10" t="n">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="G10" t="n">
-        <v>0.44</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 19:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GREECE</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Spennymoor Town - Marine</t>
+          <t>Olympiakos Piraeus - AEK Athens FC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>73.3</v>
+        <v>66.7</v>
       </c>
       <c r="F11" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="G11" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 13:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>HONG-KONG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>AFC Hornchurch - Enfield Town</t>
+          <t>Kitchee - Kowloon City</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F12" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>26-02-2025 17:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>HUNGARY</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>MAGYAR KUPA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Tonbridge Angels - Welling United</t>
+          <t>Mezokovesd-zsory - Paks</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>66.7</v>
+        <v>76.7</v>
       </c>
       <c r="F13" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="G13" t="n">
-        <v>0.23</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>25-02-2025 15:00</t>
+          <t>26-02-2025 17:30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>IRAN</t>
+          <t>HUNGARY</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AZADEGAN LEAGUE</t>
+          <t>MAGYAR KUPA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sanat Naft - Naft Bandar Abbas</t>
+          <t>SC Sopron - Kisvarda FC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F14" t="n">
-        <v>2.6</v>
+        <v>1.73</v>
       </c>
       <c r="G14" t="n">
-        <v>0.77</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>25-02-2025 20:00</t>
+          <t>26-02-2025 11:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>POLAND</t>
+          <t>JAPAN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>J1 LEAGUE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Ruch Chorzów - Korona Kielce</t>
+          <t>Kashiwa Reysol - Cerezo Osaka</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>80</v>
+        <v>66.7</v>
       </c>
       <c r="F15" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="G15" t="n">
-        <v>0.44</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>25-02-2025 16:30</t>
+          <t>26-02-2025 20:45</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>NORTHERN-IRELAND</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PRO LEAGUE</t>
+          <t>PREMIERSHIP</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Al-Hilal Saudi FC - Al Kholood</t>
+          <t>Loughgall - Larne</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>68</v>
+        <v>66.7</v>
       </c>
       <c r="F16" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="G16" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>25-02-2025 15:10</t>
+          <t>26-02-2025 14:10</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -5008,393 +4659,486 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PRO LEAGUE</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Al-Raed - Al Shabab</t>
+          <t>Al Jandal - Al Safa</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>76.7</v>
+        <v>73.3</v>
       </c>
       <c r="F17" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>25-02-2025 18:00</t>
+          <t>26-02-2025 14:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SLOVAKIA</t>
+          <t>SERBIA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SUPER LIGA</t>
+          <t>PRVA LIGA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Komárno - Žilina</t>
+          <t>Indjija - Sloven Ruma</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F18" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="G18" t="n">
-        <v>0.22</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>26-02-2025 20:30</t>
+          <t>26-02-2025 13:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SERBIA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>SUPER LIGA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Manchester United - Ipswich</t>
+          <t>FK Spartak Zdrepceva KRV - Jedinstvo Ub</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F19" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>0.58</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>26-02-2025 20:45</t>
+          <t>26-02-2025 18:05</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>SERBIA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PREMIERSHIP</t>
+          <t>SUPER LIGA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Motherwell - Dundee</t>
+          <t>FK Partizan - Mladost Lucani</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F20" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>0.19</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>26-02-2025 23:00</t>
+          <t>26-02-2025 20:30</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SWITZERLAND</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>SCHWEIZER CUP</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Nublense - Boston River</t>
+          <t>Biel-Bienne - FC Lugano</t>
         </is>
       </c>
       <c r="E21" t="n">
         <v>84</v>
       </c>
       <c r="F21" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="G21" t="n">
-        <v>0.72</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>26-02-2025 19:00</t>
+          <t>26-02-2025 14:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>TUNISIA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>COUPE DE FRANCE</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Stade Brestois 29 - Dunkerque</t>
+          <t>ES Tunis - ES Sahel</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>68</v>
+        <v>73.3</v>
       </c>
       <c r="F22" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>0.22</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>26-02-2025 21:10</t>
+          <t>26-02-2025 14:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>TUNISIA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>COUPE DE FRANCE</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Stade Briochin - Paris Saint Germain</t>
+          <t>CA Bizertin - ES Zarzis</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F23" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="G23" t="n">
-        <v>0.53</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>26-02-2025 19:00</t>
+          <t>27-02-2025 21:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>GREECE</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Olympiakos Piraeus - AEK Athens FC</t>
+          <t>West Ham - Leicester</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>66.7</v>
+        <v>73.3</v>
       </c>
       <c r="F24" t="n">
-        <v>1.93</v>
+        <v>1.7</v>
       </c>
       <c r="G24" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>26-02-2025 11:00</t>
+          <t>27-02-2025 20:45</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>JAPAN</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>J1 LEAGUE</t>
+          <t>SERIE A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol - Cerezo Osaka</t>
+          <t>Bologna - AC Milan</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>66.7</v>
+        <v>73.3</v>
       </c>
       <c r="F25" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="G25" t="n">
-        <v>0.22</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>26-02-2025 04:00</t>
+          <t>27-02-2025 20:00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>LIGA MX</t>
+          <t>KNVB BEKER</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mazatlán - Monterrey</t>
+          <t>Heracles - AZ Alkmaar</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>86.7</v>
+        <v>70</v>
       </c>
       <c r="F26" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="G26" t="n">
-        <v>0.47</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>26-02-2025 20:45</t>
+          <t>27-02-2025 01:30</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NORTHERN-IRELAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PREMIERSHIP</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Loughgall - Larne</t>
+          <t>Corinthians - UCV</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>66.7</v>
+        <v>76</v>
       </c>
       <c r="F27" t="n">
-        <v>1.87</v>
+        <v>3.5</v>
       </c>
       <c r="G27" t="n">
-        <v>0.25</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>26-02-2025 20:30</t>
+          <t>27-02-2025 23:00</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SWITZERLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SCHWEIZER CUP</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Biel-Bienne - FC Lugano</t>
+          <t>Cerro Porteno - Monagas SC</t>
         </is>
       </c>
       <c r="E28" t="n">
         <v>84</v>
       </c>
       <c r="F28" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>26-02-2025 02:00</t>
+          <t>27-02-2025 01:00</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CONCACAF CHAMPIONS LEAGUE</t>
+          <t>COPA DO BRASIL</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Inter Miami - Sporting Kansas City</t>
+          <t>Humaitá - Operario-PR</t>
         </is>
       </c>
       <c r="E29" t="n">
+        <v>84</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>27-02-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>BULGARIA</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>CUP</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Ludogorets - Botev Plovdiv</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>27-02-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>EGYPT</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Zamalek SC - Masr</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>27-02-2025 04:05</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>LIGA MX</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Atletico San Luis - Guadalajara Chivas</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
         <v>80</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F32" t="n">
         <v>1.75</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G32" t="n">
         <v>0.4</v>
       </c>
     </row>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,281 +475,85 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26-02-2025 23:30</t>
+          <t>27-02-2025 20:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>MOROCCO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PAULISTA - A3</t>
+          <t>BOTOLA PRO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Marília - Catanduva</t>
+          <t>CODM Meknès - Hassania Agadir</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>26-02-2025 15:00</t>
+          <t>27-02-2025 18:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>POLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Future FC - El Gouna FC</t>
+          <t>Polonia Warszawa - Puszcza Niepołomice</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>26-02-2025 14:10</t>
+          <t>28-02-2025 10:15</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DIVISION 1</t>
+          <t>NEW SOUTH WALES NPL 2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al Jandal - Al Safa</t>
+          <t>Blacktown Spartans - Bonnyrigg White Eagles</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>73.3</v>
+        <v>75.7</v>
       </c>
       <c r="F4" t="n">
-        <v>2.05</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>26-02-2025 14:00</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>TUNISIA</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>LIGUE 1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ES Metlaoui - AS Gabes</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>26-02-2025 18:30</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>CUP</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Trabzonspor - Rizespor</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>80</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>26-02-2025 13:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CUP</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Yeni Çorumspor - Boluspor</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>26-02-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>WALES</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>FAW CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Flint Mountain - Bangor 1876</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>70</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>27-02-2025 01:30</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>BRAZIL</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>COPA DO NORDESTE</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>CSA - Nautico Recife</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>71.7</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>27-02-2025 20:00</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>MOROCCO</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>BOTOLA PRO</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>CODM Meknès - Hassania Agadir</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>70</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.05</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>27-02-2025 18:00</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>POLAND</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>CUP</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Polonia Warszawa - Puszcza Niepołomice</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>70</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2.95</v>
+        <v>2.2</v>
       </c>
     </row>
   </sheetData>
@@ -842,7 +646,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -885,82 +689,82 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26-02-2025 20:30</t>
+          <t>27-02-2025 23:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Manchester United - Ipswich</t>
+          <t>Cerro Porteno - Monagas SC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>26-02-2025 23:00</t>
+          <t>27-02-2025 18:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nublense - Boston River</t>
+          <t>Zamalek SC - Masr</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>84</v>
+        <v>76.7</v>
       </c>
       <c r="F3" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>27-02-2025 00:00</t>
+          <t>28-02-2025 21:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>COPA DO BRASIL</t>
+          <t>FA CUP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Parnahyba - Confiança</t>
+          <t>Aston Villa - Cardiff</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>84</v>
+        <v>88.3</v>
       </c>
       <c r="F4" t="n">
         <v>2.1</v>
@@ -969,309 +773,141 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>27-02-2025 00:30</t>
+          <t>01-03-2025 00:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>COPA VERDE</t>
+          <t>PRIMERA DIVISIÓN</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Manaus FC - Paysandu</t>
+          <t>Deportes Limache - Coquimbo Unido</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>81.09999999999999</v>
+        <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>26-02-2025 23:30</t>
+          <t>28-02-2025 19:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PAULISTA - A3</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Francana - União São João</t>
+          <t>Orleans - Sochaux</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>84</v>
+        <v>76.7</v>
       </c>
       <c r="F6" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>26-02-2025 17:00</t>
+          <t>28-02-2025 18:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HUNGARY</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MAGYAR KUPA</t>
+          <t>2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Mezokovesd-zsory - Paks</t>
+          <t>FC Schalke 04 - Preußen Münster</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>76.7</v>
+        <v>88</v>
       </c>
       <c r="F7" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>26-02-2025 17:30</t>
+          <t>28-02-2025 20:45</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HUNGARY</t>
+          <t>IRELAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MAGYAR KUPA</t>
+          <t>FIRST DIVISION</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SC Sopron - Kisvarda FC</t>
+          <t>Treaty United - Finn Harps</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>76</v>
+        <v>76.7</v>
       </c>
       <c r="F8" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>26-02-2025 20:30</t>
+          <t>28-02-2025 20:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SWITZERLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SCHWEIZER CUP</t>
+          <t>SERIE C - GIRONE A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Biel-Bienne - FC Lugano</t>
+          <t>Giana Erminio - Lumezzane</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F9" t="n">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>26-02-2025 14:00</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>TUNISIA</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>LIGUE 1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>CA Bizertin - ES Zarzis</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>80</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>27-02-2025 01:30</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>CONMEBOL LIBERTADORES</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Corinthians - UCV</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>76</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>27-02-2025 23:00</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>CONMEBOL LIBERTADORES</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Cerro Porteno - Monagas SC</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>84</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>27-02-2025 01:00</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>BRAZIL</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>COPA DO BRASIL</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Humaitá - Operario-PR</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>84</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>27-02-2025 18:00</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>EGYPT</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Zamalek SC - Masr</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>27-02-2025 04:05</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>MEXICO</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>LIGA MX</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Atletico San Luis - Guadalajara Chivas</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>80</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
     </row>
   </sheetData>
@@ -1285,7 +921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1338,205 +974,239 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26-02-2025 17:00</t>
+          <t>27-02-2025 17:15</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CZECH-REPUBLIC</t>
+          <t>ICELAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>LEAGUE CUP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Mlada Boleslav - Bohemians 1905</t>
+          <t>KA Akureyri - Fram Reykjavik</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="G2" t="n">
         <v>60</v>
       </c>
       <c r="H2" t="n">
-        <v>2.87</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>26-02-2025 21:45</t>
+          <t>27-02-2025 19:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ISRAEL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TAÇA DE PORTUGAL</t>
+          <t>STATE CUP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Benfica - SC Braga</t>
+          <t>Hapoel Beer Sheva - Maccabi Haifa</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="G3" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>26-02-2025 20:30</t>
+          <t>28-02-2025 09:35</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SWITZERLAND</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SCHWEIZER CUP</t>
+          <t>A-LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Biel-Bienne - FC Lugano</t>
+          <t>Central Coast Mariners - Western United</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>93.3</v>
+        <v>75</v>
       </c>
       <c r="F4" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="G4" t="n">
-        <v>66.7</v>
+        <v>65</v>
       </c>
       <c r="H4" t="n">
-        <v>2.3</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>26-02-2025 18:30</t>
+          <t>28-02-2025 18:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Trabzonspor - Rizespor</t>
+          <t>Rapid Wien II - Austria Lustenau</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>85</v>
       </c>
       <c r="F5" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="G5" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H5" t="n">
-        <v>2.65</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>27-02-2025 04:05</t>
+          <t>28-02-2025 20:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LIGA MX</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Atletico San Luis - Guadalajara Chivas</t>
+          <t>Ried - Floridsdorfer AC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F6" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="G6" t="n">
         <v>40</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>27-02-2025 04:30</t>
+          <t>28-02-2025 18:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>CYPRUS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CONCACAF CHAMPIONS LEAGUE</t>
+          <t>1. DIVISION</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Seattle Sounders - Antigua GFC</t>
+          <t>Anorthosis - Karmiotissa</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>66.7</v>
+        <v>87.5</v>
       </c>
       <c r="F7" t="n">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="G7" t="n">
-        <v>66.7</v>
+        <v>36.3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.45</v>
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>28-02-2025 20:20</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - NORDOST</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>FSV Zwickau - Lokomotive Leipzig</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>75</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G8" t="n">
+        <v>70</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.88</v>
       </c>
     </row>
   </sheetData>
@@ -1598,7 +1268,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26-02-2025 20:30</t>
+          <t>27-02-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1608,81 +1278,81 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Nottingham Forest - Arsenal</t>
+          <t>Barrow - Carlisle</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>55.7</v>
+        <v>55</v>
       </c>
       <c r="F2" t="n">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="G2" t="n">
-        <v>1.34</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>26-02-2025 20:30</t>
+          <t>27-02-2025 17:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tottenham - Manchester City</t>
+          <t>JS Saoura - Oued Akbou</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="G3" t="n">
-        <v>1.34</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>26-02-2025 20:45</t>
+          <t>27-02-2025 14:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PREMIERSHIP</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Heart Of Midlothian - ST Mirren</t>
+          <t>RC Arba - GC Mascara</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>60</v>
+        <v>56.7</v>
       </c>
       <c r="F4" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="G4" t="n">
         <v>0.02</v>
@@ -1691,787 +1361,787 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>26-02-2025 20:45</t>
+          <t>27-02-2025 23:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DFB POKAL</t>
+          <t>COPA DO BRASIL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>RB Leipzig - VfL Wolfsburg</t>
+          <t>Ceilândia - Coritiba</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>26-02-2025 23:00</t>
+          <t>27-02-2025 19:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>DENMARK</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>1. DIVISION</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Nublense - Boston River</t>
+          <t>Hvidovre - FC Fredericia</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F6" t="n">
-        <v>1.82</v>
+        <v>2.1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.09</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>26-02-2025 23:00</t>
+          <t>27-02-2025 15:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>COPA DO BRASIL</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CSE - Tombense</t>
+          <t>Smouha SC - AL Masry</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F7" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="G7" t="n">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>26-02-2025 20:00</t>
+          <t>27-02-2025 20:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>HUNGARY</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>COPA DO BRASIL</t>
+          <t>MAGYAR KUPA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Dourados Atlético - Caxias</t>
+          <t>Gyori ETO FC - Ferencvarosi TC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>26-02-2025 23:30</t>
+          <t>27-02-2025 17:15</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ICELAND</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>COPA DO BRASIL</t>
+          <t>LEAGUE CUP</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Votuporanguense - Aparecidense</t>
+          <t>KA Akureyri - Fram Reykjavik</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>26-02-2025 23:30</t>
+          <t>27-02-2025 18:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>MOROCCO</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PAULISTA - A3</t>
+          <t>BOTOLA PRO</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Marília - Catanduva</t>
+          <t>Ittihad Tanger - Riadi Salmi</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>80</v>
+        <v>57.7</v>
       </c>
       <c r="F10" t="n">
-        <v>1.91</v>
+        <v>1.77</v>
       </c>
       <c r="G10" t="n">
-        <v>0.53</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>26-02-2025 23:00</t>
+          <t>27-02-2025 20:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>MOROCCO</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PAULISTA - A3</t>
+          <t>BOTOLA PRO</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sertãozinho - EC São Bernardo</t>
+          <t>CODM Meknès - Hassania Agadir</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>51.3</v>
+        <v>70</v>
       </c>
       <c r="F11" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>26-02-2025 17:00</t>
+          <t>27-02-2025 22:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CZECH-REPUBLIC</t>
+          <t>MOROCCO</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>BOTOLA PRO</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mlada Boleslav - Bohemians 1905</t>
+          <t>Difaa EL Jadida - UTS Rabat</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>60</v>
       </c>
       <c r="F12" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="G12" t="n">
-        <v>0.32</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>26-02-2025 15:00</t>
+          <t>27-02-2025 22:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>PANAMA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>LIGA PANAMEÑA DE FÚTBOL</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Future FC - El Gouna FC</t>
+          <t>UMECIT - Costa Del Este</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>73.3</v>
+        <v>53.3</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="G13" t="n">
-        <v>0.47</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>26-02-2025 21:00</t>
+          <t>27-02-2025 18:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GIBRALTAR</t>
+          <t>POLAND</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PREMIER DIVISION</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Manchester 62 - Lions Gibraltar</t>
+          <t>Polonia Warszawa - Puszcza Niepołomice</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>51.7</v>
+        <v>70</v>
       </c>
       <c r="F14" t="n">
-        <v>2.3</v>
+        <v>2.95</v>
       </c>
       <c r="G14" t="n">
-        <v>0.19</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>26-02-2025 15:30</t>
+          <t>27-02-2025 14:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GREECE</t>
+          <t>SERBIA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>PRVA LIGA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Asteras Tripolis - OFI</t>
+          <t>Radnički Sr. Mitrovica - Radnik Surdulica</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>66.7</v>
+        <v>53.3</v>
       </c>
       <c r="F15" t="n">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>0.37</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>26-02-2025 13:00</t>
+          <t>27-02-2025 12:45</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HUNGARY</t>
+          <t>SINGAPORE</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MAGYAR KUPA</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Iváncsa - MTK Budapest</t>
+          <t>Albirex Niigata S - Balestier Khalsa</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F16" t="n">
-        <v>8.5</v>
+        <v>2.7</v>
       </c>
       <c r="G16" t="n">
-        <v>4.1</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>26-02-2025 13:00</t>
+          <t>27-02-2025 14:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HUNGARY</t>
+          <t>TUNISIA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MAGYAR KUPA</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Karcag SE - Zalaegerszegi TE</t>
+          <t>US Tataouine - EGS Gafsa</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F17" t="n">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="G17" t="n">
-        <v>2.9</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>26-02-2025 12:00</t>
+          <t>27-02-2025 14:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>IRAN</t>
+          <t>TUNISIA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AZADEGAN LEAGUE</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Naft Gachsaran - Mes Shahr-e Babak</t>
+          <t>Olympique Béja - CS Sfaxien</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>53.3</v>
       </c>
       <c r="F18" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="G18" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>26-02-2025 11:00</t>
+          <t>27-02-2025 14:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>JAPAN</t>
+          <t>TUNISIA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>J1 LEAGUE</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos - Yokohama FC</t>
+          <t>US Monastirienne - Club Africain</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>26-02-2025 11:00</t>
+          <t>27-02-2025 14:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>JAPAN</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>J1 LEAGUE</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Fagiano Okayama - Gamba Osaka</t>
+          <t>Kasimpasa - Goztepe</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>60</v>
       </c>
       <c r="F20" t="n">
-        <v>3.25</v>
+        <v>16</v>
       </c>
       <c r="G20" t="n">
-        <v>0.95</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>26-02-2025 13:15</t>
+          <t>27-02-2025 14:25</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MALAYSIA</t>
+          <t>UNITED-ARAB-EMIRATES</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SUPER LEAGUE</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Kuala Lumpur FA - Pdrm</t>
+          <t>Hatta SC - Dubai United</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>55.7</v>
+        <v>50</v>
       </c>
       <c r="F21" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>26-02-2025 16:00</t>
+          <t>27-02-2025 17:15</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NIGERIA</t>
+          <t>UNITED-ARAB-EMIRATES</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NPFL</t>
+          <t>PRO LEAGUE</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Nasarawa United - Remo Stars</t>
+          <t>Al Wahda FC - Al Ain</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F22" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>26-02-2025 20:45</t>
+          <t>27-02-2025 17:15</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NORTHERN-IRELAND</t>
+          <t>UNITED-ARAB-EMIRATES</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PREMIERSHIP</t>
+          <t>PRO LEAGUE</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Loughgall - Larne</t>
+          <t>Ajman - Al Nasr</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>53.3</v>
       </c>
       <c r="F23" t="n">
-        <v>5.5</v>
+        <v>2.64</v>
       </c>
       <c r="G23" t="n">
-        <v>1.93</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>26-02-2025 14:10</t>
+          <t>28-02-2025 20:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DIVISION 1</t>
+          <t>EREDIVISIE</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Al Jandal - Al Safa</t>
+          <t>Waalwijk - Fortuna Sittard</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>73.3</v>
+        <v>53.3</v>
       </c>
       <c r="F24" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>26-02-2025 14:00</t>
+          <t>28-02-2025 21:00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SERBIA</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PRVA LIGA</t>
+          <t>LA LIGA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Indjija - Sloven Ruma</t>
+          <t>Valladolid - Las Palmas</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>50</v>
+        <v>56.7</v>
       </c>
       <c r="F25" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>26-02-2025 19:30</t>
+          <t>28-02-2025 20:00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SERBIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SUPER LIGA</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd - OFK Beograd</t>
+          <t>Annecy - Paris FC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="F26" t="n">
-        <v>2.1</v>
+        <v>3.65</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>26-02-2025 20:30</t>
+          <t>28-02-2025 16:00</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SWITZERLAND</t>
+          <t>ROMANIA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SCHWEIZER CUP</t>
+          <t>LIGA I</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Biel-Bienne - FC Lugano</t>
+          <t>Unirea Slobozia - Oţelul</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F27" t="n">
-        <v>8.5</v>
+        <v>2.85</v>
       </c>
       <c r="G27" t="n">
-        <v>4.1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>26-02-2025 19:30</t>
+          <t>28-02-2025 01:30</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SWITZERLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SCHWEIZER CUP</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Étoile Carouge - FC Basel 1893</t>
+          <t>FBC Melgar - Deportes Tolima</t>
         </is>
       </c>
       <c r="E28" t="n">
         <v>60</v>
       </c>
       <c r="F28" t="n">
-        <v>6</v>
+        <v>2.02</v>
       </c>
       <c r="G28" t="n">
-        <v>2.6</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>26-02-2025 12:00</t>
+          <t>28-02-2025 01:30</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TANZANIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>LIGI KUU BARA</t>
+          <t>CONMEBOL RECOPA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Singida Big Stars - Tanzania Prisons</t>
+          <t>Botafogo - Racing Club</t>
         </is>
       </c>
       <c r="E29" t="n">
         <v>50</v>
       </c>
       <c r="F29" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="G29" t="n">
-        <v>0.05</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>26-02-2025 14:00</t>
+          <t>28-02-2025 19:00</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TUNISIA</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2481,426 +2151,426 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ES Metlaoui - AS Gabes</t>
+          <t>MC Alger - CS Constantine</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>73.3</v>
+        <v>60</v>
       </c>
       <c r="F30" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>26-02-2025 14:00</t>
+          <t>28-02-2025 21:00</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TUNISIA</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>LIGUE 1</t>
+          <t>PRIMERA NACIONAL</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ES Tunis - ES Sahel</t>
+          <t>Arsenal Sarandi - Atlanta</t>
         </is>
       </c>
       <c r="E31" t="n">
         <v>60</v>
       </c>
       <c r="F31" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="G31" t="n">
-        <v>0.53</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>26-02-2025 18:30</t>
+          <t>28-02-2025 10:15</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>NEW SOUTH WALES NPL 2</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Trabzonspor - Rizespor</t>
+          <t>Blacktown Spartans - Bonnyrigg White Eagles</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>80</v>
+        <v>75.7</v>
       </c>
       <c r="F32" t="n">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="G32" t="n">
-        <v>0.48</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>26-02-2025 13:00</t>
+          <t>28-02-2025 18:00</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Yeni Çorumspor - Boluspor</t>
+          <t>First Vienna - Stripfing</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>73.3</v>
+        <v>58</v>
       </c>
       <c r="F33" t="n">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="G33" t="n">
-        <v>1.27</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>26-02-2025 20:45</t>
+          <t>28-02-2025 11:00</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>WALES</t>
+          <t>AZERBAIJAN</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>FAW CHAMPIONSHIP</t>
+          <t>BIRINCI DASTA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Flint Mountain - Bangor 1876</t>
+          <t>Qaradağ Lökbatan - Mil-Muğan</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>70</v>
+        <v>66.7</v>
       </c>
       <c r="F34" t="n">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>26-02-2025 09:15</t>
+          <t>28-02-2025 18:00</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>CYPRUS</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>AFC U20 ASIAN CUP</t>
+          <t>1. DIVISION</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Saudi Arabia U20 - Korea Republic U20</t>
+          <t>AEL - Enosis</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F35" t="n">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="G35" t="n">
-        <v>1.25</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>27-02-2025 21:00</t>
+          <t>28-02-2025 15:00</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Barrow - Carlisle</t>
+          <t>Ghazl El Mehalla - Enppi</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>55</v>
+        <v>66.7</v>
       </c>
       <c r="F36" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.01</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>27-02-2025 17:00</t>
+          <t>28-02-2025 19:30</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>LIGUE 1</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>JS Saoura - Oued Akbou</t>
+          <t>Rouen - Concarneau</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F37" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="G37" t="n">
-        <v>0.08</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>27-02-2025 23:00</t>
+          <t>28-02-2025 19:30</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>COPA DO BRASIL</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Ceilândia - Coritiba</t>
+          <t>Valenciennes - Versailles</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F38" t="n">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="G38" t="n">
-        <v>1.38</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>27-02-2025 01:30</t>
+          <t>28-02-2025 18:30</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>COPA DO NORDESTE</t>
+          <t>2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>CSA - Nautico Recife</t>
+          <t>FC Schalke 04 - Preußen Münster</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>71.7</v>
+        <v>50</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="G39" t="n">
-        <v>0.43</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>27-02-2025 19:00</t>
+          <t>28-02-2025 19:00</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DENMARK</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1. DIVISION</t>
+          <t>REGIONALLIGA - NORDOST</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Hvidovre - FC Fredericia</t>
+          <t>BFC Dynamo - Greifswalder FC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>53.3</v>
+        <v>56.7</v>
       </c>
       <c r="F40" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="G40" t="n">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>27-02-2025 15:00</t>
+          <t>28-02-2025 20:20</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>REGIONALLIGA - NORDOST</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Smouha SC - AL Masry</t>
+          <t>FSV Zwickau - Lokomotive Leipzig</t>
         </is>
       </c>
       <c r="E41" t="n">
         <v>53.3</v>
       </c>
       <c r="F41" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="G41" t="n">
-        <v>0.55</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>27-02-2025 18:00</t>
+          <t>28-02-2025 20:30</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MOROCCO</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>BOTOLA PRO</t>
+          <t>SERIE C - GIRONE A</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Ittihad Tanger - Riadi Salmi</t>
+          <t>Giana Erminio - Lumezzane</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>57.7</v>
+        <v>60</v>
       </c>
       <c r="F42" t="n">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>27-02-2025 20:00</t>
+          <t>28-02-2025 22:15</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MOROCCO</t>
+          <t>PARAGUAY</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>BOTOLA PRO</t>
+          <t>DIVISION PROFESIONAL - APERTURA</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>CODM Meknès - Hassania Agadir</t>
+          <t>Deportivo Recoleta - Sportivo Ameliano</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F43" t="n">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="G43" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>27-02-2025 18:00</t>
+          <t>28-02-2025 18:00</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2910,112 +2580,112 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>EKSTRAKLASA</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Polonia Warszawa - Puszcza Niepołomice</t>
+          <t>Radomiak Radom - Widzew Łódź</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>70</v>
+        <v>56.7</v>
       </c>
       <c r="F44" t="n">
-        <v>2.95</v>
+        <v>2.12</v>
       </c>
       <c r="G44" t="n">
-        <v>1.06</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>27-02-2025 14:00</t>
+          <t>28-02-2025 18:00</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TUNISIA</t>
+          <t>POLAND</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>LIGUE 1</t>
+          <t>I LIGA</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>US Tataouine - EGS Gafsa</t>
+          <t>Pogoń Siedlce - Wisla Plock</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="F45" t="n">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>27-02-2025 14:00</t>
+          <t>28-02-2025 20:30</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TUNISIA</t>
+          <t>POLAND</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>LIGUE 1</t>
+          <t>I LIGA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Olympique Béja - CS Sfaxien</t>
+          <t>Arka Gdynia - Wisla Krakow</t>
         </is>
       </c>
       <c r="E46" t="n">
         <v>53.3</v>
       </c>
       <c r="F46" t="n">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>27-02-2025 14:00</t>
+          <t>28-02-2025 18:30</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TUNISIA</t>
+          <t>SOUTH-AFRICA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>LIGUE 1</t>
+          <t>PREMIER SOCCER LEAGUE</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>US Monastirienne - Club Africain</t>
+          <t>Stellenbosch - Polokwane City</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F47" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="G47" t="n">
         <v>0.04</v>
@@ -3024,32 +2694,32 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>27-02-2025 17:15</t>
+          <t>28-02-2025 13:15</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>UNITED-ARAB-EMIRATES</t>
+          <t>VIETNAM</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PRO LEAGUE</t>
+          <t>V.LEAGUE 1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Al Wahda FC - Al Ain</t>
+          <t>Viettel - Nam Dinh</t>
         </is>
       </c>
       <c r="E48" t="n">
         <v>60</v>
       </c>
       <c r="F48" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>
@@ -3063,7 +2733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3111,38 +2781,38 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26-02-2025 20:30</t>
+          <t>27-02-2025 14:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Brentford - Everton</t>
+          <t>MB Rouisset - Usm El Harrach</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="G2" t="n">
-        <v>0.68</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>26-02-2025 15:30</t>
+          <t>27-02-2025 10:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3152,642 +2822,363 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LIGUE 1</t>
+          <t>U21 LEAGUE 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NC Magra - ES Setif</t>
+          <t>El Bayadh U21 - USM Alger U21</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>53.3</v>
       </c>
       <c r="F3" t="n">
-        <v>2.35</v>
+        <v>3.3</v>
       </c>
       <c r="G3" t="n">
-        <v>0.25</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>26-02-2025 23:30</t>
+          <t>27-02-2025 18:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ROMANIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PAULISTA - A2</t>
+          <t>LIGA II</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sao Bento - Ferroviária</t>
+          <t>Ceahlăul Piatra Neamţ - CSA Steaua Bucureşti</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F4" t="n">
-        <v>2.5</v>
+        <v>2.02</v>
       </c>
       <c r="G4" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>27-02-2025 00:00</t>
+          <t>27-02-2025 19:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>SERBIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PAULISTA - A4</t>
+          <t>SUPER LIGA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Barretos - Uniao Barbarense</t>
+          <t>TSC Backa Topola - Cukaricki</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F5" t="n">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>26-02-2025 19:00</t>
+          <t>28-02-2025 20:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PAULISTA - A4</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Nacional SP - Paulista</t>
+          <t>Partick - Livingston</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="G6" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>26-02-2025 19:00</t>
+          <t>28-02-2025 01:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>COUPE DE FRANCE</t>
+          <t>CONMEBOL RECOPA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Stade Brestois 29 - Dunkerque</t>
+          <t>Botafogo - Racing Club</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>26-02-2025 09:00</t>
+          <t>28-02-2025 18:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LIGA 2</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PSIM Yogyakarta - Bhayangkara FC</t>
+          <t>SKU Amstetten - SKN ST. Polten</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>60</v>
+        <v>62.3</v>
       </c>
       <c r="F8" t="n">
-        <v>2.88</v>
+        <v>2.15</v>
       </c>
       <c r="G8" t="n">
-        <v>0.73</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>26-02-2025 11:00</t>
+          <t>28-02-2025 18:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>JAPAN</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>J1 LEAGUE</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Shimizu S-pulse - Sanfrecce Hiroshima</t>
+          <t>Rapid Wien II - Austria Lustenau</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F9" t="n">
-        <v>1.91</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>26-02-2025 14:55</t>
+          <t>28-02-2025 18:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>KUWAIT</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al Tadhamon - Khaitan</t>
+          <t>SV Horn - Voitsberg</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F10" t="n">
-        <v>4.75</v>
+        <v>1.91</v>
       </c>
       <c r="G10" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>26-02-2025 14:00</t>
+          <t>28-02-2025 20:45</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MALAYSIA</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SUPER LEAGUE</t>
+          <t>JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Negeri Sembilan - Kedah</t>
+          <t>Charleroi - Genk</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>53.3</v>
       </c>
       <c r="F11" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>26-02-2025 18:00</t>
+          <t>28-02-2025 01:30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CUPA ROMÂNIEI</t>
+          <t>COPA DO BRASIL</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Politehnica Iasi - AFC Hermannstadt</t>
+          <t>Inter De Limeira - Vila Nova</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>60</v>
       </c>
       <c r="F12" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>26-02-2025 16:30</t>
+          <t>01-03-2025 00:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PRO LEAGUE</t>
+          <t>PRIMERA DIVISIÓN</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Al Riyadh - Al-Fayha</t>
+          <t>Deportes Limache - Coquimbo Unido</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F13" t="n">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="G13" t="n">
-        <v>0.65</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>26-02-2025 16:15</t>
+          <t>28-02-2025 04:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PRO LEAGUE</t>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Al-Ettifaq - Al Taawon</t>
+          <t>Vancouver Whitecaps - Deportivo Saprissa</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F14" t="n">
-        <v>3.25</v>
+        <v>5.9</v>
       </c>
       <c r="G14" t="n">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>26-02-2025 13:00</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>SERBIA</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>SUPER LIGA</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>FK Spartak Zdrepceva KRV - Jedinstvo Ub</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>50</v>
-      </c>
-      <c r="F15" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2.12</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>26-02-2025 12:45</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>SINGAPORE</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>DPMM FC - Hougang United</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>26-02-2025 18:30</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>SOUTH-AFRICA</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>PREMIER SOCCER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Sekhukhune United - Mamelodi Sundowns</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>26-02-2025 19:30</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>SWITZERLAND</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1. LIGA PROMOTION</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Cham - Grand-Saconnex</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>50</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>26-02-2025 17:00</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>FRIENDLIES CLUBS</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Kristiansund BK - Stromsgodset</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>27-02-2025 01:30</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>BRAZIL</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>COPA DO BRASIL</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Concórdia - Ponte Preta</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>50</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>27-02-2025 22:00</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>HONDURAS</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>LIGA NACIONAL</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Juticalpa - Real Espana</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>60</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>27-02-2025 18:00</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>ROMANIA</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>LIGA II</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Ceahlăul Piatra Neamţ - CSA Steaua Bucureşti</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>60</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>27-02-2025 19:00</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>SERBIA</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>SUPER LIGA</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>TSC Backa Topola - Cukaricki</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F23" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.36</v>
+        <v>1.95</v>
       </c>
     </row>
   </sheetData>
@@ -3801,7 +3192,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3849,115 +3240,115 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26-02-2025 20:45</t>
+          <t>27-02-2025 17:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>BULGARIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DFB POKAL</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>RB Leipzig - VfL Wolfsburg</t>
+          <t>Ludogorets - Botev Plovdiv</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="G2" t="n">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>26-02-2025 17:00</t>
+          <t>27-02-2025 14:35</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CZECH-REPUBLIC</t>
+          <t>UNITED-ARAB-EMIRATES</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>PRO LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Mlada Boleslav - Bohemians 1905</t>
+          <t>Al Bataeh - Al-Ittihad Kalba</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>85</v>
+        <v>71.8</v>
       </c>
       <c r="F3" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="G3" t="n">
-        <v>0.53</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>26-02-2025 19:00</t>
+          <t>28-02-2025 18:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>COUPE DE FRANCE</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Stade Brestois 29 - Dunkerque</t>
+          <t>Rapid Wien II - Austria Lustenau</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>73.3</v>
+        <v>85</v>
       </c>
       <c r="F4" t="n">
         <v>1.77</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>26-02-2025 21:45</t>
+          <t>28-02-2025 20:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TAÇA DE PORTUGAL</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Benfica - SC Braga</t>
+          <t>Ried - Floridsdorfer AC</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -3973,156 +3364,249 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>26-02-2025 14:10</t>
+          <t>28-02-2025 18:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DIVISION 1</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al Jandal - Al Safa</t>
+          <t>First Vienna - Stripfing</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F6" t="n">
-        <v>2.25</v>
+        <v>1.88</v>
       </c>
       <c r="G6" t="n">
-        <v>0.57</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>26-02-2025 18:30</t>
+          <t>28-02-2025 20:45</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SERBIA</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SUPER LIGA</t>
+          <t>JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Radnicki NIS - Vojvodina</t>
+          <t>Charleroi - Genk</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>70</v>
       </c>
       <c r="F7" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="G7" t="n">
-        <v>0.36</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>27-02-2025 17:00</t>
+          <t>28-02-2025 18:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BULGARIA</t>
+          <t>CYPRUS</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>1. DIVISION</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Ludogorets - Botev Plovdiv</t>
+          <t>Anorthosis - Karmiotissa</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>70</v>
+        <v>87.5</v>
       </c>
       <c r="F8" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="G8" t="n">
-        <v>0.25</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>27-02-2025 04:05</t>
+          <t>28-02-2025 20:20</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LIGA MX</t>
+          <t>REGIONALLIGA - NORDOST</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Atletico San Luis - Guadalajara Chivas</t>
+          <t>FSV Zwickau - Lokomotive Leipzig</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F9" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>27-02-2025 14:35</t>
+          <t>28-02-2025 20:45</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>UNITED-ARAB-EMIRATES</t>
+          <t>IRELAND</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PRO LEAGUE</t>
+          <t>FIRST DIVISION</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al Bataeh - Al-Ittihad Kalba</t>
+          <t>Treaty United - Finn Harps</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>71.8</v>
+        <v>71.3</v>
       </c>
       <c r="F10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>28-02-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Giana Erminio - Lumezzane</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>75</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>28-02-2025 14:30</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>UKRAINE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Vorskla Poltava - Dynamo Kyiv</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>70</v>
+      </c>
+      <c r="F12" t="n">
         <v>1.7</v>
       </c>
-      <c r="G10" t="n">
-        <v>0.22</v>
+      <c r="G12" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>28-02-2025 04:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Vancouver Whitecaps - Deportivo Saprissa</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.39</v>
       </c>
     </row>
   </sheetData>
@@ -4136,7 +3620,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4184,7 +3668,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26-02-2025 20:30</t>
+          <t>27-02-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4199,572 +3683,572 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Manchester United - Ipswich</t>
+          <t>West Ham - Leicester</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>88</v>
+        <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="G2" t="n">
-        <v>0.58</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>26-02-2025 20:45</t>
+          <t>27-02-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PREMIERSHIP</t>
+          <t>SERIE A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Motherwell - Dundee</t>
+          <t>Bologna - AC Milan</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F3" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="G3" t="n">
-        <v>0.19</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>26-02-2025 23:00</t>
+          <t>27-02-2025 20:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>KNVB BEKER</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Nublense - Boston River</t>
+          <t>Heracles - AZ Alkmaar</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="G4" t="n">
-        <v>0.72</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>26-02-2025 20:30</t>
+          <t>27-02-2025 23:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BOSNIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Siroki Brijeg - Velež</t>
+          <t>Cerro Porteno - Monagas SC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>66.7</v>
+        <v>84</v>
       </c>
       <c r="F5" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>27-02-2025 00:00</t>
+          <t>27-02-2025 14:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>COPA DO BRASIL</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Parnahyba - Confiança</t>
+          <t>JS Jijel - HB Chelghoum Laïd</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F6" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="G6" t="n">
-        <v>0.76</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>27-02-2025 00:30</t>
+          <t>27-02-2025 17:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>BULGARIA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>COPA VERDE</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Manaus FC - Paysandu</t>
+          <t>Ludogorets - Botev Plovdiv</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>81.09999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.62</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>26-02-2025 23:30</t>
+          <t>27-02-2025 18:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PAULISTA - A3</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Francana - União São João</t>
+          <t>Zamalek SC - Masr</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>84</v>
+        <v>76.7</v>
       </c>
       <c r="F8" t="n">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="G8" t="n">
-        <v>0.51</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>26-02-2025 19:00</t>
+          <t>27-02-2025 15:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>SERBIA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>COUPE DE FRANCE</t>
+          <t>PRVA LIGA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Stade Brestois 29 - Dunkerque</t>
+          <t>Zemun - Semendrija 1924</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>68</v>
+        <v>73.3</v>
       </c>
       <c r="F9" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="G9" t="n">
-        <v>0.22</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>26-02-2025 21:10</t>
+          <t>28-02-2025 21:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>COUPE DE FRANCE</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Stade Briochin - Paris Saint Germain</t>
+          <t>Sheffield Wednesday - Sunderland</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>68</v>
+        <v>73.3</v>
       </c>
       <c r="F10" t="n">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="G10" t="n">
-        <v>0.53</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>26-02-2025 19:00</t>
+          <t>28-02-2025 21:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GREECE</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>FA CUP</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Olympiakos Piraeus - AEK Athens FC</t>
+          <t>Aston Villa - Cardiff</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>66.7</v>
+        <v>88.3</v>
       </c>
       <c r="F11" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.29</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>26-02-2025 13:00</t>
+          <t>28-02-2025 19:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HONG-KONG</t>
+          <t>DENMARK</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>SUPERLIGA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Kitchee - Kowloon City</t>
+          <t>Randers FC - Aarhus</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>70</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>26-02-2025 17:00</t>
+          <t>28-02-2025 20:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HUNGARY</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MAGYAR KUPA</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Mezokovesd-zsory - Paks</t>
+          <t>Clermont Foot - Caen</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>76.7</v>
+        <v>70</v>
       </c>
       <c r="F13" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>26-02-2025 17:30</t>
+          <t>28-02-2025 19:30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HUNGARY</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MAGYAR KUPA</t>
+          <t>SERIE B</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SC Sopron - Kisvarda FC</t>
+          <t>Sudtirol - Spezia</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>76</v>
+        <v>66.7</v>
       </c>
       <c r="F14" t="n">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
       <c r="G14" t="n">
-        <v>0.31</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>26-02-2025 11:00</t>
+          <t>28-02-2025 20:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>JAPAN</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>J1 LEAGUE</t>
+          <t>EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol - Cerezo Osaka</t>
+          <t>Cambuur - VVV Venlo</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>66.7</v>
+        <v>71.7</v>
       </c>
       <c r="F15" t="n">
         <v>1.83</v>
       </c>
       <c r="G15" t="n">
-        <v>0.22</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>26-02-2025 20:45</t>
+          <t>28-02-2025 20:45</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NORTHERN-IRELAND</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PREMIERSHIP</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Loughgall - Larne</t>
+          <t>Partick - Livingston</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>66.7</v>
+        <v>71.7</v>
       </c>
       <c r="F16" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="G16" t="n">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>26-02-2025 14:10</t>
+          <t>28-02-2025 18:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DIVISION 1</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Al Jandal - Al Safa</t>
+          <t>SV Lafnitz - Admira Wacker</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>73.3</v>
       </c>
       <c r="F17" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="G17" t="n">
-        <v>0.43</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>26-02-2025 14:00</t>
+          <t>28-02-2025 22:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SERBIA</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PRVA LIGA</t>
+          <t>PRIMERA B</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Indjija - Sloven Ruma</t>
+          <t>Santiago Morning - Deportes Temuco</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>68</v>
+        <v>66.7</v>
       </c>
       <c r="F18" t="n">
-        <v>2.1</v>
+        <v>1.82</v>
       </c>
       <c r="G18" t="n">
-        <v>0.43</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>26-02-2025 13:00</t>
+          <t>01-03-2025 00:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SERBIA</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SUPER LIGA</t>
+          <t>PRIMERA DIVISIÓN</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FK Spartak Zdrepceva KRV - Jedinstvo Ub</t>
+          <t>Deportes Limache - Coquimbo Unido</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="G19" t="n">
-        <v>0.36</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>26-02-2025 18:05</t>
+          <t>28-02-2025 15:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SERBIA</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SUPER LIGA</t>
+          <t>FIRST NL</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>FK Partizan - Mladost Lucani</t>
+          <t>Sesvete - Rudes</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>73.3</v>
+        <v>66.7</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="G20" t="n">
         <v>0.47</v>
@@ -4773,373 +4257,311 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>26-02-2025 20:30</t>
+          <t>28-02-2025 19:30</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SWITZERLAND</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SCHWEIZER CUP</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Biel-Bienne - FC Lugano</t>
+          <t>Orleans - Sochaux</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>84</v>
+        <v>76.7</v>
       </c>
       <c r="F21" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>26-02-2025 14:00</t>
+          <t>28-02-2025 18:30</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TUNISIA</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>LIGUE 1</t>
+          <t>2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ES Tunis - ES Sahel</t>
+          <t>FC Schalke 04 - Preußen Münster</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>73.3</v>
+        <v>88</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="G22" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>26-02-2025 14:00</t>
+          <t>28-02-2025 20:45</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TUNISIA</t>
+          <t>IRELAND</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>LIGUE 1</t>
+          <t>FIRST DIVISION</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>CA Bizertin - ES Zarzis</t>
+          <t>Treaty United - Finn Harps</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>80</v>
+        <v>76.7</v>
       </c>
       <c r="F23" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="G23" t="n">
-        <v>0.84</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>27-02-2025 21:00</t>
+          <t>28-02-2025 20:45</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>IRELAND</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>PREMIER DIVISION</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>West Ham - Leicester</t>
+          <t>Cork City - Bohemians</t>
         </is>
       </c>
       <c r="E24" t="n">
         <v>73.3</v>
       </c>
       <c r="F24" t="n">
-        <v>1.7</v>
+        <v>1.93</v>
       </c>
       <c r="G24" t="n">
-        <v>0.25</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>27-02-2025 20:45</t>
+          <t>28-02-2025 20:45</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>IRELAND</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SERIE A</t>
+          <t>PREMIER DIVISION</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Bologna - AC Milan</t>
+          <t>Derry City - Waterford</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F25" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="G25" t="n">
-        <v>0.28</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>27-02-2025 20:00</t>
+          <t>28-02-2025 20:30</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>KNVB BEKER</t>
+          <t>SERIE C - GIRONE A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Heracles - AZ Alkmaar</t>
+          <t>Giana Erminio - Lumezzane</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F26" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="G26" t="n">
-        <v>0.29</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>27-02-2025 01:30</t>
+          <t>28-02-2025 20:30</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>POLAND</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>EKSTRAKLASA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Corinthians - UCV</t>
+          <t>Gornik Zabrze - Cracovia Krakow</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F27" t="n">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="G27" t="n">
-        <v>1.66</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>27-02-2025 23:00</t>
+          <t>28-02-2025 18:00</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>POLAND</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>I LIGA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Cerro Porteno - Monagas SC</t>
+          <t>Pogoń Siedlce - Wisla Plock</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F28" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="G28" t="n">
-        <v>0.76</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>27-02-2025 01:00</t>
+          <t>28-02-2025 14:30</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>UKRAINE</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>COPA DO BRASIL</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Humaitá - Operario-PR</t>
+          <t>Vorskla Poltava - Dynamo Kyiv</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>84</v>
+        <v>66.7</v>
       </c>
       <c r="F29" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="G29" t="n">
-        <v>0.89</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>27-02-2025 17:00</t>
+          <t>28-02-2025 13:15</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BULGARIA</t>
+          <t>VIETNAM</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>V.LEAGUE 1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Ludogorets - Botev Plovdiv</t>
+          <t>Viettel - Nam Dinh</t>
         </is>
       </c>
       <c r="E30" t="n">
         <v>66.7</v>
       </c>
       <c r="F30" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>27-02-2025 18:00</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>EGYPT</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Zamalek SC - Masr</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F31" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>27-02-2025 04:05</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>MEXICO</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>LIGA MX</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Atletico San Luis - Guadalajara Chivas</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>80</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -454,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,57 +497,113 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10-03-2025 14:30</t>
+          <t>11-03-2025 19:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>3. LIGA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Dewa United - Pusamania Borneo</t>
+          <t>FC Ingolstadt 04 - Alemannia Aachen</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>93.3</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>1.77</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>11-03-2025 19:00</t>
+          <t>11-03-2025 14:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>SOUTH-AFRICA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1ST DIVISION</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Highbury - Leruma United</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>80</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>11-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>WALES</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Briton Ferry - Newtown AFC</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>GERMANY</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>3. LIGA</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>FC Ingolstadt 04 - Alemannia Aachen</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>70</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.95</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Waldhof Mannheim - SV Sandhausen</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.05</v>
       </c>
     </row>
   </sheetData>
@@ -640,7 +696,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,22 +739,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10-03-2025 20:45</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SERIE A</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Lazio - Udinese</t>
+          <t>Yeovil Town - Boston United</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -711,57 +767,57 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10-03-2025 16:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LIGA I</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FC Botosani - Unirea Slobozia</t>
+          <t>Peterborough Sports - South Shields</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10-03-2025 19:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SEGUNDA LIGA</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Leixoes - Tondela</t>
+          <t>Chesham United - Tonbridge Angels</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>86.7</v>
+        <v>92</v>
       </c>
       <c r="F4" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="5">
@@ -777,19 +833,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Yeovil Town - Boston United</t>
+          <t>Torquay - Salisbury</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="6">
@@ -805,186 +861,130 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Peterborough Sports - South Shields</t>
+          <t>Weymouth - Weston-super-Mare</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>86.7</v>
       </c>
       <c r="F6" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>11-03-2025 19:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>3. LIGA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Chesham United - Tonbridge Angels</t>
+          <t>FC Ingolstadt 04 - Alemannia Aachen</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F7" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>11-03-2025 14:30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>LIGA 1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Torquay - Salisbury</t>
+          <t>Bali United - PSBS Biak Numfor</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F8" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>11-03-2025 14:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SOUTH-AFRICA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>1ST DIVISION</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Weymouth - Weston-super-Mare</t>
+          <t>Milford FC - Hungry Lions</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>86.7</v>
+        <v>76.7</v>
       </c>
       <c r="F9" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>11-03-2025 19:00</t>
+          <t>11-03-2025 12:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>UKRAINE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FC Ingolstadt 04 - Alemannia Aachen</t>
+          <t>Oleksandria - Obolon'-Brovar</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>84</v>
+        <v>76.7</v>
       </c>
       <c r="F10" t="n">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>11-03-2025 14:30</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>INDONESIA</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>LIGA 1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Bali United - PSBS Biak Numfor</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>88</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11-03-2025 12:00</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>UKRAINE</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Oleksandria - Obolon'-Brovar</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F12" t="n">
         <v>2.4</v>
       </c>
     </row>
@@ -999,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1052,41 +1052,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10-03-2025 11:30</t>
+          <t>01-01-2025 16:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1. LIG</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Keçiörengücü - Erzurum BB</t>
+          <t>Rochdale - Altrincham</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>82.5</v>
+        <v>90</v>
       </c>
       <c r="F2" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="G2" t="n">
-        <v>62.5</v>
+        <v>35</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01-01-2025 16:00</t>
+          <t>11-01-2025 16:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1101,17 +1101,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Rochdale - Altrincham</t>
+          <t>Oldham - Eastleigh</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>90</v>
+        <v>82.5</v>
       </c>
       <c r="F3" t="n">
         <v>1.8</v>
       </c>
       <c r="G3" t="n">
-        <v>35</v>
+        <v>77.5</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
@@ -1120,32 +1120,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>11-01-2025 16:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Oldham - Eastleigh</t>
+          <t>Queen's Park - Partick</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>82.5</v>
+        <v>95</v>
       </c>
       <c r="F4" t="n">
         <v>1.8</v>
       </c>
       <c r="G4" t="n">
-        <v>77.5</v>
+        <v>55</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
@@ -1159,30 +1159,30 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Queen's Park - Partick</t>
+          <t>Alfreton Town - Scunthorpe</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="F5" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="G5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1203,17 +1203,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Alfreton Town - Scunthorpe</t>
+          <t>King's Lynn Town - Brackley Town</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F6" t="n">
         <v>2.2</v>
       </c>
       <c r="G6" t="n">
-        <v>60</v>
+        <v>52.5</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -1232,25 +1232,25 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>King's Lynn Town - Brackley Town</t>
+          <t>Chesham United - Tonbridge Angels</t>
         </is>
       </c>
       <c r="E7" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G7" t="n">
         <v>80</v>
       </c>
-      <c r="F7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G7" t="n">
-        <v>52.5</v>
-      </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="8">
@@ -1271,20 +1271,20 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Chesham United - Tonbridge Angels</t>
+          <t>Farnborough - Boreham Wood</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>86.7</v>
       </c>
       <c r="F8" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>80</v>
+        <v>33.3</v>
       </c>
       <c r="H8" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="9">
@@ -1305,17 +1305,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Farnborough - Boreham Wood</t>
+          <t>Weymouth - Weston-super-Mare</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>86.7</v>
+        <v>85</v>
       </c>
       <c r="F9" t="n">
         <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>33.3</v>
+        <v>65</v>
       </c>
       <c r="H9" t="n">
         <v>3.6</v>
@@ -1324,7 +1324,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1334,59 +1334,59 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Weymouth - Weston-super-Mare</t>
+          <t>Folkestone Invicta - Chichester City</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="G10" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>11-03-2025 19:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
+          <t>3. LIGA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Folkestone Invicta - Chichester City</t>
+          <t>Arminia Bielefeld - FC Saarbrücken</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F11" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="G11" t="n">
         <v>45</v>
       </c>
       <c r="H11" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="12">
@@ -1402,25 +1402,25 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>REGIONALLIGA - NORDOST</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld - FC Saarbrücken</t>
+          <t>BFC Dynamo - Luckenwalde</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>80</v>
+        <v>71.8</v>
       </c>
       <c r="F12" t="n">
-        <v>1.9</v>
+        <v>1.62</v>
       </c>
       <c r="G12" t="n">
-        <v>45</v>
+        <v>61.8</v>
       </c>
       <c r="H12" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="13">
@@ -1489,6 +1489,74 @@
       </c>
       <c r="H14" t="n">
         <v>2.9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>12-03-2025 01:30</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>COPA DO BRASIL</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Botafogo PB - Concórdia</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>80</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>40</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>12-03-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SLOVAKIA</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CUP</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>FK Košice - Slovan Bratislava</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G16" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.63</v>
       </c>
     </row>
   </sheetData>
@@ -1502,7 +1570,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1550,549 +1618,549 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10-03-2025 16:00</t>
+          <t>11-03-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGA I</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FC Botosani - Unirea Slobozia</t>
+          <t>Liverpool - Paris Saint Germain</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="F2" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.08</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10-03-2025 20:45</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>FA CUP</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Livingston - ST Johnstone</t>
+          <t>Cardiff - Luton</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10-03-2025 21:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PRIMERA C</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Central Ballester - Deportivo Camioneros</t>
+          <t>Norwich - Sheffield Wednesday</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F4" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.29</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10-03-2025 21:00</t>
+          <t>01-01-2025 16:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PRIMERA NACIONAL</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>San Telmo - Talleres Remedios</t>
+          <t>Crawley Town - Charlton</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>66.7</v>
+        <v>53.3</v>
       </c>
       <c r="F5" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="G5" t="n">
-        <v>0.47</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10-03-2025 16:30</t>
+          <t>11-01-2025 13:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AZERBAIJAN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PREMYER LIQA</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Neftchi Baku - Turan</t>
+          <t>Grimsby - Notts County</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F6" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="G6" t="n">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10-03-2025 23:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CAPIXABA</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Real Noroeste - Porto Vitória</t>
+          <t>Salford City - Chesterfield</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F7" t="n">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10-03-2025 16:30</t>
+          <t>01-01-2025 16:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BULGARIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>FIRST LEAGUE</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Septemvri Sofia - Hebar 1918</t>
+          <t>Rochdale - Altrincham</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>56.7</v>
+        <v>66.7</v>
       </c>
       <c r="F8" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10-03-2025 14:30</t>
+          <t>11-03-2025 20:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BULGARIA</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SECOND LEAGUE</t>
+          <t>EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Botev Plovdiv II - Marek</t>
+          <t>FC Volendam - Telstar</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>53.3</v>
+        <v>66.7</v>
       </c>
       <c r="F9" t="n">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="G9" t="n">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10-03-2025 14:30</t>
+          <t>11-03-2025 20:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BULGARIA</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SECOND LEAGUE</t>
+          <t>EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Ludogorets II - Sportist Svoge</t>
+          <t>Jong Ajax - Emmen</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>56.7</v>
+        <v>53.3</v>
       </c>
       <c r="F10" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10-03-2025 21:00</t>
+          <t>12-03-2025 00:10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PRIMERA B</t>
+          <t>PRIMERA NACIONAL</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Bogota FC - Huila</t>
+          <t>Atlanta - Colegiales</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>55.7</v>
+        <v>66.7</v>
       </c>
       <c r="F11" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="G11" t="n">
-        <v>1.01</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>10-03-2025 20:45</t>
+          <t>11-03-2025 18:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>CZECH-REPUBLIC</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Hemel Hempstead Town - AFC Hornchurch</t>
+          <t>Hlučín - Teplice</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F12" t="n">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10-03-2025 20:00</t>
+          <t>11-03-2025 20:30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Swansea City U21 - Ipswich Town U21</t>
+          <t>El Gouna FC - Al Ittihad</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>66.7</v>
+        <v>53.3</v>
       </c>
       <c r="F13" t="n">
-        <v>1.91</v>
+        <v>2.85</v>
       </c>
       <c r="G13" t="n">
-        <v>0.27</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>10-03-2025 18:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GEORGIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>EROVNULI LIGA</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Dinamo Batumi - Gagra</t>
+          <t>Curzon Ashton - Chorley</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>53.3</v>
+        <v>51.7</v>
       </c>
       <c r="F14" t="n">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="G14" t="n">
-        <v>0.23</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>10-03-2025 14:30</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Dewa United - Pusamania Borneo</t>
+          <t>King's Lynn Town - Brackley Town</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>93.3</v>
+        <v>56.7</v>
       </c>
       <c r="F15" t="n">
-        <v>1.77</v>
+        <v>2.3</v>
       </c>
       <c r="G15" t="n">
-        <v>0.65</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>10-03-2025 23:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MOROCCO</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>BOTOLA PRO</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CODM Meknès - Raja Casablanca</t>
+          <t>Enfield Town - Hampton &amp; Richmond</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>50</v>
       </c>
       <c r="F16" t="n">
-        <v>4.33</v>
+        <v>2.6</v>
       </c>
       <c r="G16" t="n">
-        <v>1.16</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>10-03-2025 20:30</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Burgos - Albacete</t>
+          <t>Farnborough - Boreham Wood</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>50</v>
       </c>
       <c r="F17" t="n">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="G17" t="n">
-        <v>0.02</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>10-03-2025 14:00</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1. LIG</t>
+          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Pendikspor - Amed</t>
+          <t>Folkestone Invicta - Chichester City</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="F18" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="G18" t="n">
-        <v>0.19</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>11-03-2025 21:00</t>
+          <t>11-03-2025 14:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Liverpool - Paris Saint Germain</t>
+          <t>AFC Bournemouth U21 - Cardiff City U21</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -2108,322 +2176,322 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>11-03-2025 19:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>3. LIGA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Cardiff - Luton</t>
+          <t>FC Ingolstadt 04 - Alemannia Aachen</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F20" t="n">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="G20" t="n">
-        <v>0.47</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>11-03-2025 16:30</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>IRAN</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>AZADEGAN LEAGUE</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Norwich - Sheffield Wednesday</t>
+          <t>Naft Gachsaran - Pars Jonoubi JAM</t>
         </is>
       </c>
       <c r="E21" t="n">
         <v>53.3</v>
       </c>
       <c r="F21" t="n">
-        <v>2.1</v>
+        <v>2.62</v>
       </c>
       <c r="G21" t="n">
-        <v>0.12</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>01-01-2025 16:00</t>
+          <t>11-03-2025 18:30</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>SERIE C - GIRONE B</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Crawley Town - Charlton</t>
+          <t>Pianese - Spal</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F22" t="n">
-        <v>3.9</v>
+        <v>1.91</v>
       </c>
       <c r="G22" t="n">
-        <v>1.08</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>11-01-2025 13:30</t>
+          <t>11-03-2025 16:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>LIGA REVELAÇÃO U23</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Grimsby - Notts County</t>
+          <t>Sporting CP U23 - Torreense U23</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F23" t="n">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="G23" t="n">
-        <v>0.95</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>11-03-2025 17:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>LIGA REVELAÇÃO U23</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Salford City - Chesterfield</t>
+          <t>Farense U23 - Mafra U23</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F24" t="n">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>01-01-2025 16:00</t>
+          <t>11-03-2025 16:00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SLOVAKIA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Rochdale - Altrincham</t>
+          <t>Zlaté Moravce - Ružomberok</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>66.7</v>
+        <v>53.3</v>
       </c>
       <c r="F25" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="G25" t="n">
-        <v>0.27</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>11-03-2025 20:00</t>
+          <t>11-03-2025 14:30</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>SOUTH-AFRICA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>EERSTE DIVISIE</t>
+          <t>1ST DIVISION</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FC Volendam - Telstar</t>
+          <t>Highbury - Leruma United</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>66.7</v>
+        <v>80</v>
       </c>
       <c r="F26" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="G26" t="n">
-        <v>0.17</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>11-03-2025 20:00</t>
+          <t>11-03-2025 14:30</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>SOUTH-AFRICA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>EERSTE DIVISIE</t>
+          <t>1ST DIVISION</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Jong Ajax - Emmen</t>
+          <t>Pretoria Callies - Casric Stars</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F27" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="G27" t="n">
-        <v>0.76</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>12-03-2025 00:10</t>
+          <t>11-03-2025 14:30</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>SOUTH-AFRICA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PRIMERA NACIONAL</t>
+          <t>1ST DIVISION</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Atlanta - Colegiales</t>
+          <t>Kruger United - Baroka FC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="F28" t="n">
-        <v>1.8</v>
+        <v>2.35</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>11-03-2025 02:30</t>
+          <t>11-03-2025 14:30</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>UKRAINE</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PRIMERA A</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Deportes Tolima - Once Caldas</t>
+          <t>Veres Rivne - Polessya</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F29" t="n">
-        <v>1.75</v>
+        <v>3.95</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>11-03-2025 20:30</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>WALES</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2433,54 +2501,54 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>El Gouna FC - Al Ittihad</t>
+          <t>Briton Ferry - Newtown AFC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>53.3</v>
+        <v>73.3</v>
       </c>
       <c r="F30" t="n">
-        <v>2.85</v>
+        <v>2.6</v>
       </c>
       <c r="G30" t="n">
-        <v>0.52</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>12-03-2025 18:45</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Curzon Ashton - Chorley</t>
+          <t>Lille - Borussia Dortmund</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>51.7</v>
+        <v>50</v>
       </c>
       <c r="F31" t="n">
-        <v>1.91</v>
+        <v>2.55</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.01</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>12-03-2025 20:45</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2490,28 +2558,28 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>King's Lynn Town - Brackley Town</t>
+          <t>Portsmouth - Plymouth</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>56.7</v>
+        <v>53.3</v>
       </c>
       <c r="F32" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>12-03-2025 20:45</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2521,90 +2589,90 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Enfield Town - Hampton &amp; Richmond</t>
+          <t>Hull City - Oxford United</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F33" t="n">
-        <v>2.6</v>
+        <v>1.73</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>12-03-2025 23:30</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>COPA DO BRASIL</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Farnborough - Boreham Wood</t>
+          <t>Athletic Club - Gremio</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F34" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>12-03-2025 01:30</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>COLOMBIA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
+          <t>PRIMERA B</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Folkestone Invicta - Chichester City</t>
+          <t>Leones FC - Internacional Palmira</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F35" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="G35" t="n">
-        <v>0.47</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>11-03-2025 19:00</t>
+          <t>12-03-2025 19:00</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2619,48 +2687,110 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>FC Ingolstadt 04 - Alemannia Aachen</t>
+          <t>Waldhof Mannheim - SV Sandhausen</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F36" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="G36" t="n">
-        <v>0.36</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>11-03-2025 14:30</t>
+          <t>12-03-2025 14:30</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>UKRAINE</t>
+          <t>SOUTH-AFRICA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>1ST DIVISION</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Veres Rivne - Polessya</t>
+          <t>Upington City - Black Leopards</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="F37" t="n">
-        <v>3.95</v>
+        <v>2.28</v>
       </c>
       <c r="G37" t="n">
-        <v>0.98</v>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>12-03-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>SOUTH-AFRICA</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>PREMIER SOCCER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Kaizer Chiefs - Cape Town City</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>60</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>12-03-2025 01:30</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Columbus Crew - Los Angeles FC</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
@@ -2674,7 +2804,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2722,7 +2852,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10-03-2025 21:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2732,146 +2862,146 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>West Ham - Newcastle</t>
+          <t>Derby - Coventry</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F2" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="G2" t="n">
-        <v>0.32</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10-03-2025 19:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LIGA I</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Uta Arad - Dinamo Bucuresti</t>
+          <t>Middlesbrough - QPR</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>56.7</v>
+        <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>0.22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10-03-2025 19:30</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CEARENSE - 2</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tiradentes CE - Caucaia</t>
+          <t>Kelty Hearts - Cove Rangers</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>60</v>
       </c>
       <c r="F4" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="G4" t="n">
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10-03-2025 19:30</t>
+          <t>11-03-2025 13:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>ALBANIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LIGAT HA'AL</t>
+          <t>SUPERLIGA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem - Hapoel Beer Sheva</t>
+          <t>Laci - Egnatia Rrogozhinë</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>11-03-2025 20:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Derby - Coventry</t>
+          <t>Zamalek SC - Al Ahly</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>53.3</v>
       </c>
       <c r="F6" t="n">
-        <v>2.15</v>
+        <v>1.76</v>
       </c>
       <c r="G6" t="n">
-        <v>0.15</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="7">
@@ -2887,22 +3017,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Middlesbrough - QPR</t>
+          <t>Buxton - Spennymoor Town</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>56.7</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8">
@@ -2913,89 +3043,89 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Kelty Hearts - Cove Rangers</t>
+          <t>Marine - Southport</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>60</v>
       </c>
       <c r="F8" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="G8" t="n">
-        <v>0.44</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>11-03-2025 01:15</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LIGA PROFESIONAL ARGENTINA</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Talleres Cordoba - Rosario Central</t>
+          <t>Rushall Olympic - Hereford</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>53.3</v>
+        <v>73.3</v>
       </c>
       <c r="F9" t="n">
-        <v>4.33</v>
+        <v>1.73</v>
       </c>
       <c r="G9" t="n">
-        <v>1.31</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>11-03-2025 20:30</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Zamalek SC - Al Ahly</t>
+          <t>Enfield Town - Hampton &amp; Richmond</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F10" t="n">
-        <v>1.76</v>
+        <v>2.4</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.06</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11">
@@ -3011,28 +3141,28 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Buxton - Spennymoor Town</t>
+          <t>Maidstone Utd - Dorking Wanderers</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>56.7</v>
+        <v>65</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>22-02-2025 16:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3042,28 +3172,28 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Marine - Southport</t>
+          <t>Hastings United - Wingate &amp; Finchley</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F12" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="G12" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>11-01-2025 16:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3073,28 +3203,28 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Rushall Olympic - Hereford</t>
+          <t>Frome Town - Hanwell Town</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>73.3</v>
+        <v>50</v>
       </c>
       <c r="F13" t="n">
-        <v>1.73</v>
+        <v>2.3</v>
       </c>
       <c r="G13" t="n">
-        <v>0.27</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>11-03-2025 14:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3104,28 +3234,28 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Enfield Town - Hampton &amp; Richmond</t>
+          <t>Peterborough United U21 - Bristol City U21</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="F14" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>11-03-2025 14:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3135,84 +3265,84 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Maidstone Utd - Dorking Wanderers</t>
+          <t>Fleetwood Town U21 - Barnsley U21</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F15" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="G15" t="n">
-        <v>0.76</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>22-02-2025 16:00</t>
+          <t>11-03-2025 13:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ETHIOPIA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Hastings United - Wingate &amp; Finchley</t>
+          <t>Ethiopian Medhin - Ethiopia Nigd Bank</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="F16" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>11-01-2025 16:00</t>
+          <t>11-03-2025 19:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+          <t>3. LIGA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Frome Town - Hanwell Town</t>
+          <t>Stuttgart II - VfL Osnabrück</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>50</v>
       </c>
       <c r="F17" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="G17" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="18">
@@ -3233,17 +3363,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Stuttgart II - VfL Osnabrück</t>
+          <t>SpVgg Unterhaching - Verl</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>50</v>
       </c>
       <c r="F18" t="n">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="G18" t="n">
-        <v>0.12</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="19">
@@ -3264,79 +3394,265 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SpVgg Unterhaching - Verl</t>
+          <t>Arminia Bielefeld - FC Saarbrücken</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F19" t="n">
-        <v>1.91</v>
+        <v>2.85</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.05</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>11-03-2025 19:00</t>
+          <t>11-03-2025 15:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>INDIA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>INDIAN SUPER LEAGUE</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld - FC Saarbrücken</t>
+          <t>Bengaluru - Mumbai City</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F20" t="n">
-        <v>2.85</v>
+        <v>2.25</v>
       </c>
       <c r="G20" t="n">
-        <v>0.71</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>11-03-2025 15:00</t>
+          <t>11-03-2025 14:30</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>INDIA</t>
+          <t>SOUTH-AFRICA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>INDIAN SUPER LEAGUE</t>
+          <t>1ST DIVISION</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Bengaluru - Mumbai City</t>
+          <t>Milford FC - Hungry Lions</t>
         </is>
       </c>
       <c r="E21" t="n">
+        <v>60</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>12-03-2025 23:00</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>CONMEBOL LIBERTADORES</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Cerro Porteno - FBC Melgar</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>50</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>08-02-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CZECH-REPUBLIC</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CZECH LIGA</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Dukla Praha - Karviná</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>50</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>24-01-2025 13:15</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MALAYSIA</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Kuching FA - Kedah</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
         <v>53.3</v>
       </c>
-      <c r="F21" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.2</v>
+      <c r="F24" t="n">
+        <v>7</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>12-01-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>LIGA PREMIER SERIE B</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Cañoneros Marina - Real Zamora</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>60</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>12-03-2025 15:30</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SLOVAKIA</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>CUP</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Dukla Banská Bystrica - Tatran Prešov</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>60</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>12-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>AFC CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Al Seeb - Al Arabi</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>60</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>
@@ -3350,7 +3666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3398,156 +3714,156 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10-03-2025 16:30</t>
+          <t>11-03-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BULGARIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>FIRST LEAGUE</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Septemvri Sofia - Hebar 1918</t>
+          <t>Bayer Leverkusen - Bayern München</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>72.5</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>2.15</v>
+        <v>1.73</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10-03-2025 21:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PRIMERA B</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Bogota FC - Huila</t>
+          <t>Exeter City - Mansfield Town</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>71.8</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>2.15</v>
+        <v>1.73</v>
       </c>
       <c r="G3" t="n">
-        <v>0.54</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10-03-2025 19:00</t>
+          <t>01-01-2025 16:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>POLAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EKSTRAKLASA</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Motor Lublin - Legia Warszawa</t>
+          <t>Crawley Town - Charlton</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10-03-2025 11:30</t>
+          <t>01-01-2025 16:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1. LIG</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Keçiörengücü - Erzurum BB</t>
+          <t>Rochdale - Altrincham</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>82.5</v>
+        <v>90</v>
       </c>
       <c r="F5" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="G5" t="n">
-        <v>0.73</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>11-03-2025 21:00</t>
+          <t>11-01-2025 16:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen - Bayern München</t>
+          <t>Oldham - Eastleigh</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>70</v>
+        <v>82.5</v>
       </c>
       <c r="F6" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="G6" t="n">
-        <v>0.21</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="7">
@@ -3558,64 +3874,64 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Exeter City - Mansfield Town</t>
+          <t>Queen's Park - Partick</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="F7" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="G7" t="n">
-        <v>0.21</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>01-01-2025 16:00</t>
+          <t>04-01-2025 16:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Crawley Town - Charlton</t>
+          <t>Elgin City - Spartans</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>70</v>
+        <v>71.8</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>01-01-2025 16:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3625,28 +3941,28 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Rochdale - Altrincham</t>
+          <t>King's Lynn Town - Brackley Town</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F9" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="G9" t="n">
-        <v>0.62</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>11-01-2025 16:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3656,22 +3972,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Oldham - Eastleigh</t>
+          <t>Chesham United - Tonbridge Angels</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>82.5</v>
+        <v>86.7</v>
       </c>
       <c r="F10" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="G10" t="n">
-        <v>0.48</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="11">
@@ -3682,58 +3998,58 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Queen's Park - Partick</t>
+          <t>Farnborough - Boreham Wood</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>95</v>
+        <v>86.7</v>
       </c>
       <c r="F11" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04-01-2025 16:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Elgin City - Spartans</t>
+          <t>Torquay - Salisbury</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>71.8</v>
+        <v>73.3</v>
       </c>
       <c r="F12" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="G12" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="13">
@@ -3749,28 +4065,28 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>King's Lynn Town - Brackley Town</t>
+          <t>Weymouth - Weston-super-Mare</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F13" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>0.76</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3780,301 +4096,332 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Chesham United - Tonbridge Angels</t>
+          <t>Folkestone Invicta - Chichester City</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>86.7</v>
+        <v>95</v>
       </c>
       <c r="F14" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="G14" t="n">
-        <v>0.82</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>11-03-2025 19:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>3. LIGA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Farnborough - Boreham Wood</t>
+          <t>Stuttgart II - VfL Osnabrück</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>86.7</v>
+        <v>73.3</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="G15" t="n">
-        <v>0.73</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>11-03-2025 19:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>3. LIGA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Torquay - Salisbury</t>
+          <t>Arminia Bielefeld - FC Saarbrücken</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F16" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="G16" t="n">
-        <v>0.36</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>11-03-2025 14:30</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>LIGA 1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Weymouth - Weston-super-Mare</t>
+          <t>PSS Sleman - Persis Solo</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>11-03-2025 12:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>UKRAINE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Folkestone Invicta - Chichester City</t>
+          <t>Oleksandria - Obolon'-Brovar</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="F18" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>0.61</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>11-03-2025 19:00</t>
+          <t>11-03-2025 17:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>UKRAINE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Stuttgart II - VfL Osnabrück</t>
+          <t>Karpaty - Shakhtar Donetsk</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F19" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="G19" t="n">
-        <v>0.27</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>11-03-2025 19:00</t>
+          <t>12-03-2025 21:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld - FC Saarbrücken</t>
+          <t>Arsenal - PSV Eindhoven</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>80</v>
+        <v>77.5</v>
       </c>
       <c r="F20" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="G20" t="n">
-        <v>0.52</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>11-03-2025 14:30</t>
+          <t>12-03-2025 01:30</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>COPA DO BRASIL</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>PSS Sleman - Persis Solo</t>
+          <t>Botafogo PB - Concórdia</t>
         </is>
       </c>
       <c r="E21" t="n">
         <v>80</v>
       </c>
       <c r="F21" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="G21" t="n">
-        <v>0.52</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>11-03-2025 12:00</t>
+          <t>08-02-2025 16:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>UKRAINE</t>
+          <t>CZECH-REPUBLIC</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>CZECH LIGA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Oleksandria - Obolon'-Brovar</t>
+          <t>Dukla Praha - Karviná</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>11-03-2025 17:00</t>
+          <t>12-03-2025 19:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>UKRAINE</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>3. LIGA</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Karpaty - Shakhtar Donetsk</t>
+          <t>Waldhof Mannheim - SV Sandhausen</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F23" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4</v>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>12-03-2025 03:30</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Tigres UANL - FC Cincinnati</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.39</v>
       </c>
     </row>
   </sheetData>
@@ -4136,348 +4483,348 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10-03-2025 20:45</t>
+          <t>07-12-2024 16:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SERIE A</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Lazio - Udinese</t>
+          <t>Bristol Rovers - Bolton</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>68.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="G2" t="n">
-        <v>0.44</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10-03-2025 21:00</t>
+          <t>11-01-2025 16:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LA LIGA</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Espanyol - Girona</t>
+          <t>Blackpool - Cambridge United</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>66.7</v>
+        <v>65</v>
       </c>
       <c r="F3" t="n">
         <v>1.91</v>
       </c>
       <c r="G3" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10-03-2025 20:45</t>
+          <t>11-01-2025 16:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LIGUE 2</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Rodez - Dunkerque</t>
+          <t>AFC Wimbledon - Cheltenham</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>66.7</v>
+        <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="G4" t="n">
-        <v>0.15</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10-03-2025 19:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LIGA I</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Uta Arad - Dinamo Bucuresti</t>
+          <t>Salford City - Chesterfield</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>68.3</v>
+        <v>71.7</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="G5" t="n">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10-03-2025 16:00</t>
+          <t>11-01-2025 16:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LIGA I</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FC Botosani - Unirea Slobozia</t>
+          <t>Oldham - Eastleigh</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>84</v>
+        <v>73.3</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="G6" t="n">
-        <v>0.68</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10-03-2025 21:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PRIMERA B</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Bogota FC - Huila</t>
+          <t>Yeovil Town - Boston United</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>72.2</v>
+        <v>80</v>
       </c>
       <c r="F7" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="G7" t="n">
-        <v>0.34</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10-03-2025 15:00</t>
+          <t>04-01-2025 16:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Semen Padang - Persib Bandung</t>
+          <t>Elgin City - Spartans</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>66.7</v>
+        <v>74.5</v>
       </c>
       <c r="F8" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="G8" t="n">
-        <v>0.15</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10-03-2025 23:00</t>
+          <t>11-03-2025 20:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MOROCCO</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOTOLA PRO</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hassania Agadir - Difaa EL Jadida</t>
+          <t>Zamalek SC - Al Ahly</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>70</v>
+        <v>66.7</v>
       </c>
       <c r="F9" t="n">
-        <v>2.1</v>
+        <v>1.72</v>
       </c>
       <c r="G9" t="n">
-        <v>0.47</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10-03-2025 19:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SEGUNDA LIGA</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Leixoes - Tondela</t>
+          <t>Alfreton Town - Scunthorpe</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>86.7</v>
+        <v>73.3</v>
       </c>
       <c r="F10" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="G10" t="n">
-        <v>0.82</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10-03-2025 20:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DIVISION 1</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Al Jubail - Al-Ain</t>
+          <t>Marine - Southport</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>72</v>
+        <v>66.7</v>
       </c>
       <c r="F11" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>10-03-2025 21:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>URUGUAY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Atenas - Uruguay Montevideo</t>
+          <t>Peterborough Sports - South Shields</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>66.7</v>
+        <v>80</v>
       </c>
       <c r="F12" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="G12" t="n">
-        <v>0.23</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>07-12-2024 16:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -4487,28 +4834,28 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Bristol Rovers - Bolton</t>
+          <t>Chesham United - Tonbridge Angels</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>68.3</v>
+        <v>92</v>
       </c>
       <c r="F13" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="G13" t="n">
-        <v>0.16</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11-01-2025 16:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -4518,28 +4865,28 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Blackpool - Cambridge United</t>
+          <t>Torquay - Salisbury</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F14" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="G14" t="n">
-        <v>0.24</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>11-01-2025 16:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -4549,177 +4896,177 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>AFC Wimbledon - Cheltenham</t>
+          <t>Weymouth - Weston-super-Mare</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>70</v>
+        <v>86.7</v>
       </c>
       <c r="F15" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="G15" t="n">
-        <v>0.34</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>11-03-2025 19:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>3. LIGA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Salford City - Chesterfield</t>
+          <t>FC Ingolstadt 04 - Alemannia Aachen</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>71.7</v>
+        <v>84</v>
       </c>
       <c r="F16" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="G16" t="n">
-        <v>0.31</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>11-01-2025 16:00</t>
+          <t>11-03-2025 14:30</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>LIGA 1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Oldham - Eastleigh</t>
+          <t>Bali United - PSBS Biak Numfor</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>73.3</v>
+        <v>88</v>
       </c>
       <c r="F17" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>11-03-2025 14:30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>LIGA 1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Yeovil Town - Boston United</t>
+          <t>Persik Kediri - PSM Makassar</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>80</v>
+        <v>72.5</v>
       </c>
       <c r="F18" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="G18" t="n">
-        <v>0.44</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04-01-2025 16:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>SERIE C - GIRONE B</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Elgin City - Spartans</t>
+          <t>Città Di Campobasso - Ascoli</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>74.5</v>
+        <v>68</v>
       </c>
       <c r="F19" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="G19" t="n">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>11-03-2025 20:30</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>SERIE C - GIRONE B</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Zamalek SC - Al Ahly</t>
+          <t>Ternana - Sestri Levante</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>66.7</v>
+        <v>72</v>
       </c>
       <c r="F20" t="n">
-        <v>1.72</v>
+        <v>2.3</v>
       </c>
       <c r="G20" t="n">
-        <v>0.15</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="21">
@@ -4730,120 +5077,120 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>SERIE C - GIRONE B</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Alfreton Town - Scunthorpe</t>
+          <t>Lucchese - Virtus Entella</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>73.3</v>
+        <v>67.5</v>
       </c>
       <c r="F21" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>11-03-2025 14:30</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SOUTH-AFRICA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>1ST DIVISION</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Marine - Southport</t>
+          <t>Milford FC - Hungry Lions</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>66.7</v>
+        <v>76.7</v>
       </c>
       <c r="F22" t="n">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="G22" t="n">
-        <v>0.27</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>11-03-2025 12:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>UKRAINE</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Peterborough Sports - South Shields</t>
+          <t>Oleksandria - Obolon'-Brovar</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>80</v>
+        <v>76.7</v>
       </c>
       <c r="F23" t="n">
-        <v>1.73</v>
+        <v>2.4</v>
       </c>
       <c r="G23" t="n">
-        <v>0.38</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>11-03-2025 17:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>UKRAINE</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Chesham United - Tonbridge Angels</t>
+          <t>Karpaty - Shakhtar Donetsk</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="F24" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="25">
@@ -4854,27 +5201,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WALES</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Torquay - Salisbury</t>
+          <t>The New Saints - Caernarfon Town</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F25" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="G25" t="n">
-        <v>0.48</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="26">
@@ -4885,213 +5232,213 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WALES</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Weymouth - Weston-super-Mare</t>
+          <t>Barry Town - Aberystwyth Town</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>86.7</v>
+        <v>70</v>
       </c>
       <c r="F26" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="G26" t="n">
-        <v>0.52</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>11-03-2025 19:00</t>
+          <t>11-03-2025 21:00</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>AFC CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>FC Ingolstadt 04 - Alemannia Aachen</t>
+          <t>Al-Hilal Saudi FC - Pakhtakor</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F27" t="n">
-        <v>1.73</v>
+        <v>2.5</v>
       </c>
       <c r="G27" t="n">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>11-03-2025 14:30</t>
+          <t>12-03-2025 18:45</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Bali United - PSBS Biak Numfor</t>
+          <t>Lille - Borussia Dortmund</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F28" t="n">
         <v>1.7</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>11-03-2025 14:30</t>
+          <t>12-03-2025 21:00</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Persik Kediri - PSM Makassar</t>
+          <t>Arsenal - PSV Eindhoven</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>72.5</v>
+        <v>66.7</v>
       </c>
       <c r="F29" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>11-03-2025 02:30</t>
+          <t>12-03-2025 14:30</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PANAMA</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>LIGA PANAMEÑA DE FÚTBOL</t>
+          <t>LIGA 1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Costa Del Este - San Francisco FC</t>
+          <t>Persebaya Surabaya - PSIS Semarang</t>
         </is>
       </c>
       <c r="E30" t="n">
         <v>66.7</v>
       </c>
       <c r="F30" t="n">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="G30" t="n">
-        <v>0.43</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>11-03-2025 12:00</t>
+          <t>12-03-2025 11:00</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>UKRAINE</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>AFC CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Oleksandria - Obolon'-Brovar</t>
+          <t>Gwangju FC - Vissel Kobe</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>76.7</v>
+        <v>68</v>
       </c>
       <c r="F31" t="n">
-        <v>2.4</v>
+        <v>1.73</v>
       </c>
       <c r="G31" t="n">
-        <v>0.84</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>11-03-2025 17:00</t>
+          <t>12-03-2025 03:30</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>UKRAINE</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Karpaty - Shakhtar Donetsk</t>
+          <t>Tigres UANL - FC Cincinnati</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F32" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="G32" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -497,57 +497,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12-03-2025 19:00</t>
+          <t>13-03-2025 15:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>U21 LEAGUE 1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Waldhof Mannheim - SV Sandhausen</t>
+          <t>ASO Chlef U21 - Olympique Akbou U21</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12-03-2025 20:30</t>
+          <t>14-03-2025 23:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>PARAGUAY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE C</t>
+          <t>DIVISION PROFESIONAL - APERTURA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Avellino - Trapani 1905</t>
+          <t>Club Guarani - Atlético Tembetary</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F3" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
     </row>
   </sheetData>
@@ -604,29 +604,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12-03-2025 14:00</t>
+          <t>14-03-2025 20:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZAMBIA</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SUPER LEAGUE</t>
+          <t>BUNDESLIGA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Mutondo Stars - Power Dynamos</t>
+          <t>FC St. Pauli - 1899 Hoffenheim</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
     </row>
   </sheetData>
@@ -640,7 +640,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,169 +683,281 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12-03-2025 18:30</t>
+          <t>13-03-2025 15:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE C</t>
+          <t>U21 LEAGUE 1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Giugliano - AZ Picerno</t>
+          <t>Mostaganem U21 - ES Sétif U21</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F2" t="n">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12-03-2025 18:30</t>
+          <t>13-03-2025 12:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>AZERBAIJAN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE C</t>
+          <t>BIRINCI DASTA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Team Altamura - Casertana</t>
+          <t>Zaqatala - Qabala</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F3" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>13-03-2025 12:00</t>
+          <t>13-03-2025 18:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AZERBAIJAN</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BIRINCI DASTA</t>
+          <t>SERIE C - GIRONE A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Zaqatala - Qabala</t>
+          <t>Giana Erminio - Caldiero Terme</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>76</v>
+        <v>93.3</v>
       </c>
       <c r="F4" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13-03-2025 18:30</t>
+          <t>13-03-2025 20:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE A</t>
+          <t>PRO LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Giana Erminio - Caldiero Terme</t>
+          <t>Al-Ittihad FC - Al Riyadh</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>93.3</v>
+        <v>76.7</v>
       </c>
       <c r="F5" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>13-03-2025 20:00</t>
+          <t>13-03-2025 15:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>SLOVENIA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PRO LEAGUE</t>
+          <t>1. SNL</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al-Ittihad FC - Al Riyadh</t>
+          <t>Nafta - NK Domzale</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="F6" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>13-03-2025 15:30</t>
+          <t>14-03-2025 22:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SLOVENIA</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1. SNL</t>
+          <t>PRIMERA DIVISIÓN</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Nafta - NK Domzale</t>
+          <t>A. Italiano - Universidad De Chile</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>80</v>
+        <v>86.7</v>
       </c>
       <c r="F7" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>14-03-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NATIONAL 1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Orleans - Boulogne</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>75</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>14-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3. LIGA</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>FC Saarbrücken - Stuttgart II</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>84</v>
+      </c>
+      <c r="F9" t="n">
         <v>1.73</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PREMIER DIVISION</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Galway United - Waterford</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>14-03-2025 23:30</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PARAGUAY</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>DIVISION PROFESIONAL - APERTURA</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Club Guarani - Atlético Tembetary</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.93</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -912,69 +1024,69 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12-03-2025 18:00</t>
+          <t>13-03-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SLOVAKIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FK Košice - Slovan Bratislava</t>
+          <t>Chelsea - FC Copenhagen</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>68.3</v>
+        <v>86.7</v>
       </c>
       <c r="F2" t="n">
         <v>1.62</v>
       </c>
       <c r="G2" t="n">
-        <v>63.3</v>
+        <v>66.7</v>
       </c>
       <c r="H2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>13-03-2025 21:00</t>
+          <t>13-03-2025 15:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
+          <t>U21 LEAGUE 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Chelsea - FC Copenhagen</t>
+          <t>Mostaganem U21 - ES Sétif U21</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>86.7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="G3" t="n">
-        <v>66.7</v>
+        <v>40</v>
       </c>
       <c r="H3" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="4">
@@ -1009,6 +1121,244 @@
       </c>
       <c r="H4" t="n">
         <v>2.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>NETHERLANDS</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>FC Eindhoven - Excelsior</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G5" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>14-03-2025 10:15</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NEW SOUTH WALES NPL 2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Blacktown Spartans - Bulls Academy</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>75</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>65</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>AUSTRIA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2. LIGA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKN ST. Polten - First Vienna</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>90</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G7" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>14-03-2025 22:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CHILE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>A. Italiano - Universidad De Chile</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>80</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G8" t="n">
+        <v>60</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>14-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - BAYERN</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Wacker Burghausen - Buchbach</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G9" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>FIRST DIVISION</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Athlone Town - UCD</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>FIRST DIVISION</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Treaty United - Wexford</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>85</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G11" t="n">
+        <v>65</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.65</v>
       </c>
     </row>
   </sheetData>
@@ -1017,6 +1367,1581 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Championship</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Match</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Home Win (%)</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Home Odds</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>EV home win</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>13-03-2025 21:00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>LEAGUE TWO</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Bromley - Walsall</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>50</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>13-03-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ALGERIA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>U21 LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ASO Chlef U21 - Olympique Akbou U21</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>70</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>13-03-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Virtus Verona - Trento</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>02-03-2025 21:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>JAMAICA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Harbour View - Chapelton</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>13-03-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MALTA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Mosta - Melita</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>50</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>13-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SERBIA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PRVA LIGA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Dubočica - Sloboda Uzice</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>50</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>13-03-2025 15:30</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SLOVENIA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1. SNL</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Nafta - NK Domzale</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>13-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TUNISIA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>LIGUE 1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>EGS Gafsa - ES Metlaoui</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>13-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ZAMBIA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NAPSA Stars - Zanaco</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SERIE A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Genoa - Lecce</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>NETHERLANDS</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>FC Eindhoven - Excelsior</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NETHERLANDS</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Telstar - Roda</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>60</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>14-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ROMANIA</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>LIGA I</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Universitatea Craiova - Universitatea Cluj</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>50</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ROMANIA</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>LIGA I</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Petrolul Ploiesti - FC Botosani</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SCOTLAND</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Raith Rovers - Dunfermline</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>14-03-2025 10:15</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>VICTORIA NPL</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Port Melbourne - Melbourne Victory II</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>50</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>14-03-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>AUSTRIA</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2. LIGA</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Schwarz-Weiß Bregenz - SKU Amstetten</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>60</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>14-03-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>AUSTRIA</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2. LIGA</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Rapid Wien II - Admira Wacker</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>60</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>14-03-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>AUSTRIA</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2. LIGA</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SV Horn - Stripfing</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>14-03-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>AUSTRIA</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2. LIGA</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Floridsdorfer AC - Austria Lustenau</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>AUSTRIA</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2. LIGA</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SKN ST. Polten - First Vienna</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>14-03-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>AUSTRIA</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2. LIGA</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Sturm Graz II - FC Liefering</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>14-03-2025 14:15</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>BULGARIA</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>FIRST LEAGUE</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Slavia Sofia - Beroe</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>60</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>14-03-2025 16:45</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>BULGARIA</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>FIRST LEAGUE</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Levski Krumovgrad - Lokomotiv Plovdiv</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>14-03-2025 22:00</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CHILE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>A. Italiano - Universidad De Chile</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>14-03-2025 15:30</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CROATIA</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>FIRST NL</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Sesvete - Jarun</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>14-03-2025 17:30</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CZECH-REPUBLIC</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>FNL</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Vlašim - Prostějov</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>14-03-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CZECH-REPUBLIC</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>FNL</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Vysočina Jihlava - Sigma Olomouc II</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>14-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>DENMARK</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1. DIVISION</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Kolding IF - Hobro</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>14-03-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>NATIONAL 1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Concarneau - Versailles</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>60</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>14-03-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NATIONAL 1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Valenciennes - Sochaux</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>14-03-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>NATIONAL 1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Orleans - Boulogne</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>60</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>14-03-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2. BUNDESLIGA</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>FC Schalke 04 - Hannover 96</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>PREMIER DIVISION</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Galway United - Waterford</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>60</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>14-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ISRAEL</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>LIGA LEUMIT</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Hapoel Afula - Hapoel Umm Al-Fahm</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>14-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>U23 LEAGUE</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Necaxa U23 - Club León U23</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>60</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>14-03-2025 23:30</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>PARAGUAY</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>DIVISION PROFESIONAL - APERTURA</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Club Guarani - Atlético Tembetary</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>POLAND</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>EKSTRAKLASA</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Pogon Szczecin - Cracovia Krakow</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>60</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>14-03-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>POLAND</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>EKSTRAKLASA</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Radomiak Radom - Lechia Gdansk</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>POLAND</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>I LIGA</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Chrobry Głogów - ŁKS Łódź</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>14-03-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>POLAND</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>I LIGA</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Miedz Legnica - Wisla Krakow</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>50</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>14-03-2025 19:45</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>SEGUNDA LIGA</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Portimonense - Feirense</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SAUDI-ARABIA</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>DIVISION 1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Al Baten - Al Safa</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>14-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SERBIA</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>SUPER LIGA</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Jedinstvo Ub - Radnicki 1923</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>50</v>
+      </c>
+      <c r="F45" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>14-03-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>SOUTH-AFRICA</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>PREMIER SOCCER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Amazulu - TS Galaxy</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>60</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Celta De Vigo II - Sestao River</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Villarreal II - Mérida AD</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>50</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>14-03-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>THAILAND</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>THAI LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Bangkok Glass - Lamphun Warrior</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>14-03-2025 03:00</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>LD Alajuelense - U.N.A.M. - Pumas</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>50</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1053,24 +2978,24 @@
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>Home Win (%)</t>
+          <t>Away Win (%)</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>Home Odds</t>
+          <t>Away Odds</t>
         </is>
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t>EV home win</t>
+          <t>EV away win</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12-03-2025 18:45</t>
+          <t>13-03-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1080,121 +3005,121 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Lille - Borussia Dortmund</t>
+          <t>Rangers - Fenerbahce</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="G2" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12-03-2025 20:45</t>
+          <t>13-03-2025 18:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Portsmouth - Plymouth</t>
+          <t>Eintracht Frankfurt - Ajax</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12-03-2025 20:45</t>
+          <t>13-03-2025 15:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>U21 LEAGUE 1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Hull City - Oxford United</t>
+          <t>NC Magra U21 - El Bayadh U21</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F4" t="n">
-        <v>1.73</v>
+        <v>3.5</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.08</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>12-03-2025 23:30</t>
+          <t>13-03-2025 15:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>COPA DO BRASIL</t>
+          <t>U21 LEAGUE 1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Athletic Club - Gremio</t>
+          <t>Mostaganem U21 - ES Sétif U21</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="G5" t="n">
-        <v>1.34</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>13-03-2025 00:00</t>
+          <t>13-03-2025 19:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1204,915 +3129,487 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PAULISTA - A4</t>
+          <t>CEARENSE - 2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Barretos - Penapolense</t>
+          <t>Tiradentes CE - Maranguape</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>53.3</v>
+        <v>56.7</v>
       </c>
       <c r="F6" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.01</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>12-03-2025 01:00</t>
+          <t>13-03-2025 18:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>RORAIMENSE</t>
+          <t>SERIE C - GIRONE A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sao Raimundo - Monte Roraima</t>
+          <t>Pergolettese - Lumezzane</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F7" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>1.22</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>12-03-2025 19:00</t>
+          <t>13-03-2025 20:45</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>MALTA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Waldhof Mannheim - SV Sandhausen</t>
+          <t>Zabbar St. Patrick - Gzira United</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>73.3</v>
+        <v>60</v>
       </c>
       <c r="F8" t="n">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>12-03-2025 15:05</t>
+          <t>13-03-2025 14:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>UGANDA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LIGA ALEF</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hapoel Herzliya - FC Jerusalem</t>
+          <t>UPDF - KCCA</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>50</v>
+        <v>51.7</v>
       </c>
       <c r="F9" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.12</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>12-03-2025 18:30</t>
+          <t>13-03-2025 11:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE C</t>
+          <t>AFC CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Team Altamura - Casertana</t>
+          <t>Shan United - Svay Rieng</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F10" t="n">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="G10" t="n">
-        <v>0.27</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>12-03-2025 20:30</t>
+          <t>13-03-2025 14:30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE C</t>
+          <t>AFC CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Avellino - Trapani 1905</t>
+          <t>Persepam Madura Utd - Tainan City</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F11" t="n">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="G11" t="n">
-        <v>0.44</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12-03-2025 14:30</t>
+          <t>14-03-2025 20:30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SERIE D - GIRONE E</t>
+          <t>BUNDESLIGA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Fezzanese - Sporting Trestina</t>
+          <t>FC St. Pauli - 1899 Hoffenheim</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F12" t="n">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="G12" t="n">
-        <v>0.35</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12-03-2025 12:00</t>
+          <t>14-03-2025 20:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LIGA REVELAÇÃO U23</t>
+          <t>EREDIVISIE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Famalicão U23 - Vizela U23</t>
+          <t>Almere City FC - NAC Breda</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>53.3</v>
       </c>
       <c r="F13" t="n">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="G13" t="n">
-        <v>0.09</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>12-03-2025 14:00</t>
+          <t>14-03-2025 20:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SERBIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PRVA LIGA</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>OFK Vršac - Radnički Sr. Mitrovica</t>
+          <t>Annecy - Rodez</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F14" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>12-03-2025 14:00</t>
+          <t>14-03-2025 20:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SERBIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PRVA LIGA</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Borac Cacak - Zemun</t>
+          <t>Estac Troyes - Guingamp</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>56.7</v>
+        <v>58.3</v>
       </c>
       <c r="F15" t="n">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>0.11</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>12-03-2025 14:30</t>
+          <t>14-03-2025 19:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SOUTH-AFRICA</t>
+          <t>DENMARK</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1ST DIVISION</t>
+          <t>1. DIVISION</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Upington City - Black Leopards</t>
+          <t>HB Koge - Roskilde</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F16" t="n">
-        <v>2.28</v>
+        <v>2.75</v>
       </c>
       <c r="G16" t="n">
-        <v>0.52</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>12-03-2025 18:30</t>
+          <t>25-02-2025 14:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SOUTH-AFRICA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PREMIER SOCCER LEAGUE</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Kaizer Chiefs - Cape Town City</t>
+          <t>AFC Bournemouth U21 - Ipswich Town U21</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>60</v>
       </c>
       <c r="F17" t="n">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>13-03-2025 21:00</t>
+          <t>14-03-2025 19:30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Bromley - Walsall</t>
+          <t>Nancy - Quevilly</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F18" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0.75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>13-03-2025 18:30</t>
+          <t>14-03-2025 19:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE A</t>
+          <t>REGIONALLIGA - NORDOST</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Virtus Verona - Trento</t>
+          <t>Hertha BSC II - Hallescher FC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>55.7</v>
+        <v>50</v>
       </c>
       <c r="F19" t="n">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="G19" t="n">
-        <v>0.36</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>13-03-2025 15:30</t>
+          <t>14-03-2025 20:45</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SLOVENIA</t>
+          <t>IRELAND</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1. SNL</t>
+          <t>FIRST DIVISION</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Nafta - NK Domzale</t>
+          <t>Bray Wanderers - Dundalk</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>66.7</v>
+        <v>53.3</v>
       </c>
       <c r="F20" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>13-03-2025 01:30</t>
+          <t>14-03-2025 20:15</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SWITZERLAND</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CONCACAF CHAMPIONS LEAGUE</t>
+          <t>CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Monterrey - Vancouver Whitecaps</t>
+          <t>Étoile Carouge - FC Thun</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F21" t="n">
-        <v>1.73</v>
+        <v>2.3</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Country</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Championship</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Match</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Away Win (%)</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Away Odds</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>EV away win</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>12-03-2025 23:00</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>CONMEBOL LIBERTADORES</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Cerro Porteno - FBC Melgar</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>50</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>08-02-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CZECH-REPUBLIC</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CZECH LIGA</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Dukla Praha - Karviná</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>50</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>12-01-2025 18:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MEXICO</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LIGA PREMIER SERIE B</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Cañoneros Marina - Real Zamora</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>60</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>12-03-2025 15:30</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>SLOVAKIA</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>CUP</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Dukla Banská Bystrica - Tatran Prešov</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>60</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>12-03-2025 19:00</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>AFC CHALLENGE LEAGUE</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Al Seeb - Al Arabi</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>60</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>12-03-2025 14:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ZAMBIA</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Mutondo Stars - Power Dynamos</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>13-03-2025 21:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>UEFA EUROPA LEAGUE</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Rangers - Fenerbahce</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>50</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>13-03-2025 18:45</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>UEFA EUROPA LEAGUE</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Eintracht Frankfurt - Ajax</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>50</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>13-03-2025 18:30</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>SERIE C - GIRONE A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Pergolettese - Lumezzane</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>13-03-2025 11:30</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>AFC CHALLENGE LEAGUE</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Shan United - Svay Rieng</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>50</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>13-03-2025 14:30</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>AFC CHALLENGE LEAGUE</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Persepam Madura Utd - Tainan City</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>50</v>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
-      </c>
-      <c r="G12" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>13-03-2025 03:30</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>CONCACAF CHAMPIONS LEAGUE</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Los Angeles Galaxy - CS Herediano</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>50</v>
-      </c>
-      <c r="F13" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.62</v>
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
@@ -2126,7 +3623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2174,187 +3671,404 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12-03-2025 21:00</t>
+          <t>13-03-2025 15:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>U21 LEAGUE 1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Arsenal - PSV Eindhoven</t>
+          <t>Mostaganem U21 - ES Sétif U21</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>77.5</v>
+        <v>86.7</v>
       </c>
       <c r="F2" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="G2" t="n">
-        <v>0.34</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>08-02-2025 16:00</t>
+          <t>13-03-2025 12:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CZECH-REPUBLIC</t>
+          <t>AZERBAIJAN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CZECH LIGA</t>
+          <t>BIRINCI DASTA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Dukla Praha - Karviná</t>
+          <t>Zaqatala - Qabala</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F3" t="n">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="G3" t="n">
-        <v>0.29</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12-03-2025 19:00</t>
+          <t>13-03-2025 15:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>SLOVENIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>1. SNL</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Waldhof Mannheim - SV Sandhausen</t>
+          <t>Nafta - NK Domzale</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>1.77</v>
+        <v>1.95</v>
       </c>
       <c r="G4" t="n">
-        <v>0.24</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>12-03-2025 18:30</t>
+          <t>14-03-2025 18:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - NORDOST</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ZFC Meuselwitz - Greifswalder FC</t>
+          <t>Rapid Wien II - Admira Wacker</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>75</v>
       </c>
       <c r="F5" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="G5" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>13-03-2025 12:00</t>
+          <t>14-03-2025 20:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AZERBAIJAN</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BIRINCI DASTA</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Zaqatala - Qabala</t>
+          <t>SKN ST. Polten - First Vienna</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>73.3</v>
+        <v>90</v>
       </c>
       <c r="F6" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>13-03-2025 15:30</t>
+          <t>15-03-2025 00:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SLOVENIA</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1. SNL</t>
+          <t>PRIMERA B</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Nafta - NK Domzale</t>
+          <t>Universidad De Concepcion - San Luis</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>70</v>
       </c>
       <c r="F7" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="G7" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>14-03-2025 22:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CHILE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>A. Italiano - Universidad De Chile</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>80</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>14-03-2025 15:30</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CROATIA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>FIRST NL</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Sesvete - Jarun</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>70</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>14-03-2025 17:30</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CZECH-REPUBLIC</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>FNL</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Vlašim - Prostějov</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>70</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>14-03-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NATIONAL 1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Concarneau - Versailles</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>70</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>14-03-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2. BUNDESLIGA</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>FC Schalke 04 - Hannover 96</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>75</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>14-03-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>HUNGARY</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NB I</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Gyori ETO FC - Debreceni VSC</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Celta De Vigo II - Sestao River</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>70</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -2368,7 +4082,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2416,7 +4130,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12-03-2025 18:45</t>
+          <t>13-03-2025 18:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2426,28 +4140,28 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Lille - Borussia Dortmund</t>
+          <t>Cercle Brugge - Jagiellonia</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>68</v>
       </c>
       <c r="F2" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12-03-2025 21:00</t>
+          <t>13-03-2025 21:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2457,152 +4171,152 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Arsenal - PSV Eindhoven</t>
+          <t>Manchester United - Real Sociedad</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>66.7</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>13-03-2025 00:15</t>
+          <t>13-03-2025 18:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HONDURAS</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LIGA NACIONAL</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Lobos Upnfm - Génesis</t>
+          <t>Lazio - Plzen</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>68.90000000000001</v>
+        <v>72</v>
       </c>
       <c r="F4" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.27</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>12-03-2025 14:30</t>
+          <t>13-03-2025 15:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>U21 LEAGUE 1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Persebaya Surabaya - PSIS Semarang</t>
+          <t>Mostaganem U21 - ES Sétif U21</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>66.7</v>
+        <v>88</v>
       </c>
       <c r="F5" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>12-03-2025 18:30</t>
+          <t>13-03-2025 12:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>AZERBAIJAN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE C</t>
+          <t>BIRINCI DASTA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Giugliano - AZ Picerno</t>
+          <t>Zaqatala - Qabala</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F6" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="G6" t="n">
-        <v>0.64</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>12-03-2025 18:30</t>
+          <t>13-03-2025 19:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE C</t>
+          <t>CEARENSE - 2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Team Altamura - Casertana</t>
+          <t>Tiradentes CE - Maranguape</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F7" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="G7" t="n">
-        <v>0.52</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>12-03-2025 18:30</t>
+          <t>13-03-2025 18:30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2612,28 +4326,28 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE C</t>
+          <t>SERIE C - GIRONE A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sorrento - Juventus U23</t>
+          <t>Pro Patria - Arzignano Valchiampo</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>72</v>
+        <v>73.3</v>
       </c>
       <c r="F8" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>12-03-2025 18:30</t>
+          <t>13-03-2025 18:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2643,363 +4357,642 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE C</t>
+          <t>SERIE C - GIRONE A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SS Monopoli - Latina</t>
+          <t>Giana Erminio - Caldiero Terme</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>67.5</v>
+        <v>93.3</v>
       </c>
       <c r="F9" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="G9" t="n">
-        <v>0.45</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>12-03-2025 11:00</t>
+          <t>13-03-2025 20:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>AFC CHAMPIONS LEAGUE</t>
+          <t>PRO LEAGUE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Gwangju FC - Vissel Kobe</t>
+          <t>Al-Ittihad FC - Al Riyadh</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>68</v>
+        <v>76.7</v>
       </c>
       <c r="F10" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="G10" t="n">
-        <v>0.18</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>12-03-2025 14:00</t>
+          <t>13-03-2025 14:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ZAMBIA</t>
+          <t>SERBIA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SUPER LEAGUE</t>
+          <t>PRVA LIGA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Nkwazi - Forest Rangers</t>
+          <t>Dubočica - Sloboda Uzice</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>73.3</v>
+        <v>68.3</v>
       </c>
       <c r="F11" t="n">
-        <v>2.62</v>
+        <v>2.05</v>
       </c>
       <c r="G11" t="n">
-        <v>0.92</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>13-03-2025 18:45</t>
+          <t>13-03-2025 15:30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SLOVENIA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
+          <t>1. SNL</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Cercle Brugge - Jagiellonia</t>
+          <t>Nafta - NK Domzale</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F12" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="G12" t="n">
-        <v>0.22</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>13-03-2025 21:00</t>
+          <t>14-03-2025 21:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>LA LIGA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Manchester United - Real Sociedad</t>
+          <t>Las Palmas - Alaves</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>70</v>
+        <v>71.7</v>
       </c>
       <c r="F13" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="G13" t="n">
-        <v>0.43</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>13-03-2025 18:45</t>
+          <t>14-03-2025 20:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Lazio - Plzen</t>
+          <t>Clermont Foot - Grenoble</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>72</v>
+        <v>67.8</v>
       </c>
       <c r="F14" t="n">
-        <v>2.05</v>
+        <v>1.77</v>
       </c>
       <c r="G14" t="n">
-        <v>0.48</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>13-03-2025 12:00</t>
+          <t>14-03-2025 20:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AZERBAIJAN</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>BIRINCI DASTA</t>
+          <t>EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Zaqatala - Qabala</t>
+          <t>Emmen - Jong Utrecht</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>76</v>
+        <v>66.7</v>
       </c>
       <c r="F15" t="n">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="G15" t="n">
-        <v>0.82</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>13-03-2025 18:30</t>
+          <t>14-03-2025 18:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE A</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Pro Patria - Arzignano Valchiampo</t>
+          <t>Floridsdorfer AC - Austria Lustenau</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>73.3</v>
+        <v>66.7</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="G16" t="n">
-        <v>0.47</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>13-03-2025 18:30</t>
+          <t>15-03-2025 00:30</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE A</t>
+          <t>PRIMERA DIVISIÓN</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Giana Erminio - Caldiero Terme</t>
+          <t>Deportes Limache - Huachipato</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>93.3</v>
+        <v>68</v>
       </c>
       <c r="F17" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="G17" t="n">
-        <v>0.96</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>13-03-2025 20:00</t>
+          <t>14-03-2025 22:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PRO LEAGUE</t>
+          <t>PRIMERA DIVISIÓN</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Al-Ittihad FC - Al Riyadh</t>
+          <t>A. Italiano - Universidad De Chile</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>76.7</v>
+        <v>86.7</v>
       </c>
       <c r="F18" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="G18" t="n">
-        <v>0.38</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>13-03-2025 15:30</t>
+          <t>14-03-2025 19:30</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SLOVENIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1. SNL</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Nafta - NK Domzale</t>
+          <t>Orleans - Boulogne</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F19" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="G19" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>13-03-2025 03:30</t>
+          <t>14-03-2025 19:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CONCACAF CHAMPIONS LEAGUE</t>
+          <t>3. LIGA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Los Angeles Galaxy - CS Herediano</t>
+          <t>FC Saarbrücken - Stuttgart II</t>
         </is>
       </c>
       <c r="E20" t="n">
+        <v>84</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>14-03-2025 02:30</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>HONDURAS</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>LIGA NACIONAL</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Real Espana - CD Real Sociedad</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>PREMIER DIVISION</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Galway United - Waterford</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>PREMIER DIVISION</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Shelbourne - Cork City</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>14-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>U23 LEAGUE</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Queretaro U23 - Mazatlan FC U23</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>14-03-2025 23:30</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>PARAGUAY</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>DIVISION PROFESIONAL - APERTURA</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Club Guarani - Atlético Tembetary</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>14-03-2025 19:45</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>SEGUNDA LIGA</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Portimonense - Feirense</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>65</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>SAUDI-ARABIA</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>PRO LEAGUE</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Al Khaleej Saihat - Al Wehda Club</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>70</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>SAUDI-ARABIA</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>PRO LEAGUE</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Al-Nassr - Al Kholood</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
         <v>68</v>
       </c>
-      <c r="F20" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.26</v>
+      <c r="F28" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Hércules - Real Madrid II</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>68</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.22</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -13,19 +13,19 @@
     <sheet state="visible" name="EV Btts" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">'EV Home win'!$A$1:$G$224</definedName>
+    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">'EV Home win'!$A$1:$A$998</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="H9xey7YhS9OdKWy91Z7K9QdP5LxgY+zaju1VQdqqBgI="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="mCE9X/Gj0StPddh6eBbtEFujk02eppQpz6c9k1gM4u0="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2558" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2554" uniqueCount="737">
   <si>
     <t>Date</t>
   </si>
@@ -1372,18 +1372,6 @@
   </si>
   <si>
     <t>Academia Anzoátegui - Portuguesa FC</t>
-  </si>
-  <si>
-    <t>28-01-2025 20:30</t>
-  </si>
-  <si>
-    <t>WALES</t>
-  </si>
-  <si>
-    <t>FAW CHAMPIONSHIP</t>
-  </si>
-  <si>
-    <t>Buckley Town - Mold Alexandra</t>
   </si>
   <si>
     <t>WORLD</t>
@@ -12457,25 +12445,25 @@
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="C140" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="D140" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="D140" s="2" t="s">
-        <v>452</v>
-      </c>
       <c r="E140" s="2">
-        <v>65.0</v>
+        <v>53.3</v>
       </c>
       <c r="F140" s="2">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="G140" s="2">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
@@ -12483,96 +12471,96 @@
         <v>65</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E141" s="2">
-        <v>53.3</v>
+        <v>60.0</v>
       </c>
       <c r="F141" s="2">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="G141" s="2">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="2" t="s">
-        <v>65</v>
+        <v>169</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>456</v>
       </c>
       <c r="E142" s="2">
         <v>60.0</v>
       </c>
       <c r="F142" s="2">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="G142" s="2">
-        <v>0.23</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="2" t="s">
-        <v>169</v>
+        <v>276</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>73</v>
+        <v>283</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>309</v>
+        <v>454</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E143" s="2">
-        <v>60.0</v>
+        <v>66.7</v>
       </c>
       <c r="F143" s="2">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="G143" s="2">
-        <v>0.38</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="2" t="s">
-        <v>276</v>
+        <v>162</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>283</v>
+        <v>133</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>458</v>
+        <v>311</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E144" s="2">
-        <v>66.7</v>
+        <v>60.0</v>
       </c>
       <c r="F144" s="2">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="G144" s="2">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="2" t="s">
-        <v>162</v>
+        <v>457</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>133</v>
@@ -12581,113 +12569,113 @@
         <v>311</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E145" s="2">
-        <v>60.0</v>
+        <v>53.3</v>
       </c>
       <c r="F145" s="2">
         <v>1.75</v>
       </c>
       <c r="G145" s="2">
-        <v>0.05</v>
+        <v>-0.07</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>461</v>
+        <v>95</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>311</v>
+        <v>116</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E146" s="2">
-        <v>53.3</v>
+        <v>51.7</v>
       </c>
       <c r="F146" s="2">
-        <v>1.75</v>
+        <v>3.9</v>
       </c>
       <c r="G146" s="2">
-        <v>-0.07</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="2" t="s">
-        <v>95</v>
+        <v>460</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E147" s="2">
-        <v>51.7</v>
+        <v>53.3</v>
       </c>
       <c r="F147" s="2">
-        <v>3.9</v>
+        <v>2.2</v>
       </c>
       <c r="G147" s="2">
-        <v>1.02</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="2" t="s">
-        <v>464</v>
+        <v>90</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E148" s="2">
-        <v>53.3</v>
+        <v>56.7</v>
       </c>
       <c r="F148" s="2">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="G148" s="2">
-        <v>0.17</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="2" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>466</v>
+        <v>75</v>
       </c>
       <c r="E149" s="2">
-        <v>56.7</v>
+        <v>80.0</v>
       </c>
       <c r="F149" s="2">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="G149" s="2">
-        <v>1.55</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="2" t="s">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>73</v>
@@ -12696,36 +12684,36 @@
         <v>74</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="E150" s="2">
-        <v>80.0</v>
+        <v>50.0</v>
       </c>
       <c r="F150" s="2">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="G150" s="2">
-        <v>0.68</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="2" t="s">
-        <v>169</v>
+        <v>463</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>73</v>
+        <v>283</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>74</v>
+        <v>464</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>171</v>
+        <v>465</v>
       </c>
       <c r="E151" s="2">
-        <v>50.0</v>
+        <v>53.3</v>
       </c>
       <c r="F151" s="2">
-        <v>2.15</v>
+        <v>2.0</v>
       </c>
       <c r="G151" s="2">
         <v>0.07</v>
@@ -12733,30 +12721,30 @@
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="2" t="s">
-        <v>467</v>
+        <v>205</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>468</v>
+        <v>321</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E152" s="2">
-        <v>53.3</v>
+        <v>66.7</v>
       </c>
       <c r="F152" s="2">
-        <v>2.0</v>
+        <v>1.75</v>
       </c>
       <c r="G152" s="2">
-        <v>0.07</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="2" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>77</v>
@@ -12765,21 +12753,21 @@
         <v>321</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E153" s="2">
-        <v>66.7</v>
+        <v>60.0</v>
       </c>
       <c r="F153" s="2">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="G153" s="2">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="2" t="s">
-        <v>80</v>
+        <v>468</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>77</v>
@@ -12788,44 +12776,44 @@
         <v>321</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E154" s="2">
-        <v>60.0</v>
+        <v>53.3</v>
       </c>
       <c r="F154" s="2">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="G154" s="2">
-        <v>0.26</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="2" t="s">
-        <v>472</v>
+        <v>80</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>321</v>
+        <v>78</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E155" s="2">
-        <v>53.3</v>
+        <v>50.0</v>
       </c>
       <c r="F155" s="2">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="G155" s="2">
-        <v>-0.09</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="2" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>77</v>
@@ -12834,21 +12822,21 @@
         <v>78</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E156" s="2">
-        <v>50.0</v>
+        <v>60.0</v>
       </c>
       <c r="F156" s="2">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="G156" s="2">
-        <v>0.07</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="2" t="s">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>77</v>
@@ -12857,13 +12845,13 @@
         <v>78</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>475</v>
+        <v>79</v>
       </c>
       <c r="E157" s="2">
-        <v>60.0</v>
+        <v>73.3</v>
       </c>
       <c r="F157" s="2">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="G157" s="2">
         <v>0.32</v>
@@ -12871,25 +12859,25 @@
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>78</v>
+        <v>307</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>79</v>
+        <v>472</v>
       </c>
       <c r="E158" s="2">
-        <v>73.3</v>
+        <v>60.0</v>
       </c>
       <c r="F158" s="2">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="G158" s="2">
-        <v>0.32</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
@@ -12903,39 +12891,39 @@
         <v>307</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E159" s="2">
-        <v>60.0</v>
+        <v>62.3</v>
       </c>
       <c r="F159" s="2">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="G159" s="2">
-        <v>0.17</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="2" t="s">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>220</v>
+        <v>105</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>307</v>
+        <v>176</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E160" s="2">
-        <v>62.3</v>
+        <v>53.3</v>
       </c>
       <c r="F160" s="2">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="G160" s="2">
-        <v>0.71</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
@@ -12949,16 +12937,16 @@
         <v>176</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>478</v>
+        <v>177</v>
       </c>
       <c r="E161" s="2">
         <v>53.3</v>
       </c>
       <c r="F161" s="2">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="G161" s="2">
-        <v>-0.01</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
@@ -12972,39 +12960,39 @@
         <v>176</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>177</v>
+        <v>475</v>
       </c>
       <c r="E162" s="2">
-        <v>53.3</v>
+        <v>60.0</v>
       </c>
       <c r="F162" s="2">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="G162" s="2">
-        <v>-0.09</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="2" t="s">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>176</v>
+        <v>225</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E163" s="2">
-        <v>60.0</v>
+        <v>53.3</v>
       </c>
       <c r="F163" s="2">
-        <v>2.55</v>
+        <v>1.73</v>
       </c>
       <c r="G163" s="2">
-        <v>0.53</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
@@ -13015,47 +13003,47 @@
         <v>27</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>225</v>
+        <v>81</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>480</v>
+        <v>82</v>
       </c>
       <c r="E164" s="2">
-        <v>53.3</v>
+        <v>73.3</v>
       </c>
       <c r="F164" s="2">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="G164" s="2">
-        <v>-0.08</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="2" t="s">
-        <v>80</v>
+        <v>457</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>81</v>
+        <v>447</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>82</v>
+        <v>477</v>
       </c>
       <c r="E165" s="2">
-        <v>73.3</v>
+        <v>51.0</v>
       </c>
       <c r="F165" s="2">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="G165" s="2">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="2" t="s">
-        <v>461</v>
+        <v>76</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>140</v>
@@ -13064,21 +13052,21 @@
         <v>447</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E166" s="2">
-        <v>51.0</v>
+        <v>63.3</v>
       </c>
       <c r="F166" s="2">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="G166" s="2">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="2" t="s">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>140</v>
@@ -13087,85 +13075,85 @@
         <v>447</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E167" s="2">
-        <v>63.3</v>
+        <v>53.3</v>
       </c>
       <c r="F167" s="2">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="G167" s="2">
-        <v>0.36</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="2" t="s">
-        <v>181</v>
+        <v>480</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>447</v>
+        <v>349</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E168" s="2">
         <v>53.3</v>
       </c>
       <c r="F168" s="2">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="G168" s="2">
-        <v>0.23</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D169" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="B169" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>485</v>
-      </c>
       <c r="E169" s="2">
-        <v>53.3</v>
+        <v>60.0</v>
       </c>
       <c r="F169" s="2">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="G169" s="2">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="2" t="s">
-        <v>486</v>
+        <v>286</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>487</v>
+        <v>230</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>447</v>
+        <v>274</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E170" s="2">
         <v>60.0</v>
       </c>
       <c r="F170" s="2">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="G170" s="2">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
@@ -13179,44 +13167,44 @@
         <v>274</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E171" s="2">
-        <v>60.0</v>
+        <v>51.7</v>
       </c>
       <c r="F171" s="2">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="G171" s="2">
-        <v>0.08</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>230</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>274</v>
+        <v>231</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>490</v>
+        <v>277</v>
       </c>
       <c r="E172" s="2">
-        <v>51.7</v>
+        <v>69.0</v>
       </c>
       <c r="F172" s="2">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="G172" s="2">
-        <v>1.17</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>230</v>
@@ -13225,113 +13213,113 @@
         <v>231</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E173" s="2">
-        <v>69.0</v>
+        <v>53.3</v>
       </c>
       <c r="F173" s="2">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="G173" s="2">
-        <v>0.72</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="2" t="s">
-        <v>278</v>
+        <v>205</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>230</v>
+        <v>144</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>231</v>
+        <v>145</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>279</v>
+        <v>487</v>
       </c>
       <c r="E174" s="2">
         <v>53.3</v>
       </c>
       <c r="F174" s="2">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="G174" s="2">
-        <v>0.23</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="2" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E175" s="2">
         <v>53.3</v>
       </c>
       <c r="F175" s="2">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="G175" s="2">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="2" t="s">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>492</v>
+        <v>85</v>
       </c>
       <c r="E176" s="2">
-        <v>53.3</v>
+        <v>73.3</v>
       </c>
       <c r="F176" s="2">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="G176" s="2">
-        <v>0.04</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>84</v>
+        <v>239</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>85</v>
+        <v>489</v>
       </c>
       <c r="E177" s="2">
-        <v>73.3</v>
+        <v>60.0</v>
       </c>
       <c r="F177" s="2">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="G177" s="2">
-        <v>0.91</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="2" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>40</v>
@@ -13340,136 +13328,136 @@
         <v>239</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E178" s="2">
-        <v>60.0</v>
+        <v>50.0</v>
       </c>
       <c r="F178" s="2">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="G178" s="2">
-        <v>0.68</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="2" t="s">
-        <v>169</v>
+        <v>491</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>40</v>
+        <v>492</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>239</v>
+        <v>24</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E179" s="2">
-        <v>50.0</v>
+        <v>53.3</v>
       </c>
       <c r="F179" s="2">
-        <v>2.4</v>
+        <v>1.73</v>
       </c>
       <c r="G179" s="2">
-        <v>0.2</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="C180" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>497</v>
       </c>
       <c r="E180" s="2">
-        <v>53.3</v>
+        <v>60.0</v>
       </c>
       <c r="F180" s="2">
-        <v>1.73</v>
+        <v>2.0</v>
       </c>
       <c r="G180" s="2">
-        <v>-0.08</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>501</v>
-      </c>
       <c r="E181" s="2">
-        <v>60.0</v>
+        <v>58.3</v>
       </c>
       <c r="F181" s="2">
-        <v>2.0</v>
+        <v>1.8</v>
       </c>
       <c r="G181" s="2">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="2" t="s">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>502</v>
-      </c>
       <c r="E182" s="2">
-        <v>58.3</v>
+        <v>50.0</v>
       </c>
       <c r="F182" s="2">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="G182" s="2">
-        <v>0.05</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="2" t="s">
-        <v>169</v>
+        <v>109</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>73</v>
+        <v>190</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E183" s="2">
-        <v>50.0</v>
+        <v>53.3</v>
       </c>
       <c r="F183" s="2">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="G183" s="2">
-        <v>0.62</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="2" t="s">
-        <v>109</v>
+        <v>280</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>190</v>
@@ -13478,21 +13466,21 @@
         <v>191</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E184" s="2">
-        <v>53.3</v>
+        <v>62.3</v>
       </c>
       <c r="F184" s="2">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="G184" s="2">
-        <v>0.17</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="2" t="s">
-        <v>280</v>
+        <v>109</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>190</v>
@@ -13501,16 +13489,16 @@
         <v>191</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E185" s="2">
-        <v>62.3</v>
+        <v>50.0</v>
       </c>
       <c r="F185" s="2">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="G185" s="2">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
@@ -13524,16 +13512,16 @@
         <v>191</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E186" s="2">
-        <v>50.0</v>
+        <v>66.7</v>
       </c>
       <c r="F186" s="2">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="G186" s="2">
-        <v>0.75</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
@@ -13544,19 +13532,19 @@
         <v>190</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>191</v>
+        <v>504</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E187" s="2">
         <v>66.7</v>
       </c>
       <c r="F187" s="2">
-        <v>1.7</v>
+        <v>1.97</v>
       </c>
       <c r="G187" s="2">
-        <v>0.13</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="188" ht="15.75" customHeight="1">
@@ -13567,19 +13555,19 @@
         <v>190</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E188" s="2">
-        <v>66.7</v>
+        <v>50.0</v>
       </c>
       <c r="F188" s="2">
-        <v>1.97</v>
+        <v>2.07</v>
       </c>
       <c r="G188" s="2">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
@@ -13590,10 +13578,10 @@
         <v>190</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E189" s="2">
         <v>50.0</v>
@@ -13607,99 +13595,99 @@
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>190</v>
+        <v>390</v>
       </c>
       <c r="C190" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="D190" s="2" t="s">
-        <v>511</v>
-      </c>
       <c r="E190" s="2">
-        <v>50.0</v>
+        <v>53.3</v>
       </c>
       <c r="F190" s="2">
-        <v>2.07</v>
+        <v>2.75</v>
       </c>
       <c r="G190" s="2">
-        <v>0.03</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="2" t="s">
-        <v>95</v>
+        <v>482</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>390</v>
+        <v>48</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>391</v>
+        <v>509</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E191" s="2">
-        <v>53.3</v>
+        <v>60.0</v>
       </c>
       <c r="F191" s="2">
         <v>2.75</v>
       </c>
       <c r="G191" s="2">
-        <v>0.47</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="2" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>513</v>
+        <v>53</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E192" s="2">
-        <v>60.0</v>
+        <v>50.0</v>
       </c>
       <c r="F192" s="2">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="G192" s="2">
-        <v>0.65</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="2" t="s">
-        <v>515</v>
+        <v>193</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>53</v>
+        <v>195</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>516</v>
+        <v>196</v>
       </c>
       <c r="E193" s="2">
-        <v>50.0</v>
+        <v>60.0</v>
       </c>
       <c r="F193" s="2">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="G193" s="2">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="2" t="s">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>194</v>
@@ -13708,44 +13696,44 @@
         <v>195</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>196</v>
+        <v>513</v>
       </c>
       <c r="E194" s="2">
         <v>60.0</v>
       </c>
       <c r="F194" s="2">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="G194" s="2">
-        <v>0.08</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="2" t="s">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>194</v>
+        <v>55</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E195" s="2">
-        <v>60.0</v>
+        <v>66.7</v>
       </c>
       <c r="F195" s="2">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="G195" s="2">
-        <v>0.35</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="2" t="s">
-        <v>289</v>
+        <v>197</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>55</v>
@@ -13754,136 +13742,136 @@
         <v>151</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>518</v>
+        <v>198</v>
       </c>
       <c r="E196" s="2">
-        <v>66.7</v>
+        <v>53.3</v>
       </c>
       <c r="F196" s="2">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="G196" s="2">
-        <v>0.73</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="2" t="s">
-        <v>197</v>
+        <v>90</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>151</v>
+        <v>398</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>198</v>
+        <v>515</v>
       </c>
       <c r="E197" s="2">
         <v>53.3</v>
       </c>
       <c r="F197" s="2">
-        <v>2.1</v>
+        <v>4.33</v>
       </c>
       <c r="G197" s="2">
-        <v>0.12</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="2" t="s">
-        <v>90</v>
+        <v>516</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>55</v>
+        <v>259</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>398</v>
+        <v>260</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E198" s="2">
-        <v>53.3</v>
+        <v>66.7</v>
       </c>
       <c r="F198" s="2">
-        <v>4.33</v>
+        <v>2.0</v>
       </c>
       <c r="G198" s="2">
-        <v>1.31</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="2" t="s">
-        <v>520</v>
+        <v>286</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>259</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E199" s="2">
-        <v>66.7</v>
+        <v>56.7</v>
       </c>
       <c r="F199" s="2">
         <v>2.0</v>
       </c>
       <c r="G199" s="2">
-        <v>0.33</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>259</v>
+        <v>413</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>287</v>
+        <v>416</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E200" s="2">
         <v>56.7</v>
       </c>
       <c r="F200" s="2">
-        <v>2.0</v>
+        <v>3.1</v>
       </c>
       <c r="G200" s="2">
-        <v>0.13</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="2" t="s">
-        <v>276</v>
+        <v>520</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>413</v>
+        <v>62</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>416</v>
+        <v>110</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E201" s="2">
-        <v>56.7</v>
+        <v>58.3</v>
       </c>
       <c r="F201" s="2">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="G201" s="2">
-        <v>0.76</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>62</v>
@@ -13892,62 +13880,62 @@
         <v>110</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E202" s="2">
-        <v>58.3</v>
+        <v>53.3</v>
       </c>
       <c r="F202" s="2">
-        <v>2.2</v>
+        <v>2.0</v>
       </c>
       <c r="G202" s="2">
-        <v>0.28</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D203" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>526</v>
       </c>
       <c r="E203" s="2">
         <v>53.3</v>
       </c>
       <c r="F203" s="2">
-        <v>2.0</v>
+        <v>2.25</v>
       </c>
       <c r="G203" s="2">
-        <v>0.07</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="2" t="s">
-        <v>461</v>
+        <v>86</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>527</v>
+        <v>88</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E204" s="2">
-        <v>53.3</v>
+        <v>60.0</v>
       </c>
       <c r="F204" s="2">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="G204" s="2">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="205" ht="15.75" customHeight="1">
@@ -13961,85 +13949,85 @@
         <v>88</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>529</v>
+        <v>89</v>
       </c>
       <c r="E205" s="2">
-        <v>60.0</v>
+        <v>80.0</v>
       </c>
       <c r="F205" s="2">
-        <v>1.91</v>
+        <v>3.25</v>
       </c>
       <c r="G205" s="2">
-        <v>0.15</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="2" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>89</v>
+        <v>526</v>
       </c>
       <c r="E206" s="2">
-        <v>80.0</v>
+        <v>58.0</v>
       </c>
       <c r="F206" s="2">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="G206" s="2">
-        <v>1.6</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="2" t="s">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>141</v>
+        <v>527</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E207" s="2">
-        <v>58.0</v>
+        <v>60.0</v>
       </c>
       <c r="F207" s="2">
-        <v>1.8</v>
+        <v>2.63</v>
       </c>
       <c r="G207" s="2">
-        <v>0.04</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>531</v>
+        <v>423</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E208" s="2">
-        <v>60.0</v>
+        <v>66.7</v>
       </c>
       <c r="F208" s="2">
-        <v>2.63</v>
+        <v>1.9</v>
       </c>
       <c r="G208" s="2">
-        <v>0.58</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="209" ht="15.75" customHeight="1">
@@ -14050,70 +14038,70 @@
         <v>87</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>423</v>
+        <v>530</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E209" s="2">
-        <v>66.7</v>
+        <v>60.0</v>
       </c>
       <c r="F209" s="2">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="G209" s="2">
-        <v>0.27</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E210" s="2">
-        <v>60.0</v>
+        <v>50.0</v>
       </c>
       <c r="F210" s="2">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="G210" s="2">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>534</v>
+        <v>91</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>536</v>
+        <v>92</v>
       </c>
       <c r="E211" s="2">
-        <v>50.0</v>
+        <v>70.0</v>
       </c>
       <c r="F211" s="2">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="G211" s="2">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>87</v>
@@ -14122,44 +14110,44 @@
         <v>91</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>92</v>
+        <v>533</v>
       </c>
       <c r="E212" s="2">
-        <v>70.0</v>
+        <v>60.0</v>
       </c>
       <c r="F212" s="2">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="G212" s="2">
-        <v>0.22</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="2" t="s">
-        <v>86</v>
+        <v>534</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E213" s="2">
-        <v>60.0</v>
+        <v>53.3</v>
       </c>
       <c r="F213" s="2">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="G213" s="2">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="2" t="s">
-        <v>538</v>
+        <v>83</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>159</v>
@@ -14168,85 +14156,85 @@
         <v>160</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E214" s="2">
-        <v>53.3</v>
+        <v>60.0</v>
       </c>
       <c r="F214" s="2">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="G214" s="2">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>159</v>
+        <v>66</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>540</v>
+        <v>94</v>
       </c>
       <c r="E215" s="2">
-        <v>60.0</v>
+        <v>73.3</v>
       </c>
       <c r="F215" s="2">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="G215" s="2">
-        <v>0.32</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="2" t="s">
-        <v>86</v>
+        <v>537</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>93</v>
+        <v>538</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>94</v>
+        <v>539</v>
       </c>
       <c r="E216" s="2">
-        <v>73.3</v>
+        <v>50.0</v>
       </c>
       <c r="F216" s="2">
         <v>2.1</v>
       </c>
       <c r="G216" s="2">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="2" t="s">
-        <v>541</v>
+        <v>86</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>542</v>
+        <v>199</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E217" s="2">
-        <v>50.0</v>
+        <v>53.3</v>
       </c>
       <c r="F217" s="2">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="G217" s="2">
-        <v>0.05</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="218" ht="15.75" customHeight="1">
@@ -14260,44 +14248,44 @@
         <v>199</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>544</v>
+        <v>293</v>
       </c>
       <c r="E218" s="2">
-        <v>53.3</v>
+        <v>50.0</v>
       </c>
       <c r="F218" s="2">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="G218" s="2">
-        <v>1.08</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>199</v>
+        <v>97</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>293</v>
+        <v>98</v>
       </c>
       <c r="E219" s="2">
-        <v>50.0</v>
+        <v>73.3</v>
       </c>
       <c r="F219" s="2">
-        <v>4.6</v>
+        <v>1.76</v>
       </c>
       <c r="G219" s="2">
-        <v>1.3</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="2" t="s">
-        <v>95</v>
+        <v>537</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>96</v>
@@ -14306,36 +14294,36 @@
         <v>97</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>98</v>
+        <v>541</v>
       </c>
       <c r="E220" s="2">
-        <v>73.3</v>
+        <v>60.0</v>
       </c>
       <c r="F220" s="2">
-        <v>1.76</v>
+        <v>2.05</v>
       </c>
       <c r="G220" s="2">
-        <v>0.29</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>96</v>
+        <v>202</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>97</v>
+        <v>203</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E221" s="2">
-        <v>60.0</v>
+        <v>53.3</v>
       </c>
       <c r="F221" s="2">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="G221" s="2">
         <v>0.23</v>
@@ -14343,7 +14331,7 @@
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>202</v>
@@ -14352,21 +14340,21 @@
         <v>203</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E222" s="2">
-        <v>53.3</v>
+        <v>56.7</v>
       </c>
       <c r="F222" s="2">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="G222" s="2">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>202</v>
@@ -14375,41 +14363,19 @@
         <v>203</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E223" s="2">
-        <v>56.7</v>
+        <v>60.0</v>
       </c>
       <c r="F223" s="2">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="G223" s="2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="E224" s="2">
-        <v>60.0</v>
-      </c>
-      <c r="F224" s="2">
-        <v>2.25</v>
-      </c>
-      <c r="G224" s="2">
         <v>0.35</v>
       </c>
     </row>
+    <row r="224" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -15184,9 +15150,8 @@
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$G$224"/>
+  <autoFilter ref="$A$1:$A$998"/>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
@@ -15227,7 +15192,7 @@
         <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="2">
@@ -15241,7 +15206,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="E2" s="2">
         <v>56.7</v>
@@ -15264,7 +15229,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E3" s="2">
         <v>66.7</v>
@@ -15287,7 +15252,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="E4" s="2">
         <v>60.0</v>
@@ -15310,7 +15275,7 @@
         <v>134</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="E5" s="2">
         <v>50.0</v>
@@ -15333,7 +15298,7 @@
         <v>134</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="E6" s="2">
         <v>60.0</v>
@@ -15356,7 +15321,7 @@
         <v>134</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="E7" s="2">
         <v>50.0</v>
@@ -15379,7 +15344,7 @@
         <v>307</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E8" s="2">
         <v>53.3</v>
@@ -15425,7 +15390,7 @@
         <v>122</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="E10" s="2">
         <v>66.7</v>
@@ -15448,7 +15413,7 @@
         <v>70</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="E11" s="2">
         <v>60.0</v>
@@ -15471,7 +15436,7 @@
         <v>74</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="E12" s="2">
         <v>60.0</v>
@@ -15491,10 +15456,10 @@
         <v>283</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E13" s="2">
         <v>53.3</v>
@@ -15517,7 +15482,7 @@
         <v>127</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E14" s="2">
         <v>56.7</v>
@@ -15540,7 +15505,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E15" s="2">
         <v>51.0</v>
@@ -15563,7 +15528,7 @@
         <v>134</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="E16" s="2">
         <v>53.3</v>
@@ -15586,7 +15551,7 @@
         <v>323</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E17" s="2">
         <v>50.0</v>
@@ -15600,7 +15565,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>77</v>
@@ -15609,7 +15574,7 @@
         <v>78</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E18" s="2">
         <v>53.3</v>
@@ -15655,7 +15620,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E20" s="2">
         <v>66.7</v>
@@ -15678,7 +15643,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E21" s="2">
         <v>50.0</v>
@@ -15692,7 +15657,7 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>18</v>
@@ -15701,7 +15666,7 @@
         <v>332</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E22" s="2">
         <v>50.0</v>
@@ -15747,7 +15712,7 @@
         <v>102</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E24" s="2">
         <v>60.0</v>
@@ -15770,7 +15735,7 @@
         <v>221</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="E25" s="2">
         <v>60.0</v>
@@ -15793,7 +15758,7 @@
         <v>221</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="E26" s="2">
         <v>60.0</v>
@@ -15816,7 +15781,7 @@
         <v>24</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E27" s="2">
         <v>53.3</v>
@@ -15862,7 +15827,7 @@
         <v>339</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="E29" s="2">
         <v>53.3</v>
@@ -15885,7 +15850,7 @@
         <v>339</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="E30" s="2">
         <v>53.3</v>
@@ -15902,13 +15867,13 @@
         <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="E31" s="2">
         <v>53.3</v>
@@ -15928,10 +15893,10 @@
         <v>230</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="E32" s="2">
         <v>60.0</v>
@@ -15951,10 +15916,10 @@
         <v>230</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E33" s="2">
         <v>60.0</v>
@@ -15977,7 +15942,7 @@
         <v>274</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E34" s="2">
         <v>60.0</v>
@@ -16000,7 +15965,7 @@
         <v>233</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="E35" s="2">
         <v>55.0</v>
@@ -16023,7 +15988,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="E36" s="2">
         <v>50.0</v>
@@ -16046,7 +16011,7 @@
         <v>35</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="E37" s="2">
         <v>53.3</v>
@@ -16092,7 +16057,7 @@
         <v>368</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E39" s="2">
         <v>60.0</v>
@@ -16115,7 +16080,7 @@
         <v>236</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="E40" s="2">
         <v>60.0</v>
@@ -16161,7 +16126,7 @@
         <v>372</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="E42" s="2">
         <v>50.0</v>
@@ -16184,7 +16149,7 @@
         <v>372</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="E43" s="2">
         <v>60.0</v>
@@ -16207,7 +16172,7 @@
         <v>375</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E44" s="2">
         <v>50.0</v>
@@ -16253,7 +16218,7 @@
         <v>84</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="E46" s="2">
         <v>53.3</v>
@@ -16299,7 +16264,7 @@
         <v>242</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="E48" s="2">
         <v>50.0</v>
@@ -16322,7 +16287,7 @@
         <v>246</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="E49" s="2">
         <v>66.7</v>
@@ -16345,7 +16310,7 @@
         <v>148</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="E50" s="2">
         <v>60.0</v>
@@ -16368,7 +16333,7 @@
         <v>148</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="E51" s="2">
         <v>60.0</v>
@@ -16391,7 +16356,7 @@
         <v>148</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E52" s="2">
         <v>60.0</v>
@@ -16408,13 +16373,13 @@
         <v>13</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>160</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="E53" s="2">
         <v>53.3</v>
@@ -16431,13 +16396,13 @@
         <v>118</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="E54" s="2">
         <v>57.7</v>
@@ -16457,10 +16422,10 @@
         <v>48</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="E55" s="2">
         <v>66.7</v>
@@ -16477,13 +16442,13 @@
         <v>6</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>311</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="E56" s="2">
         <v>60.0</v>
@@ -16506,7 +16471,7 @@
         <v>398</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E57" s="2">
         <v>60.0</v>
@@ -16526,10 +16491,10 @@
         <v>55</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="E58" s="2">
         <v>50.0</v>
@@ -16552,7 +16517,7 @@
         <v>56</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="E59" s="2">
         <v>50.0</v>
@@ -16572,10 +16537,10 @@
         <v>126</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="E60" s="2">
         <v>66.7</v>
@@ -16621,7 +16586,7 @@
         <v>257</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E62" s="2">
         <v>50.0</v>
@@ -16667,7 +16632,7 @@
         <v>414</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="E64" s="2">
         <v>60.0</v>
@@ -16690,7 +16655,7 @@
         <v>141</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E65" s="2">
         <v>57.7</v>
@@ -16710,10 +16675,10 @@
         <v>87</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="E66" s="2">
         <v>50.0</v>
@@ -16736,7 +16701,7 @@
         <v>427</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E67" s="2">
         <v>53.3</v>
@@ -16759,7 +16724,7 @@
         <v>427</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E68" s="2">
         <v>53.3</v>
@@ -16773,16 +16738,16 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E69" s="2">
         <v>51.0</v>
@@ -16805,7 +16770,7 @@
         <v>199</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E70" s="2">
         <v>53.3</v>
@@ -16828,7 +16793,7 @@
         <v>206</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="E71" s="2">
         <v>50.0</v>
@@ -16868,13 +16833,13 @@
         <v>26</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E73" s="2">
         <v>66.7</v>
@@ -16888,16 +16853,16 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E74" s="2">
         <v>60.0</v>
@@ -16920,7 +16885,7 @@
         <v>24</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E75" s="2">
         <v>53.3</v>
@@ -16957,7 +16922,7 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>40</v>
@@ -16966,7 +16931,7 @@
         <v>307</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="E77" s="2">
         <v>53.3</v>
@@ -16980,7 +16945,7 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>87</v>
@@ -16989,7 +16954,7 @@
         <v>116</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="E78" s="2">
         <v>53.3</v>
@@ -17012,7 +16977,7 @@
         <v>131</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="E79" s="2">
         <v>51.0</v>
@@ -17026,7 +16991,7 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>220</v>
@@ -17035,7 +17000,7 @@
         <v>260</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E80" s="2">
         <v>60.0</v>
@@ -17049,16 +17014,16 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="E81" s="2">
         <v>58.3</v>
@@ -17072,7 +17037,7 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>140</v>
@@ -17081,7 +17046,7 @@
         <v>183</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E82" s="2">
         <v>69.0</v>
@@ -17104,7 +17069,7 @@
         <v>41</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="E83" s="2">
         <v>53.3</v>
@@ -17127,7 +17092,7 @@
         <v>246</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="E84" s="2">
         <v>60.0</v>
@@ -17173,7 +17138,7 @@
         <v>398</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E86" s="2">
         <v>57.7</v>
@@ -17196,7 +17161,7 @@
         <v>287</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E87" s="2">
         <v>50.0</v>
@@ -17219,7 +17184,7 @@
         <v>287</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="E88" s="2">
         <v>53.3</v>
@@ -17265,7 +17230,7 @@
         <v>63</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E90" s="2">
         <v>53.3</v>
@@ -17288,7 +17253,7 @@
         <v>88</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E91" s="2">
         <v>60.0</v>
@@ -17308,10 +17273,10 @@
         <v>87</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E92" s="2">
         <v>50.0</v>
@@ -17325,16 +17290,16 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="2" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E93" s="2">
         <v>53.3</v>
@@ -17357,7 +17322,7 @@
         <v>203</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E94" s="2">
         <v>60.0</v>
@@ -17371,7 +17336,7 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="2" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>202</v>
@@ -17380,7 +17345,7 @@
         <v>206</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="E95" s="2">
         <v>51.7</v>
@@ -18338,7 +18303,7 @@
         <v>209</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="2">
@@ -18352,7 +18317,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="E2" s="2">
         <v>73.3</v>
@@ -18375,7 +18340,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E3" s="2">
         <v>70.0</v>
@@ -18398,7 +18363,7 @@
         <v>134</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E4" s="2">
         <v>75.0</v>
@@ -18421,7 +18386,7 @@
         <v>311</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="E5" s="2">
         <v>70.0</v>
@@ -18444,7 +18409,7 @@
         <v>311</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E6" s="2">
         <v>75.0</v>
@@ -18510,10 +18475,10 @@
         <v>283</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E9" s="2">
         <v>70.0</v>
@@ -18559,7 +18524,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E11" s="2">
         <v>73.3</v>
@@ -18582,7 +18547,7 @@
         <v>134</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="E12" s="2">
         <v>70.0</v>
@@ -18605,7 +18570,7 @@
         <v>70</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E13" s="2">
         <v>70.0</v>
@@ -18766,7 +18731,7 @@
         <v>37</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E20" s="2">
         <v>76.8</v>
@@ -18789,7 +18754,7 @@
         <v>368</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="E21" s="2">
         <v>73.8</v>
@@ -18812,7 +18777,7 @@
         <v>41</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E22" s="2">
         <v>73.3</v>
@@ -18904,7 +18869,7 @@
         <v>242</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E26" s="2">
         <v>70.0</v>
@@ -19292,10 +19257,10 @@
         <v>202</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E43" s="2">
         <v>70.0</v>
@@ -19364,7 +19329,7 @@
         <v>307</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="E46" s="2">
         <v>70.0</v>
@@ -19378,16 +19343,16 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>283</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="E47" s="2">
         <v>70.0</v>
@@ -19433,7 +19398,7 @@
         <v>274</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="E49" s="2">
         <v>75.0</v>
@@ -19525,7 +19490,7 @@
         <v>246</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="E53" s="2">
         <v>70.0</v>
@@ -19539,16 +19504,16 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="E54" s="2">
         <v>75.0</v>
@@ -19562,16 +19527,16 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E55" s="2">
         <v>75.0</v>
@@ -19588,13 +19553,13 @@
         <v>169</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E56" s="2">
         <v>70.0</v>
@@ -19640,7 +19605,7 @@
         <v>391</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E58" s="2">
         <v>70.0</v>
@@ -19654,16 +19619,16 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="E59" s="2">
         <v>75.0</v>
@@ -19686,7 +19651,7 @@
         <v>287</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E60" s="2">
         <v>70.0</v>
@@ -19700,7 +19665,7 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>259</v>
@@ -19709,7 +19674,7 @@
         <v>260</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E61" s="2">
         <v>70.0</v>
@@ -19778,7 +19743,7 @@
         <v>141</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="E64" s="2">
         <v>75.0</v>
@@ -19792,16 +19757,16 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>159</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="E65" s="2">
         <v>75.0</v>
@@ -19893,7 +19858,7 @@
         <v>206</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E69" s="2">
         <v>70.0</v>
@@ -20877,7 +20842,7 @@
         <v>113</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="2">
@@ -20891,7 +20856,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E2" s="2">
         <v>66.7</v>
@@ -20960,7 +20925,7 @@
         <v>134</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E5" s="2">
         <v>65.0</v>
@@ -21029,7 +20994,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E8" s="2">
         <v>70.0</v>
@@ -21052,7 +21017,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="E9" s="2">
         <v>66.7</v>
@@ -21098,7 +21063,7 @@
         <v>309</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="E11" s="2">
         <v>70.0</v>
@@ -21121,7 +21086,7 @@
         <v>311</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="E12" s="2">
         <v>66.7</v>
@@ -21259,7 +21224,7 @@
         <v>122</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E18" s="2">
         <v>73.3</v>
@@ -21282,7 +21247,7 @@
         <v>122</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E19" s="2">
         <v>68.3</v>
@@ -21328,7 +21293,7 @@
         <v>74</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="E21" s="2">
         <v>68.0</v>
@@ -21351,7 +21316,7 @@
         <v>74</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E22" s="2">
         <v>66.7</v>
@@ -21411,7 +21376,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>126</v>
@@ -21420,7 +21385,7 @@
         <v>127</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E25" s="2">
         <v>70.0</v>
@@ -21443,7 +21408,7 @@
         <v>127</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E26" s="2">
         <v>70.0</v>
@@ -21489,7 +21454,7 @@
         <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E28" s="2">
         <v>68.9</v>
@@ -21512,7 +21477,7 @@
         <v>134</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="E29" s="2">
         <v>66.7</v>
@@ -21558,7 +21523,7 @@
         <v>70</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E31" s="2">
         <v>68.0</v>
@@ -21601,10 +21566,10 @@
         <v>27</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="E33" s="2">
         <v>73.3</v>
@@ -21624,10 +21589,10 @@
         <v>27</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="E34" s="2">
         <v>70.0</v>
@@ -21673,7 +21638,7 @@
         <v>183</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E36" s="2">
         <v>65.8</v>
@@ -21713,13 +21678,13 @@
         <v>115</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="E38" s="2">
         <v>66.7</v>
@@ -21742,7 +21707,7 @@
         <v>274</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E39" s="2">
         <v>70.0</v>
@@ -21811,7 +21776,7 @@
         <v>145</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="E42" s="2">
         <v>68.3</v>
@@ -21828,13 +21793,13 @@
         <v>139</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="E43" s="2">
         <v>70.0</v>
@@ -21926,7 +21891,7 @@
         <v>41</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E47" s="2">
         <v>68.0</v>
@@ -21966,13 +21931,13 @@
         <v>118</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="E49" s="2">
         <v>73.3</v>
@@ -22018,7 +21983,7 @@
         <v>148</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="E51" s="2">
         <v>65.6</v>
@@ -22081,13 +22046,13 @@
         <v>6</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="E54" s="2">
         <v>72.2</v>
@@ -22104,13 +22069,13 @@
         <v>6</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="E55" s="2">
         <v>66.7</v>
@@ -22127,13 +22092,13 @@
         <v>6</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>311</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E56" s="2">
         <v>70.0</v>
@@ -22199,10 +22164,10 @@
         <v>126</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="E59" s="2">
         <v>68.0</v>
@@ -22432,7 +22397,7 @@
         <v>309</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E69" s="2">
         <v>66.7</v>
@@ -22446,7 +22411,7 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>73</v>
@@ -22455,7 +22420,7 @@
         <v>309</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="E70" s="2">
         <v>70.0</v>
@@ -22469,16 +22434,16 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>283</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E71" s="2">
         <v>66.7</v>
@@ -22492,7 +22457,7 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>133</v>
@@ -22501,7 +22466,7 @@
         <v>311</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E72" s="2">
         <v>66.7</v>
@@ -22524,7 +22489,7 @@
         <v>116</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="E73" s="2">
         <v>73.3</v>
@@ -22570,7 +22535,7 @@
         <v>116</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="E75" s="2">
         <v>70.0</v>
@@ -22593,7 +22558,7 @@
         <v>120</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="E76" s="2">
         <v>73.3</v>
@@ -22639,7 +22604,7 @@
         <v>167</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="E78" s="2">
         <v>72.5</v>
@@ -22662,7 +22627,7 @@
         <v>167</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="E79" s="2">
         <v>70.0</v>
@@ -22731,7 +22696,7 @@
         <v>127</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="E82" s="2">
         <v>73.3</v>
@@ -22768,7 +22733,7 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>126</v>
@@ -22777,7 +22742,7 @@
         <v>127</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="E84" s="2">
         <v>66.7</v>
@@ -22823,7 +22788,7 @@
         <v>176</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="E86" s="2">
         <v>70.0</v>
@@ -22915,7 +22880,7 @@
         <v>447</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="E90" s="2">
         <v>66.7</v>
@@ -22929,7 +22894,7 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>182</v>
@@ -22938,7 +22903,7 @@
         <v>349</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E91" s="2">
         <v>73.3</v>
@@ -23044,16 +23009,16 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="2" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="E96" s="2">
         <v>70.0</v>
@@ -23067,16 +23032,16 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="2" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="E97" s="2">
         <v>74.5</v>
@@ -23122,7 +23087,7 @@
         <v>281</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="E99" s="2">
         <v>73.3</v>
@@ -23136,16 +23101,16 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="E100" s="2">
         <v>66.7</v>
@@ -23159,7 +23124,7 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>52</v>
@@ -23168,7 +23133,7 @@
         <v>53</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="E101" s="2">
         <v>65.0</v>
@@ -23237,7 +23202,7 @@
         <v>398</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="E104" s="2">
         <v>68.3</v>
@@ -23260,7 +23225,7 @@
         <v>398</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="E105" s="2">
         <v>66.7</v>
@@ -23277,13 +23242,13 @@
         <v>80</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="E106" s="2">
         <v>72.5</v>
@@ -23300,13 +23265,13 @@
         <v>80</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="E107" s="2">
         <v>73.3</v>
@@ -23366,7 +23331,7 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>413</v>
@@ -23375,7 +23340,7 @@
         <v>416</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="E110" s="2">
         <v>73.3</v>
@@ -23389,7 +23354,7 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>62</v>
@@ -23398,7 +23363,7 @@
         <v>110</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E111" s="2">
         <v>66.7</v>
@@ -23412,7 +23377,7 @@
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>62</v>
@@ -23421,7 +23386,7 @@
         <v>63</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="E112" s="2">
         <v>66.7</v>
@@ -23444,7 +23409,7 @@
         <v>141</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E113" s="2">
         <v>66.7</v>
@@ -23458,7 +23423,7 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>159</v>
@@ -23467,7 +23432,7 @@
         <v>160</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E114" s="2">
         <v>73.3</v>
@@ -23536,7 +23501,7 @@
         <v>203</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E117" s="2">
         <v>65.0</v>
@@ -23573,7 +23538,7 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>202</v>
@@ -23582,7 +23547,7 @@
         <v>206</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="E119" s="2">
         <v>65.0</v>
@@ -23605,7 +23570,7 @@
         <v>206</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="E120" s="2">
         <v>65.0</v>
@@ -23622,13 +23587,13 @@
         <v>276</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="E121" s="2">
         <v>70.0</v>
@@ -23642,7 +23607,7 @@
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>441</v>
@@ -23651,7 +23616,7 @@
         <v>442</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="E122" s="2">
         <v>65.8</v>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -403,451 +403,31 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>16-03-2025 17:15</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>SERIE B</t>
-        </is>
-      </c>
-      <c r="D2" s="0" t="inlineStr">
-        <is>
-          <t>Catanzaro - Cosenza</t>
-        </is>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>16-03-2025 19:30</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>ARGENTINA</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>PRIMERA C</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="inlineStr">
-        <is>
-          <t>JJ Urquiza - Central Cordoba</t>
-        </is>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>17-03-2025 00:30</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>ARGENTINA</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>PRIMERA NACIONAL</t>
-        </is>
-      </c>
-      <c r="D4" s="0" t="inlineStr">
-        <is>
-          <t>Atletico Mitre - Almirante Brown</t>
-        </is>
-      </c>
-      <c r="E4" s="0" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>19-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Celta De Vigo II - Lugo</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>73.3</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>16-03-2025 20:00</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>ARGENTINA</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>TORNEO FEDERAL A</t>
-        </is>
-      </c>
-      <c r="D5" s="0" t="inlineStr">
-        <is>
-          <t>Germinal De Rawson - Guillermo Brown</t>
-        </is>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>16-03-2025 20:00</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>BRAZIL</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>GAÚCHO - 1</t>
-        </is>
-      </c>
-      <c r="D6" s="0" t="inlineStr">
-        <is>
-          <t>Internacional - Gremio</t>
-        </is>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>16-03-2025 16:30</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>GERMANY</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>3. LIGA</t>
-        </is>
-      </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t>Erzgebirge Aue - Waldhof Mannheim</t>
-        </is>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>16-03-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>SERIE C - GIRONE C</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t>Foggia - Cavese</t>
-        </is>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>16-03-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>CAMPEONATO DE PORTUGAL PRIO - GROUP A</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="inlineStr">
-        <is>
-          <t>Brito - Atlético Arcos</t>
-        </is>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>16-03-2025 12:00</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
-        </is>
-      </c>
-      <c r="D10" s="0" t="inlineStr">
-        <is>
-          <t>Amorebieta - FC Andorra</t>
-        </is>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>16-03-2025 12:00</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
-        </is>
-      </c>
-      <c r="D11" s="0" t="inlineStr">
-        <is>
-          <t>Navalcarnero - Móstoles</t>
-        </is>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>16-03-2025 17:00</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
-        </is>
-      </c>
-      <c r="D12" s="0" t="inlineStr">
-        <is>
-          <t>CD Coria - Colonia Moscardó</t>
-        </is>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>16-03-2025 12:00</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>TERCERA DIVISIÓN RFEF - GROUP 10</t>
-        </is>
-      </c>
-      <c r="D13" s="0" t="inlineStr">
-        <is>
-          <t>Pozoblanco - Coria CF</t>
-        </is>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t>16-03-2025 12:00</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>THAILAND</t>
-        </is>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>THAI LEAGUE 1</t>
-        </is>
-      </c>
-      <c r="D14" s="0" t="inlineStr">
-        <is>
-          <t>Chiangrai United - Rayong FC</t>
-        </is>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="inlineStr">
-        <is>
-          <t>16-03-2025 14:00</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>TUNISIA</t>
-        </is>
-      </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>LIGUE 2</t>
-        </is>
-      </c>
-      <c r="D15" s="0" t="inlineStr">
-        <is>
-          <t>CS Hammam-Lif - EM Mahdia</t>
-        </is>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="inlineStr">
-        <is>
-          <t>16-03-2025 14:00</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>SÜPER LIG</t>
-        </is>
-      </c>
-      <c r="D16" s="0" t="inlineStr">
-        <is>
-          <t>Goztepe - Eyüpspor</t>
-        </is>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>1.76</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="inlineStr">
-        <is>
-          <t>17-03-2025 01:00</t>
-        </is>
-      </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>ARGENTINA</t>
-        </is>
-      </c>
-      <c r="C17" s="0" t="inlineStr">
-        <is>
-          <t>LIGA PROFESIONAL ARGENTINA</t>
-        </is>
-      </c>
-      <c r="D17" s="0" t="inlineStr">
-        <is>
-          <t>Lanus - Instituto Cordoba</t>
-        </is>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>1.83</v>
+      <c r="F2" t="n">
+        <v>1.85</v>
       </c>
     </row>
   </sheetData>
@@ -940,7 +520,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -983,57 +563,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>17-03-2025 20:30</t>
+          <t>19-03-2025 19:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE C</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Potenza - Team Altamura</t>
+          <t>Celta De Vigo II - Lugo</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>83.3</v>
+        <v>86.7</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>17-03-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>NIGERIA</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>NPFL</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Sunshine Stars - Plateau United</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>79.2</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
     </row>
   </sheetData>
@@ -1047,7 +599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1100,103 +652,137 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>17-03-2025 22:00</t>
+          <t>15-03-2025 19:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CHILE</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PRIMERA B</t>
+          <t>REGIONALLIGA - MITTE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Antofagasta - Deportes Temuco</t>
+          <t>Gleisdorf 09 - Wildon</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>86.8</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>2.1</v>
+        <v>1.67</v>
       </c>
       <c r="G2" t="n">
-        <v>71.8</v>
+        <v>66.7</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>17-03-2025 14:00</t>
+          <t>19-03-2025 00:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LIGA LEUMIT</t>
+          <t>LIGA PREMIER SERIE A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Maccabi Herzliya - Hapoel Acre</t>
+          <t>Tecos - Real Apodaca</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F3" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="G3" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>19-03-2025 00:00</t>
+          <t>19-03-2025 01:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LIGA PREMIER SERIE A</t>
+          <t>COPA DO NORDESTE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tecos - Real Apodaca</t>
+          <t>CRB - Ferroviario</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>85</v>
+        <v>73.3</v>
       </c>
       <c r="F4" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="G4" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H4" t="n">
-        <v>2.7</v>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>19-03-2025 12:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>INDIA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>I-LEAGUE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Dempo - Churchill Brothers</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>80</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G5" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.63</v>
       </c>
     </row>
   </sheetData>
@@ -1210,7 +796,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1258,224 +844,224 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>17-03-2025 23:00</t>
+          <t>18-03-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGA PROFESIONAL ARGENTINA</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Union Santa Fe - Banfield</t>
+          <t>Altrincham - Wealdstone</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>53.3</v>
+        <v>58.3</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>17-03-2025 23:00</t>
+          <t>18-03-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LIGA PROFESIONAL ARGENTINA</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tigre - Central Cordoba De Santiago</t>
+          <t>FC Halifax Town - Dagenham &amp; Redbridge</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>57.7</v>
+        <v>66.7</v>
       </c>
       <c r="F3" t="n">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="G3" t="n">
-        <v>0.33</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>17-03-2025 10:45</t>
+          <t>15-03-2025 19:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SOUTH AUSTRALIA NPL</t>
+          <t>REGIONALLIGA - MITTE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Adelaide Comets - Croydon Kings</t>
+          <t>Gleisdorf 09 - Wildon</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F4" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="G4" t="n">
-        <v>0.12</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>17-03-2025 18:00</t>
+          <t>18-03-2025 23:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LIGA LEUMIT</t>
+          <t>COPA DO NORDESTE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hapoel Rishon LeZion - Hapoel Nazareth Illit</t>
+          <t>Nautico Recife - America-RN</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>63.3</v>
       </c>
       <c r="F5" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>17-03-2025 18:00</t>
+          <t>18-03-2025 20:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LIGA LEUMIT</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hapoel Kfar Saba - Kafr Qasim</t>
+          <t>Curzon Ashton - Radcliffe</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="G6" t="n">
-        <v>0.65</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>17-03-2025 20:30</t>
+          <t>18-03-2025 20:45</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE A</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Lecco - Vicenza Virtus</t>
+          <t>South Shields - Oxford City</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F7" t="n">
-        <v>4.5</v>
+        <v>1.91</v>
       </c>
       <c r="G7" t="n">
-        <v>1.4</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>17-03-2025 23:00</t>
+          <t>18-03-2025 20:45</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>URUGUAY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN - APERTURA</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Cerro Largo - Cerro</t>
+          <t>St Albans City - Hampton &amp; Richmond</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>18-03-2025 14:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1485,301 +1071,239 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Altrincham - Wealdstone</t>
+          <t>Wigan Athletic U21 - Birmingham City U21</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>58.3</v>
+        <v>63.3</v>
       </c>
       <c r="F9" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>19-03-2025 00:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>LIGA PREMIER SERIE A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FC Halifax Town - Dagenham &amp; Redbridge</t>
+          <t>Tecos - Real Apodaca</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>66.7</v>
       </c>
       <c r="F10" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="G10" t="n">
-        <v>0.23</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>18-03-2025 01:15</t>
+          <t>18-03-2025 12:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LIGA PROFESIONAL ARGENTINA</t>
+          <t>LIGA REVELAÇÃO U23</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Atletico Tucuman - Velez Sarsfield</t>
+          <t>Farense U23 - Academico Viseu U23</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F11" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="G11" t="n">
-        <v>0.28</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>18-03-2025 23:00</t>
+          <t>18-03-2025 15:15</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>SLOVAKIA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>COPA DO NORDESTE</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Nautico Recife - America-RN</t>
+          <t>Lokomotíva Zvolen - Považská Bystrica</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>63.3</v>
+        <v>50</v>
       </c>
       <c r="F12" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>18-03-2025 02:00</t>
+          <t>19-03-2025 23:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PRIMERA B</t>
+          <t>COPA DO NORDESTE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Barranquilla - Jaguares</t>
+          <t>Confiança - Sampaio Correa</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>66.7</v>
+        <v>53.3</v>
       </c>
       <c r="F13" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>1.07</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>20-03-2025 00:30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>COLOMBIA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>PRIMERA A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Curzon Ashton - Radcliffe</t>
+          <t>Santa Fe - Bucaramanga</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F14" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.12</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>19-03-2025 19:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>South Shields - Oxford City</t>
+          <t>Celta De Vigo II - Lugo</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>60</v>
+        <v>73.3</v>
       </c>
       <c r="F15" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="G15" t="n">
-        <v>0.15</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>19-03-2025 20:30</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>St Albans City - Hampton &amp; Richmond</t>
+          <t>Pontevedra - Numancia</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="F16" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="G16" t="n">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>19-03-2025 00:00</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>MEXICO</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>LIGA PREMIER SERIE A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Tecos - Real Apodaca</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>18-03-2025 12:00</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>LIGA REVELAÇÃO U23</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Farense U23 - Academico Viseu U23</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>60</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.5</v>
+        <v>-0.1</v>
       </c>
     </row>
   </sheetData>
@@ -1793,7 +1317,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1841,187 +1365,187 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>17-03-2025 19:30</t>
+          <t>18-03-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PRIMERA C</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Deportivo Español - Berazategui</t>
+          <t>Maidenhead - Aldershot Town</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>3.1</v>
+        <v>2.38</v>
       </c>
       <c r="G2" t="n">
-        <v>0.55</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>17-03-2025 19:30</t>
+          <t>18-03-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PRIMERA C</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Deportivo Paraguayo - Centro Español</t>
+          <t>Kidderminster Harriers - Scunthorpe</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>2.15</v>
+        <v>2.63</v>
       </c>
       <c r="G3" t="n">
-        <v>0.29</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>18-03-2025 00:00</t>
+          <t>18-03-2025 20:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CBF BRASILEIRO U20</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Atlético Mineiro U20 - Santos U20</t>
+          <t>Welling United - Hemel Hempstead Town</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>51.7</v>
       </c>
       <c r="F4" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="G4" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>17-03-2025 21:30</t>
+          <t>18-03-2025 20:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PRIMERA B</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Real Santander - Leones FC</t>
+          <t>Biggleswade Town - Leiston</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>53.3</v>
+        <v>70</v>
       </c>
       <c r="F5" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.47</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>17-03-2025 14:00</t>
+          <t>18-03-2025 20:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LIGA LEUMIT</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Maccabi Herzliya - Hapoel Acre</t>
+          <t>Ipswich Town U21 - Millwall U21</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>60</v>
+        <v>56.7</v>
       </c>
       <c r="F6" t="n">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.86</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>17-03-2025 20:30</t>
+          <t>18-03-2025 20:45</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>NORTHERN-IRELAND</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Castellón - Deportivo La Coruna</t>
+          <t>Dundela - Annagh United</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>56.7</v>
+        <v>53.3</v>
       </c>
       <c r="F7" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="G7" t="n">
-        <v>0.76</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="8">
@@ -2032,213 +1556,151 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>NORTHERN-IRELAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>PREMIERSHIP</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Maidenhead - Aldershot Town</t>
+          <t>Glentoran - Larne</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F8" t="n">
-        <v>2.38</v>
+        <v>2.7</v>
       </c>
       <c r="G8" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>18-03-2025 01:00</t>
+          <t>19-03-2025 01:10</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ECUADOR</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LIGA PRO</t>
+          <t>PRIMERA B METROPOLITANA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Tecnico Universitario - Barcelona SC</t>
+          <t>Argentino De Merlo - Villa San Carlos</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F9" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>19-03-2025 19:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>REGIONALLIGA - NORDOST</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Kidderminster Harriers - Scunthorpe</t>
+          <t>Plauen - FSV Zwickau</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F10" t="n">
-        <v>2.63</v>
+        <v>2.15</v>
       </c>
       <c r="G10" t="n">
-        <v>0.58</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>19-03-2025 11:30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SOUTH-KOREA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>FA CUP</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Welling United - Hemel Hempstead Town</t>
+          <t>Suwon Bluewings - Seoul E-Land FC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>51.7</v>
+        <v>53.3</v>
       </c>
       <c r="F11" t="n">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="G11" t="n">
-        <v>0.37</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>19-03-2025 20:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
+          <t>TERCERA DIVISIÓN RFEF - GROUP 9</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Biggleswade Town - Leiston</t>
+          <t>Motril - Mancha Real</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>70</v>
+        <v>66.7</v>
       </c>
       <c r="F12" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="G12" t="n">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>18-03-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>NORTHERN-IRELAND</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Dundela - Annagh United</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>18-03-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>NORTHERN-IRELAND</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>PREMIERSHIP</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Glentoran - Larne</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.44</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2300,125 +1762,125 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>17-03-2025 22:00</t>
+          <t>18-03-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CHILE</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PRIMERA B</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Antofagasta - Deportes Temuco</t>
+          <t>Altrincham - Wealdstone</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>86.8</v>
+        <v>72.5</v>
       </c>
       <c r="F2" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="G2" t="n">
-        <v>0.82</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>17-03-2025 14:00</t>
+          <t>19-03-2025 00:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LIGA LEUMIT</t>
+          <t>LIGA PREMIER SERIE A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Maccabi Herzliya - Hapoel Acre</t>
+          <t>Tecos - Real Apodaca</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F3" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="G3" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>19-03-2025 01:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>COPA DO NORDESTE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Altrincham - Wealdstone</t>
+          <t>CRB - Ferroviario</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>72.5</v>
+        <v>73.3</v>
       </c>
       <c r="F4" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="G4" t="n">
-        <v>0.27</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>19-03-2025 00:00</t>
+          <t>19-03-2025 19:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LIGA PREMIER SERIE A</t>
+          <t>REGIONALLIGA - NORDOST</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tecos - Real Apodaca</t>
+          <t>Plauen - FSV Zwickau</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>85</v>
+        <v>73.3</v>
       </c>
       <c r="F5" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="G5" t="n">
-        <v>0.44</v>
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>
@@ -2432,7 +1894,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2480,249 +1942,63 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>17-03-2025 22:00</t>
+          <t>18-03-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CHILE</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PRIMERA B</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Recoleta - Santiago Morning</t>
+          <t>Gateshead - Braintree</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>73.3</v>
+        <v>65</v>
       </c>
       <c r="F2" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="G2" t="n">
-        <v>0.54</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>17-03-2025 21:30</t>
+          <t>19-03-2025 19:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PRIMERA B</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Depor FC - Quindio</t>
+          <t>Celta De Vigo II - Lugo</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>70</v>
+        <v>86.7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="G3" t="n">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>17-03-2025 20:30</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>SERIE C - GIRONE C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Potenza - Team Altamura</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>83.3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>17-03-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>NIGERIA</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>NPFL</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Sunshine Stars - Plateau United</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>79.2</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.57</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>17-03-2025 19:00</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>SERBIA</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>SUPER LIGA</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Novi Pazar - Železničar Pančevo</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>17-03-2025 23:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>URUGUAY</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>PRIMERA DIVISIÓN - APERTURA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Cerro Largo - Cerro</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>70</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>18-03-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Gateshead - Braintree</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>65</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>18-03-2025 01:00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ECUADOR</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>LIGA PRO</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Tecnico Universitario - Barcelona SC</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.15</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,6 +428,62 @@
       </c>
       <c r="F2" t="n">
         <v>1.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>19-03-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Central African Republic - Madagascar</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>20-03-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Malawi - Namibia</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>70</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.75</v>
       </c>
     </row>
   </sheetData>
@@ -441,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,29 +540,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>19-03-2025 20:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>COSTA-RICA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
+          <t>LIGA DE ASCENSO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Biggleswade Town - Leiston</t>
+          <t>Deportivo Upala - ADR Jicaral</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>2.2</v>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>19-03-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>POLAND</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>III LIGA - GROUP 4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Korona Kielce II - Avia Świdnik</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>80</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.45</v>
       </c>
     </row>
   </sheetData>
@@ -520,7 +604,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,29 +647,141 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>19-03-2025 22:00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>COSTA-RICA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>LIGA DE ASCENSO</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>San Carlos FC - Inter San Carlos</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>92</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>19-03-2025 19:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>SPAIN</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Celta De Vigo II - Lugo</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="E3" t="n">
         <v>86.7</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F3" t="n">
         <v>1.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>20-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>UEFA NATIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Netherlands - Spain</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>20-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>UEFA NATIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Croatia - France</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>20-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>UEFA NATIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Italy - Germany</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>90</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.83</v>
       </c>
     </row>
   </sheetData>
@@ -599,7 +795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -652,137 +848,171 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>15-03-2025 19:00</t>
+          <t>19-03-2025 19:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AUSTRIA</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - MITTE</t>
+          <t>COPA ARGENTINA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Gleisdorf 09 - Wildon</t>
+          <t>Aldosivi - Gimnasia Y Tiro</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F2" t="n">
-        <v>1.67</v>
+        <v>3.4</v>
       </c>
       <c r="G2" t="n">
-        <v>66.7</v>
+        <v>65</v>
       </c>
       <c r="H2" t="n">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>19-03-2025 00:00</t>
+          <t>19-03-2025 20:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LIGA PREMIER SERIE A</t>
+          <t>CBF BRASILEIRO U20</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tecos - Real Apodaca</t>
+          <t>São Paulo U20 - Atlético GO U20</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="F3" t="n">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="G3" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="H3" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>19-03-2025 01:30</t>
+          <t>19-03-2025 12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>INDIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>COPA DO NORDESTE</t>
+          <t>I-LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CRB - Ferroviario</t>
+          <t>Dempo - Churchill Brothers</t>
         </is>
       </c>
       <c r="E4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G4" t="n">
         <v>73.3</v>
       </c>
-      <c r="F4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G4" t="n">
-        <v>60</v>
-      </c>
       <c r="H4" t="n">
-        <v>4.2</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>19-03-2025 12:00</t>
+          <t>20-03-2025 20:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>INDIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>I-LEAGUE</t>
+          <t>UEFA NATIONS LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Dempo - Churchill Brothers</t>
+          <t>Greece - Scotland</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="G5" t="n">
-        <v>73.3</v>
+        <v>33.3</v>
       </c>
       <c r="H5" t="n">
-        <v>2.63</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>20-03-2025 03:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>COSTA-RICA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>LIGA DE ASCENSO</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Municipal Grecia - Quepos Cambute</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>85</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>60</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.2</v>
       </c>
     </row>
   </sheetData>
@@ -796,7 +1026,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -844,100 +1074,100 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>19-03-2025 19:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>CBF BRASILEIRO U20</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Altrincham - Wealdstone</t>
+          <t>Corinthians U20 - Grêmio U20</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>58.3</v>
+        <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>19-03-2025 19:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>CBF BRASILEIRO U20</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FC Halifax Town - Dagenham &amp; Redbridge</t>
+          <t>Vasco Da Gama U20 - Cruzeiro U20</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>66.7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.23</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>15-03-2025 19:00</t>
+          <t>19-03-2025 23:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AUSTRIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - MITTE</t>
+          <t>COPA DO NORDESTE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Gleisdorf 09 - Wildon</t>
+          <t>Confiança - Sampaio Correa</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F4" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>0.62</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>18-03-2025 23:00</t>
+          <t>19-03-2025 19:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -947,363 +1177,518 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>COPA DO NORDESTE</t>
+          <t>PAULISTA - A2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Nautico Recife - America-RN</t>
+          <t>Primavera SP - Santo André</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>63.3</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
         <v>2.05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>19-03-2025 23:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>PAULISTA - A2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Curzon Ashton - Radcliffe</t>
+          <t>Ituano - Ferroviária</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.12</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>20-03-2025 00:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>COLOMBIA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>PRIMERA A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>South Shields - Oxford City</t>
+          <t>Santa Fe - Bucaramanga</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F7" t="n">
         <v>1.91</v>
       </c>
       <c r="G7" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>19-03-2025 20:30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>LEAGUE CUP</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>St Albans City - Hampton &amp; Richmond</t>
+          <t>AL Masry - Masr</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="F8" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="G8" t="n">
-        <v>0.53</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>18-03-2025 14:00</t>
+          <t>19-03-2025 19:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Wigan Athletic U21 - Birmingham City U21</t>
+          <t>Celta De Vigo II - Lugo</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>63.3</v>
+        <v>73.3</v>
       </c>
       <c r="F9" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="G9" t="n">
-        <v>0.21</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>19-03-2025 00:00</t>
+          <t>19-03-2025 20:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LIGA PREMIER SERIE A</t>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Tecos - Real Apodaca</t>
+          <t>Pontevedra - Numancia</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="F10" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>18-03-2025 12:00</t>
+          <t>19-03-2025 17:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LIGA REVELAÇÃO U23</t>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Farense U23 - Academico Viseu U23</t>
+          <t>Central African Republic - Madagascar</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>60</v>
+        <v>73.3</v>
       </c>
       <c r="F11" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>18-03-2025 15:15</t>
+          <t>20-03-2025 20:45</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SLOVAKIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2. LIGA</t>
+          <t>UEFA NATIONS LEAGUE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Lokomotíva Zvolen - Považská Bystrica</t>
+          <t>Austria - Serbia</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F12" t="n">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>19-03-2025 23:00</t>
+          <t>20-03-2025 20:45</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>COPA DO NORDESTE</t>
+          <t>UEFA NATIONS LEAGUE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Confiança - Sampaio Correa</t>
+          <t>Greece - Scotland</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="G13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20-03-2025 00:30</t>
+          <t>20-03-2025 20:45</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PRIMERA A</t>
+          <t>UEFA NATIONS LEAGUE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Santa Fe - Bucaramanga</t>
+          <t>Kosovo - Iceland</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F14" t="n">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>19-03-2025 19:00</t>
+          <t>20-03-2025 23:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
+          <t>COPA DO NORDESTE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Celta De Vigo II - Lugo</t>
+          <t>Altos - Moto Club</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>73.3</v>
+        <v>56.7</v>
       </c>
       <c r="F15" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="G15" t="n">
-        <v>0.36</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>19-03-2025 20:30</t>
+          <t>20-03-2025 02:30</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>COLOMBIA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 1</t>
+          <t>PRIMERA A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Pontevedra - Numancia</t>
+          <t>Atletico Nacional - Deportes Tolima</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F16" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.1</v>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>20-03-2025 03:00</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>COSTA-RICA</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>LIGA DE ASCENSO</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Municipal Grecia - Quepos Cambute</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>20-03-2025 01:00</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>JAMAICA</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Waterhouse - Vere United</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>60</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>20-03-2025 02:00</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>LIGA DE EXPANSIÓN MX</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Tapatío - Atlante FC</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>20-03-2025 01:00</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>US OPEN CUP</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Little Rock Rangers - Birmingham Legion</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>60</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20-03-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Malawi - Namibia</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>70</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.92</v>
       </c>
     </row>
   </sheetData>
@@ -1317,7 +1702,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1365,342 +1750,280 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>19-03-2025 22:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>COPA ARGENTINA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Maidenhead - Aldershot Town</t>
+          <t>Talleres Cordoba - Deportivo Armenio</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>2.38</v>
+        <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>0.43</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>19-03-2025 20:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>COSTA-RICA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>LIGA DE ASCENSO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Kidderminster Harriers - Scunthorpe</t>
+          <t>Deportivo Upala - ADR Jicaral</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>60</v>
+        <v>73.3</v>
       </c>
       <c r="F3" t="n">
-        <v>2.63</v>
+        <v>1.75</v>
       </c>
       <c r="G3" t="n">
-        <v>0.58</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>19-03-2025 19:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>REGIONALLIGA - NORDOST</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Welling United - Hemel Hempstead Town</t>
+          <t>Plauen - FSV Zwickau</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>51.7</v>
+        <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>2.65</v>
+        <v>2.15</v>
       </c>
       <c r="G4" t="n">
-        <v>0.37</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>19-03-2025 16:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GHANA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Biggleswade Town - Leiston</t>
+          <t>Basake Holy Stars - Bibiani Gold Stars</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>53.3</v>
       </c>
       <c r="F5" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="G5" t="n">
-        <v>0.54</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>18-03-2025 20:00</t>
+          <t>19-03-2025 13:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>POLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>III LIGA - GROUP 4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ipswich Town U21 - Millwall U21</t>
+          <t>Korona Kielce II - Avia Świdnik</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>56.7</v>
+        <v>80</v>
       </c>
       <c r="F6" t="n">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="G6" t="n">
-        <v>0.16</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>19-03-2025 11:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NORTHERN-IRELAND</t>
+          <t>SOUTH-KOREA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>FA CUP</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Dundela - Annagh United</t>
+          <t>Suwon Bluewings - Seoul E-Land FC</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>53.3</v>
       </c>
       <c r="F7" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="G7" t="n">
-        <v>0.55</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>20-03-2025 00:30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NORTHERN-IRELAND</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PREMIERSHIP</t>
+          <t>US OPEN CUP</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Glentoran - Larne</t>
+          <t>Swope Park Rangers - Des Moines Menace</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F8" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="G8" t="n">
-        <v>0.44</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>19-03-2025 01:10</t>
+          <t>20-03-2025 18:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PRIMERA B METROPOLITANA</t>
+          <t>UEFA NATIONS LEAGUE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Argentino De Merlo - Villa San Carlos</t>
+          <t>Türkiye - Hungary</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>19-03-2025 19:00</t>
+          <t>20-03-2025 14:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - NORDOST</t>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Plauen - FSV Zwickau</t>
+          <t>Mozambique - Uganda</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>50</v>
       </c>
       <c r="F10" t="n">
-        <v>2.15</v>
+        <v>2.95</v>
       </c>
       <c r="G10" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>19-03-2025 11:30</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>SOUTH-KOREA</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>FA CUP</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Suwon Bluewings - Seoul E-Land FC</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>19-03-2025 20:00</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>TERCERA DIVISIÓN RFEF - GROUP 9</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Motril - Mancha Real</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2</v>
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>
@@ -1714,7 +2037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1762,91 +2085,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>19-03-2025 19:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>COPA ARGENTINA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Altrincham - Wealdstone</t>
+          <t>Aldosivi - Gimnasia Y Tiro</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>72.5</v>
+        <v>75</v>
       </c>
       <c r="F2" t="n">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="G2" t="n">
-        <v>0.27</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>19-03-2025 00:00</t>
+          <t>19-03-2025 19:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LIGA PREMIER SERIE A</t>
+          <t>REGIONALLIGA - NORDOST</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tecos - Real Apodaca</t>
+          <t>Plauen - FSV Zwickau</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>85</v>
+        <v>73.3</v>
       </c>
       <c r="F3" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="G3" t="n">
-        <v>0.44</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>19-03-2025 01:30</t>
+          <t>19-03-2025 16:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>GHANA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>COPA DO NORDESTE</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CRB - Ferroviario</t>
+          <t>Nations - Aduana Stars</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="G4" t="n">
         <v>0.61</v>
@@ -1855,32 +2178,94 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>19-03-2025 19:00</t>
+          <t>19-03-2025 13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>POLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - NORDOST</t>
+          <t>III LIGA - GROUP 4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Plauen - FSV Zwickau</t>
+          <t>Korona Kielce II - Avia Świdnik</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>73.3</v>
+        <v>77.5</v>
       </c>
       <c r="F5" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="G5" t="n">
-        <v>0.32</v>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>19-03-2025 14:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>FRIENDLIES</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>India - Maldives</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>70</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>20-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>UEFA NATIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Greece - Scotland</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>80</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.76</v>
       </c>
     </row>
   </sheetData>
@@ -1894,7 +2279,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1942,63 +2327,435 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>19-03-2025 19:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>COPA ARGENTINA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Gateshead - Braintree</t>
+          <t>Aldosivi - Gimnasia Y Tiro</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>65</v>
+        <v>66.7</v>
       </c>
       <c r="F2" t="n">
-        <v>1.75</v>
+        <v>2.63</v>
       </c>
       <c r="G2" t="n">
-        <v>0.14</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>19-03-2025 22:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>COSTA-RICA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>LIGA DE ASCENSO</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>San Carlos FC - Inter San Carlos</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>92</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>19-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>EGYPT</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LEAGUE CUP</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Zamalek SC - El Gouna FC</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>19-03-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>POLAND</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>III LIGA - GROUP 4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Korona Kielce II - Avia Świdnik</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>19-03-2025 19:00</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>SPAIN</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Celta De Vigo II - Lugo</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="E6" t="n">
         <v>86.7</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F6" t="n">
         <v>1.95</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G6" t="n">
         <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>19-03-2025 14:30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>FRIENDLIES</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>India - Maldives</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>20-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>UEFA NATIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Netherlands - Spain</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>20-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>UEFA NATIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Croatia - France</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>20-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>UEFA NATIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Italy - Germany</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>90</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>20-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>UEFA NATIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Austria - Serbia</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>70</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>20-03-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>UEFA NATIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Armenia - Georgia</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>70</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>20-03-2025 01:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>JAMAICA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Waterhouse - Vere United</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>20-03-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Sierra Leone - Guinea-Bissau</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>70</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>20-03-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Gabon - Seychelles</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>72</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.02</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -405,85 +405,113 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>19-03-2025 19:00</t>
+          <t>20-03-2025 17:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Celta De Vigo II - Lugo</t>
+          <t>Malawi - Namibia</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>19-03-2025 17:00</t>
+          <t>21-03-2025 12:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+          <t>WESTERN AUSTRALIA NPL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Central African Republic - Madagascar</t>
+          <t>Perth - Fremantle City</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20-03-2025 17:00</t>
+          <t>21-03-2025 20:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Malawi - Namibia</t>
+          <t>Mérida AD - Yeclano</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>2.75</v>
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>21-03-2025 03:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CONCACAF NATIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Canada - Mexico</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.3</v>
       </c>
     </row>
   </sheetData>
@@ -497,7 +525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,57 +568,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>19-03-2025 20:00</t>
+          <t>21-03-2025 10:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>COSTA-RICA</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGA DE ASCENSO</t>
+          <t>SOUTH AUSTRALIA NPL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Deportivo Upala - ADR Jicaral</t>
+          <t>Adelaide Raiders - West Torrens Birkalla</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>19-03-2025 13:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>POLAND</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>III LIGA - GROUP 4</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Korona Kielce II - Avia Świdnik</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>80</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.45</v>
+        <v>2.88</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +604,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,57 +647,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>19-03-2025 22:00</t>
+          <t>20-03-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>COSTA-RICA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGA DE ASCENSO</t>
+          <t>UEFA NATIONS LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>San Carlos FC - Inter San Carlos</t>
+          <t>Netherlands - Spain</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>92</v>
+        <v>76.7</v>
       </c>
       <c r="F2" t="n">
-        <v>2.63</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>19-03-2025 19:00</t>
+          <t>20-03-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
+          <t>UEFA NATIONS LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Celta De Vigo II - Lugo</t>
+          <t>Croatia - France</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>86.7</v>
+        <v>83.3</v>
       </c>
       <c r="F3" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="4">
@@ -718,20 +718,20 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Netherlands - Spain</t>
+          <t>Italy - Germany</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>76.7</v>
+        <v>90</v>
       </c>
       <c r="F4" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>20-03-2025 19:15</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -741,47 +741,131 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>WORLD CUP - QUALIFICATION ASIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Croatia - France</t>
+          <t>Qatar - North Korea</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>83.3</v>
+        <v>92</v>
       </c>
       <c r="F5" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>21-03-2025 19:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NATIONAL 1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Boulogne - Nimes</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>80</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>21-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>LIGA PREMIER SERIE B</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Real Zamora - Pachuca Premier</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>80</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>21-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Mérida AD - Yeclano</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>88</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>21-03-2025 22:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>WORLD</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>UEFA NATIONS LEAGUE</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Italy - Germany</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>90</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.83</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Guinea - Somalia</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>76</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.8</v>
       </c>
     </row>
   </sheetData>
@@ -795,7 +879,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -848,171 +932,239 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>19-03-2025 19:45</t>
+          <t>20-03-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>COPA ARGENTINA</t>
+          <t>UEFA NATIONS LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Aldosivi - Gimnasia Y Tiro</t>
+          <t>Greece - Scotland</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="G2" t="n">
-        <v>65</v>
+        <v>33.3</v>
       </c>
       <c r="H2" t="n">
-        <v>7.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>19-03-2025 20:00</t>
+          <t>21-03-2025 09:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CBF BRASILEIRO U20</t>
+          <t>VICTORIA NPL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>São Paulo U20 - Atlético GO U20</t>
+          <t>Dandenong City - Heidelberg United</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="F3" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="G3" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="H3" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>19-03-2025 12:00</t>
+          <t>19-03-2025 01:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>INDIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>I-LEAGUE</t>
+          <t>COPA DO NORDESTE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Dempo - Churchill Brothers</t>
+          <t>CRB - Ferroviario</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F4" t="n">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="G4" t="n">
-        <v>73.3</v>
+        <v>60</v>
       </c>
       <c r="H4" t="n">
-        <v>2.63</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>21-03-2025 23:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>MARANHENSE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Greece - Scotland</t>
+          <t>Maranhão - Tuntum</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="G5" t="n">
-        <v>33.3</v>
+        <v>42.5</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20-03-2025 03:00</t>
+          <t>21-03-2025 19:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>COSTA-RICA</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LIGA DE ASCENSO</t>
+          <t>REGIONALLIGA - NORDOST</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Municipal Grecia - Quepos Cambute</t>
+          <t>FC Rot-Weiß Erfurt - Hertha BSC II</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>85</v>
+        <v>82.5</v>
       </c>
       <c r="F6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G6" t="n">
+        <v>50</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>21-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Mérida AD - Yeclano</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>21-03-2025 02:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>US OPEN CUP</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Flatirons Rush - Union Omaha</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="F8" t="n">
         <v>1.5</v>
       </c>
-      <c r="G6" t="n">
-        <v>60</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.2</v>
+      <c r="G8" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.25</v>
       </c>
     </row>
   </sheetData>
@@ -1026,7 +1178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1074,100 +1226,100 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>19-03-2025 19:00</t>
+          <t>20-03-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CBF BRASILEIRO U20</t>
+          <t>UEFA NATIONS LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Corinthians U20 - Grêmio U20</t>
+          <t>Austria - Serbia</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="G2" t="n">
-        <v>0.26</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>19-03-2025 19:45</t>
+          <t>20-03-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CBF BRASILEIRO U20</t>
+          <t>UEFA NATIONS LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Vasco Da Gama U20 - Cruzeiro U20</t>
+          <t>Greece - Scotland</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="G3" t="n">
-        <v>0.37</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>19-03-2025 23:00</t>
+          <t>20-03-2025 20:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>COPA DO NORDESTE</t>
+          <t>UEFA NATIONS LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Confiança - Sampaio Correa</t>
+          <t>Kosovo - Iceland</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>19-03-2025 19:00</t>
+          <t>20-03-2025 23:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1177,28 +1329,28 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PAULISTA - A2</t>
+          <t>CEARENSE - 2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Primavera SP - Santo André</t>
+          <t>Maranguape - Caucaia</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F5" t="n">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>19-03-2025 23:00</t>
+          <t>20-03-2025 23:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1208,487 +1360,611 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PAULISTA - A2</t>
+          <t>COPA DO NORDESTE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ituano - Ferroviária</t>
+          <t>Altos - Moto Club</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>56.7</v>
       </c>
       <c r="F6" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="G6" t="n">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20-03-2025 00:30</t>
+          <t>20-03-2025 22:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>JAMAICA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PRIMERA A</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Santa Fe - Bucaramanga</t>
+          <t>Chapelton - Humble Lions</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F7" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>19-03-2025 20:30</t>
+          <t>21-03-2025 00:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LEAGUE CUP</t>
+          <t>US OPEN CUP</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>AL Masry - Masr</t>
+          <t>Long Island Rough Riders - Charlotte Independence</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>50</v>
       </c>
       <c r="F8" t="n">
-        <v>2.15</v>
+        <v>3.35</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>19-03-2025 19:00</t>
+          <t>20-03-2025 17:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Celta De Vigo II - Lugo</t>
+          <t>Malawi - Namibia</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F9" t="n">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="G9" t="n">
-        <v>0.36</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>19-03-2025 20:30</t>
+          <t>21-03-2025 10:45</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 1</t>
+          <t>SOUTH AUSTRALIA NPL</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Pontevedra - Numancia</t>
+          <t>Adelaide Comets - Para Hills Knights</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>50</v>
+        <v>62.3</v>
       </c>
       <c r="F10" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>19-03-2025 17:00</t>
+          <t>21-03-2025 09:30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+          <t>VICTORIA NPL</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Central African Republic - Madagascar</t>
+          <t>Melbourne Knights - Melbourne Victory II</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>73.3</v>
+        <v>60</v>
       </c>
       <c r="F11" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="G11" t="n">
-        <v>1.05</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>21-03-2025 12:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>WESTERN AUSTRALIA NPL</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Austria - Serbia</t>
+          <t>Perth - Fremantle City</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F12" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>21-03-2025 19:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>REGIONALLIGA - MITTE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Greece - Scotland</t>
+          <t>Wildon - SK Vorwarts Steyr</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F13" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="G13" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>21-03-2025 22:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>COPA CHILE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Kosovo - Iceland</t>
+          <t>Huachipato - O'Higgins</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F14" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="G14" t="n">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20-03-2025 23:00</t>
+          <t>21-03-2025 03:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>COSTA-RICA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>COPA DO NORDESTE</t>
+          <t>LIGA DE ASCENSO</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Altos - Moto Club</t>
+          <t>Guadalupe FC - Cariari Pococi</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>56.7</v>
+        <v>50</v>
       </c>
       <c r="F15" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20-03-2025 02:30</t>
+          <t>21-03-2025 15:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PRIMERA A</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Atletico Nacional - Deportes Tolima</t>
+          <t>Millwall U21 - Bristol City U21</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>60</v>
+        <v>63.3</v>
       </c>
       <c r="F16" t="n">
         <v>1.7</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20-03-2025 03:00</t>
+          <t>21-03-2025 19:30</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>COSTA-RICA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LIGA DE ASCENSO</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Municipal Grecia - Quepos Cambute</t>
+          <t>Le Mans - Gobelins</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>53.3</v>
+        <v>66.7</v>
       </c>
       <c r="F17" t="n">
-        <v>2.75</v>
+        <v>1.78</v>
       </c>
       <c r="G17" t="n">
-        <v>0.47</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20-03-2025 01:00</t>
+          <t>21-03-2025 19:30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>JAMAICA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Waterhouse - Vere United</t>
+          <t>Boulogne - Nimes</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>60</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20-03-2025 02:00</t>
+          <t>21-03-2025 19:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>LIGA DE EXPANSIÓN MX</t>
+          <t>REGIONALLIGA - NORDOST</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Tapatío - Atlante FC</t>
+          <t>FC Rot-Weiß Erfurt - Hertha BSC II</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>53.3</v>
+        <v>56.7</v>
       </c>
       <c r="F19" t="n">
-        <v>3.9</v>
+        <v>1.95</v>
       </c>
       <c r="G19" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20-03-2025 01:00</t>
+          <t>21-03-2025 02:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>US OPEN CUP</t>
+          <t>LIGA DE EXPANSIÓN MX</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Little Rock Rangers - Birmingham Legion</t>
+          <t>Correcaminos Uat - Venados FC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F20" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>1.25</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20-03-2025 17:00</t>
+          <t>21-03-2025 20:30</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Real Madrid II - Real Murcia</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Mérida AD - Yeclano</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>70</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>21-03-2025 02:00</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>US OPEN CUP</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Flatirons Rush - Union Omaha</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>50</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>21-03-2025 03:30</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>WORLD</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Malawi - Namibia</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>70</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.92</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CONCACAF NATIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Canada - Mexico</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>21-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>FRIENDLIES</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Northern Ireland - Switzerland</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>
@@ -1697,583 +1973,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Country</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Championship</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Match</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Away Win (%)</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Away Odds</t>
-        </is>
-      </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>EV away win</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>19-03-2025 22:00</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ARGENTINA</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>COPA ARGENTINA</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Talleres Cordoba - Deportivo Armenio</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>60</v>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>19-03-2025 20:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>COSTA-RICA</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>LIGA DE ASCENSO</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Deportivo Upala - ADR Jicaral</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>19-03-2025 19:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GERMANY</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>REGIONALLIGA - NORDOST</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Plauen - FSV Zwickau</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>50</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>19-03-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GHANA</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Basake Holy Stars - Bibiani Gold Stars</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>19-03-2025 13:00</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>POLAND</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>III LIGA - GROUP 4</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Korona Kielce II - Avia Świdnik</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>80</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>19-03-2025 11:30</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>SOUTH-KOREA</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>FA CUP</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Suwon Bluewings - Seoul E-Land FC</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>20-03-2025 00:30</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>US OPEN CUP</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Swope Park Rangers - Des Moines Menace</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>60</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>20-03-2025 18:00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>UEFA NATIONS LEAGUE</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Türkiye - Hungary</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F9" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>20-03-2025 14:00</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Mozambique - Uganda</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Country</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Championship</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Match</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Over 2.5 (%)</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Odds 2.5</t>
-        </is>
-      </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>EV over 2.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>19-03-2025 19:45</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ARGENTINA</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>COPA ARGENTINA</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Aldosivi - Gimnasia Y Tiro</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>75</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>19-03-2025 19:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GERMANY</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>REGIONALLIGA - NORDOST</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Plauen - FSV Zwickau</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>19-03-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GHANA</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Nations - Aduana Stars</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>70</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>19-03-2025 13:00</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>POLAND</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>III LIGA - GROUP 4</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Korona Kielce II - Avia Świdnik</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>19-03-2025 14:30</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>FRIENDLIES</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>India - Maldives</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>70</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>20-03-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>UEFA NATIONS LEAGUE</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Greece - Scotland</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>80</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2310,452 +2009,1277 @@
       </c>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Btts (%)</t>
+          <t>Away Win (%)</t>
         </is>
       </c>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Odds btts</t>
+          <t>Away Odds</t>
         </is>
       </c>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>EV btts</t>
+          <t>EV away win</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>19-03-2025 19:45</t>
+          <t>20-03-2025 18:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>COPA ARGENTINA</t>
+          <t>UEFA NATIONS LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Aldosivi - Gimnasia Y Tiro</t>
+          <t>Türkiye - Hungary</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>66.7</v>
+        <v>53.3</v>
       </c>
       <c r="F2" t="n">
-        <v>2.63</v>
+        <v>5.25</v>
       </c>
       <c r="G2" t="n">
-        <v>0.75</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>19-03-2025 22:00</t>
+          <t>20-03-2025 14:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>COSTA-RICA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LIGA DE ASCENSO</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>San Carlos FC - Inter San Carlos</t>
+          <t>Queens Park Rangers U21 - Watford U21</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="F3" t="n">
         <v>2.63</v>
       </c>
       <c r="G3" t="n">
-        <v>1.42</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>19-03-2025 20:30</t>
+          <t>20-03-2025 14:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LEAGUE CUP</t>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Zamalek SC - El Gouna FC</t>
+          <t>Mozambique - Uganda</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>2.35</v>
+        <v>2.95</v>
       </c>
       <c r="G4" t="n">
-        <v>0.57</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>19-03-2025 13:00</t>
+          <t>21-03-2025 09:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>POLAND</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>III LIGA - GROUP 4</t>
+          <t>NEW SOUTH WALES NPL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Korona Kielce II - Avia Świdnik</t>
+          <t>Manly United - NWS Spirit</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>73.3</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="G5" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>19-03-2025 19:00</t>
+          <t>21-03-2025 09:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
+          <t>NEW SOUTH WALES NPL</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Celta De Vigo II - Lugo</t>
+          <t>Sutherland Sharks - Central Coast II</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>86.7</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>19-03-2025 14:30</t>
+          <t>21-03-2025 10:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>FRIENDLIES</t>
+          <t>SOUTH AUSTRALIA NPL</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>India - Maldives</t>
+          <t>Adelaide Raiders - West Torrens Birkalla</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>66.7</v>
+        <v>70</v>
       </c>
       <c r="F7" t="n">
-        <v>1.75</v>
+        <v>2.88</v>
       </c>
       <c r="G7" t="n">
-        <v>0.17</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>21-03-2025 10:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>SOUTH AUSTRALIA NPL</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Netherlands - Spain</t>
+          <t>Modbury Jets - Campbelltown City</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>76.7</v>
+        <v>56.7</v>
       </c>
       <c r="F8" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="G8" t="n">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>21-03-2025 09:45</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>VICTORIA NPL</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Croatia - France</t>
+          <t>Dandenong City - Heidelberg United</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>83.3</v>
+        <v>53.3</v>
       </c>
       <c r="F9" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="G9" t="n">
-        <v>0.46</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>21-03-2025 10:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>VICTORIA NPL</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Italy - Germany</t>
+          <t>Preston Lions - Oakleigh Cannons</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="F10" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="G10" t="n">
-        <v>0.65</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>21-03-2025 10:30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>VICTORIA NPL 2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Austria - Serbia</t>
+          <t>Bentleigh Greens - Sunshine Georgies</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>70</v>
+        <v>53.3</v>
       </c>
       <c r="F11" t="n">
-        <v>2.1</v>
+        <v>2.88</v>
       </c>
       <c r="G11" t="n">
-        <v>0.47</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20-03-2025 18:00</t>
+          <t>21-03-2025 19:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>REGIONALLIGA - OST</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Armenia - Georgia</t>
+          <t>Siegendorf - Favoritner AC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F12" t="n">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>0.29</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20-03-2025 01:00</t>
+          <t>21-03-2025 19:30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>JAMAICA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Waterhouse - Vere United</t>
+          <t>Dijon - Valenciennes</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="F13" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="G13" t="n">
-        <v>0.13</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20-03-2025 17:00</t>
+          <t>21-03-2025 20:30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+          <t>SEGUNDA DIVISIÓN</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sierra Leone - Guinea-Bissau</t>
+          <t>Burgos - Almeria</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>70</v>
+        <v>53.3</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>22-03-2025 00:30</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>WORLD CUP - QUALIFICATION SOUTH AMERICA</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Uruguay - Argentina</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Championship</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Match</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Over 2.5 (%)</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Odds 2.5</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>EV over 2.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>20-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>UEFA NATIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Greece - Scotland</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>80</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>19-03-2025 01:30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>COPA DO NORDESTE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CRB - Ferroviario</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>21-03-2025 23:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>MARANHENSE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Maranhão - Tuntum</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>21-03-2025 22:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CHILE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>COPA CHILE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Union Espanola - A. Italiano</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>70</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>21-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - NORDOST</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>FC Rot-Weiß Erfurt - Hertha BSC II</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>21-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>LIGA PREMIER SERIE B</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Real Zamora - Pachuca Premier</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>21-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Mérida AD - Yeclano</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Championship</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Match</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Btts (%)</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Odds btts</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>EV btts</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>20-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>UEFA NATIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Netherlands - Spain</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>20-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>UEFA NATIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Croatia - France</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>20-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>UEFA NATIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Italy - Germany</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>90</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>20-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>UEFA NATIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Austria - Serbia</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>70</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>20-03-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>UEFA NATIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Armenia - Georgia</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>70</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>21-03-2025 00:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>JAMAICA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Montego Bay United - Molynes United</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>20-03-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Sierra Leone - Guinea-Bissau</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>70</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>20-03-2025 20:00</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Gabon - Seychelles</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>72</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>20-03-2025 19:15</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>WORLD CUP - QUALIFICATION ASIA</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Qatar - North Korea</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>92</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>22-03-2025 00:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CHILE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>COPA CHILE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>San Luis - Everton De Vina</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>65</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>21-03-2025 01:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ECUADOR</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>LIGA PRO SERIE B</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Vargas Torres - Guayaquil City FC</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>21-03-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NATIONAL 1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Boulogne - Nimes</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>80</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>21-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>FIRST DIVISION</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>UCD - Treaty United</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>21-03-2025 19:00</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>LIGA PREMIER SERIE B</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Real Zamora - Pachuca Premier</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>80</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>21-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Mérida AD - Yeclano</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>88</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>21-03-2025 22:00</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>WORLD</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>WORLD CUP - QUALIFICATION AFRICA</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Gabon - Seychelles</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>72</v>
-      </c>
-      <c r="F15" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2.02</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Guinea - Somalia</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>76</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.89</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -405,113 +405,309 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20-03-2025 17:00</t>
+          <t>21-03-2025 12:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+          <t>WESTERN AUSTRALIA NPL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Malawi - Namibia</t>
+          <t>Perth - Fremantle City</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21-03-2025 12:00</t>
+          <t>21-03-2025 19:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>WESTERN AUSTRALIA NPL</t>
+          <t>REGIONALLIGA - MITTE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Perth - Fremantle City</t>
+          <t>Weiz - Deutschlandsberger SC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>71.7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>21-03-2025 20:30</t>
+          <t>21-03-2025 22:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+          <t>LIGA PREMIER SERIE A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mérida AD - Yeclano</t>
+          <t>Sporting Canamy - Zacatepec 1948</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>70</v>
+        <v>86.7</v>
       </c>
       <c r="F4" t="n">
-        <v>2.37</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>21-03-2025 03:30</t>
+          <t>21-03-2025 20:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CONCACAF NATIONS LEAGUE</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Canada - Mexico</t>
+          <t>Mérida AD - Yeclano</t>
         </is>
       </c>
       <c r="E5" t="n">
+        <v>70</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>22-03-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ALGERIA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>LIGUE 2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MSP Batna - IB Khémis El Khechna</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>73.3</v>
       </c>
-      <c r="F5" t="n">
-        <v>2.3</v>
+      <c r="F6" t="n">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - NORTH</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Chorley - Alfreton Town</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ESTONIA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ESILIIGA B</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Johvi Phoenix - Läänemaa Haapsalu</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>80</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>22-03-2025 17:30</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Juventus U23 - Foggia</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>22-03-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Sorrento - Latina</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>AD Ceuta FC - Hércules</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>70</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>22-03-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>URUGUAY</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>La Luz - Rampla Juniors</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.9</v>
       </c>
     </row>
   </sheetData>
@@ -525,7 +721,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,6 +787,62 @@
       </c>
       <c r="F2" t="n">
         <v>2.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>21-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DENMARK</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2ND DIVISION - GROUP 1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>HIK - FC Helsingor</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SCOTLAND</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LEAGUE TWO</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Edinburgh City - East Fife</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.4</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +856,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,225 +899,449 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>21-03-2025 19:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Netherlands - Spain</t>
+          <t>Boulogne - Nimes</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>21-03-2025 19:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>REGIONALLIGA - BAYERN</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Croatia - France</t>
+          <t>Augsburg II - Viktoria Aschaffenburg</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>83.3</v>
+        <v>78.3</v>
       </c>
       <c r="F3" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>21-03-2025 19:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>LIGA PREMIER SERIE B</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Italy - Germany</t>
+          <t>Real Zamora - Pachuca Premier</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20-03-2025 19:15</t>
+          <t>21-03-2025 20:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION ASIA</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Qatar - North Korea</t>
+          <t>Mérida AD - Yeclano</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>21-03-2025 19:30</t>
+          <t>21-03-2025 14:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NATIONAL 1</t>
+          <t>FRIENDLIES</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Boulogne - Nimes</t>
+          <t>Thailand - Afghanistan</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>80</v>
       </c>
       <c r="F6" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>21-03-2025 19:00</t>
+          <t>21-03-2025 13:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LIGA PREMIER SERIE B</t>
+          <t>FRIENDLIES</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Real Zamora - Pachuca Premier</t>
+          <t>Singapore - Nepal</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>80</v>
       </c>
       <c r="F7" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>21-03-2025 20:30</t>
+          <t>21-03-2025 22:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mérida AD - Yeclano</t>
+          <t>Guinea - Somalia</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F8" t="n">
-        <v>1.85</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>21-03-2025 22:00</t>
+          <t>22-03-2025 13:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Guinea - Somalia</t>
+          <t>Notts County - Crewe</t>
         </is>
       </c>
       <c r="E9" t="n">
+        <v>80</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Wealdstone - Woking</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SCOTLAND</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Falkirk - Airdrie United</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>80</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>23-03-2025 00:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CHILE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>COPA CHILE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>San Marcos De Arica - D. La Serena</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>100</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - NORTH</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Marine - Peterborough Sports</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
         <v>76</v>
       </c>
-      <c r="F9" t="n">
-        <v>3.8</v>
+      <c r="F13" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - SOUTH</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Truro City - Salisbury</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - SUDWEST</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Freiburg II - FC 08 Villingen</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>76</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>22-03-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Giana Erminio - Triestina</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>22-03-2025 22:00</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>USL CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>New Mexico United - El Paso Locomotive</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>80</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.12</v>
       </c>
     </row>
   </sheetData>
@@ -879,7 +1355,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -932,69 +1408,69 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>21-03-2025 09:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>VICTORIA NPL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Greece - Scotland</t>
+          <t>Dandenong City - Heidelberg United</t>
         </is>
       </c>
       <c r="E2" t="n">
+        <v>90</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G2" t="n">
         <v>80</v>
       </c>
-      <c r="F2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G2" t="n">
-        <v>33.3</v>
-      </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21-03-2025 09:45</t>
+          <t>21-03-2025 19:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>VICTORIA NPL</t>
+          <t>REGIONALLIGA - MITTE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Dandenong City - Heidelberg United</t>
+          <t>Weiz - Deutschlandsberger SC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>90</v>
+        <v>88.8</v>
       </c>
       <c r="F3" t="n">
         <v>1.5</v>
       </c>
       <c r="G3" t="n">
-        <v>80</v>
+        <v>67.5</v>
       </c>
       <c r="H3" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="4">
@@ -1078,93 +1554,467 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - NORDOST</t>
+          <t>REGIONALLIGA - BAYERN</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FC Rot-Weiß Erfurt - Hertha BSC II</t>
+          <t>Augsburg II - Viktoria Aschaffenburg</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>82.5</v>
+        <v>77.5</v>
       </c>
       <c r="F6" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="G6" t="n">
-        <v>50</v>
+        <v>61.3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>21-03-2025 20:30</t>
+          <t>21-03-2025 19:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+          <t>REGIONALLIGA - NORDOST</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Mérida AD - Yeclano</t>
+          <t>FC Rot-Weiß Erfurt - Hertha BSC II</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>86.7</v>
+        <v>82.5</v>
       </c>
       <c r="F7" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="G7" t="n">
-        <v>46.7</v>
+        <v>50</v>
       </c>
       <c r="H7" t="n">
-        <v>3.7</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>21-03-2025 22:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LIGA PREMIER SERIE A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Sporting Canamy - Zacatepec 1948</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>85</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>75</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>21-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Mérida AD - Yeclano</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>21-03-2025 13:30</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>FRIENDLIES</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Singapore - Nepal</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G10" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>22-03-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CZECH-REPUBLIC</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3. LIGA - CFL B</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Ústí Nad Orlicí - Sokol Brozany</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>75</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G11" t="n">
+        <v>70</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DENMARK</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2ND DIVISION - GROUP 1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Skive - Aarhus Fremad</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>80</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G12" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - BAYERN</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Vilzing - Würzburger Kickers</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>80</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G13" t="n">
+        <v>60</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>22-03-2025 02:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>LIGA PREMIER SERIE B</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>FC Santiago - Calor De San Pedro</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>70</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G14" t="n">
+        <v>60</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>22-03-2025 12:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2. LIG</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Menemen Belediyespor - Ankara Demirspor</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>80</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G15" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>23-03-2025 00:30</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>MAJOR LEAGUE SOCCER</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Orlando City SC - DC United</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>85</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G16" t="n">
+        <v>60</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>23-03-2025 00:30</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>MAJOR LEAGUE SOCCER</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Philadelphia Union - St. Louis City</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>75</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G17" t="n">
+        <v>60</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>21-03-2025 02:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>US OPEN CUP</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Flatirons Rush - Union Omaha</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="E18" t="n">
         <v>93.3</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F18" t="n">
         <v>1.5</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G18" t="n">
         <v>73.3</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H18" t="n">
         <v>2.25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>22-03-2025 01:00</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>FRIENDLIES</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Puerto Rico - Dominican Republic</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G19" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.6</v>
       </c>
     </row>
   </sheetData>
@@ -1178,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1226,590 +2076,590 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>21-03-2025 10:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>SOUTH AUSTRALIA NPL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Austria - Serbia</t>
+          <t>Adelaide Comets - Para Hills Knights</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
+        <v>62.3</v>
       </c>
       <c r="F2" t="n">
         <v>1.75</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>21-03-2025 09:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>VICTORIA NPL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Greece - Scotland</t>
+          <t>Melbourne Knights - Melbourne Victory II</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.14</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>21-03-2025 12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>WESTERN AUSTRALIA NPL</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Kosovo - Iceland</t>
+          <t>Perth - Fremantle City</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="G4" t="n">
-        <v>0.38</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20-03-2025 23:00</t>
+          <t>21-03-2025 19:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CEARENSE - 2</t>
+          <t>REGIONALLIGA - MITTE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Maranguape - Caucaia</t>
+          <t>Wildon - SK Vorwarts Steyr</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="G5" t="n">
-        <v>0.41</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20-03-2025 23:00</t>
+          <t>21-03-2025 19:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>COPA DO NORDESTE</t>
+          <t>REGIONALLIGA - MITTE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Altos - Moto Club</t>
+          <t>Weiz - Deutschlandsberger SC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>56.7</v>
+        <v>71.7</v>
       </c>
       <c r="F6" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20-03-2025 22:30</t>
+          <t>21-03-2025 18:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>JAMAICA</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>REGIONALLIGA - WEST</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Chapelton - Humble Lions</t>
+          <t>SVG Reichenau - Pinzgau Saalfelden</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>56.7</v>
       </c>
       <c r="F7" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>21-03-2025 00:00</t>
+          <t>21-03-2025 19:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>US OPEN CUP</t>
+          <t>CBF BRASILEIRO U20</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Long Island Rough Riders - Charlotte Independence</t>
+          <t>Athletico PR U20 - Flamengo U20</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>50</v>
+        <v>63.3</v>
       </c>
       <c r="F8" t="n">
-        <v>3.35</v>
+        <v>2.4</v>
       </c>
       <c r="G8" t="n">
-        <v>0.68</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20-03-2025 17:00</t>
+          <t>21-03-2025 22:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+          <t>COPA CHILE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Malawi - Namibia</t>
+          <t>Huachipato - O'Higgins</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>70</v>
+        <v>53.3</v>
       </c>
       <c r="F9" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="G9" t="n">
-        <v>0.92</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>21-03-2025 10:45</t>
+          <t>21-03-2025 15:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SOUTH AUSTRALIA NPL</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Adelaide Comets - Para Hills Knights</t>
+          <t>Millwall U21 - Bristol City U21</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>62.3</v>
+        <v>63.3</v>
       </c>
       <c r="F10" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="G10" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>21-03-2025 09:30</t>
+          <t>21-03-2025 14:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>VICTORIA NPL</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Melbourne Knights - Melbourne Victory II</t>
+          <t>Birmingham City U21 - Peterborough United U21</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F11" t="n">
         <v>2.1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.26</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>21-03-2025 12:00</t>
+          <t>21-03-2025 20:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>WESTERN AUSTRALIA NPL</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Perth - Fremantle City</t>
+          <t>Colchester United U21 - Ipswich Town U21</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>80</v>
+        <v>56.7</v>
       </c>
       <c r="F12" t="n">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>0.48</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>21-03-2025 19:00</t>
+          <t>21-03-2025 19:30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AUSTRIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - MITTE</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Wildon - SK Vorwarts Steyr</t>
+          <t>Le Mans - Gobelins</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="F13" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="G13" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>21-03-2025 22:00</t>
+          <t>21-03-2025 19:30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CHILE</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>COPA CHILE</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Huachipato - O'Higgins</t>
+          <t>Boulogne - Nimes</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F14" t="n">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>21-03-2025 03:00</t>
+          <t>21-03-2025 19:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>COSTA-RICA</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LIGA DE ASCENSO</t>
+          <t>REGIONALLIGA - NORDOST</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Guadalupe FC - Cariari Pococi</t>
+          <t>FC Rot-Weiß Erfurt - Hertha BSC II</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>50</v>
+        <v>56.7</v>
       </c>
       <c r="F15" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>21-03-2025 15:00</t>
+          <t>21-03-2025 11:35</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ISRAEL</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>LIGA ALEF</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Millwall U21 - Bristol City U21</t>
+          <t>FC Jerusalem - Maccabi Yavne</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>63.3</v>
+        <v>50</v>
       </c>
       <c r="F16" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>21-03-2025 19:30</t>
+          <t>21-03-2025 22:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NATIONAL 1</t>
+          <t>LIGA PREMIER SERIE A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Le Mans - Gobelins</t>
+          <t>Sporting Canamy - Zacatepec 1948</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>66.7</v>
+        <v>86.7</v>
       </c>
       <c r="F17" t="n">
-        <v>1.78</v>
+        <v>2.65</v>
       </c>
       <c r="G17" t="n">
-        <v>0.19</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>21-03-2025 19:30</t>
+          <t>21-03-2025 15:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>SLOVAKIA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NATIONAL 1</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Boulogne - Nimes</t>
+          <t>Žilina II - Púchov</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>60</v>
       </c>
       <c r="F18" t="n">
-        <v>2.17</v>
+        <v>1.75</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>21-03-2025 19:00</t>
+          <t>21-03-2025 15:30</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>SLOVENIA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - NORDOST</t>
+          <t>2. SNL</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FC Rot-Weiß Erfurt - Hertha BSC II</t>
+          <t>Bistrica - Brinje-Grosuplje</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>56.7</v>
+        <v>66.7</v>
       </c>
       <c r="F19" t="n">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="G19" t="n">
-        <v>0.11</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>21-03-2025 02:00</t>
+          <t>21-03-2025 20:30</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LIGA DE EXPANSIÓN MX</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Correcaminos Uat - Venados FC</t>
+          <t>Real Madrid II - Real Murcia</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>53.3</v>
+        <v>66.7</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="21">
@@ -1830,141 +2680,2063 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Real Madrid II - Real Murcia</t>
+          <t>Mérida AD - Yeclano</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>66.7</v>
+        <v>70</v>
       </c>
       <c r="F21" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="G21" t="n">
-        <v>0.53</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>21-03-2025 20:30</t>
+          <t>21-03-2025 20:45</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>WALES</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mérida AD - Yeclano</t>
+          <t>Haverfordwest County AFC - Penybont</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F22" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="G22" t="n">
-        <v>0.66</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>21-03-2025 02:00</t>
+          <t>21-03-2025 20:45</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>US OPEN CUP</t>
+          <t>FRIENDLIES</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Flatirons Rush - Union Omaha</t>
+          <t>Northern Ireland - Switzerland</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F23" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="G23" t="n">
-        <v>1.75</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>21-03-2025 03:30</t>
+          <t>22-03-2025 16:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CONCACAF NATIONS LEAGUE</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Canada - Mexico</t>
+          <t>AFC Wimbledon - Barrow</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>73.3</v>
+        <v>56.7</v>
       </c>
       <c r="F24" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>21-03-2025 20:45</t>
+          <t>22-03-2025 16:00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>LEAGUE TWO</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Cheltenham - Milton Keynes Dons</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>51</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>LEAGUE TWO</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Fleetwood Town - Tranmere</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>LEAGUE TWO</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Swindon Town - Accrington ST</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>51</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>SCOTLAND</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Morton - Queen's Park</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>60</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>22-03-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>SCOTLAND</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Cove Rangers - Stenhousemuir</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>SCOTLAND</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>LEAGUE TWO</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Stirling Albion - Peterhead</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>50</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>22-03-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ALGERIA</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>LIGUE 2</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>MSP Batna - IB Khémis El Khechna</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>23-03-2025 00:30</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ARGENTINA</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>COPA ARGENTINA</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Central Cordoba De Santiago - Quilmes</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>22-03-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ARGENTINA</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>PRIMERA NACIONAL</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>San Telmo - CA Estudiantes</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>60</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>22-03-2025 21:00</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ARGENTINA</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>PRIMERA NACIONAL</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Gimnasia Jujuy - Temperley</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>60</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>22-03-2025 09:00</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>NEW SOUTH WALES NPL 2</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Dulwich Hill - Mounties Wanderers</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>22-03-2025 09:00</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NEW SOUTH WALES NPL 2</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Bonnyrigg White Eagles - SD Raiders</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F36" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>22-03-2025 05:30</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>SOUTH AUSTRALIA NPL</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Playford City Patriots - Adelaide City</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>60</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>22-03-2025 05:30</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>SOUTH AUSTRALIA STATE LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Salisbury United - Adelaide Blue Eagles</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>22-03-2025 08:00</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>WESTERN AUSTRALIA NPL</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Perth RedStar - Armadale</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>22-03-2025 08:00</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>WESTERN AUSTRALIA NPL</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Floreat Athena - Bayswater City</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>60</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>22-03-2025 08:00</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>WESTERN AUSTRALIA NPL</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Stirling Lions - Perth Glory II</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>50</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:30</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>BULGARIA</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>SECOND LEAGUE</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Marek - Pirin Blagoevgrad</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>60</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:30</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>BULGARIA</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>SECOND LEAGUE</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Botev Plovdiv II - CSKA 1948 Sofia II</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:30</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>BULGARIA</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>SECOND LEAGUE</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Ludogorets II - CSKA Sofia II</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:30</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>BULGARIA</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>SECOND LEAGUE</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Nesebar - Spartak Pleven</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>23-03-2025 00:20</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>COLOMBIA</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>PRIMERA A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Deportivo Pereira - Once Caldas</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>22-03-2025 01:30</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>COLOMBIA</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>PRIMERA B</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Popayan - Real Santander</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>22-03-2025 15:30</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CROATIA</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>FIRST NL</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Dubrava Zagreb - Jarun</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>50</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>22-03-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>CZECH-REPUBLIC</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>3. LIGA - CFL B</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Ústí Nad Orlicí - Sokol Brozany</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>DENMARK</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2ND DIVISION - GROUP 1</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Skive - Aarhus Fremad</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>22-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>EGYPT</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>LEAGUE CUP</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Future FC - Smouha SC</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - NORTH</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Buxton - King's Lynn Town</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>50</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - NORTH</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Chorley - Alfreton Town</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - NORTH</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Leamington - South Shields</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>60</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - SOUTH</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Eastbourne Borough - Farnborough</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - SOUTH</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Hemel Hempstead Town - Aveley</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - SOUTH</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>St Albans City - AFC Hornchurch</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>50</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ESTONIA</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>ESILIIGA B</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Johvi Phoenix - Läänemaa Haapsalu</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>80</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - BAYERN</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Hankofen-Hailing - Nürnberg II</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>60</v>
+      </c>
+      <c r="F59" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - SUDWEST</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Hessen Kassel - Göppinger SV</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>60</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - SUDWEST</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Bahlinger SC - Hoffenheim II</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>60</v>
+      </c>
+      <c r="F61" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - SUDWEST</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Stuttgarter Kickers - Kickers Offenbach</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>22-03-2025 17:30</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE B</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Pontedera - Ascoli</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>60</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>22-03-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE B</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Città Di Campobasso - Athletic Carpi</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>60</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>22-03-2025 17:30</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Juventus U23 - Foggia</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>22-03-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Sorrento - Latina</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>22-03-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Cavese - Trapani 1905</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>50</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>23-03-2025 00:30</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>PARAGUAY</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>DIVISION PROFESIONAL - APERTURA</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Olimpia - Nacional Asuncion</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>60</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>22-03-2025 08:30</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>SOUTH-KOREA</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>K LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Gwangju FC - Pohang Steelers</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>60</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>22-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Zamora - Gimnastic</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>50</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>22-03-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Atlético Madrid II - Real Betis II</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>60</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>AD Ceuta FC - Hércules</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>70</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>22-03-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Recreativo Huelva - Sanluqueño</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>60</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>22-03-2025 21:00</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Granada CF - Oviedo</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>22-03-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Malaga - Racing Ferrol</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>50</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>22-03-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Real Sociedad III - Subiza</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>50</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Real Zaragoza II - Anguiano</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>50</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:30</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 4</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Juventud Torremolinos - Linares Deportivo</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>50</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>22-03-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 4</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Cádiz II - Villanovense</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>22-03-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>SS Reyes - Real Madrid III</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>60</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>22-03-2025 12:00</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2. LIG</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Tuzlaspor - İnegölspor</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>60</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>22-03-2025 21:30</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>MAJOR LEAGUE SOCCER</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Minnesota United FC - Los Angeles Galaxy</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>23-03-2025 00:30</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>MAJOR LEAGUE SOCCER</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Columbus Crew - New York City FC</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>23-03-2025 00:30</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>MAJOR LEAGUE SOCCER</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>New York Red Bulls - Toronto FC</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>60</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>21-03-2025 02:00</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>US OPEN CUP</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Flatirons Rush - Union Omaha</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>50</v>
+      </c>
+      <c r="F85" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>22-03-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>URUGUAY</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>La Luz - Rampla Juniors</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>22-03-2025 01:00</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
           <t>WORLD</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>FRIENDLIES</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Northern Ireland - Switzerland</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F25" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1.31</v>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Puerto Rico - Dominican Republic</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>50</v>
+      </c>
+      <c r="F87" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>
@@ -1978,7 +4750,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2026,100 +4798,100 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20-03-2025 18:00</t>
+          <t>21-03-2025 09:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>NEW SOUTH WALES NPL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Türkiye - Hungary</t>
+          <t>Manly United - NWS Spirit</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="G2" t="n">
-        <v>1.8</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20-03-2025 14:00</t>
+          <t>21-03-2025 10:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>SOUTH AUSTRALIA NPL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Queens Park Rangers U21 - Watford U21</t>
+          <t>Adelaide Raiders - West Torrens Birkalla</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="G3" t="n">
-        <v>0.58</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20-03-2025 14:00</t>
+          <t>21-03-2025 10:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+          <t>SOUTH AUSTRALIA NPL</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mozambique - Uganda</t>
+          <t>Modbury Jets - Campbelltown City</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>56.7</v>
       </c>
       <c r="F4" t="n">
-        <v>2.95</v>
+        <v>2.5</v>
       </c>
       <c r="G4" t="n">
-        <v>0.48</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>21-03-2025 09:30</t>
+          <t>21-03-2025 09:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2129,28 +4901,28 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NEW SOUTH WALES NPL</t>
+          <t>VICTORIA NPL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Manly United - NWS Spirit</t>
+          <t>Dandenong City - Heidelberg United</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F5" t="n">
-        <v>2.5</v>
+        <v>1.91</v>
       </c>
       <c r="G5" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>21-03-2025 09:30</t>
+          <t>21-03-2025 10:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2160,28 +4932,28 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NEW SOUTH WALES NPL</t>
+          <t>VICTORIA NPL</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sutherland Sharks - Central Coast II</t>
+          <t>Preston Lions - Oakleigh Cannons</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>3.5</v>
+        <v>1.91</v>
       </c>
       <c r="G6" t="n">
-        <v>0.75</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>21-03-2025 10:00</t>
+          <t>21-03-2025 10:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2191,146 +4963,146 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SOUTH AUSTRALIA NPL</t>
+          <t>VICTORIA NPL 2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Adelaide Raiders - West Torrens Birkalla</t>
+          <t>Bentleigh Greens - Sunshine Georgies</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>70</v>
+        <v>53.3</v>
       </c>
       <c r="F7" t="n">
         <v>2.88</v>
       </c>
       <c r="G7" t="n">
-        <v>1.02</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>21-03-2025 10:00</t>
+          <t>21-03-2025 19:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SOUTH AUSTRALIA NPL</t>
+          <t>REGIONALLIGA - OST</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Modbury Jets - Campbelltown City</t>
+          <t>Siegendorf - Favoritner AC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>56.7</v>
+        <v>50</v>
       </c>
       <c r="F8" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>21-03-2025 09:45</t>
+          <t>21-03-2025 19:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>DENMARK</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>VICTORIA NPL</t>
+          <t>2ND DIVISION - GROUP 1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Dandenong City - Heidelberg United</t>
+          <t>HIK - FC Helsingor</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>53.3</v>
+        <v>73.3</v>
       </c>
       <c r="F9" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>21-03-2025 10:30</t>
+          <t>21-03-2025 19:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>VICTORIA NPL</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Preston Lions - Oakleigh Cannons</t>
+          <t>Dijon - Valenciennes</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>50</v>
       </c>
       <c r="F10" t="n">
-        <v>1.91</v>
+        <v>2.9</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.05</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>21-03-2025 10:30</t>
+          <t>21-03-2025 19:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>VICTORIA NPL 2</t>
+          <t>NATIONAL 2 - GROUP C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Bentleigh Greens - Sunshine Georgies</t>
+          <t>Epinal - Chambly Thelle FC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F11" t="n">
-        <v>2.88</v>
+        <v>2.25</v>
       </c>
       <c r="G11" t="n">
-        <v>0.54</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="12">
@@ -2341,120 +5113,1081 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AUSTRIA</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - OST</t>
+          <t>REGIONALLIGA - BAYERN</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Siegendorf - Favoritner AC</t>
+          <t>Augsburg II - Viktoria Aschaffenburg</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>21-03-2025 19:30</t>
+          <t>21-03-2025 19:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NATIONAL 1</t>
+          <t>REGIONALLIGA - SUDWEST</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Dijon - Valenciennes</t>
+          <t>Eintracht Frankfurt II - FC Astoria Walldorf</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F13" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="G13" t="n">
-        <v>0.45</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>21-03-2025 20:30</t>
+          <t>21-03-2025 11:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ISRAEL</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN</t>
+          <t>LIGA ALEF</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Burgos - Almeria</t>
+          <t>Maccabi Shaarayim - Shimshon Tel Aviv</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>53.3</v>
+        <v>57.7</v>
       </c>
       <c r="F14" t="n">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="G14" t="n">
-        <v>0.36</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>21-03-2025 19:45</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>POLAND</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>III LIGA - GROUP 1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Unia Skierniewice - Victoria Sulejówek</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F15" t="n">
+        <v>8</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>21-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Burgos - Almeria</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>21-03-2025 21:00</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>WALES</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Aberystwyth Town - Briton Ferry</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>22-03-2025 00:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>WORLD</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>WORLD CUP - QUALIFICATION SOUTH AMERICA</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Uruguay - Argentina</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="E18" t="n">
         <v>53.3</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F18" t="n">
         <v>2.88</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G18" t="n">
         <v>0.54</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Northampton - Blackpool</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>22-03-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Altrincham - Barnet</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Hartlepool - Boston United</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>60</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Oldham - FC Halifax Town</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>SCOTLAND</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Dumbarton - Queen Of The South</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>SCOTLAND</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>LEAGUE TWO</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Edinburgh City - East Fife</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>22-03-2025 09:00</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>NEW SOUTH WALES NPL</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Rockdale City Suns - Blacktown City</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>60</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>22-03-2025 09:00</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NEW SOUTH WALES NPL 2</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Inter Lions - Bankstown City Lions</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>60</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>22-03-2025 05:30</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>SOUTH AUSTRALIA STATE LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Fulham United - Cumberland United</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>60</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>22-03-2025 09:30</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>SOUTH AUSTRALIA STATE LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Adelaide Cobras - West Adelaide</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>22-03-2025 08:00</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>WESTERN AUSTRALIA NPL</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Sorrento - Olympic Kingsway</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>60</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:30</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>BULGARIA</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>SECOND LEAGUE</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Yantra 2019 - Sportist Svoge</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>22-03-2025 22:00</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CHILE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>COPA CHILE</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Universidad De Concepcion - Curico Unido</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>50</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>22-03-2025 10:30</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CZECH-REPUBLIC</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>3. LIGA - CFL A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Slovan Velvary - Příbram</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>60</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>22-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>EGYPT</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>SECOND LEAGUE</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Abu Qair Semad - El Seka El Hadid</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>50</v>
+      </c>
+      <c r="F33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>22-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>EGYPT</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>SECOND LEAGUE</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>La Viena FC - Kahraba Ismailia</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>50</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - NORTH</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Radcliffe - Brackley Town</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>50</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - SOUTH</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Boreham Wood - Dorking Wanderers</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>50</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - SOUTH</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Slough Town - Enfield Town</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>50</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>22-03-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>NATIONAL 1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Quevilly - Aubagne</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>60</v>
+      </c>
+      <c r="F38" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - BAYERN</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Greuther Fürth II - Türkgücü-Ataspor</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F39" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - SUDWEST</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Eintracht Trier - FSV Frankfurt</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>22-03-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE B</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Arezzo - Milan II</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>50</v>
+      </c>
+      <c r="F41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>NORTHERN-IRELAND</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>PREMIERSHIP</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Glenavon FC - Larne</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>60</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>NORTHERN-IRELAND</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>PREMIERSHIP</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Loughgall - Ballymena United</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:15</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Elche - Eldense</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F44" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Real Zaragoza II - Anguiano</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>50</v>
+      </c>
+      <c r="F45" t="n">
+        <v>4</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>URUGUAY</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Fenix - Tacuarembo</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>50</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -2468,7 +6201,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2516,38 +6249,38 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>19-03-2025 01:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>COPA DO NORDESTE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Greece - Scotland</t>
+          <t>CRB - Ferroviario</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F2" t="n">
         <v>2.2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.76</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>19-03-2025 01:30</t>
+          <t>21-03-2025 23:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2557,84 +6290,84 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>COPA DO NORDESTE</t>
+          <t>MARANHENSE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CRB - Ferroviario</t>
+          <t>Maranhão - Tuntum</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="G3" t="n">
-        <v>0.61</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>21-03-2025 23:00</t>
+          <t>21-03-2025 22:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MARANHENSE</t>
+          <t>COPA CHILE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Maranhão - Tuntum</t>
+          <t>Union Espanola - A. Italiano</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F4" t="n">
         <v>1.73</v>
       </c>
       <c r="G4" t="n">
-        <v>0.38</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>21-03-2025 22:00</t>
+          <t>21-03-2025 19:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CHILE</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>COPA CHILE</t>
+          <t>REGIONALLIGA - NORDOST</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Union Espanola - A. Italiano</t>
+          <t>FC Rot-Weiß Erfurt - Hertha BSC II</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>82.5</v>
       </c>
       <c r="F5" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="G5" t="n">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6">
@@ -2645,24 +6378,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - NORDOST</t>
+          <t>LIGA PREMIER SERIE B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FC Rot-Weiß Erfurt - Hertha BSC II</t>
+          <t>Real Zamora - Pachuca Premier</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>82.5</v>
+        <v>73.3</v>
       </c>
       <c r="F6" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="G6" t="n">
         <v>0.4</v>
@@ -2671,63 +6404,497 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>21-03-2025 19:00</t>
+          <t>21-03-2025 20:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LIGA PREMIER SERIE B</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Real Zamora - Pachuca Premier</t>
+          <t>Mérida AD - Yeclano</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>73.3</v>
+        <v>86.7</v>
       </c>
       <c r="F7" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>21-03-2025 20:30</t>
+          <t>22-03-2025 16:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mérida AD - Yeclano</t>
+          <t>Swindon Town - Accrington ST</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>86.7</v>
+        <v>70</v>
       </c>
       <c r="F8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>22-03-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SCOTLAND</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Cove Rangers - Stenhousemuir</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>22-03-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ARGENTINA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PRIMERA C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Central Cordoba - Deportivo Muñiz</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>70</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>22-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CATARINENSE - 1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Avai - Chapecoense-sc</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>70</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:30</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BULGARIA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SECOND LEAGUE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Nesebar - Spartak Pleven</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>70</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>22-03-2025 22:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CHILE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>COPA CHILE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Universidad De Concepcion - Curico Unido</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DENMARK</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2ND DIVISION - GROUP 1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Skive - Aarhus Fremad</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>80</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - NORTH</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Chorley - Alfreton Town</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - SUDWEST</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Hessen Kassel - Göppinger SV</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - SUDWEST</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Barockstadt Fulda-Lehn. - SGV Freiberg</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>22-03-2025 02:00</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>LIGA PREMIER SERIE B</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>FC Santiago - Calor De San Pedro</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>70</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>NORTHERN-IRELAND</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>PREMIERSHIP</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Cliftonville FC - Carrick Rangers</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>70</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>23-03-2025 00:30</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>PARAGUAY</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>DIVISION PROFESIONAL - APERTURA</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Olimpia - Nacional Asuncion</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>70</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>22-03-2025 12:00</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2. LIG</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Menemen Belediyespor - Ankara Demirspor</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>80</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>22-03-2025 22:00</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>USL CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>New Mexico United - El Paso Locomotive</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>75</v>
+      </c>
+      <c r="F22" t="n">
         <v>2.1</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.82</v>
+      <c r="G22" t="n">
+        <v>0.58</v>
       </c>
     </row>
   </sheetData>
@@ -2741,7 +6908,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2789,497 +6956,1303 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>22-03-2025 00:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>COPA CHILE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Netherlands - Spain</t>
+          <t>San Luis - Everton De Vina</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>76.7</v>
+        <v>65</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>21-03-2025 19:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Croatia - France</t>
+          <t>Boulogne - Nimes</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>83.3</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>1.75</v>
+        <v>2.06</v>
       </c>
       <c r="G3" t="n">
-        <v>0.46</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>21-03-2025 19:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>REGIONALLIGA - BAYERN</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Italy - Germany</t>
+          <t>Augsburg II - Viktoria Aschaffenburg</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>90</v>
+        <v>78.3</v>
       </c>
       <c r="F4" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="G4" t="n">
-        <v>0.65</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>21-03-2025 20:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>IRELAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>FIRST DIVISION</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Austria - Serbia</t>
+          <t>UCD - Treaty United</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>66.7</v>
       </c>
       <c r="F5" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="G5" t="n">
-        <v>0.47</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20-03-2025 18:00</t>
+          <t>21-03-2025 11:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ISRAEL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>LIGA ALEF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Armenia - Georgia</t>
+          <t>Hapoel Herzliya - Holon Yermiyahu</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>70</v>
+        <v>71.7</v>
       </c>
       <c r="F6" t="n">
         <v>1.85</v>
       </c>
       <c r="G6" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>21-03-2025 00:00</t>
+          <t>21-03-2025 11:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>JAMAICA</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>CAMPIONATO PRIMAVERA - 2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Montego Bay United - Molynes United</t>
+          <t>Pescara U19 - Benevento U19</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>65.8</v>
+        <v>70</v>
       </c>
       <c r="F7" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20-03-2025 17:00</t>
+          <t>21-03-2025 19:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+          <t>LIGA PREMIER SERIE B</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sierra Leone - Guinea-Bissau</t>
+          <t>Real Zamora - Pachuca Premier</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20-03-2025 20:00</t>
+          <t>21-03-2025 15:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SLOVENIA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+          <t>2. SNL</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Gabon - Seychelles</t>
+          <t>Bistrica - Brinje-Grosuplje</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F9" t="n">
-        <v>4.2</v>
+        <v>1.83</v>
       </c>
       <c r="G9" t="n">
-        <v>2.02</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20-03-2025 19:15</t>
+          <t>21-03-2025 20:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION ASIA</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Qatar - North Korea</t>
+          <t>Mérida AD - Yeclano</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="G10" t="n">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>22-03-2025 00:00</t>
+          <t>21-03-2025 20:45</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CHILE</t>
+          <t>WALES</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>COPA CHILE</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>San Luis - Everton De Vina</t>
+          <t>Newtown AFC - GAP Connah S Quay FC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>21-03-2025 01:00</t>
+          <t>21-03-2025 14:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ECUADOR</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LIGA PRO SERIE B</t>
+          <t>FRIENDLIES</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Vargas Torres - Guayaquil City FC</t>
+          <t>Thailand - Afghanistan</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>66.7</v>
+        <v>80</v>
       </c>
       <c r="F12" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="G12" t="n">
-        <v>0.22</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>21-03-2025 19:30</t>
+          <t>21-03-2025 13:30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NATIONAL 1</t>
+          <t>FRIENDLIES</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Boulogne - Nimes</t>
+          <t>Singapore - Nepal</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>80</v>
       </c>
       <c r="F13" t="n">
-        <v>2.06</v>
+        <v>1.75</v>
       </c>
       <c r="G13" t="n">
-        <v>0.65</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>21-03-2025 20:45</t>
+          <t>21-03-2025 22:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>IRELAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>FIRST DIVISION</t>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>UCD - Treaty United</t>
+          <t>Guinea - Somalia</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>66.7</v>
+        <v>76</v>
       </c>
       <c r="F14" t="n">
-        <v>1.83</v>
+        <v>3.8</v>
       </c>
       <c r="G14" t="n">
-        <v>0.22</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>21-03-2025 19:00</t>
+          <t>22-03-2025 16:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LIGA PREMIER SERIE B</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Real Zamora - Pachuca Premier</t>
+          <t>Cheltenham - Milton Keynes Dons</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>80</v>
+        <v>67.8</v>
       </c>
       <c r="F15" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="G15" t="n">
-        <v>0.36</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>21-03-2025 20:30</t>
+          <t>22-03-2025 16:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Mérida AD - Yeclano</t>
+          <t>Chesterfield - Harrogate Town</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="F16" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="G16" t="n">
-        <v>0.63</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>21-03-2025 22:00</t>
+          <t>22-03-2025 16:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Guinea - Somalia</t>
+          <t>Grimsby - Newport County</t>
         </is>
       </c>
       <c r="E17" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>22-03-2025 13:30</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>LEAGUE TWO</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Notts County - Crewe</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>80</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>AFC Fylde - Forest Green</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>72</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Aldershot Town - Ebbsfleet United</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Maidenhead - Rochdale</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Wealdstone - Woking</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>SCOTLAND</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Ayr Utd - Hamilton Academical</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>70</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>SCOTLAND</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Falkirk - Airdrie United</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>80</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>SCOTLAND</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Inverness CT - Alloa Athletic</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SCOTLAND</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Montrose - Annan Athletic</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>22-03-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ARGENTINA</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>PRIMERA C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Central Cordoba - Deportivo Muñiz</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>70</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>23-03-2025 00:00</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CHILE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>COPA CHILE</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>San Marcos De Arica - D. La Serena</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>100</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>22-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>EGYPT</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>SECOND LEAGUE</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Tanta SC - Tersana</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>72</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - NORTH</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Marine - Peterborough Sports</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
         <v>76</v>
       </c>
-      <c r="F17" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.89</v>
+      <c r="F30" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - NORTH</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Radcliffe - Brackley Town</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>72</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - SOUTH</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Truro City - Salisbury</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - SUDWEST</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Freiburg II - FC 08 Villingen</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>76</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>22-03-2025 12:00</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>GREECE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>SUPER LEAGUE 2</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Panachaiki FC - Panargiakos</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>22-03-2025 12:00</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>INDIA</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>I-LEAGUE</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>SC Bengaluru - Gokulam</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>68</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>22-03-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Giana Erminio - Triestina</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>22-03-2025 17:30</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE B</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Pontedera - Ascoli</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>68</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>22-03-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE B</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Arezzo - Milan II</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>68</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>23-03-2025 00:30</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>PARAGUAY</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>DIVISION PROFESIONAL - APERTURA</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Olimpia - Nacional Asuncion</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>22-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 4</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Águilas - Xerez</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>68</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>22-03-2025 22:00</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>USL CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>New Mexico United - El Paso Locomotive</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>80</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>22-03-2025 23:00</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>URUGUAY</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN - APERTURA</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Club Nacional - Plaza Colonia</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>70</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>URUGUAY</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Fenix - Tacuarembo</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>72</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -405,91 +405,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21-03-2025 12:00</t>
+          <t>23-03-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>WESTERN AUSTRALIA NPL</t>
+          <t>PRIMERA NACIONAL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Perth - Fremantle City</t>
+          <t>Club Atlético Güemes - Deportivo Maipu</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21-03-2025 19:00</t>
+          <t>23-03-2025 15:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AUSTRIA</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - MITTE</t>
+          <t>SERIE C - GIRONE A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Weiz - Deutschlandsberger SC</t>
+          <t>Feralpisalo - Trento</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>71.7</v>
+        <v>73.3</v>
       </c>
       <c r="F3" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>21-03-2025 22:00</t>
+          <t>23-03-2025 06:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>JAPAN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LIGA PREMIER SERIE A</t>
+          <t>J3 LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sporting Canamy - Zacatepec 1948</t>
+          <t>Nara Club - Thespakusatsu Gunma</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>86.7</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>21-03-2025 20:30</t>
+          <t>23-03-2025 17:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -499,215 +499,103 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Mérida AD - Yeclano</t>
+          <t>Barakaldo - Celta De Vigo II</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>70</v>
       </c>
       <c r="F5" t="n">
-        <v>2.37</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>22-03-2025 15:00</t>
+          <t>23-03-2025 14:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LIGUE 2</t>
+          <t>SEGUNDA DIVISIÓN</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MSP Batna - IB Khémis El Khechna</t>
+          <t>Levante - Castellón</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>73.3</v>
       </c>
       <c r="F6" t="n">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 14:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SWITZERLAND</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>1. LIGA PROMOTION</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Chorley - Alfreton Town</t>
+          <t>Delémont - Bavois</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>71.3</v>
+        <v>80</v>
       </c>
       <c r="F7" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>24-03-2025 00:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ESTONIA</t>
+          <t>URUGUAY</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ESILIIGA B</t>
+          <t>PRIMERA DIVISIÓN - APERTURA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Johvi Phoenix - Läänemaa Haapsalu</t>
+          <t>Wanderers - Miramar</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F8" t="n">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>22-03-2025 17:30</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>SERIE C - GIRONE C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Juventus U23 - Foggia</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>22-03-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>SERIE C - GIRONE C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Sorrento - Latina</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>22-03-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>AD Ceuta FC - Hércules</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>70</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>22-03-2025 20:00</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>URUGUAY</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>La Luz - Rampla Juniors</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,85 +652,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21-03-2025 10:00</t>
+          <t>23-03-2025 12:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SOUTH AUSTRALIA NPL</t>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Adelaide Raiders - West Torrens Birkalla</t>
+          <t>Atlético Paso - CD Coria</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>2.88</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21-03-2025 19:00</t>
+          <t>23-03-2025 03:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DENMARK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2ND DIVISION - GROUP 1</t>
+          <t>USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HIK - FC Helsingor</t>
+          <t>Phoenix Rising - Rhode Island</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>22-03-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>SCOTLAND</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LEAGUE TWO</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Edinburgh City - East Fife</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
     </row>
   </sheetData>
@@ -856,7 +716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -899,449 +759,365 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21-03-2025 19:30</t>
+          <t>23-03-2025 00:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NATIONAL 1</t>
+          <t>COPA CHILE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Boulogne - Nimes</t>
+          <t>San Marcos De Arica - D. La Serena</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>2.06</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21-03-2025 19:00</t>
+          <t>22-03-2025 22:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - BAYERN</t>
+          <t>USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Augsburg II - Viktoria Aschaffenburg</t>
+          <t>New Mexico United - El Paso Locomotive</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>78.3</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>1.7</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>21-03-2025 19:00</t>
+          <t>23-03-2025 15:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LIGA PREMIER SERIE B</t>
+          <t>UEFA NATIONS LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Real Zamora - Pachuca Premier</t>
+          <t>Georgia - Armenia</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>21-03-2025 20:30</t>
+          <t>23-03-2025 18:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+          <t>UEFA NATIONS LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Mérida AD - Yeclano</t>
+          <t>Slovenia - Slovakia</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>88</v>
+        <v>76.7</v>
       </c>
       <c r="F5" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>21-03-2025 14:00</t>
+          <t>23-03-2025 19:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FRIENDLIES</t>
+          <t>PRIMERA B METROPOLITANA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Thailand - Afghanistan</t>
+          <t>Dock Sud - Argentino De Merlo</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>75.8</v>
       </c>
       <c r="F6" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>21-03-2025 13:30</t>
+          <t>23-03-2025 22:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>FRIENDLIES</t>
+          <t>COPA CHILE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Singapore - Nepal</t>
+          <t>Magallanes - Recoleta</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>80</v>
       </c>
       <c r="F7" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>21-03-2025 22:00</t>
+          <t>23-03-2025 01:30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+          <t>LIGA PREMIER SERIE A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Guinea - Somalia</t>
+          <t>Gavilanes FC Matamoros - Petroleros De Salamanca</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F8" t="n">
-        <v>3.8</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>22-03-2025 13:30</t>
+          <t>23-03-2025 19:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>POLAND</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>II LIGA - EAST</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Notts County - Crewe</t>
+          <t>Chojniczanka Chojnice - Hutnik Kraków</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>80</v>
+        <v>83.3</v>
       </c>
       <c r="F9" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 17:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Wealdstone - Woking</t>
+          <t>Unionistas De Salamanca - Gimnástica Segoviana</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>78.3</v>
+        <v>76</v>
       </c>
       <c r="F10" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 18:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Falkirk - Airdrie United</t>
+          <t>Tudelano - Teruel</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F11" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>23-03-2025 00:00</t>
+          <t>23-03-2025 12:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CHILE</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>COPA CHILE</t>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>San Marcos De Arica - D. La Serena</t>
+          <t>Melilla - Illescas</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="F12" t="n">
-        <v>1.83</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 12:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Marine - Peterborough Sports</t>
+          <t>Unión Adarve - Tenerife II</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>76</v>
       </c>
       <c r="F13" t="n">
-        <v>1.77</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 03:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Truro City - Salisbury</t>
+          <t>Orange County SC - Monterey Bay</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>78.90000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>1.78</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>22-03-2025 14:00</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>GERMANY</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>REGIONALLIGA - SUDWEST</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Freiburg II - FC 08 Villingen</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>76</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>22-03-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>SERIE C - GIRONE A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Giana Erminio - Triestina</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>84.5</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>22-03-2025 22:00</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>New Mexico United - El Paso Locomotive</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>80</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2.12</v>
+        <v>1.94</v>
       </c>
     </row>
   </sheetData>
@@ -1355,7 +1131,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1408,613 +1184,137 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21-03-2025 09:45</t>
+          <t>23-03-2025 00:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>VICTORIA NPL</t>
+          <t>MAJOR LEAGUE SOCCER</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Dandenong City - Heidelberg United</t>
+          <t>Orlando City SC - DC United</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F2" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H2" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21-03-2025 19:00</t>
+          <t>23-03-2025 00:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AUSTRIA</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - MITTE</t>
+          <t>MAJOR LEAGUE SOCCER</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Weiz - Deutschlandsberger SC</t>
+          <t>Philadelphia Union - St. Louis City</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>88.8</v>
+        <v>75</v>
       </c>
       <c r="F3" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="G3" t="n">
-        <v>67.5</v>
+        <v>60</v>
       </c>
       <c r="H3" t="n">
-        <v>2.25</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>19-03-2025 01:30</t>
+          <t>23-03-2025 14:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>COPA DO NORDESTE</t>
+          <t>REGIONALLIGA - NORD</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CRB - Ferroviario</t>
+          <t>Eintracht Norderstedt - SSV Jeddeloh</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>73.3</v>
+        <v>75</v>
       </c>
       <c r="F4" t="n">
-        <v>2.2</v>
+        <v>1.87</v>
       </c>
       <c r="G4" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H4" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>21-03-2025 23:00</t>
+          <t>23-03-2025 01:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MARANHENSE</t>
+          <t>LIGA PREMIER SERIE A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Maranhão - Tuntum</t>
+          <t>Gavilanes FC Matamoros - Petroleros De Salamanca</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>80</v>
+        <v>93.3</v>
       </c>
       <c r="F5" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="G5" t="n">
-        <v>42.5</v>
+        <v>66.7</v>
       </c>
       <c r="H5" t="n">
-        <v>2.88</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>21-03-2025 19:00</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>GERMANY</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>REGIONALLIGA - BAYERN</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Augsburg II - Viktoria Aschaffenburg</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="G6" t="n">
-        <v>61.3</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.45</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>21-03-2025 19:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>GERMANY</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>REGIONALLIGA - NORDOST</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>FC Rot-Weiß Erfurt - Hertha BSC II</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>82.5</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="G7" t="n">
-        <v>50</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>21-03-2025 22:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>MEXICO</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>LIGA PREMIER SERIE A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Sporting Canamy - Zacatepec 1948</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>85</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="G8" t="n">
-        <v>75</v>
-      </c>
-      <c r="H8" t="n">
         <v>2.55</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>21-03-2025 20:30</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Mérida AD - Yeclano</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>21-03-2025 13:30</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>FRIENDLIES</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Singapore - Nepal</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="G10" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>22-03-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>CZECH-REPUBLIC</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>3. LIGA - CFL B</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Ústí Nad Orlicí - Sokol Brozany</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>75</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="G11" t="n">
-        <v>70</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>22-03-2025 14:00</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>DENMARK</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2ND DIVISION - GROUP 1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Skive - Aarhus Fremad</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>80</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="G12" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>22-03-2025 14:00</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>GERMANY</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>REGIONALLIGA - BAYERN</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Vilzing - Würzburger Kickers</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>80</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="G13" t="n">
-        <v>60</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.45</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>22-03-2025 02:00</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>MEXICO</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>LIGA PREMIER SERIE B</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>FC Santiago - Calor De San Pedro</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>70</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G14" t="n">
-        <v>60</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>22-03-2025 12:00</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2. LIG</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Menemen Belediyespor - Ankara Demirspor</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>80</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="G15" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2.88</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>23-03-2025 00:30</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>MAJOR LEAGUE SOCCER</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Orlando City SC - DC United</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>85</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="G16" t="n">
-        <v>60</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2.38</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>23-03-2025 00:30</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>MAJOR LEAGUE SOCCER</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Philadelphia Union - St. Louis City</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>75</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="G17" t="n">
-        <v>60</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2.62</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>21-03-2025 02:00</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>US OPEN CUP</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Flatirons Rush - Union Omaha</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G18" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>22-03-2025 01:00</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>FRIENDLIES</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Puerto Rico - Dominican Republic</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="G19" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2.6</v>
       </c>
     </row>
   </sheetData>
@@ -2028,7 +1328,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2076,2667 +1376,1768 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21-03-2025 10:45</t>
+          <t>22-03-2025 22:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SOUTH AUSTRALIA NPL</t>
+          <t>TORNEO FEDERAL A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Adelaide Comets - Para Hills Knights</t>
+          <t>Atletico DE Rafaela - Juventud Antoniana</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>62.3</v>
+        <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21-03-2025 09:30</t>
+          <t>22-03-2025 22:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>VICTORIA NPL</t>
+          <t>PAULISTA - A3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Melbourne Knights - Melbourne Victory II</t>
+          <t>União São João - Marília</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="G3" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>21-03-2025 12:00</t>
+          <t>23-03-2025 00:20</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>COLOMBIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>WESTERN AUSTRALIA NPL</t>
+          <t>PRIMERA A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Perth - Fremantle City</t>
+          <t>Deportivo Pereira - Once Caldas</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>53.3</v>
       </c>
       <c r="F4" t="n">
-        <v>1.85</v>
+        <v>2.28</v>
       </c>
       <c r="G4" t="n">
-        <v>0.48</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>21-03-2025 19:00</t>
+          <t>22-03-2025 23:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AUSTRIA</t>
+          <t>GUATEMALA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - MITTE</t>
+          <t>LIGA NACIONAL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Wildon - SK Vorwarts Steyr</t>
+          <t>Guastatoya - Malacateco</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="F5" t="n">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="G5" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>21-03-2025 19:00</t>
+          <t>22-03-2025 23:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AUSTRIA</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - MITTE</t>
+          <t>LIGA PREMIER SERIE A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Weiz - Deutschlandsberger SC</t>
+          <t>Colima - Correcaminos UAT II</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>71.7</v>
+        <v>69</v>
       </c>
       <c r="F6" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="G6" t="n">
-        <v>0.58</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>21-03-2025 18:00</t>
+          <t>23-03-2025 00:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AUSTRIA</t>
+          <t>PARAGUAY</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - WEST</t>
+          <t>DIVISION PROFESIONAL - APERTURA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SVG Reichenau - Pinzgau Saalfelden</t>
+          <t>Olimpia - Nacional Asuncion</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>56.7</v>
+        <v>60</v>
       </c>
       <c r="F7" t="n">
         <v>1.8</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>21-03-2025 19:00</t>
+          <t>23-03-2025 00:30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CBF BRASILEIRO U20</t>
+          <t>MAJOR LEAGUE SOCCER</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Athletico PR U20 - Flamengo U20</t>
+          <t>Columbus Crew - New York City FC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>63.3</v>
+        <v>53.3</v>
       </c>
       <c r="F8" t="n">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="G8" t="n">
-        <v>0.52</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>21-03-2025 22:00</t>
+          <t>23-03-2025 00:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CHILE</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>COPA CHILE</t>
+          <t>MAJOR LEAGUE SOCCER</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Huachipato - O'Higgins</t>
+          <t>New York Red Bulls - Toronto FC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F9" t="n">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>21-03-2025 15:00</t>
+          <t>23-03-2025 20:45</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>UEFA NATIONS LEAGUE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Millwall U21 - Bristol City U21</t>
+          <t>Germany - Italy</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>63.3</v>
+        <v>56.7</v>
       </c>
       <c r="F10" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>21-03-2025 14:00</t>
+          <t>23-03-2025 18:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>UEFA NATIONS LEAGUE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Birmingham City U21 - Peterborough United U21</t>
+          <t>Hungary - Türkiye</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F11" t="n">
-        <v>2.1</v>
+        <v>2.62</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>21-03-2025 20:00</t>
+          <t>23-03-2025 00:30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>COPA ARGENTINA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Colchester United U21 - Ipswich Town U21</t>
+          <t>Central Cordoba De Santiago - Quilmes</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>56.7</v>
+        <v>66.7</v>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="G12" t="n">
-        <v>1.84</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>21-03-2025 19:30</t>
+          <t>23-03-2025 19:30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NATIONAL 1</t>
+          <t>PRIMERA B METROPOLITANA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Le Mans - Gobelins</t>
+          <t>Deportivo Armenio - Fénix</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>66.7</v>
+        <v>53.3</v>
       </c>
       <c r="F13" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="G13" t="n">
-        <v>0.19</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>21-03-2025 19:30</t>
+          <t>23-03-2025 21:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NATIONAL 1</t>
+          <t>PRIMERA NACIONAL</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Boulogne - Nimes</t>
+          <t>Club Atlético Güemes - Deportivo Maipu</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F14" t="n">
-        <v>2.17</v>
+        <v>1.97</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>21-03-2025 19:00</t>
+          <t>23-03-2025 18:45</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - NORDOST</t>
+          <t>PRIMERA NACIONAL</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FC Rot-Weiß Erfurt - Hertha BSC II</t>
+          <t>Ferro Carril Oeste - Alvarado</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>56.7</v>
+        <v>66.7</v>
       </c>
       <c r="F15" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="G15" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>21-03-2025 11:35</t>
+          <t>23-03-2025 20:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>LIGA ALEF</t>
+          <t>PRIMERA NACIONAL</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FC Jerusalem - Maccabi Yavne</t>
+          <t>Defensores De Belgrano - Talleres Remedios</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F16" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="G16" t="n">
-        <v>0.25</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>21-03-2025 22:00</t>
+          <t>23-03-2025 20:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LIGA PREMIER SERIE A</t>
+          <t>PRIMERA NACIONAL</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sporting Canamy - Zacatepec 1948</t>
+          <t>Almirante Brown - Chaco For Ever</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>86.7</v>
+        <v>60</v>
       </c>
       <c r="F17" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="G17" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>21-03-2025 15:00</t>
+          <t>23-03-2025 09:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SLOVAKIA</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2. LIGA</t>
+          <t>QUEENSLAND NPL</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Žilina II - Púchov</t>
+          <t>Olympic - Gold Coast United</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>60</v>
       </c>
       <c r="F18" t="n">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>21-03-2025 15:30</t>
+          <t>23-03-2025 08:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SLOVENIA</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2. SNL</t>
+          <t>QUEENSLAND NPL</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Bistrica - Brinje-Grosuplje</t>
+          <t>WDSC Wolves - St George Willawong</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="F19" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="G19" t="n">
-        <v>0.63</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>21-03-2025 20:30</t>
+          <t>23-03-2025 22:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+          <t>COPA CHILE</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Real Madrid II - Real Murcia</t>
+          <t>Cobreloa - Deportes Iquique</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>66.7</v>
+        <v>53.3</v>
       </c>
       <c r="F20" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="G20" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>21-03-2025 20:30</t>
+          <t>23-03-2025 23:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+          <t>COPA CHILE</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mérida AD - Yeclano</t>
+          <t>Coquimbo Unido - Cobresal</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>70</v>
+        <v>53.3</v>
       </c>
       <c r="F21" t="n">
-        <v>2.37</v>
+        <v>1.7</v>
       </c>
       <c r="G21" t="n">
-        <v>0.66</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>21-03-2025 20:45</t>
+          <t>23-03-2025 13:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>WALES</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>FIRST NL</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Haverfordwest County AFC - Penybont</t>
+          <t>Orijent 1919 - Dugopolje</t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>60</v>
       </c>
       <c r="F22" t="n">
-        <v>2.3</v>
+        <v>1.73</v>
       </c>
       <c r="G22" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>21-03-2025 20:45</t>
+          <t>23-03-2025 15:30</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>FRIENDLIES</t>
+          <t>FIRST NL</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Northern Ireland - Switzerland</t>
+          <t>Opatija - Rudes</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>53.3</v>
+        <v>55.7</v>
       </c>
       <c r="F23" t="n">
-        <v>4.33</v>
+        <v>2.05</v>
       </c>
       <c r="G23" t="n">
-        <v>1.31</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 13:30</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>REGIONALLIGA - NORD</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>AFC Wimbledon - Barrow</t>
+          <t>Teutonia Ottensen - Bremer SV</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>56.7</v>
+        <v>53.3</v>
       </c>
       <c r="F24" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="G24" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 14:00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>REGIONALLIGA - NORD</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Cheltenham - Milton Keynes Dons</t>
+          <t>Havelse - VfB Lübeck</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>51</v>
+        <v>66.7</v>
       </c>
       <c r="F25" t="n">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="G25" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 14:00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>REGIONALLIGA - NORD</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Fleetwood Town - Tranmere</t>
+          <t>Eintracht Norderstedt - SSV Jeddeloh</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="F26" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="G26" t="n">
-        <v>0.27</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 15:00</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>SERIE C - GIRONE A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Swindon Town - Accrington ST</t>
+          <t>Feralpisalo - Trento</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>51</v>
+        <v>73.3</v>
       </c>
       <c r="F27" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.03</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 05:00</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>JAPAN</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>J2 LEAGUE</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Morton - Queen's Park</t>
+          <t>Vegalta Sendai - Jubilo Iwata</t>
         </is>
       </c>
       <c r="E28" t="n">
         <v>60</v>
       </c>
       <c r="F28" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="G28" t="n">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>22-03-2025 18:30</t>
+          <t>23-03-2025 06:00</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>JAPAN</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>J2 LEAGUE</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Cove Rangers - Stenhousemuir</t>
+          <t>Montedio Yamagata - Tokushima Vortis</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>51.3</v>
+        <v>60</v>
       </c>
       <c r="F29" t="n">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="G29" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 06:00</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>JAPAN</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>J2 LEAGUE</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Stirling Albion - Peterhead</t>
+          <t>Oita Trinita - Fujieda MYFC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="F30" t="n">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="G30" t="n">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>22-03-2025 15:00</t>
+          <t>23-03-2025 06:00</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>JAPAN</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>LIGUE 2</t>
+          <t>J3 LEAGUE</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>MSP Batna - IB Khémis El Khechna</t>
+          <t>Matsumoto Yamaga - Sagamihara</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>73.3</v>
+        <v>66.7</v>
       </c>
       <c r="F31" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="G31" t="n">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>23-03-2025 00:30</t>
+          <t>23-03-2025 06:00</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>JAPAN</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>COPA ARGENTINA</t>
+          <t>J3 LEAGUE</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Central Cordoba De Santiago - Quilmes</t>
+          <t>Nara Club - Thespakusatsu Gunma</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>66.7</v>
+        <v>80</v>
       </c>
       <c r="F32" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>22-03-2025 20:00</t>
+          <t>23-03-2025 06:00</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>JAPAN</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PRIMERA NACIONAL</t>
+          <t>J3 LEAGUE</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>San Telmo - CA Estudiantes</t>
+          <t>Kagoshima United - Kitakyushu</t>
         </is>
       </c>
       <c r="E33" t="n">
         <v>60</v>
       </c>
       <c r="F33" t="n">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>22-03-2025 21:00</t>
+          <t>23-03-2025 01:00</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PRIMERA NACIONAL</t>
+          <t>LIGA PREMIER SERIE A</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Gimnasia Jujuy - Temperley</t>
+          <t>Inter Playa Del Carmen - Faraones Texcoco</t>
         </is>
       </c>
       <c r="E34" t="n">
         <v>60</v>
       </c>
       <c r="F34" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="G34" t="n">
-        <v>0.23</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>22-03-2025 09:00</t>
+          <t>23-03-2025 04:05</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NEW SOUTH WALES NPL 2</t>
+          <t>LIGA DE EXPANSIÓN MX</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Dulwich Hill - Mounties Wanderers</t>
+          <t>Dorados - CDS Tampico Madero</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F35" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="G35" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>22-03-2025 09:00</t>
+          <t>23-03-2025 19:30</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>POLAND</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NEW SOUTH WALES NPL 2</t>
+          <t>II LIGA - EAST</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Bonnyrigg White Eagles - SD Raiders</t>
+          <t>Chojniczanka Chojnice - Hutnik Kraków</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>66.7</v>
+        <v>51.7</v>
       </c>
       <c r="F36" t="n">
-        <v>4.33</v>
+        <v>1.8</v>
       </c>
       <c r="G36" t="n">
-        <v>1.89</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>22-03-2025 05:30</t>
+          <t>23-03-2025 10:30</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>SLOVAKIA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SOUTH AUSTRALIA NPL</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Playford City Patriots - Adelaide City</t>
+          <t>Šamorín - Slovan Bratislava II</t>
         </is>
       </c>
       <c r="E37" t="n">
         <v>60</v>
       </c>
       <c r="F37" t="n">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="G37" t="n">
-        <v>0.98</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>22-03-2025 05:30</t>
+          <t>23-03-2025 15:00</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>SLOVENIA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SOUTH AUSTRALIA STATE LEAGUE 1</t>
+          <t>2. SNL</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Salisbury United - Adelaide Blue Eagles</t>
+          <t>Bilje - Ilirija</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="F38" t="n">
-        <v>2.05</v>
+        <v>1.77</v>
       </c>
       <c r="G38" t="n">
-        <v>0.37</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>22-03-2025 08:00</t>
+          <t>23-03-2025 06:00</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>SOUTH-KOREA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>WESTERN AUSTRALIA NPL</t>
+          <t>FA CUP</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Perth RedStar - Armadale</t>
+          <t>Gyeongju HNP - Paju Citizen</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>53.3</v>
+        <v>65</v>
       </c>
       <c r="F39" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.01</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>22-03-2025 08:00</t>
+          <t>23-03-2025 17:00</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>WESTERN AUSTRALIA NPL</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Floreat Athena - Bayswater City</t>
+          <t>Barakaldo - Celta De Vigo II</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F40" t="n">
-        <v>2.63</v>
+        <v>1.9</v>
       </c>
       <c r="G40" t="n">
-        <v>0.58</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>22-03-2025 08:00</t>
+          <t>23-03-2025 19:30</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>WESTERN AUSTRALIA NPL</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Stirling Lions - Perth Glory II</t>
+          <t>Amorebieta - Osasuna II</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="F41" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>22-03-2025 14:30</t>
+          <t>23-03-2025 17:30</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BULGARIA</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SECOND LEAGUE</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Marek - Pirin Blagoevgrad</t>
+          <t>Ponferradina - Lugo</t>
         </is>
       </c>
       <c r="E42" t="n">
         <v>60</v>
       </c>
       <c r="F42" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="G42" t="n">
-        <v>0.26</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>22-03-2025 14:30</t>
+          <t>23-03-2025 15:30</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BULGARIA</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SECOND LEAGUE</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Botev Plovdiv II - CSKA 1948 Sofia II</t>
+          <t>Alcorcon - Villarreal II</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>63.3</v>
+        <v>60</v>
       </c>
       <c r="F43" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="G43" t="n">
-        <v>0.55</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>22-03-2025 14:30</t>
+          <t>23-03-2025 14:00</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BULGARIA</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SECOND LEAGUE</t>
+          <t>SEGUNDA DIVISIÓN</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Ludogorets II - CSKA Sofia II</t>
+          <t>Levante - Castellón</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>53.3</v>
+        <v>73.3</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="G44" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>22-03-2025 14:30</t>
+          <t>23-03-2025 17:00</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BULGARIA</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SECOND LEAGUE</t>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Nesebar - Spartak Pleven</t>
+          <t>Alfaro - Barbastro</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="F45" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="G45" t="n">
-        <v>0.37</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>23-03-2025 00:20</t>
+          <t>23-03-2025 12:00</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>PRIMERA A</t>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Deportivo Pereira - Once Caldas</t>
+          <t>Ejea - Eibar II</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F46" t="n">
-        <v>2.28</v>
+        <v>2.15</v>
       </c>
       <c r="G46" t="n">
-        <v>0.22</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>22-03-2025 01:30</t>
+          <t>23-03-2025 12:00</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PRIMERA B</t>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 3</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Popayan - Real Santander</t>
+          <t>Terrassa - Ibiza Islas Pitiusas</t>
         </is>
       </c>
       <c r="E47" t="n">
         <v>53.3</v>
       </c>
       <c r="F47" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.04</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>22-03-2025 15:30</t>
+          <t>23-03-2025 16:30</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>FIRST NL</t>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 4</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Dubrava Zagreb - Jarun</t>
+          <t>Ucam Murcia - La Unión Atlético</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F48" t="n">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="G48" t="n">
-        <v>0.23</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>22-03-2025 15:00</t>
+          <t>23-03-2025 12:00</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CZECH-REPUBLIC</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>3. LIGA - CFL B</t>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Ústí Nad Orlicí - Sokol Brozany</t>
+          <t>Unión Adarve - Tenerife II</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F49" t="n">
-        <v>2.63</v>
+        <v>2.37</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>22-03-2025 14:00</t>
+          <t>23-03-2025 14:30</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>DENMARK</t>
+          <t>SWITZERLAND</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2ND DIVISION - GROUP 1</t>
+          <t>1. LIGA PROMOTION</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Skive - Aarhus Fremad</t>
+          <t>Delémont - Bavois</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>57.7</v>
+        <v>80</v>
       </c>
       <c r="F50" t="n">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="G50" t="n">
-        <v>0.85</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>22-03-2025 20:30</t>
+          <t>23-03-2025 02:30</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>LEAGUE CUP</t>
+          <t>MAJOR LEAGUE SOCCER</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Future FC - Smouha SC</t>
+          <t>Colorado Rapids - Portland Timbers</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>51.7</v>
+        <v>60</v>
       </c>
       <c r="F51" t="n">
-        <v>2.38</v>
+        <v>1.8</v>
       </c>
       <c r="G51" t="n">
-        <v>0.23</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 03:30</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>MAJOR LEAGUE SOCCER</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Buxton - King's Lynn Town</t>
+          <t>Seattle Sounders - Houston Dynamo</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F52" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 03:30</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>MAJOR LEAGUE SOCCER</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Chorley - Alfreton Town</t>
+          <t>Vancouver Whitecaps - Chicago Fire</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>71.3</v>
+        <v>51.7</v>
       </c>
       <c r="F53" t="n">
         <v>1.91</v>
       </c>
       <c r="G53" t="n">
-        <v>0.36</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 03:00</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Leamington - South Shields</t>
+          <t>Orange County SC - Monterey Bay</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>60</v>
+        <v>55.7</v>
       </c>
       <c r="F54" t="n">
-        <v>2.3</v>
+        <v>1.76</v>
       </c>
       <c r="G54" t="n">
-        <v>0.38</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 01:15</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>URUGUAY</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>PRIMERA DIVISIÓN - APERTURA</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Eastbourne Borough - Farnborough</t>
+          <t>Defensor Sporting - Cerro Largo</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F55" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="G55" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>24-03-2025 00:00</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>URUGUAY</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>PRIMERA DIVISIÓN - APERTURA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Hemel Hempstead Town - Aveley</t>
+          <t>Wanderers - Miramar</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>53.3</v>
+        <v>73.3</v>
       </c>
       <c r="F56" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.08</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 14:00</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>URUGUAY</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>SEGUNDA DIVISIÓN</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>St Albans City - AFC Hornchurch</t>
+          <t>Albion FC - Uruguay Montevideo</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>50</v>
+        <v>62.3</v>
       </c>
       <c r="F57" t="n">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="G57" t="n">
-        <v>0.12</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 14:00</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ESTONIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ESILIIGA B</t>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Johvi Phoenix - Läänemaa Haapsalu</t>
+          <t>Eswatini - Mauritius</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F58" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="G58" t="n">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>22-03-2025 14:00</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>GERMANY</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>REGIONALLIGA - BAYERN</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Hankofen-Hailing - Nürnberg II</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
-        <v>60</v>
-      </c>
-      <c r="F59" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="G59" t="n">
-        <v>1.16</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>22-03-2025 14:00</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>GERMANY</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>REGIONALLIGA - SUDWEST</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Hessen Kassel - Göppinger SV</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>60</v>
-      </c>
-      <c r="F60" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>22-03-2025 14:00</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>GERMANY</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>REGIONALLIGA - SUDWEST</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Bahlinger SC - Hoffenheim II</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>60</v>
-      </c>
-      <c r="F61" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>22-03-2025 14:00</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>GERMANY</t>
-        </is>
-      </c>
